--- a/powerapp/data/subs_metadata.xlsx
+++ b/powerapp/data/subs_metadata.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myIjat\Job\1_Operation\Network\System_Defences\UFLS_UVLS\2025_Review\database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myIjat\Dojo\work\power_app\powerapp\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE7A3642-5682-4DEA-9744-9C3CAF7423C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5941E267-E61E-4599-9C2C-F61352503FC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{955B3BBE-6EC3-4CB4-BEB6-AB762050D1CD}"/>
+    <workbookView xWindow="1520" yWindow="1520" windowWidth="14400" windowHeight="8170" xr2:uid="{955B3BBE-6EC3-4CB4-BEB6-AB762050D1CD}"/>
   </bookViews>
   <sheets>
     <sheet name="substation" sheetId="1" r:id="rId1"/>
@@ -1985,9 +1985,6 @@
     <t>substation_name</t>
   </si>
   <si>
-    <t>geo_region</t>
-  </si>
-  <si>
     <t>gm_subzone</t>
   </si>
   <si>
@@ -2001,6 +1998,9 @@
   </si>
   <si>
     <t>North</t>
+  </si>
+  <si>
+    <t>zone</t>
   </si>
 </sst>
 </file>
@@ -2529,7 +2529,7 @@
   <dimension ref="A1:E362"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2543,10 +2543,10 @@
   <sheetData>
     <row r="1" spans="1:5" s="2" customFormat="1" ht="15.5">
       <c r="A1" s="22" t="s">
+        <v>653</v>
+      </c>
+      <c r="B1" s="22" t="s">
         <v>648</v>
-      </c>
-      <c r="B1" s="22" t="s">
-        <v>649</v>
       </c>
       <c r="C1" s="23" t="s">
         <v>647</v>
@@ -2558,7 +2558,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="10" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>0</v>
@@ -2572,7 +2572,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="10" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>0</v>
@@ -2586,7 +2586,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>3</v>
@@ -2600,7 +2600,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>3</v>
@@ -2614,7 +2614,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>3</v>
@@ -2628,7 +2628,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>3</v>
@@ -2642,7 +2642,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>3</v>
@@ -2656,7 +2656,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>3</v>
@@ -2670,7 +2670,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>3</v>
@@ -2684,7 +2684,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>3</v>
@@ -2698,7 +2698,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="10" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>0</v>
@@ -2712,7 +2712,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="10" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>0</v>
@@ -2726,7 +2726,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="10" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>14</v>
@@ -2740,7 +2740,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="10" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>14</v>
@@ -2824,7 +2824,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="10" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B21" s="10" t="s">
         <v>23</v>
@@ -2838,7 +2838,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="10" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B22" s="10" t="s">
         <v>23</v>
@@ -2852,7 +2852,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="10" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B23" s="10" t="s">
         <v>23</v>
@@ -2866,7 +2866,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="10" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B24" s="10" t="s">
         <v>23</v>
@@ -2880,7 +2880,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="10" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B25" s="10" t="s">
         <v>23</v>
@@ -2894,7 +2894,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="10" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B26" s="10" t="s">
         <v>23</v>
@@ -2908,7 +2908,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="10" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B27" s="10" t="s">
         <v>23</v>
@@ -2922,7 +2922,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="10" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B28" s="10" t="s">
         <v>23</v>
@@ -3020,7 +3020,7 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B35" s="10" t="s">
         <v>45</v>
@@ -3034,7 +3034,7 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B36" s="10" t="s">
         <v>45</v>
@@ -3048,7 +3048,7 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B37" s="10" t="s">
         <v>50</v>
@@ -3062,7 +3062,7 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B38" s="10" t="s">
         <v>3</v>
@@ -3076,7 +3076,7 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B39" s="10" t="s">
         <v>3</v>
@@ -3090,7 +3090,7 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="10" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B40" s="10" t="s">
         <v>23</v>
@@ -3104,7 +3104,7 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="10" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B41" s="10" t="s">
         <v>0</v>
@@ -3118,7 +3118,7 @@
     </row>
     <row r="42" spans="1:5" s="6" customFormat="1">
       <c r="A42" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B42" s="10" t="s">
         <v>50</v>
@@ -3133,7 +3133,7 @@
     </row>
     <row r="43" spans="1:5" s="8" customFormat="1">
       <c r="A43" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B43" s="10" t="s">
         <v>45</v>
@@ -3148,7 +3148,7 @@
     </row>
     <row r="44" spans="1:5" s="8" customFormat="1">
       <c r="A44" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B44" s="10" t="s">
         <v>45</v>
@@ -3163,7 +3163,7 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="10" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B45" s="10" t="s">
         <v>67</v>
@@ -3177,7 +3177,7 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="10" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B46" s="10" t="s">
         <v>67</v>
@@ -3191,7 +3191,7 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="10" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B47" s="10" t="s">
         <v>67</v>
@@ -3303,7 +3303,7 @@
     </row>
     <row r="55" spans="1:4" s="3" customFormat="1">
       <c r="A55" s="10" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B55" s="10" t="s">
         <v>88</v>
@@ -3317,7 +3317,7 @@
     </row>
     <row r="56" spans="1:4" s="3" customFormat="1">
       <c r="A56" s="10" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B56" s="10" t="s">
         <v>67</v>
@@ -3331,7 +3331,7 @@
     </row>
     <row r="57" spans="1:4" s="3" customFormat="1">
       <c r="A57" s="10" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B57" s="10" t="s">
         <v>67</v>
@@ -3345,7 +3345,7 @@
     </row>
     <row r="58" spans="1:4" s="3" customFormat="1">
       <c r="A58" s="10" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B58" s="10" t="s">
         <v>67</v>
@@ -3359,7 +3359,7 @@
     </row>
     <row r="59" spans="1:4" s="3" customFormat="1">
       <c r="A59" s="10" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B59" s="10" t="s">
         <v>67</v>
@@ -3401,7 +3401,7 @@
     </row>
     <row r="62" spans="1:4" s="3" customFormat="1">
       <c r="A62" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B62" s="10" t="s">
         <v>3</v>
@@ -3415,7 +3415,7 @@
     </row>
     <row r="63" spans="1:4" s="3" customFormat="1">
       <c r="A63" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B63" s="10" t="s">
         <v>3</v>
@@ -3429,7 +3429,7 @@
     </row>
     <row r="64" spans="1:4" s="3" customFormat="1">
       <c r="A64" s="10" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B64" s="10" t="s">
         <v>0</v>
@@ -3443,7 +3443,7 @@
     </row>
     <row r="65" spans="1:4" s="3" customFormat="1">
       <c r="A65" s="10" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B65" s="10" t="s">
         <v>0</v>
@@ -3457,7 +3457,7 @@
     </row>
     <row r="66" spans="1:4" s="3" customFormat="1">
       <c r="A66" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B66" s="10" t="s">
         <v>45</v>
@@ -3513,7 +3513,7 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="10" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B70" s="10" t="s">
         <v>118</v>
@@ -3527,7 +3527,7 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B71" s="10" t="s">
         <v>121</v>
@@ -3541,7 +3541,7 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="10" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B72" s="10" t="s">
         <v>23</v>
@@ -3555,7 +3555,7 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="10" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B73" s="10" t="s">
         <v>23</v>
@@ -3569,7 +3569,7 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B74" s="10" t="s">
         <v>50</v>
@@ -3583,7 +3583,7 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="10" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B75" s="10" t="s">
         <v>118</v>
@@ -3597,7 +3597,7 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B76" s="10" t="s">
         <v>50</v>
@@ -3667,7 +3667,7 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="10" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B81" s="10" t="s">
         <v>0</v>
@@ -3681,7 +3681,7 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="10" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B82" s="10" t="s">
         <v>0</v>
@@ -3695,7 +3695,7 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="10" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B83" s="10" t="s">
         <v>23</v>
@@ -3709,7 +3709,7 @@
     </row>
     <row r="84" spans="1:5" s="8" customFormat="1">
       <c r="A84" s="10" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B84" s="10" t="s">
         <v>23</v>
@@ -3767,7 +3767,7 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="10" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B88" s="10" t="s">
         <v>118</v>
@@ -3795,7 +3795,7 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B90" s="10" t="s">
         <v>121</v>
@@ -3879,7 +3879,7 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B96" s="10" t="s">
         <v>45</v>
@@ -3893,7 +3893,7 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="10" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B97" s="10" t="s">
         <v>0</v>
@@ -3907,7 +3907,7 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="10" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B98" s="10" t="s">
         <v>88</v>
@@ -3951,7 +3951,7 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B101" s="10" t="s">
         <v>50</v>
@@ -3965,7 +3965,7 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B102" s="10" t="s">
         <v>50</v>
@@ -3979,7 +3979,7 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B103" s="10" t="s">
         <v>50</v>
@@ -3993,7 +3993,7 @@
     </row>
     <row r="104" spans="1:5" s="8" customFormat="1">
       <c r="A104" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B104" s="10" t="s">
         <v>50</v>
@@ -4008,7 +4008,7 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B105" s="10" t="s">
         <v>45</v>
@@ -4022,7 +4022,7 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B106" s="10" t="s">
         <v>45</v>
@@ -4036,7 +4036,7 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B107" s="10" t="s">
         <v>45</v>
@@ -4050,7 +4050,7 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B108" s="10" t="s">
         <v>45</v>
@@ -4064,7 +4064,7 @@
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B109" s="10" t="s">
         <v>45</v>
@@ -4078,7 +4078,7 @@
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B110" s="10" t="s">
         <v>45</v>
@@ -4092,7 +4092,7 @@
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B111" s="10" t="s">
         <v>45</v>
@@ -4106,7 +4106,7 @@
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="10" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B112" s="10" t="s">
         <v>0</v>
@@ -4120,7 +4120,7 @@
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="10" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B113" s="10" t="s">
         <v>0</v>
@@ -4134,7 +4134,7 @@
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="10" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B114" s="10" t="s">
         <v>0</v>
@@ -4148,7 +4148,7 @@
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="10" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B115" s="10" t="s">
         <v>0</v>
@@ -4162,7 +4162,7 @@
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="10" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B116" s="10" t="s">
         <v>0</v>
@@ -4176,7 +4176,7 @@
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="10" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B117" s="10" t="s">
         <v>0</v>
@@ -4190,7 +4190,7 @@
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="10" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B118" s="10" t="s">
         <v>0</v>
@@ -4204,7 +4204,7 @@
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="10" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B119" s="10" t="s">
         <v>23</v>
@@ -4218,7 +4218,7 @@
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="10" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B120" s="10" t="s">
         <v>23</v>
@@ -4232,7 +4232,7 @@
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="10" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B121" s="10" t="s">
         <v>23</v>
@@ -4246,7 +4246,7 @@
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="10" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B122" s="10" t="s">
         <v>67</v>
@@ -4260,7 +4260,7 @@
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="10" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B123" s="10" t="s">
         <v>67</v>
@@ -4302,7 +4302,7 @@
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B126" s="10" t="s">
         <v>121</v>
@@ -4316,7 +4316,7 @@
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B127" s="10" t="s">
         <v>121</v>
@@ -4330,7 +4330,7 @@
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B128" s="10" t="s">
         <v>121</v>
@@ -4344,7 +4344,7 @@
     </row>
     <row r="129" spans="1:5">
       <c r="A129" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B129" s="10" t="s">
         <v>121</v>
@@ -4358,7 +4358,7 @@
     </row>
     <row r="130" spans="1:5" s="8" customFormat="1">
       <c r="A130" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B130" s="10" t="s">
         <v>50</v>
@@ -4373,7 +4373,7 @@
     </row>
     <row r="131" spans="1:5">
       <c r="A131" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B131" s="10" t="s">
         <v>50</v>
@@ -4387,7 +4387,7 @@
     </row>
     <row r="132" spans="1:5">
       <c r="A132" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B132" s="10" t="s">
         <v>50</v>
@@ -4401,7 +4401,7 @@
     </row>
     <row r="133" spans="1:5">
       <c r="A133" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B133" s="10" t="s">
         <v>50</v>
@@ -4415,7 +4415,7 @@
     </row>
     <row r="134" spans="1:5">
       <c r="A134" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B134" s="10" t="s">
         <v>45</v>
@@ -4429,7 +4429,7 @@
     </row>
     <row r="135" spans="1:5">
       <c r="A135" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B135" s="10" t="s">
         <v>45</v>
@@ -4443,7 +4443,7 @@
     </row>
     <row r="136" spans="1:5">
       <c r="A136" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B136" s="10" t="s">
         <v>45</v>
@@ -4457,7 +4457,7 @@
     </row>
     <row r="137" spans="1:5">
       <c r="A137" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B137" s="10" t="s">
         <v>45</v>
@@ -4471,7 +4471,7 @@
     </row>
     <row r="138" spans="1:5">
       <c r="A138" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B138" s="10" t="s">
         <v>45</v>
@@ -4485,7 +4485,7 @@
     </row>
     <row r="139" spans="1:5">
       <c r="A139" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B139" s="10" t="s">
         <v>45</v>
@@ -4499,7 +4499,7 @@
     </row>
     <row r="140" spans="1:5">
       <c r="A140" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B140" s="10" t="s">
         <v>45</v>
@@ -4513,7 +4513,7 @@
     </row>
     <row r="141" spans="1:5">
       <c r="A141" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B141" s="10" t="s">
         <v>50</v>
@@ -4527,7 +4527,7 @@
     </row>
     <row r="142" spans="1:5">
       <c r="A142" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B142" s="10" t="s">
         <v>50</v>
@@ -4541,7 +4541,7 @@
     </row>
     <row r="143" spans="1:5">
       <c r="A143" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B143" s="10" t="s">
         <v>50</v>
@@ -4555,7 +4555,7 @@
     </row>
     <row r="144" spans="1:5" ht="14.5" customHeight="1">
       <c r="A144" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B144" s="10" t="s">
         <v>50</v>
@@ -4569,7 +4569,7 @@
     </row>
     <row r="145" spans="1:5" ht="14.5" customHeight="1">
       <c r="A145" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B145" s="10" t="s">
         <v>50</v>
@@ -4583,7 +4583,7 @@
     </row>
     <row r="146" spans="1:5" ht="14.5" customHeight="1">
       <c r="A146" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B146" s="10" t="s">
         <v>50</v>
@@ -4597,7 +4597,7 @@
     </row>
     <row r="147" spans="1:5" ht="14.5" customHeight="1">
       <c r="A147" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B147" s="18" t="s">
         <v>50</v>
@@ -4639,7 +4639,7 @@
     </row>
     <row r="150" spans="1:5" ht="14.5" customHeight="1">
       <c r="A150" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B150" s="10" t="s">
         <v>50</v>
@@ -4653,7 +4653,7 @@
     </row>
     <row r="151" spans="1:5" ht="14.5" customHeight="1">
       <c r="A151" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B151" s="10" t="s">
         <v>3</v>
@@ -4667,7 +4667,7 @@
     </row>
     <row r="152" spans="1:5" ht="14.5" customHeight="1">
       <c r="A152" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B152" s="10" t="s">
         <v>3</v>
@@ -4681,7 +4681,7 @@
     </row>
     <row r="153" spans="1:5" ht="14.5" customHeight="1">
       <c r="A153" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B153" s="10" t="s">
         <v>3</v>
@@ -4695,7 +4695,7 @@
     </row>
     <row r="154" spans="1:5">
       <c r="A154" s="10" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B154" s="10" t="s">
         <v>0</v>
@@ -4709,7 +4709,7 @@
     </row>
     <row r="155" spans="1:5">
       <c r="A155" s="10" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B155" s="10" t="s">
         <v>0</v>
@@ -4723,7 +4723,7 @@
     </row>
     <row r="156" spans="1:5">
       <c r="A156" s="10" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B156" s="10" t="s">
         <v>0</v>
@@ -4737,7 +4737,7 @@
     </row>
     <row r="157" spans="1:5">
       <c r="A157" s="10" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B157" s="10" t="s">
         <v>0</v>
@@ -4751,7 +4751,7 @@
     </row>
     <row r="158" spans="1:5">
       <c r="A158" s="10" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B158" s="10" t="s">
         <v>0</v>
@@ -4765,7 +4765,7 @@
     </row>
     <row r="159" spans="1:5" s="8" customFormat="1">
       <c r="A159" s="10" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B159" s="10" t="s">
         <v>23</v>
@@ -4780,7 +4780,7 @@
     </row>
     <row r="160" spans="1:5" s="21" customFormat="1" ht="14" customHeight="1">
       <c r="A160" s="10" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B160" s="10" t="s">
         <v>23</v>
@@ -4795,7 +4795,7 @@
     </row>
     <row r="161" spans="1:5" s="8" customFormat="1">
       <c r="A161" s="10" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B161" s="10" t="s">
         <v>23</v>
@@ -4804,13 +4804,13 @@
         <v>232</v>
       </c>
       <c r="D161" s="11" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E161" s="7"/>
     </row>
     <row r="162" spans="1:5">
       <c r="A162" s="10" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B162" s="10" t="s">
         <v>88</v>
@@ -4895,7 +4895,7 @@
     </row>
     <row r="168" spans="1:5">
       <c r="A168" s="10" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B168" s="10" t="s">
         <v>14</v>
@@ -4909,7 +4909,7 @@
     </row>
     <row r="169" spans="1:5">
       <c r="A169" s="10" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B169" s="10" t="s">
         <v>14</v>
@@ -4923,7 +4923,7 @@
     </row>
     <row r="170" spans="1:5">
       <c r="A170" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B170" s="10" t="s">
         <v>121</v>
@@ -4937,7 +4937,7 @@
     </row>
     <row r="171" spans="1:5">
       <c r="A171" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B171" s="10" t="s">
         <v>3</v>
@@ -4951,7 +4951,7 @@
     </row>
     <row r="172" spans="1:5">
       <c r="A172" s="10" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B172" s="10" t="s">
         <v>14</v>
@@ -4965,7 +4965,7 @@
     </row>
     <row r="173" spans="1:5">
       <c r="A173" s="10" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B173" s="10" t="s">
         <v>14</v>
@@ -4979,7 +4979,7 @@
     </row>
     <row r="174" spans="1:5">
       <c r="A174" s="10" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B174" s="10" t="s">
         <v>88</v>
@@ -4993,7 +4993,7 @@
     </row>
     <row r="175" spans="1:5">
       <c r="A175" s="10" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B175" s="10" t="s">
         <v>23</v>
@@ -5007,7 +5007,7 @@
     </row>
     <row r="176" spans="1:5">
       <c r="A176" s="10" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B176" s="10" t="s">
         <v>23</v>
@@ -5079,7 +5079,7 @@
     </row>
     <row r="181" spans="1:5" s="8" customFormat="1">
       <c r="A181" s="10" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B181" s="10" t="s">
         <v>118</v>
@@ -5094,7 +5094,7 @@
     </row>
     <row r="182" spans="1:5">
       <c r="A182" s="10" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B182" s="10" t="s">
         <v>118</v>
@@ -5108,7 +5108,7 @@
     </row>
     <row r="183" spans="1:5">
       <c r="A183" s="10" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B183" s="10" t="s">
         <v>118</v>
@@ -5122,7 +5122,7 @@
     </row>
     <row r="184" spans="1:5">
       <c r="A184" s="10" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B184" s="10" t="s">
         <v>118</v>
@@ -5136,7 +5136,7 @@
     </row>
     <row r="185" spans="1:5">
       <c r="A185" s="10" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B185" s="10" t="s">
         <v>118</v>
@@ -5150,7 +5150,7 @@
     </row>
     <row r="186" spans="1:5">
       <c r="A186" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B186" s="10" t="s">
         <v>50</v>
@@ -5164,7 +5164,7 @@
     </row>
     <row r="187" spans="1:5">
       <c r="A187" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B187" s="10" t="s">
         <v>50</v>
@@ -5178,7 +5178,7 @@
     </row>
     <row r="188" spans="1:5">
       <c r="A188" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B188" s="10" t="s">
         <v>50</v>
@@ -5192,7 +5192,7 @@
     </row>
     <row r="189" spans="1:5">
       <c r="A189" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B189" s="10" t="s">
         <v>50</v>
@@ -5206,7 +5206,7 @@
     </row>
     <row r="190" spans="1:5">
       <c r="A190" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B190" s="10" t="s">
         <v>50</v>
@@ -5220,7 +5220,7 @@
     </row>
     <row r="191" spans="1:5">
       <c r="A191" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B191" s="10" t="s">
         <v>50</v>
@@ -5234,7 +5234,7 @@
     </row>
     <row r="192" spans="1:5">
       <c r="A192" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B192" s="10" t="s">
         <v>50</v>
@@ -5248,7 +5248,7 @@
     </row>
     <row r="193" spans="1:5">
       <c r="A193" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B193" s="10" t="s">
         <v>50</v>
@@ -5262,7 +5262,7 @@
     </row>
     <row r="194" spans="1:5">
       <c r="A194" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B194" s="10" t="s">
         <v>50</v>
@@ -5276,7 +5276,7 @@
     </row>
     <row r="195" spans="1:5" s="8" customFormat="1">
       <c r="A195" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B195" s="10" t="s">
         <v>50</v>
@@ -5291,7 +5291,7 @@
     </row>
     <row r="196" spans="1:5">
       <c r="A196" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B196" s="10" t="s">
         <v>50</v>
@@ -5305,7 +5305,7 @@
     </row>
     <row r="197" spans="1:5">
       <c r="A197" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B197" s="10" t="s">
         <v>50</v>
@@ -5319,7 +5319,7 @@
     </row>
     <row r="198" spans="1:5">
       <c r="A198" s="10" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B198" s="10" t="s">
         <v>14</v>
@@ -5333,7 +5333,7 @@
     </row>
     <row r="199" spans="1:5">
       <c r="A199" s="10" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B199" s="10" t="s">
         <v>14</v>
@@ -5347,7 +5347,7 @@
     </row>
     <row r="200" spans="1:5">
       <c r="A200" s="10" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B200" s="10" t="s">
         <v>14</v>
@@ -5361,7 +5361,7 @@
     </row>
     <row r="201" spans="1:5" ht="14.5" customHeight="1">
       <c r="A201" s="10" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B201" s="10" t="s">
         <v>14</v>
@@ -5375,7 +5375,7 @@
     </row>
     <row r="202" spans="1:5" ht="14.5" customHeight="1">
       <c r="A202" s="10" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B202" s="10" t="s">
         <v>14</v>
@@ -5389,7 +5389,7 @@
     </row>
     <row r="203" spans="1:5" ht="14.5" customHeight="1">
       <c r="A203" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B203" s="10" t="s">
         <v>121</v>
@@ -5403,7 +5403,7 @@
     </row>
     <row r="204" spans="1:5" ht="14.5" customHeight="1">
       <c r="A204" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B204" s="10" t="s">
         <v>3</v>
@@ -5417,7 +5417,7 @@
     </row>
     <row r="205" spans="1:5" ht="14.5" customHeight="1">
       <c r="A205" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B205" s="10" t="s">
         <v>3</v>
@@ -5431,7 +5431,7 @@
     </row>
     <row r="206" spans="1:5" ht="14.5" customHeight="1">
       <c r="A206" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B206" s="10" t="s">
         <v>3</v>
@@ -5445,7 +5445,7 @@
     </row>
     <row r="207" spans="1:5">
       <c r="A207" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B207" s="10" t="s">
         <v>3</v>
@@ -5459,7 +5459,7 @@
     </row>
     <row r="208" spans="1:5">
       <c r="A208" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B208" s="10" t="s">
         <v>3</v>
@@ -5473,7 +5473,7 @@
     </row>
     <row r="209" spans="1:5">
       <c r="A209" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B209" s="10" t="s">
         <v>3</v>
@@ -5529,7 +5529,7 @@
     </row>
     <row r="213" spans="1:5">
       <c r="A213" s="10" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B213" s="10" t="s">
         <v>23</v>
@@ -5543,7 +5543,7 @@
     </row>
     <row r="214" spans="1:5">
       <c r="A214" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B214" s="10" t="s">
         <v>3</v>
@@ -5557,7 +5557,7 @@
     </row>
     <row r="215" spans="1:5">
       <c r="A215" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B215" s="10" t="s">
         <v>121</v>
@@ -5571,7 +5571,7 @@
     </row>
     <row r="216" spans="1:5">
       <c r="A216" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B216" s="10" t="s">
         <v>121</v>
@@ -5585,7 +5585,7 @@
     </row>
     <row r="217" spans="1:5" s="8" customFormat="1">
       <c r="A217" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B217" s="10" t="s">
         <v>121</v>
@@ -5600,7 +5600,7 @@
     </row>
     <row r="218" spans="1:5" s="8" customFormat="1">
       <c r="A218" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B218" s="10" t="s">
         <v>121</v>
@@ -5645,7 +5645,7 @@
     </row>
     <row r="221" spans="1:5">
       <c r="A221" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B221" s="10" t="s">
         <v>45</v>
@@ -5659,7 +5659,7 @@
     </row>
     <row r="222" spans="1:5">
       <c r="A222" s="10" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B222" s="10" t="s">
         <v>88</v>
@@ -5673,7 +5673,7 @@
     </row>
     <row r="223" spans="1:5">
       <c r="A223" s="10" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B223" s="10" t="s">
         <v>88</v>
@@ -5687,7 +5687,7 @@
     </row>
     <row r="224" spans="1:5">
       <c r="A224" s="10" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B224" s="10" t="s">
         <v>88</v>
@@ -5701,7 +5701,7 @@
     </row>
     <row r="225" spans="1:4">
       <c r="A225" s="10" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B225" s="10" t="s">
         <v>88</v>
@@ -5715,7 +5715,7 @@
     </row>
     <row r="226" spans="1:4">
       <c r="A226" s="10" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B226" s="10" t="s">
         <v>88</v>
@@ -5771,7 +5771,7 @@
     </row>
     <row r="230" spans="1:4">
       <c r="A230" s="10" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B230" s="10" t="s">
         <v>23</v>
@@ -5785,7 +5785,7 @@
     </row>
     <row r="231" spans="1:4">
       <c r="A231" s="10" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B231" s="10" t="s">
         <v>23</v>
@@ -5799,7 +5799,7 @@
     </row>
     <row r="232" spans="1:4">
       <c r="A232" s="10" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B232" s="10" t="s">
         <v>23</v>
@@ -5813,7 +5813,7 @@
     </row>
     <row r="233" spans="1:4">
       <c r="A233" s="10" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B233" s="10" t="s">
         <v>23</v>
@@ -5827,7 +5827,7 @@
     </row>
     <row r="234" spans="1:4">
       <c r="A234" s="10" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B234" s="10" t="s">
         <v>23</v>
@@ -5841,7 +5841,7 @@
     </row>
     <row r="235" spans="1:4">
       <c r="A235" s="10" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B235" s="10" t="s">
         <v>23</v>
@@ -5855,7 +5855,7 @@
     </row>
     <row r="236" spans="1:4">
       <c r="A236" s="10" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B236" s="10" t="s">
         <v>23</v>
@@ -5869,7 +5869,7 @@
     </row>
     <row r="237" spans="1:4">
       <c r="A237" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B237" s="10" t="s">
         <v>45</v>
@@ -5883,7 +5883,7 @@
     </row>
     <row r="238" spans="1:4">
       <c r="A238" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B238" s="10" t="s">
         <v>45</v>
@@ -5897,7 +5897,7 @@
     </row>
     <row r="239" spans="1:4">
       <c r="A239" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B239" s="10" t="s">
         <v>45</v>
@@ -5939,7 +5939,7 @@
     </row>
     <row r="242" spans="1:5">
       <c r="A242" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B242" s="10" t="s">
         <v>45</v>
@@ -5995,7 +5995,7 @@
     </row>
     <row r="246" spans="1:5">
       <c r="A246" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B246" s="10" t="s">
         <v>3</v>
@@ -6009,7 +6009,7 @@
     </row>
     <row r="247" spans="1:5">
       <c r="A247" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B247" s="10" t="s">
         <v>3</v>
@@ -6023,7 +6023,7 @@
     </row>
     <row r="248" spans="1:5">
       <c r="A248" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B248" s="10" t="s">
         <v>3</v>
@@ -6037,7 +6037,7 @@
     </row>
     <row r="249" spans="1:5">
       <c r="A249" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B249" s="10" t="s">
         <v>3</v>
@@ -6051,7 +6051,7 @@
     </row>
     <row r="250" spans="1:5" s="8" customFormat="1">
       <c r="A250" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B250" s="10" t="s">
         <v>3</v>
@@ -6066,7 +6066,7 @@
     </row>
     <row r="251" spans="1:5">
       <c r="A251" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B251" s="10" t="s">
         <v>121</v>
@@ -6080,7 +6080,7 @@
     </row>
     <row r="252" spans="1:5">
       <c r="A252" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B252" s="10" t="s">
         <v>121</v>
@@ -6094,7 +6094,7 @@
     </row>
     <row r="253" spans="1:5">
       <c r="A253" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B253" s="10" t="s">
         <v>121</v>
@@ -6108,7 +6108,7 @@
     </row>
     <row r="254" spans="1:5">
       <c r="A254" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B254" s="10" t="s">
         <v>121</v>
@@ -6122,7 +6122,7 @@
     </row>
     <row r="255" spans="1:5">
       <c r="A255" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B255" s="10" t="s">
         <v>121</v>
@@ -6136,7 +6136,7 @@
     </row>
     <row r="256" spans="1:5" s="8" customFormat="1">
       <c r="A256" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B256" s="10" t="s">
         <v>121</v>
@@ -6151,7 +6151,7 @@
     </row>
     <row r="257" spans="1:5">
       <c r="A257" s="10" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B257" s="10" t="s">
         <v>67</v>
@@ -6193,7 +6193,7 @@
     </row>
     <row r="260" spans="1:5">
       <c r="A260" s="10" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B260" s="10" t="s">
         <v>23</v>
@@ -6207,7 +6207,7 @@
     </row>
     <row r="261" spans="1:5">
       <c r="A261" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B261" s="10" t="s">
         <v>45</v>
@@ -6221,7 +6221,7 @@
     </row>
     <row r="262" spans="1:5">
       <c r="A262" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B262" s="10" t="s">
         <v>3</v>
@@ -6235,7 +6235,7 @@
     </row>
     <row r="263" spans="1:5">
       <c r="A263" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B263" s="10" t="s">
         <v>3</v>
@@ -6249,7 +6249,7 @@
     </row>
     <row r="264" spans="1:5">
       <c r="A264" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B264" s="10" t="s">
         <v>121</v>
@@ -6263,7 +6263,7 @@
     </row>
     <row r="265" spans="1:5">
       <c r="A265" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B265" s="10" t="s">
         <v>121</v>
@@ -6277,7 +6277,7 @@
     </row>
     <row r="266" spans="1:5">
       <c r="A266" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B266" s="10" t="s">
         <v>121</v>
@@ -6291,7 +6291,7 @@
     </row>
     <row r="267" spans="1:5">
       <c r="A267" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B267" s="10" t="s">
         <v>121</v>
@@ -6305,7 +6305,7 @@
     </row>
     <row r="268" spans="1:5">
       <c r="A268" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B268" s="10" t="s">
         <v>121</v>
@@ -6319,7 +6319,7 @@
     </row>
     <row r="269" spans="1:5">
       <c r="A269" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B269" s="10" t="s">
         <v>50</v>
@@ -6333,7 +6333,7 @@
     </row>
     <row r="270" spans="1:5" s="8" customFormat="1">
       <c r="A270" s="10" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B270" s="10" t="s">
         <v>0</v>
@@ -6348,7 +6348,7 @@
     </row>
     <row r="271" spans="1:5" s="8" customFormat="1">
       <c r="A271" s="10" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B271" s="10" t="s">
         <v>14</v>
@@ -6363,7 +6363,7 @@
     </row>
     <row r="272" spans="1:5" s="8" customFormat="1">
       <c r="A272" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B272" s="10" t="s">
         <v>121</v>
@@ -6378,7 +6378,7 @@
     </row>
     <row r="273" spans="1:5" s="8" customFormat="1">
       <c r="A273" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B273" s="10" t="s">
         <v>3</v>
@@ -6393,7 +6393,7 @@
     </row>
     <row r="274" spans="1:5" s="8" customFormat="1">
       <c r="A274" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B274" s="10" t="s">
         <v>50</v>
@@ -6422,7 +6422,7 @@
     </row>
     <row r="276" spans="1:5">
       <c r="A276" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B276" s="10" t="s">
         <v>3</v>
@@ -6450,7 +6450,7 @@
     </row>
     <row r="278" spans="1:5">
       <c r="A278" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B278" s="10" t="s">
         <v>121</v>
@@ -6492,7 +6492,7 @@
     </row>
     <row r="281" spans="1:5">
       <c r="A281" s="10" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B281" s="10" t="s">
         <v>88</v>
@@ -6506,7 +6506,7 @@
     </row>
     <row r="282" spans="1:5">
       <c r="A282" s="10" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B282" s="10" t="s">
         <v>67</v>
@@ -6562,7 +6562,7 @@
     </row>
     <row r="286" spans="1:5">
       <c r="A286" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B286" s="10" t="s">
         <v>3</v>
@@ -6590,7 +6590,7 @@
     </row>
     <row r="288" spans="1:5">
       <c r="A288" s="10" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B288" s="10" t="s">
         <v>23</v>
@@ -6604,7 +6604,7 @@
     </row>
     <row r="289" spans="1:4" s="3" customFormat="1">
       <c r="A289" s="10" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B289" s="10" t="s">
         <v>0</v>
@@ -6618,7 +6618,7 @@
     </row>
     <row r="290" spans="1:4" s="3" customFormat="1">
       <c r="A290" s="10" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B290" s="10" t="s">
         <v>23</v>
@@ -6632,7 +6632,7 @@
     </row>
     <row r="291" spans="1:4" s="3" customFormat="1">
       <c r="A291" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B291" s="10" t="s">
         <v>3</v>
@@ -6646,7 +6646,7 @@
     </row>
     <row r="292" spans="1:4" s="3" customFormat="1" ht="14.5" customHeight="1">
       <c r="A292" s="10" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B292" s="10" t="s">
         <v>14</v>
@@ -6660,7 +6660,7 @@
     </row>
     <row r="293" spans="1:4" s="3" customFormat="1" ht="14.5" customHeight="1">
       <c r="A293" s="10" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B293" s="10" t="s">
         <v>23</v>
@@ -6688,7 +6688,7 @@
     </row>
     <row r="295" spans="1:4" s="3" customFormat="1" ht="14.5" customHeight="1">
       <c r="A295" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B295" s="10" t="s">
         <v>45</v>
@@ -6730,7 +6730,7 @@
     </row>
     <row r="298" spans="1:4" s="3" customFormat="1">
       <c r="A298" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B298" s="10" t="s">
         <v>3</v>
@@ -6758,7 +6758,7 @@
     </row>
     <row r="300" spans="1:4" s="3" customFormat="1">
       <c r="A300" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B300" s="10" t="s">
         <v>50</v>
@@ -6772,7 +6772,7 @@
     </row>
     <row r="301" spans="1:4" s="3" customFormat="1">
       <c r="A301" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B301" s="10" t="s">
         <v>3</v>
@@ -6786,7 +6786,7 @@
     </row>
     <row r="302" spans="1:4" s="3" customFormat="1">
       <c r="A302" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B302" s="10" t="s">
         <v>3</v>
@@ -6814,7 +6814,7 @@
     </row>
     <row r="304" spans="1:4" s="3" customFormat="1">
       <c r="A304" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B304" s="10" t="s">
         <v>3</v>
@@ -6828,7 +6828,7 @@
     </row>
     <row r="305" spans="1:5" s="3" customFormat="1">
       <c r="A305" s="10" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B305" s="10" t="s">
         <v>67</v>
@@ -6842,7 +6842,7 @@
     </row>
     <row r="306" spans="1:5" s="3" customFormat="1">
       <c r="A306" s="10" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B306" s="10" t="s">
         <v>23</v>
@@ -6856,7 +6856,7 @@
     </row>
     <row r="307" spans="1:5" s="3" customFormat="1">
       <c r="A307" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B307" s="10" t="s">
         <v>3</v>
@@ -6870,7 +6870,7 @@
     </row>
     <row r="308" spans="1:5" s="3" customFormat="1">
       <c r="A308" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B308" s="10" t="s">
         <v>50</v>
@@ -6899,7 +6899,7 @@
     </row>
     <row r="310" spans="1:5" s="5" customFormat="1">
       <c r="A310" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B310" s="10" t="s">
         <v>45</v>
@@ -6914,7 +6914,7 @@
     </row>
     <row r="311" spans="1:5" s="5" customFormat="1">
       <c r="A311" s="10" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B311" s="10" t="s">
         <v>67</v>
@@ -7034,7 +7034,7 @@
     </row>
     <row r="319" spans="1:5" s="5" customFormat="1">
       <c r="A319" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B319" s="10" t="s">
         <v>50</v>

--- a/powerapp/data/subs_metadata.xlsx
+++ b/powerapp/data/subs_metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myIjat\Dojo\work\power_app\powerapp\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/externalDrive/code-gym/work/powerapp/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F22C3C24-0E49-441C-8B90-9D17A6DC6A4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BFAAE63-BD50-D24B-B958-44E95D63C892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="1520" windowWidth="14400" windowHeight="8170" xr2:uid="{955B3BBE-6EC3-4CB4-BEB6-AB762050D1CD}"/>
+    <workbookView xWindow="34380" yWindow="620" windowWidth="34400" windowHeight="26380" xr2:uid="{955B3BBE-6EC3-4CB4-BEB6-AB762050D1CD}"/>
   </bookViews>
   <sheets>
     <sheet name="substation" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="648">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="652">
   <si>
     <t>East-Kuantan</t>
   </si>
@@ -1983,13 +1983,25 @@
   </si>
   <si>
     <t>BKWS</t>
+  </si>
+  <si>
+    <t>Hualon</t>
+  </si>
+  <si>
+    <t>HLNN</t>
+  </si>
+  <si>
+    <t>Teluk Apau</t>
+  </si>
+  <si>
+    <t>TPAU</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2090,7 +2102,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -2098,82 +2110,70 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2508,3835 +2508,4336 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC278235-0322-4A5E-A642-ABE48087B759}">
-  <dimension ref="A1:D361"/>
+  <dimension ref="A1:D524"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B332" sqref="B332"/>
+    <sheetView tabSelected="1" topLeftCell="A273" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C330" sqref="C330"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17" style="17" customWidth="1"/>
-    <col min="2" max="2" width="32.25" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" style="13" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" style="3"/>
-    <col min="5" max="16384" width="8.6640625" style="4"/>
+    <col min="1" max="1" width="17" style="6" customWidth="1"/>
+    <col min="2" max="2" width="32.1640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" style="8"/>
+    <col min="5" max="16384" width="8.6640625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" ht="15.5">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:4" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="2" t="s">
         <v>645</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="3" t="s">
         <v>644</v>
       </c>
-      <c r="D1" s="1"/>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="10" t="s">
+      <c r="D1" s="4"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="10" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="6" t="s">
         <v>602</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="7" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="10" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="10" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="6" t="s">
         <v>603</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="7" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="10" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="10" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="6" t="s">
         <v>605</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="7" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="10" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="10" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="6" t="s">
         <v>609</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="7" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="10" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="10" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="6" t="s">
         <v>619</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="7" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="10" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="6" t="s">
         <v>620</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="7" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="10" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="10" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="6" t="s">
         <v>621</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="7" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="10" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="10" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="6" t="s">
         <v>612</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="7" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="10" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="10" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="6" t="s">
         <v>622</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="7" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="10" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="6" t="s">
         <v>623</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="7" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="10" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="10" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="6" t="s">
         <v>624</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="7" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="10" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="10" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="6" t="s">
         <v>625</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="7" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="10" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C24" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="10" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="6" t="s">
         <v>626</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C25" s="7" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="10" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="10" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="6" t="s">
         <v>617</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="7" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="10" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C28" s="7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="10" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="C29" s="7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="10" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="C30" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="10" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="C31" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="10" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="C32" s="7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="10" t="s">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="11" t="s">
+      <c r="C33" s="7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="10" t="s">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="C34" s="7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="10" t="s">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="C35" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="10" t="s">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="B36" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="C36" s="7" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="10" t="s">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="B37" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C37" s="11" t="s">
+      <c r="C37" s="7" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="10" t="s">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="B38" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C38" s="11" t="s">
+      <c r="C38" s="7" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="10" t="s">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B39" s="10" t="s">
+      <c r="B39" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C39" s="11" t="s">
+      <c r="C39" s="7" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="10" t="s">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B40" s="10" t="s">
+      <c r="B40" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C40" s="11" t="s">
+      <c r="C40" s="7" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="41" spans="1:4" s="6" customFormat="1">
-      <c r="A41" s="10" t="s">
+    <row r="41" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B41" s="10" t="s">
+      <c r="B41" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C41" s="11" t="s">
+      <c r="C41" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D41" s="5"/>
-    </row>
-    <row r="42" spans="1:4" s="8" customFormat="1">
-      <c r="A42" s="10" t="s">
+      <c r="D41" s="10"/>
+    </row>
+    <row r="42" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B42" s="10" t="s">
+      <c r="B42" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C42" s="11" t="s">
+      <c r="C42" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="D42" s="7"/>
-    </row>
-    <row r="43" spans="1:4" s="8" customFormat="1">
-      <c r="A43" s="10" t="s">
+      <c r="D42" s="12"/>
+    </row>
+    <row r="43" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B43" s="10" t="s">
+      <c r="B43" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C43" s="11" t="s">
+      <c r="C43" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="D43" s="7"/>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="10" t="s">
+      <c r="D43" s="12"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B44" s="10" t="s">
+      <c r="B44" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C44" s="11" t="s">
+      <c r="C44" s="7" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="10" t="s">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B45" s="10" t="s">
+      <c r="B45" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C45" s="11" t="s">
+      <c r="C45" s="7" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="10" t="s">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B46" s="10" t="s">
+      <c r="B46" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C46" s="11" t="s">
+      <c r="C46" s="7" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="10" t="s">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B47" s="10" t="s">
+      <c r="B47" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C47" s="11" t="s">
+      <c r="C47" s="7" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="10" t="s">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B48" s="10" t="s">
+      <c r="B48" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C48" s="11" t="s">
+      <c r="C48" s="7" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="10" t="s">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B49" s="10" t="s">
+      <c r="B49" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C49" s="11" t="s">
+      <c r="C49" s="7" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="10" t="s">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B50" s="10" t="s">
+      <c r="B50" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C50" s="11" t="s">
+      <c r="C50" s="7" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="10" t="s">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B51" s="10" t="s">
+      <c r="B51" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C51" s="11" t="s">
+      <c r="C51" s="7" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="10" t="s">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B52" s="10" t="s">
+      <c r="B52" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C52" s="11" t="s">
+      <c r="C52" s="7" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="53" spans="1:3" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A53" s="10" t="s">
+    <row r="53" spans="1:3" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B53" s="10" t="s">
+      <c r="B53" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C53" s="11" t="s">
+      <c r="C53" s="7" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="54" spans="1:3" s="3" customFormat="1">
-      <c r="A54" s="10" t="s">
+    <row r="54" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="B54" s="10" t="s">
+      <c r="B54" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="C54" s="11" t="s">
+      <c r="C54" s="7" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="55" spans="1:3" s="3" customFormat="1">
-      <c r="A55" s="10" t="s">
+    <row r="55" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B55" s="10" t="s">
+      <c r="B55" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="C55" s="11" t="s">
+      <c r="C55" s="7" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="56" spans="1:3" s="3" customFormat="1">
-      <c r="A56" s="10" t="s">
+    <row r="56" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B56" s="10" t="s">
+      <c r="B56" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C56" s="11" t="s">
+      <c r="C56" s="7" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="57" spans="1:3" s="3" customFormat="1">
-      <c r="A57" s="10" t="s">
+    <row r="57" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B57" s="10" t="s">
+      <c r="B57" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="C57" s="11" t="s">
+      <c r="C57" s="7" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="58" spans="1:3" s="3" customFormat="1">
-      <c r="A58" s="10" t="s">
+    <row r="58" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B58" s="10" t="s">
+      <c r="B58" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="C58" s="11" t="s">
+      <c r="C58" s="7" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="59" spans="1:3" s="3" customFormat="1">
-      <c r="A59" s="10" t="s">
+    <row r="59" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B59" s="10" t="s">
+      <c r="B59" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="C59" s="11" t="s">
+      <c r="C59" s="7" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="60" spans="1:3" s="3" customFormat="1">
-      <c r="A60" s="10" t="s">
+    <row r="60" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B60" s="10" t="s">
+      <c r="B60" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="C60" s="11" t="s">
+      <c r="C60" s="7" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="61" spans="1:3" s="3" customFormat="1">
-      <c r="A61" s="10" t="s">
+    <row r="61" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B61" s="10" t="s">
+      <c r="B61" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="C61" s="11" t="s">
+      <c r="C61" s="7" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="62" spans="1:3" s="3" customFormat="1">
-      <c r="A62" s="10" t="s">
+    <row r="62" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B62" s="10" t="s">
+      <c r="B62" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="C62" s="11" t="s">
+      <c r="C62" s="7" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="63" spans="1:3" s="3" customFormat="1">
-      <c r="A63" s="10" t="s">
+    <row r="63" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B63" s="10" t="s">
+      <c r="B63" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="C63" s="11" t="s">
+      <c r="C63" s="7" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="64" spans="1:3" s="3" customFormat="1">
-      <c r="A64" s="10" t="s">
+    <row r="64" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B64" s="10" t="s">
+      <c r="B64" s="6" t="s">
         <v>463</v>
       </c>
-      <c r="C64" s="11" t="s">
+      <c r="C64" s="7" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="65" spans="1:3" s="3" customFormat="1">
-      <c r="A65" s="10" t="s">
+    <row r="65" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B65" s="10" t="s">
+      <c r="B65" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="C65" s="11" t="s">
+      <c r="C65" s="7" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="66" spans="1:3" s="3" customFormat="1">
-      <c r="A66" s="10" t="s">
+    <row r="66" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B66" s="10" t="s">
+      <c r="B66" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="C66" s="11" t="s">
+      <c r="C66" s="7" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
-      <c r="A67" s="10" t="s">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B67" s="10" t="s">
+      <c r="B67" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="C67" s="11" t="s">
+      <c r="C67" s="7" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
-      <c r="A68" s="10" t="s">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B68" s="10" t="s">
+      <c r="B68" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C68" s="11" t="s">
+      <c r="C68" s="7" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
-      <c r="A69" s="10" t="s">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="B69" s="10" t="s">
+      <c r="B69" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="C69" s="11" t="s">
+      <c r="C69" s="7" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
-      <c r="A70" s="10" t="s">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="B70" s="10" t="s">
+      <c r="B70" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="C70" s="11" t="s">
+      <c r="C70" s="7" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
-      <c r="A71" s="10" t="s">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B71" s="10" t="s">
+      <c r="B71" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="C71" s="11" t="s">
+      <c r="C71" s="7" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
-      <c r="A72" s="10" t="s">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B72" s="10" t="s">
+      <c r="B72" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="C72" s="11" t="s">
+      <c r="C72" s="7" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
-      <c r="A73" s="10" t="s">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B73" s="10" t="s">
+      <c r="B73" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="C73" s="11" t="s">
+      <c r="C73" s="7" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
-      <c r="A74" s="10" t="s">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="B74" s="10" t="s">
+      <c r="B74" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="C74" s="11" t="s">
+      <c r="C74" s="7" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
-      <c r="A75" s="10" t="s">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B75" s="10" t="s">
+      <c r="B75" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="C75" s="11" t="s">
+      <c r="C75" s="7" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
-      <c r="A76" s="10" t="s">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B76" s="10" t="s">
+      <c r="B76" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="C76" s="11" t="s">
+      <c r="C76" s="7" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
-      <c r="A77" s="10" t="s">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B77" s="10" t="s">
+      <c r="B77" s="6" t="s">
         <v>460</v>
       </c>
-      <c r="C77" s="11" t="s">
+      <c r="C77" s="7" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
-      <c r="A78" s="10" t="s">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B78" s="10" t="s">
+      <c r="B78" s="6" t="s">
         <v>462</v>
       </c>
-      <c r="C78" s="11" t="s">
+      <c r="C78" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
-      <c r="A79" s="10" t="s">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B79" s="10" t="s">
+      <c r="B79" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="C79" s="11" t="s">
+      <c r="C79" s="7" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
-      <c r="A80" s="10" t="s">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B80" s="10" t="s">
+      <c r="B80" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="C80" s="11" t="s">
+      <c r="C80" s="7" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
-      <c r="A81" s="10" t="s">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B81" s="10" t="s">
+      <c r="B81" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="C81" s="11" t="s">
+      <c r="C81" s="7" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
-      <c r="A82" s="10" t="s">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B82" s="10" t="s">
+      <c r="B82" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="C82" s="11" t="s">
+      <c r="C82" s="7" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="83" spans="1:4" s="8" customFormat="1">
-      <c r="A83" s="10" t="s">
+    <row r="83" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B83" s="10" t="s">
+      <c r="B83" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="C83" s="11" t="s">
+      <c r="C83" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="D83" s="7"/>
-    </row>
-    <row r="84" spans="1:4" s="8" customFormat="1">
-      <c r="A84" s="10" t="s">
+      <c r="D83" s="12"/>
+    </row>
+    <row r="84" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B84" s="10" t="s">
+      <c r="B84" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="C84" s="11" t="s">
+      <c r="C84" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="D84" s="7"/>
-    </row>
-    <row r="85" spans="1:4">
-      <c r="A85" s="10" t="s">
+      <c r="D84" s="12"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B85" s="10" t="s">
+      <c r="B85" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="C85" s="11" t="s">
+      <c r="C85" s="7" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
-      <c r="A86" s="10" t="s">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B86" s="10" t="s">
+      <c r="B86" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="C86" s="11" t="s">
+      <c r="C86" s="7" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
-      <c r="A87" s="10" t="s">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="B87" s="10" t="s">
+      <c r="B87" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="C87" s="11" t="s">
+      <c r="C87" s="7" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
-      <c r="A88" s="10" t="s">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B88" s="10" t="s">
+      <c r="B88" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="C88" s="11" t="s">
+      <c r="C88" s="7" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
-      <c r="A89" s="10" t="s">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="B89" s="10" t="s">
+      <c r="B89" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="C89" s="11" t="s">
+      <c r="C89" s="7" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
-      <c r="A90" s="10" t="s">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B90" s="10" t="s">
+      <c r="B90" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="C90" s="11" t="s">
+      <c r="C90" s="7" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
-      <c r="A91" s="10" t="s">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B91" s="10" t="s">
+      <c r="B91" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="C91" s="11" t="s">
+      <c r="C91" s="7" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
-      <c r="A92" s="10" t="s">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B92" s="10" t="s">
+      <c r="B92" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="C92" s="11" t="s">
+      <c r="C92" s="7" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
-      <c r="A93" s="10" t="s">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B93" s="10" t="s">
+      <c r="B93" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="C93" s="11" t="s">
+      <c r="C93" s="7" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
-      <c r="A94" s="10" t="s">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B94" s="10" t="s">
+      <c r="B94" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="C94" s="11" t="s">
+      <c r="C94" s="7" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
-      <c r="A95" s="10" t="s">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B95" s="10" t="s">
+      <c r="B95" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="C95" s="11" t="s">
+      <c r="C95" s="7" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
-      <c r="A96" s="10" t="s">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B96" s="10" t="s">
+      <c r="B96" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="C96" s="11" t="s">
+      <c r="C96" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
-      <c r="A97" s="10" t="s">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="B97" s="10" t="s">
+      <c r="B97" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="C97" s="11" t="s">
+      <c r="C97" s="7" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="98" spans="1:4" s="8" customFormat="1">
-      <c r="A98" s="10" t="s">
+    <row r="98" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B98" s="10" t="s">
+      <c r="B98" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="C98" s="11" t="s">
+      <c r="C98" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="D98" s="7"/>
-    </row>
-    <row r="99" spans="1:4" s="8" customFormat="1">
-      <c r="A99" s="10" t="s">
+      <c r="D98" s="12"/>
+    </row>
+    <row r="99" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B99" s="10" t="s">
+      <c r="B99" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="C99" s="11" t="s">
+      <c r="C99" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="D99" s="7"/>
-    </row>
-    <row r="100" spans="1:4">
-      <c r="A100" s="10" t="s">
+      <c r="D99" s="12"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B100" s="10" t="s">
+      <c r="B100" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="C100" s="11" t="s">
+      <c r="C100" s="7" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
-      <c r="A101" s="10" t="s">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B101" s="10" t="s">
+      <c r="B101" s="6" t="s">
         <v>465</v>
       </c>
-      <c r="C101" s="11" t="s">
+      <c r="C101" s="7" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
-      <c r="A102" s="10" t="s">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B102" s="10" t="s">
+      <c r="B102" s="6" t="s">
         <v>467</v>
       </c>
-      <c r="C102" s="11" t="s">
+      <c r="C102" s="7" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="103" spans="1:4" s="8" customFormat="1">
-      <c r="A103" s="10" t="s">
+    <row r="103" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B103" s="10" t="s">
+      <c r="B103" s="6" t="s">
         <v>469</v>
       </c>
-      <c r="C103" s="11" t="s">
+      <c r="C103" s="7" t="s">
         <v>470</v>
       </c>
-      <c r="D103" s="7"/>
-    </row>
-    <row r="104" spans="1:4">
-      <c r="A104" s="10" t="s">
+      <c r="D103" s="12"/>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B104" s="10" t="s">
+      <c r="B104" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="C104" s="11" t="s">
+      <c r="C104" s="7" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
-      <c r="A105" s="10" t="s">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B105" s="10" t="s">
+      <c r="B105" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="C105" s="11" t="s">
+      <c r="C105" s="7" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
-      <c r="A106" s="10" t="s">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B106" s="12" t="s">
+      <c r="B106" s="14" t="s">
         <v>476</v>
       </c>
-      <c r="C106" s="11" t="s">
+      <c r="C106" s="7" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
-      <c r="A107" s="10" t="s">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B107" s="10" t="s">
+      <c r="B107" s="6" t="s">
         <v>475</v>
       </c>
-      <c r="C107" s="11" t="s">
+      <c r="C107" s="7" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
-      <c r="A108" s="10" t="s">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B108" s="10" t="s">
+      <c r="B108" s="6" t="s">
         <v>477</v>
       </c>
-      <c r="C108" s="11" t="s">
+      <c r="C108" s="7" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="109" spans="1:4">
-      <c r="A109" s="10" t="s">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B109" s="10" t="s">
+      <c r="B109" s="6" t="s">
         <v>471</v>
       </c>
-      <c r="C109" s="11" t="s">
+      <c r="C109" s="7" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
-      <c r="A110" s="10" t="s">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A110" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B110" s="10" t="s">
+      <c r="B110" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="C110" s="11" t="s">
+      <c r="C110" s="7" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="111" spans="1:4">
-      <c r="A111" s="10" t="s">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A111" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B111" s="10" t="s">
+      <c r="B111" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="C111" s="11" t="s">
+      <c r="C111" s="7" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="112" spans="1:4">
-      <c r="A112" s="10" t="s">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A112" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B112" s="10" t="s">
+      <c r="B112" s="6" t="s">
         <v>483</v>
       </c>
-      <c r="C112" s="11" t="s">
+      <c r="C112" s="7" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
-      <c r="A113" s="10" t="s">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B113" s="10" t="s">
+      <c r="B113" s="6" t="s">
         <v>484</v>
       </c>
-      <c r="C113" s="11" t="s">
+      <c r="C113" s="7" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
-      <c r="A114" s="10" t="s">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B114" s="10" t="s">
+      <c r="B114" s="6" t="s">
         <v>485</v>
       </c>
-      <c r="C114" s="11" t="s">
+      <c r="C114" s="7" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
-      <c r="A115" s="10" t="s">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B115" s="10" t="s">
+      <c r="B115" s="6" t="s">
         <v>486</v>
       </c>
-      <c r="C115" s="11" t="s">
+      <c r="C115" s="7" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
-      <c r="A116" s="10" t="s">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B116" s="10" t="s">
+      <c r="B116" s="6" t="s">
         <v>487</v>
       </c>
-      <c r="C116" s="11" t="s">
+      <c r="C116" s="7" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
-      <c r="A117" s="10" t="s">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B117" s="10" t="s">
+      <c r="B117" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="C117" s="11" t="s">
+      <c r="C117" s="7" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
-      <c r="A118" s="10" t="s">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B118" s="10" t="s">
+      <c r="B118" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="C118" s="11" t="s">
+      <c r="C118" s="7" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
-      <c r="A119" s="10" t="s">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B119" s="10" t="s">
+      <c r="B119" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="C119" s="11" t="s">
+      <c r="C119" s="7" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
-      <c r="A120" s="10" t="s">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B120" s="10" t="s">
+      <c r="B120" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="C120" s="11" t="s">
+      <c r="C120" s="7" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
-      <c r="A121" s="10" t="s">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B121" s="10" t="s">
+      <c r="B121" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C121" s="11" t="s">
+      <c r="C121" s="7" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
-      <c r="A122" s="10" t="s">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B122" s="10" t="s">
+      <c r="B122" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="C122" s="11" t="s">
+      <c r="C122" s="7" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
-      <c r="A123" s="10" t="s">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B123" s="10" t="s">
+      <c r="B123" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="C123" s="11" t="s">
+      <c r="C123" s="7" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
-      <c r="A124" s="10" t="s">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B124" s="10" t="s">
+      <c r="B124" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="C124" s="11" t="s">
+      <c r="C124" s="7" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
-      <c r="A125" s="10" t="s">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="B125" s="10" t="s">
+      <c r="B125" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="C125" s="11" t="s">
+      <c r="C125" s="7" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
-      <c r="A126" s="10" t="s">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A126" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="B126" s="10" t="s">
+      <c r="B126" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="C126" s="11" t="s">
+      <c r="C126" s="7" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
-      <c r="A127" s="10" t="s">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="B127" s="10" t="s">
+      <c r="B127" s="6" t="s">
         <v>503</v>
       </c>
-      <c r="C127" s="11" t="s">
+      <c r="C127" s="7" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
-      <c r="A128" s="10" t="s">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="B128" s="10" t="s">
+      <c r="B128" s="6" t="s">
         <v>504</v>
       </c>
-      <c r="C128" s="11" t="s">
+      <c r="C128" s="7" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="129" spans="1:4" s="8" customFormat="1">
-      <c r="A129" s="10" t="s">
+    <row r="129" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B129" s="10" t="s">
+      <c r="B129" s="6" t="s">
         <v>505</v>
       </c>
-      <c r="C129" s="11" t="s">
+      <c r="C129" s="7" t="s">
         <v>490</v>
       </c>
-      <c r="D129" s="7"/>
-    </row>
-    <row r="130" spans="1:4">
-      <c r="A130" s="10" t="s">
+      <c r="D129" s="12"/>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A130" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B130" s="14" t="s">
+      <c r="B130" s="15" t="s">
         <v>506</v>
       </c>
-      <c r="C130" s="15" t="s">
+      <c r="C130" s="16" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="131" spans="1:4">
-      <c r="A131" s="10" t="s">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A131" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B131" s="14" t="s">
+      <c r="B131" s="15" t="s">
         <v>507</v>
       </c>
-      <c r="C131" s="15" t="s">
+      <c r="C131" s="16" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="132" spans="1:4">
-      <c r="A132" s="10" t="s">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A132" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B132" s="14" t="s">
+      <c r="B132" s="15" t="s">
         <v>508</v>
       </c>
-      <c r="C132" s="15" t="s">
+      <c r="C132" s="16" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="133" spans="1:4">
-      <c r="A133" s="10" t="s">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A133" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B133" s="14" t="s">
+      <c r="B133" s="15" t="s">
         <v>509</v>
       </c>
-      <c r="C133" s="15" t="s">
+      <c r="C133" s="16" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="134" spans="1:4">
-      <c r="A134" s="10" t="s">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A134" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B134" s="14" t="s">
+      <c r="B134" s="15" t="s">
         <v>627</v>
       </c>
-      <c r="C134" s="15" t="s">
+      <c r="C134" s="16" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="135" spans="1:4">
-      <c r="A135" s="10" t="s">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A135" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B135" s="14" t="s">
+      <c r="B135" s="15" t="s">
         <v>510</v>
       </c>
-      <c r="C135" s="15" t="s">
+      <c r="C135" s="16" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="136" spans="1:4">
-      <c r="A136" s="10" t="s">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A136" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B136" s="14" t="s">
+      <c r="B136" s="15" t="s">
         <v>511</v>
       </c>
-      <c r="C136" s="15" t="s">
+      <c r="C136" s="16" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="137" spans="1:4">
-      <c r="A137" s="10" t="s">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A137" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B137" s="14" t="s">
+      <c r="B137" s="15" t="s">
         <v>512</v>
       </c>
-      <c r="C137" s="15" t="s">
+      <c r="C137" s="16" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="138" spans="1:4">
-      <c r="A138" s="10" t="s">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A138" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B138" s="14" t="s">
+      <c r="B138" s="15" t="s">
         <v>628</v>
       </c>
-      <c r="C138" s="15" t="s">
+      <c r="C138" s="16" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="139" spans="1:4">
-      <c r="A139" s="10" t="s">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A139" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B139" s="14" t="s">
+      <c r="B139" s="15" t="s">
         <v>629</v>
       </c>
-      <c r="C139" s="15" t="s">
+      <c r="C139" s="16" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="140" spans="1:4">
-      <c r="A140" s="10" t="s">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A140" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B140" s="10" t="s">
+      <c r="B140" s="6" t="s">
         <v>404</v>
       </c>
-      <c r="C140" s="11" t="s">
+      <c r="C140" s="7" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="141" spans="1:4">
-      <c r="A141" s="10" t="s">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A141" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B141" s="10" t="s">
+      <c r="B141" s="6" t="s">
         <v>514</v>
       </c>
-      <c r="C141" s="11" t="s">
+      <c r="C141" s="7" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="142" spans="1:4">
-      <c r="A142" s="10" t="s">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A142" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B142" s="10" t="s">
+      <c r="B142" s="6" t="s">
         <v>630</v>
       </c>
-      <c r="C142" s="11" t="s">
+      <c r="C142" s="7" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="14.5" customHeight="1">
-      <c r="A143" s="10" t="s">
+    <row r="143" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A143" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B143" s="10" t="s">
+      <c r="B143" s="6" t="s">
         <v>515</v>
       </c>
-      <c r="C143" s="15" t="s">
+      <c r="C143" s="16" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="14.5" customHeight="1">
-      <c r="A144" s="10" t="s">
+    <row r="144" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A144" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B144" s="10" t="s">
+      <c r="B144" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="C144" s="11" t="s">
+      <c r="C144" s="7" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="14.5" customHeight="1">
-      <c r="A145" s="10" t="s">
+    <row r="145" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A145" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B145" s="10" t="s">
+      <c r="B145" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="C145" s="11" t="s">
+      <c r="C145" s="7" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="14.5" customHeight="1">
-      <c r="A146" s="18" t="s">
+    <row r="146" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A146" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="B146" s="18" t="s">
+      <c r="B146" s="17" t="s">
         <v>208</v>
       </c>
-      <c r="C146" s="19" t="s">
+      <c r="C146" s="18" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="14.5" customHeight="1">
-      <c r="A147" s="10" t="s">
+    <row r="147" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A147" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B147" s="10" t="s">
+      <c r="B147" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="C147" s="11" t="s">
+      <c r="C147" s="7" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="14.5" customHeight="1">
-      <c r="A148" s="10" t="s">
+    <row r="148" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A148" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B148" s="10" t="s">
+      <c r="B148" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="C148" s="11" t="s">
+      <c r="C148" s="7" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="14.5" customHeight="1">
-      <c r="A149" s="10" t="s">
+    <row r="149" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A149" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B149" s="10" t="s">
+      <c r="B149" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="C149" s="11" t="s">
+      <c r="C149" s="7" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="14.5" customHeight="1">
-      <c r="A150" s="10" t="s">
+    <row r="150" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A150" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B150" s="10" t="s">
+      <c r="B150" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="C150" s="11" t="s">
+      <c r="C150" s="7" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="14.5" customHeight="1">
-      <c r="A151" s="10" t="s">
+    <row r="151" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A151" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B151" s="10" t="s">
+      <c r="B151" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="C151" s="11" t="s">
+      <c r="C151" s="7" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="14.5" customHeight="1">
-      <c r="A152" s="10" t="s">
+    <row r="152" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A152" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B152" s="10" t="s">
+      <c r="B152" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="C152" s="11" t="s">
+      <c r="C152" s="7" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="153" spans="1:4">
-      <c r="A153" s="10" t="s">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A153" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B153" s="10" t="s">
+      <c r="B153" s="6" t="s">
         <v>517</v>
       </c>
-      <c r="C153" s="11" t="s">
+      <c r="C153" s="7" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="154" spans="1:4">
-      <c r="A154" s="10" t="s">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A154" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B154" s="16" t="s">
+      <c r="B154" s="19" t="s">
         <v>402</v>
       </c>
-      <c r="C154" s="11" t="s">
+      <c r="C154" s="7" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="155" spans="1:4">
-      <c r="A155" s="10" t="s">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A155" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B155" s="10" t="s">
+      <c r="B155" s="6" t="s">
         <v>518</v>
       </c>
-      <c r="C155" s="11" t="s">
+      <c r="C155" s="7" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="156" spans="1:4">
-      <c r="A156" s="10" t="s">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A156" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B156" s="10" t="s">
+      <c r="B156" s="6" t="s">
         <v>631</v>
       </c>
-      <c r="C156" s="13" t="s">
+      <c r="C156" s="7" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="157" spans="1:4">
-      <c r="A157" s="10" t="s">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A157" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B157" s="10" t="s">
+      <c r="B157" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="C157" s="11" t="s">
+      <c r="C157" s="7" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="158" spans="1:4" s="8" customFormat="1">
-      <c r="A158" s="10" t="s">
+    <row r="158" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A158" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B158" s="10" t="s">
+      <c r="B158" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="C158" s="11" t="s">
+      <c r="C158" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="D158" s="7"/>
-    </row>
-    <row r="159" spans="1:4" s="21" customFormat="1" ht="14" customHeight="1">
-      <c r="A159" s="10" t="s">
+      <c r="D158" s="12"/>
+    </row>
+    <row r="159" spans="1:4" s="21" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A159" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B159" s="10" t="s">
+      <c r="B159" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="C159" s="11" t="s">
+      <c r="C159" s="7" t="s">
         <v>229</v>
       </c>
       <c r="D159" s="20"/>
     </row>
-    <row r="160" spans="1:4" s="8" customFormat="1">
-      <c r="A160" s="10" t="s">
+    <row r="160" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A160" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B160" s="10" t="s">
+      <c r="B160" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="C160" s="11" t="s">
+      <c r="C160" s="7" t="s">
         <v>647</v>
       </c>
-      <c r="D160" s="7"/>
-    </row>
-    <row r="161" spans="1:4">
-      <c r="A161" s="10" t="s">
+      <c r="D160" s="12"/>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A161" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="B161" s="10" t="s">
+      <c r="B161" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="C161" s="11" t="s">
+      <c r="C161" s="7" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="162" spans="1:4">
-      <c r="A162" s="10" t="s">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A162" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B162" s="10" t="s">
+      <c r="B162" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="C162" s="11" t="s">
+      <c r="C162" s="7" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="163" spans="1:4">
-      <c r="A163" s="10" t="s">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A163" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B163" s="10" t="s">
+      <c r="B163" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="C163" s="11" t="s">
+      <c r="C163" s="7" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="164" spans="1:4" s="8" customFormat="1">
-      <c r="A164" s="10" t="s">
+    <row r="164" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A164" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B164" s="10" t="s">
+      <c r="B164" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="C164" s="11" t="s">
+      <c r="C164" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="D164" s="7"/>
-    </row>
-    <row r="165" spans="1:4">
-      <c r="A165" s="10" t="s">
+      <c r="D164" s="12"/>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A165" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B165" s="10" t="s">
+      <c r="B165" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="C165" s="11" t="s">
+      <c r="C165" s="7" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="166" spans="1:4">
-      <c r="A166" s="10" t="s">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A166" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B166" s="10" t="s">
+      <c r="B166" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="C166" s="11" t="s">
+      <c r="C166" s="7" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="167" spans="1:4">
-      <c r="A167" s="10" t="s">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A167" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B167" s="10" t="s">
+      <c r="B167" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="C167" s="11" t="s">
+      <c r="C167" s="7" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="168" spans="1:4">
-      <c r="A168" s="10" t="s">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A168" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B168" s="10" t="s">
+      <c r="B168" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="C168" s="11" t="s">
+      <c r="C168" s="7" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="169" spans="1:4">
-      <c r="A169" s="10" t="s">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A169" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="B169" s="10" t="s">
+      <c r="B169" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="C169" s="11" t="s">
+      <c r="C169" s="7" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="170" spans="1:4">
-      <c r="A170" s="10" t="s">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A170" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B170" s="10" t="s">
+      <c r="B170" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="C170" s="11" t="s">
+      <c r="C170" s="7" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="171" spans="1:4">
-      <c r="A171" s="10" t="s">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A171" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B171" s="10" t="s">
+      <c r="B171" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="C171" s="11" t="s">
+      <c r="C171" s="7" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="172" spans="1:4">
-      <c r="A172" s="10" t="s">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A172" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B172" s="10" t="s">
+      <c r="B172" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="C172" s="11" t="s">
+      <c r="C172" s="7" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="173" spans="1:4">
-      <c r="A173" s="10" t="s">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A173" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="B173" s="10" t="s">
+      <c r="B173" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="C173" s="11" t="s">
+      <c r="C173" s="7" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="174" spans="1:4">
-      <c r="A174" s="10" t="s">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A174" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B174" s="10" t="s">
+      <c r="B174" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="C174" s="11" t="s">
+      <c r="C174" s="7" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="175" spans="1:4">
-      <c r="A175" s="10" t="s">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A175" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B175" s="10" t="s">
+      <c r="B175" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="C175" s="11" t="s">
+      <c r="C175" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="176" spans="1:4">
-      <c r="A176" s="10" t="s">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A176" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B176" s="10" t="s">
+      <c r="B176" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="C176" s="11" t="s">
+      <c r="C176" s="7" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="177" spans="1:4">
-      <c r="A177" s="10" t="s">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A177" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B177" s="10" t="s">
+      <c r="B177" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="C177" s="11" t="s">
+      <c r="C177" s="7" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="178" spans="1:4" s="8" customFormat="1">
-      <c r="A178" s="10" t="s">
+    <row r="178" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A178" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B178" s="10" t="s">
+      <c r="B178" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="C178" s="11" t="s">
+      <c r="C178" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="D178" s="7"/>
-    </row>
-    <row r="179" spans="1:4" s="8" customFormat="1">
-      <c r="A179" s="10" t="s">
+      <c r="D178" s="12"/>
+    </row>
+    <row r="179" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A179" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B179" s="10" t="s">
+      <c r="B179" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="C179" s="11" t="s">
+      <c r="C179" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="D179" s="7"/>
-    </row>
-    <row r="180" spans="1:4" s="8" customFormat="1">
-      <c r="A180" s="10" t="s">
+      <c r="D179" s="12"/>
+    </row>
+    <row r="180" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A180" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="B180" s="10" t="s">
+      <c r="B180" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="C180" s="11" t="s">
+      <c r="C180" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="D180" s="7"/>
-    </row>
-    <row r="181" spans="1:4">
-      <c r="A181" s="10" t="s">
+      <c r="D180" s="12"/>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A181" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="B181" s="10" t="s">
+      <c r="B181" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="C181" s="11" t="s">
+      <c r="C181" s="7" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="182" spans="1:4">
-      <c r="A182" s="10" t="s">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A182" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="B182" s="10" t="s">
+      <c r="B182" s="6" t="s">
         <v>521</v>
       </c>
-      <c r="C182" s="11" t="s">
+      <c r="C182" s="7" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="183" spans="1:4">
-      <c r="A183" s="10" t="s">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A183" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="B183" s="10" t="s">
+      <c r="B183" s="6" t="s">
         <v>522</v>
       </c>
-      <c r="C183" s="11" t="s">
+      <c r="C183" s="7" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="184" spans="1:4">
-      <c r="A184" s="10" t="s">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A184" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="B184" s="10" t="s">
+      <c r="B184" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="C184" s="11" t="s">
+      <c r="C184" s="7" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="185" spans="1:4">
-      <c r="A185" s="10" t="s">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A185" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B185" s="10" t="s">
+      <c r="B185" s="6" t="s">
         <v>533</v>
       </c>
-      <c r="C185" s="11" t="s">
+      <c r="C185" s="7" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="186" spans="1:4">
-      <c r="A186" s="10" t="s">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A186" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B186" s="10" t="s">
+      <c r="B186" s="6" t="s">
         <v>534</v>
       </c>
-      <c r="C186" s="11" t="s">
+      <c r="C186" s="7" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="187" spans="1:4">
-      <c r="A187" s="10" t="s">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A187" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B187" s="10" t="s">
+      <c r="B187" s="6" t="s">
         <v>535</v>
       </c>
-      <c r="C187" s="11" t="s">
+      <c r="C187" s="7" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="188" spans="1:4">
-      <c r="A188" s="10" t="s">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A188" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B188" s="10" t="s">
+      <c r="B188" s="6" t="s">
         <v>536</v>
       </c>
-      <c r="C188" s="11" t="s">
+      <c r="C188" s="7" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="189" spans="1:4">
-      <c r="A189" s="10" t="s">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A189" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B189" s="10" t="s">
+      <c r="B189" s="6" t="s">
         <v>537</v>
       </c>
-      <c r="C189" s="11" t="s">
+      <c r="C189" s="7" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="190" spans="1:4">
-      <c r="A190" s="10" t="s">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A190" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B190" s="10" t="s">
+      <c r="B190" s="6" t="s">
         <v>538</v>
       </c>
-      <c r="C190" s="11" t="s">
+      <c r="C190" s="7" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="191" spans="1:4">
-      <c r="A191" s="10" t="s">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A191" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B191" s="10" t="s">
+      <c r="B191" s="6" t="s">
         <v>539</v>
       </c>
-      <c r="C191" s="11" t="s">
+      <c r="C191" s="7" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="192" spans="1:4">
-      <c r="A192" s="10" t="s">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A192" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B192" s="10" t="s">
+      <c r="B192" s="6" t="s">
         <v>540</v>
       </c>
-      <c r="C192" s="11" t="s">
+      <c r="C192" s="7" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="193" spans="1:4">
-      <c r="A193" s="10" t="s">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A193" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B193" s="10" t="s">
+      <c r="B193" s="6" t="s">
         <v>541</v>
       </c>
-      <c r="C193" s="11" t="s">
+      <c r="C193" s="7" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="194" spans="1:4" s="8" customFormat="1">
-      <c r="A194" s="10" t="s">
+    <row r="194" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A194" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B194" s="10" t="s">
+      <c r="B194" s="6" t="s">
         <v>392</v>
       </c>
-      <c r="C194" s="11" t="s">
+      <c r="C194" s="7" t="s">
         <v>393</v>
       </c>
-      <c r="D194" s="7"/>
-    </row>
-    <row r="195" spans="1:4">
-      <c r="A195" s="10" t="s">
+      <c r="D194" s="12"/>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A195" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B195" s="16" t="s">
+      <c r="B195" s="19" t="s">
         <v>542</v>
       </c>
-      <c r="C195" s="11" t="s">
+      <c r="C195" s="7" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="196" spans="1:4">
-      <c r="A196" s="10" t="s">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A196" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B196" s="10" t="s">
+      <c r="B196" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="C196" s="11" t="s">
+      <c r="C196" s="7" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="197" spans="1:4">
-      <c r="A197" s="10" t="s">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A197" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B197" s="10" t="s">
+      <c r="B197" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="C197" s="11" t="s">
+      <c r="C197" s="7" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="198" spans="1:4">
-      <c r="A198" s="10" t="s">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A198" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B198" s="10" t="s">
+      <c r="B198" s="6" t="s">
         <v>547</v>
       </c>
-      <c r="C198" s="11" t="s">
+      <c r="C198" s="7" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="199" spans="1:4">
-      <c r="A199" s="10" t="s">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A199" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B199" s="10" t="s">
+      <c r="B199" s="6" t="s">
         <v>548</v>
       </c>
-      <c r="C199" s="11" t="s">
+      <c r="C199" s="7" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="200" spans="1:4" ht="14.5" customHeight="1">
-      <c r="A200" s="10" t="s">
+    <row r="200" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A200" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B200" s="10" t="s">
+      <c r="B200" s="6" t="s">
         <v>549</v>
       </c>
-      <c r="C200" s="11" t="s">
+      <c r="C200" s="7" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="201" spans="1:4" ht="14.5" customHeight="1">
-      <c r="A201" s="10" t="s">
+    <row r="201" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A201" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B201" s="10" t="s">
+      <c r="B201" s="6" t="s">
         <v>550</v>
       </c>
-      <c r="C201" s="11" t="s">
+      <c r="C201" s="7" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="202" spans="1:4" ht="14.5" customHeight="1">
-      <c r="A202" s="10" t="s">
+    <row r="202" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A202" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="B202" s="10" t="s">
+      <c r="B202" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="C202" s="11" t="s">
+      <c r="C202" s="7" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="203" spans="1:4" ht="14.5" customHeight="1">
-      <c r="A203" s="10" t="s">
+    <row r="203" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A203" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B203" s="10" t="s">
+      <c r="B203" s="6" t="s">
         <v>556</v>
       </c>
-      <c r="C203" s="11" t="s">
+      <c r="C203" s="7" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="204" spans="1:4" ht="14.5" customHeight="1">
-      <c r="A204" s="10" t="s">
+    <row r="204" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A204" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B204" s="10" t="s">
+      <c r="B204" s="6" t="s">
         <v>557</v>
       </c>
-      <c r="C204" s="11" t="s">
+      <c r="C204" s="7" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="205" spans="1:4" ht="14.5" customHeight="1">
-      <c r="A205" s="10" t="s">
+    <row r="205" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A205" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B205" s="10" t="s">
+      <c r="B205" s="6" t="s">
         <v>558</v>
       </c>
-      <c r="C205" s="11" t="s">
+      <c r="C205" s="7" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="206" spans="1:4">
-      <c r="A206" s="10" t="s">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A206" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B206" s="10" t="s">
+      <c r="B206" s="6" t="s">
         <v>559</v>
       </c>
-      <c r="C206" s="11" t="s">
+      <c r="C206" s="7" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="207" spans="1:4">
-      <c r="A207" s="10" t="s">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A207" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B207" s="10" t="s">
+      <c r="B207" s="6" t="s">
         <v>364</v>
       </c>
-      <c r="C207" s="11" t="s">
+      <c r="C207" s="7" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="208" spans="1:4">
-      <c r="A208" s="10" t="s">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A208" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B208" s="10" t="s">
+      <c r="B208" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="C208" s="11" t="s">
+      <c r="C208" s="7" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="209" spans="1:4">
-      <c r="A209" s="10" t="s">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A209" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B209" s="10" t="s">
+      <c r="B209" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="C209" s="11" t="s">
+      <c r="C209" s="7" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="210" spans="1:4">
-      <c r="A210" s="10" t="s">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A210" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B210" s="10" t="s">
+      <c r="B210" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="C210" s="11" t="s">
+      <c r="C210" s="7" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="211" spans="1:4">
-      <c r="A211" s="10" t="s">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A211" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B211" s="10" t="s">
+      <c r="B211" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="C211" s="11" t="s">
+      <c r="C211" s="7" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="212" spans="1:4">
-      <c r="A212" s="10" t="s">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A212" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B212" s="10" t="s">
+      <c r="B212" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="C212" s="11" t="s">
+      <c r="C212" s="7" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="213" spans="1:4">
-      <c r="A213" s="10" t="s">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A213" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B213" s="10" t="s">
+      <c r="B213" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="C213" s="11" t="s">
+      <c r="C213" s="7" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="214" spans="1:4">
-      <c r="A214" s="10" t="s">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A214" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="B214" s="10" t="s">
+      <c r="B214" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="C214" s="11" t="s">
+      <c r="C214" s="7" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="215" spans="1:4">
-      <c r="A215" s="10" t="s">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A215" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="B215" s="10" t="s">
+      <c r="B215" s="6" t="s">
         <v>377</v>
       </c>
-      <c r="C215" s="11" t="s">
+      <c r="C215" s="7" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="216" spans="1:4" s="8" customFormat="1">
-      <c r="A216" s="10" t="s">
+    <row r="216" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A216" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="B216" s="10" t="s">
+      <c r="B216" s="6" t="s">
         <v>632</v>
       </c>
-      <c r="C216" s="11" t="s">
+      <c r="C216" s="7" t="s">
         <v>561</v>
       </c>
-      <c r="D216" s="7"/>
-    </row>
-    <row r="217" spans="1:4" s="8" customFormat="1">
-      <c r="A217" s="10" t="s">
+      <c r="D216" s="12"/>
+    </row>
+    <row r="217" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A217" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="B217" s="10" t="s">
+      <c r="B217" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="C217" s="11" t="s">
+      <c r="C217" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="D217" s="7"/>
-    </row>
-    <row r="218" spans="1:4" s="8" customFormat="1">
-      <c r="A218" s="10" t="s">
+      <c r="D217" s="12"/>
+    </row>
+    <row r="218" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A218" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B218" s="10" t="s">
+      <c r="B218" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="C218" s="11" t="s">
+      <c r="C218" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="D218" s="7"/>
-    </row>
-    <row r="219" spans="1:4" s="8" customFormat="1">
-      <c r="A219" s="10" t="s">
+      <c r="D218" s="12"/>
+    </row>
+    <row r="219" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A219" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B219" s="10" t="s">
+      <c r="B219" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="C219" s="11" t="s">
+      <c r="C219" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="D219" s="7"/>
-    </row>
-    <row r="220" spans="1:4">
-      <c r="A220" s="10" t="s">
+      <c r="D219" s="12"/>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A220" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B220" s="10" t="s">
+      <c r="B220" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="C220" s="11" t="s">
+      <c r="C220" s="7" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="221" spans="1:4">
-      <c r="A221" s="10" t="s">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A221" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="B221" s="10" t="s">
+      <c r="B221" s="6" t="s">
         <v>299</v>
       </c>
-      <c r="C221" s="11" t="s">
+      <c r="C221" s="7" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="222" spans="1:4">
-      <c r="A222" s="10" t="s">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A222" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="B222" s="10" t="s">
+      <c r="B222" s="6" t="s">
         <v>565</v>
       </c>
-      <c r="C222" s="11" t="s">
+      <c r="C222" s="7" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="223" spans="1:4">
-      <c r="A223" s="10" t="s">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A223" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="B223" s="10" t="s">
+      <c r="B223" s="6" t="s">
         <v>566</v>
       </c>
-      <c r="C223" s="11" t="s">
+      <c r="C223" s="7" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="224" spans="1:4">
-      <c r="A224" s="10" t="s">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A224" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="B224" s="10" t="s">
+      <c r="B224" s="6" t="s">
         <v>567</v>
       </c>
-      <c r="C224" s="11" t="s">
+      <c r="C224" s="7" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="225" spans="1:3">
-      <c r="A225" s="10" t="s">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A225" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="B225" s="10" t="s">
+      <c r="B225" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="C225" s="11" t="s">
+      <c r="C225" s="7" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="226" spans="1:3">
-      <c r="A226" s="10" t="s">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A226" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B226" s="10" t="s">
+      <c r="B226" s="6" t="s">
         <v>303</v>
       </c>
-      <c r="C226" s="11" t="s">
+      <c r="C226" s="7" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="227" spans="1:3">
-      <c r="A227" s="10" t="s">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A227" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B227" s="10" t="s">
+      <c r="B227" s="6" t="s">
         <v>305</v>
       </c>
-      <c r="C227" s="11" t="s">
+      <c r="C227" s="7" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="228" spans="1:3">
-      <c r="A228" s="10" t="s">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A228" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B228" s="10" t="s">
+      <c r="B228" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="C228" s="11" t="s">
+      <c r="C228" s="7" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="229" spans="1:3">
-      <c r="A229" s="10" t="s">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A229" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B229" s="10" t="s">
+      <c r="B229" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="C229" s="11" t="s">
+      <c r="C229" s="7" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="230" spans="1:3">
-      <c r="A230" s="10" t="s">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A230" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B230" s="10" t="s">
+      <c r="B230" s="6" t="s">
         <v>571</v>
       </c>
-      <c r="C230" s="11" t="s">
+      <c r="C230" s="7" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="231" spans="1:3">
-      <c r="A231" s="10" t="s">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A231" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B231" s="10" t="s">
+      <c r="B231" s="6" t="s">
         <v>572</v>
       </c>
-      <c r="C231" s="11" t="s">
+      <c r="C231" s="7" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="232" spans="1:3">
-      <c r="A232" s="10" t="s">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A232" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B232" s="10" t="s">
+      <c r="B232" s="6" t="s">
         <v>366</v>
       </c>
-      <c r="C232" s="11" t="s">
+      <c r="C232" s="7" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="233" spans="1:3">
-      <c r="A233" s="10" t="s">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A233" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B233" s="10" t="s">
+      <c r="B233" s="6" t="s">
         <v>633</v>
       </c>
-      <c r="C233" s="11" t="s">
+      <c r="C233" s="7" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="234" spans="1:3">
-      <c r="A234" s="10" t="s">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A234" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B234" s="10" t="s">
+      <c r="B234" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="C234" s="11" t="s">
+      <c r="C234" s="7" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="235" spans="1:3">
-      <c r="A235" s="10" t="s">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A235" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B235" s="10" t="s">
+      <c r="B235" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="C235" s="11" t="s">
+      <c r="C235" s="7" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="236" spans="1:3">
-      <c r="A236" s="10" t="s">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A236" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B236" s="10" t="s">
+      <c r="B236" s="6" t="s">
         <v>580</v>
       </c>
-      <c r="C236" s="11" t="s">
+      <c r="C236" s="7" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="237" spans="1:3">
-      <c r="A237" s="10" t="s">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A237" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B237" s="10" t="s">
+      <c r="B237" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="C237" s="11" t="s">
+      <c r="C237" s="7" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="238" spans="1:3">
-      <c r="A238" s="10" t="s">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A238" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B238" s="10" t="s">
+      <c r="B238" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="C238" s="11" t="s">
+      <c r="C238" s="7" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="239" spans="1:3">
-      <c r="A239" s="10" t="s">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A239" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B239" s="10" t="s">
+      <c r="B239" s="6" t="s">
         <v>583</v>
       </c>
-      <c r="C239" s="11" t="s">
+      <c r="C239" s="7" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="240" spans="1:3">
-      <c r="A240" s="10" t="s">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A240" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B240" s="16" t="s">
+      <c r="B240" s="19" t="s">
         <v>584</v>
       </c>
-      <c r="C240" s="11" t="s">
+      <c r="C240" s="7" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="241" spans="1:4">
-      <c r="A241" s="10" t="s">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A241" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B241" s="10" t="s">
+      <c r="B241" s="6" t="s">
         <v>634</v>
       </c>
-      <c r="C241" s="11" t="s">
+      <c r="C241" s="7" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="242" spans="1:4">
-      <c r="A242" s="10" t="s">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A242" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B242" s="10" t="s">
+      <c r="B242" s="6" t="s">
         <v>635</v>
       </c>
-      <c r="C242" s="11" t="s">
+      <c r="C242" s="7" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="243" spans="1:4">
-      <c r="A243" s="10" t="s">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A243" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B243" s="10" t="s">
+      <c r="B243" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="C243" s="11" t="s">
+      <c r="C243" s="7" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="244" spans="1:4">
-      <c r="A244" s="10" t="s">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A244" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B244" s="10" t="s">
+      <c r="B244" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="C244" s="11" t="s">
+      <c r="C244" s="7" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="245" spans="1:4">
-      <c r="A245" s="10" t="s">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A245" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B245" s="10" t="s">
+      <c r="B245" s="6" t="s">
         <v>444</v>
       </c>
-      <c r="C245" s="11" t="s">
+      <c r="C245" s="7" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="246" spans="1:4">
-      <c r="A246" s="10" t="s">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A246" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B246" s="10" t="s">
+      <c r="B246" s="6" t="s">
         <v>588</v>
       </c>
-      <c r="C246" s="11" t="s">
+      <c r="C246" s="7" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="247" spans="1:4">
-      <c r="A247" s="10" t="s">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A247" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B247" s="10" t="s">
+      <c r="B247" s="6" t="s">
         <v>636</v>
       </c>
-      <c r="C247" s="11" t="s">
+      <c r="C247" s="7" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="248" spans="1:4">
-      <c r="A248" s="10" t="s">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A248" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B248" s="10" t="s">
+      <c r="B248" s="6" t="s">
         <v>637</v>
       </c>
-      <c r="C248" s="11" t="s">
+      <c r="C248" s="7" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="249" spans="1:4" s="8" customFormat="1">
-      <c r="A249" s="10" t="s">
+    <row r="249" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A249" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B249" s="10" t="s">
+      <c r="B249" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="C249" s="11" t="s">
+      <c r="C249" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="D249" s="7"/>
-    </row>
-    <row r="250" spans="1:4">
-      <c r="A250" s="10" t="s">
+      <c r="D249" s="12"/>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A250" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="B250" s="10" t="s">
+      <c r="B250" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="C250" s="11" t="s">
+      <c r="C250" s="7" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="251" spans="1:4">
-      <c r="A251" s="10" t="s">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A251" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="B251" s="10" t="s">
+      <c r="B251" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="C251" s="11" t="s">
+      <c r="C251" s="7" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="252" spans="1:4">
-      <c r="A252" s="10" t="s">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A252" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="B252" s="10" t="s">
+      <c r="B252" s="6" t="s">
         <v>592</v>
       </c>
-      <c r="C252" s="11" t="s">
+      <c r="C252" s="7" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="253" spans="1:4">
-      <c r="A253" s="10" t="s">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A253" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="B253" s="10" t="s">
+      <c r="B253" s="6" t="s">
         <v>638</v>
       </c>
-      <c r="C253" s="11" t="s">
+      <c r="C253" s="7" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="254" spans="1:4">
-      <c r="A254" s="10" t="s">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A254" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="B254" s="10" t="s">
+      <c r="B254" s="6" t="s">
         <v>379</v>
       </c>
-      <c r="C254" s="11" t="s">
+      <c r="C254" s="7" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="255" spans="1:4" s="8" customFormat="1">
-      <c r="A255" s="10" t="s">
+    <row r="255" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A255" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="B255" s="10" t="s">
+      <c r="B255" s="6" t="s">
         <v>593</v>
       </c>
-      <c r="C255" s="11" t="s">
+      <c r="C255" s="7" t="s">
         <v>591</v>
       </c>
-      <c r="D255" s="7"/>
-    </row>
-    <row r="256" spans="1:4">
-      <c r="A256" s="10" t="s">
+      <c r="D255" s="12"/>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A256" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B256" s="10" t="s">
+      <c r="B256" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="C256" s="11" t="s">
+      <c r="C256" s="7" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="257" spans="1:4">
-      <c r="A257" s="10" t="s">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A257" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B257" s="10" t="s">
+      <c r="B257" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="C257" s="11" t="s">
+      <c r="C257" s="7" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="258" spans="1:4">
-      <c r="A258" s="10" t="s">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A258" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B258" s="10" t="s">
+      <c r="B258" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="C258" s="11" t="s">
+      <c r="C258" s="7" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="259" spans="1:4">
-      <c r="A259" s="10" t="s">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A259" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B259" s="10" t="s">
+      <c r="B259" s="6" t="s">
         <v>330</v>
       </c>
-      <c r="C259" s="11" t="s">
+      <c r="C259" s="7" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="260" spans="1:4">
-      <c r="A260" s="10" t="s">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A260" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B260" s="10" t="s">
+      <c r="B260" s="6" t="s">
         <v>332</v>
       </c>
-      <c r="C260" s="11" t="s">
+      <c r="C260" s="7" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="261" spans="1:4">
-      <c r="A261" s="10" t="s">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A261" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B261" s="10" t="s">
+      <c r="B261" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="C261" s="11" t="s">
+      <c r="C261" s="7" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="262" spans="1:4">
-      <c r="A262" s="10" t="s">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A262" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B262" s="10" t="s">
+      <c r="B262" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="C262" s="11" t="s">
+      <c r="C262" s="7" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="263" spans="1:4">
-      <c r="A263" s="10" t="s">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A263" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="B263" s="17" t="s">
+      <c r="B263" s="6" t="s">
         <v>598</v>
       </c>
-      <c r="C263" s="11" t="s">
+      <c r="C263" s="7" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="264" spans="1:4">
-      <c r="A264" s="10" t="s">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A264" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="B264" s="10" t="s">
+      <c r="B264" s="6" t="s">
         <v>396</v>
       </c>
-      <c r="C264" s="11" t="s">
+      <c r="C264" s="7" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="265" spans="1:4">
-      <c r="A265" s="10" t="s">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A265" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="B265" s="10" t="s">
+      <c r="B265" s="6" t="s">
         <v>599</v>
       </c>
-      <c r="C265" s="13" t="s">
+      <c r="C265" s="7" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="266" spans="1:4">
-      <c r="A266" s="10" t="s">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A266" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="B266" s="10" t="s">
+      <c r="B266" s="6" t="s">
         <v>600</v>
       </c>
-      <c r="C266" s="11" t="s">
+      <c r="C266" s="7" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="267" spans="1:4">
-      <c r="A267" s="10" t="s">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A267" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="B267" s="10" t="s">
+      <c r="B267" s="6" t="s">
         <v>639</v>
       </c>
-      <c r="C267" s="11" t="s">
+      <c r="C267" s="7" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="268" spans="1:4">
-      <c r="A268" s="10" t="s">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A268" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B268" s="10" t="s">
+      <c r="B268" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="C268" s="11" t="s">
+      <c r="C268" s="7" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="269" spans="1:4" s="8" customFormat="1">
-      <c r="A269" s="10" t="s">
+    <row r="269" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A269" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B269" s="10" t="s">
+      <c r="B269" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="C269" s="11" t="s">
+      <c r="C269" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="D269" s="7"/>
-    </row>
-    <row r="270" spans="1:4" s="8" customFormat="1">
-      <c r="A270" s="10" t="s">
+      <c r="D269" s="12"/>
+    </row>
+    <row r="270" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A270" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B270" s="10" t="s">
+      <c r="B270" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="C270" s="11" t="s">
+      <c r="C270" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="D270" s="7"/>
-    </row>
-    <row r="271" spans="1:4" s="8" customFormat="1">
-      <c r="A271" s="10" t="s">
+      <c r="D270" s="12"/>
+    </row>
+    <row r="271" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A271" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="B271" s="10" t="s">
+      <c r="B271" s="6" t="s">
         <v>344</v>
       </c>
-      <c r="C271" s="11" t="s">
+      <c r="C271" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="D271" s="7"/>
-    </row>
-    <row r="272" spans="1:4" s="8" customFormat="1">
-      <c r="A272" s="10" t="s">
+      <c r="D271" s="12"/>
+    </row>
+    <row r="272" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A272" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B272" s="10" t="s">
+      <c r="B272" s="6" t="s">
         <v>346</v>
       </c>
-      <c r="C272" s="11" t="s">
+      <c r="C272" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="D272" s="7"/>
-    </row>
-    <row r="273" spans="1:4" s="8" customFormat="1">
-      <c r="A273" s="10" t="s">
+      <c r="D272" s="12"/>
+    </row>
+    <row r="273" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A273" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B273" s="10" t="s">
+      <c r="B273" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="C273" s="11" t="s">
+      <c r="C273" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="D273" s="7"/>
-    </row>
-    <row r="274" spans="1:4">
-      <c r="A274" s="10" t="s">
+      <c r="D273" s="12"/>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A274" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B274" s="10" t="s">
+      <c r="B274" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="C274" s="11" t="s">
+      <c r="C274" s="7" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="275" spans="1:4">
-      <c r="A275" s="10" t="s">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A275" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B275" s="10" t="s">
+      <c r="B275" s="6" t="s">
         <v>352</v>
       </c>
-      <c r="C275" s="11" t="s">
+      <c r="C275" s="7" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="276" spans="1:4">
-      <c r="A276" s="10" t="s">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A276" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B276" s="10" t="s">
+      <c r="B276" s="6" t="s">
         <v>354</v>
       </c>
-      <c r="C276" s="11" t="s">
+      <c r="C276" s="7" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="277" spans="1:4">
-      <c r="A277" s="10" t="s">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A277" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="B277" s="10" t="s">
+      <c r="B277" s="6" t="s">
         <v>356</v>
       </c>
-      <c r="C277" s="11" t="s">
+      <c r="C277" s="7" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="278" spans="1:4">
-      <c r="A278" s="10" t="s">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A278" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B278" s="10" t="s">
+      <c r="B278" s="6" t="s">
         <v>358</v>
       </c>
-      <c r="C278" s="11" t="s">
+      <c r="C278" s="7" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="279" spans="1:4">
-      <c r="A279" s="10" t="s">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A279" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B279" s="10" t="s">
+      <c r="B279" s="6" t="s">
         <v>360</v>
       </c>
-      <c r="C279" s="11" t="s">
+      <c r="C279" s="7" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="280" spans="1:4">
-      <c r="A280" s="10" t="s">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A280" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="B280" s="10" t="s">
+      <c r="B280" s="6" t="s">
         <v>362</v>
       </c>
-      <c r="C280" s="11" t="s">
+      <c r="C280" s="7" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="281" spans="1:4">
-      <c r="A281" s="10" t="s">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A281" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B281" s="10" t="s">
+      <c r="B281" s="6" t="s">
         <v>366</v>
       </c>
-      <c r="C281" s="11" t="s">
+      <c r="C281" s="7" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="282" spans="1:4">
-      <c r="A282" s="10" t="s">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A282" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B282" s="10" t="s">
+      <c r="B282" s="6" t="s">
         <v>368</v>
       </c>
-      <c r="C282" s="11" t="s">
+      <c r="C282" s="7" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="283" spans="1:4">
-      <c r="A283" s="10" t="s">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A283" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B283" s="10" t="s">
+      <c r="B283" s="6" t="s">
         <v>371</v>
       </c>
-      <c r="C283" s="11" t="s">
+      <c r="C283" s="7" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="284" spans="1:4">
-      <c r="A284" s="10" t="s">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A284" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B284" s="10" t="s">
+      <c r="B284" s="6" t="s">
         <v>373</v>
       </c>
-      <c r="C284" s="11" t="s">
+      <c r="C284" s="7" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="285" spans="1:4">
-      <c r="A285" s="10" t="s">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A285" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B285" s="10" t="s">
+      <c r="B285" s="6" t="s">
         <v>375</v>
       </c>
-      <c r="C285" s="11" t="s">
+      <c r="C285" s="7" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="286" spans="1:4">
-      <c r="A286" s="10" t="s">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A286" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B286" s="10" t="s">
+      <c r="B286" s="6" t="s">
         <v>381</v>
       </c>
-      <c r="C286" s="11" t="s">
+      <c r="C286" s="7" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="287" spans="1:4">
-      <c r="A287" s="10" t="s">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A287" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B287" s="10" t="s">
+      <c r="B287" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="C287" s="11" t="s">
+      <c r="C287" s="7" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="288" spans="1:4" s="3" customFormat="1">
-      <c r="A288" s="10" t="s">
+    <row r="288" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A288" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B288" s="10" t="s">
+      <c r="B288" s="6" t="s">
         <v>386</v>
       </c>
-      <c r="C288" s="11" t="s">
+      <c r="C288" s="7" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="289" spans="1:3" s="3" customFormat="1">
-      <c r="A289" s="10" t="s">
+    <row r="289" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A289" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B289" s="10" t="s">
+      <c r="B289" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="C289" s="11" t="s">
+      <c r="C289" s="7" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="290" spans="1:3" s="3" customFormat="1">
-      <c r="A290" s="10" t="s">
+    <row r="290" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A290" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B290" s="10" t="s">
+      <c r="B290" s="6" t="s">
         <v>390</v>
       </c>
-      <c r="C290" s="11" t="s">
+      <c r="C290" s="7" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="291" spans="1:3" s="3" customFormat="1" ht="14.5" customHeight="1">
-      <c r="A291" s="10" t="s">
+    <row r="291" spans="1:3" s="8" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A291" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B291" s="10" t="s">
+      <c r="B291" s="6" t="s">
         <v>394</v>
       </c>
-      <c r="C291" s="11" t="s">
+      <c r="C291" s="7" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="292" spans="1:3" s="3" customFormat="1" ht="14.5" customHeight="1">
-      <c r="A292" s="10" t="s">
+    <row r="292" spans="1:3" s="8" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A292" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B292" s="10" t="s">
+      <c r="B292" s="6" t="s">
         <v>398</v>
       </c>
-      <c r="C292" s="11" t="s">
+      <c r="C292" s="7" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="293" spans="1:3" s="3" customFormat="1" ht="14.5" customHeight="1">
-      <c r="A293" s="10" t="s">
+    <row r="293" spans="1:3" s="8" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A293" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B293" s="10" t="s">
+      <c r="B293" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="C293" s="11" t="s">
+      <c r="C293" s="7" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="294" spans="1:3" s="3" customFormat="1" ht="14.5" customHeight="1">
-      <c r="A294" s="10" t="s">
+    <row r="294" spans="1:3" s="8" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A294" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B294" s="10" t="s">
+      <c r="B294" s="6" t="s">
         <v>404</v>
       </c>
-      <c r="C294" s="11" t="s">
+      <c r="C294" s="7" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="295" spans="1:3" s="3" customFormat="1" ht="14.5" customHeight="1">
-      <c r="A295" s="10" t="s">
+    <row r="295" spans="1:3" s="8" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A295" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B295" s="10" t="s">
+      <c r="B295" s="6" t="s">
         <v>406</v>
       </c>
-      <c r="C295" s="11" t="s">
+      <c r="C295" s="7" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="296" spans="1:3" s="3" customFormat="1" ht="14.5" customHeight="1">
-      <c r="A296" s="10" t="s">
+    <row r="296" spans="1:3" s="8" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A296" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B296" s="10" t="s">
+      <c r="B296" s="6" t="s">
         <v>408</v>
       </c>
-      <c r="C296" s="11" t="s">
+      <c r="C296" s="7" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="297" spans="1:3" s="3" customFormat="1">
-      <c r="A297" s="10" t="s">
+    <row r="297" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A297" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B297" s="10" t="s">
+      <c r="B297" s="6" t="s">
         <v>410</v>
       </c>
-      <c r="C297" s="11" t="s">
+      <c r="C297" s="7" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="298" spans="1:3" s="3" customFormat="1">
-      <c r="A298" s="10" t="s">
+    <row r="298" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A298" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B298" s="10" t="s">
+      <c r="B298" s="6" t="s">
         <v>412</v>
       </c>
-      <c r="C298" s="11" t="s">
+      <c r="C298" s="7" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="299" spans="1:3" s="3" customFormat="1">
-      <c r="A299" s="10" t="s">
+    <row r="299" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A299" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B299" s="10" t="s">
+      <c r="B299" s="6" t="s">
         <v>414</v>
       </c>
-      <c r="C299" s="11" t="s">
+      <c r="C299" s="7" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="300" spans="1:3" s="3" customFormat="1">
-      <c r="A300" s="10" t="s">
+    <row r="300" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A300" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B300" s="10" t="s">
+      <c r="B300" s="6" t="s">
         <v>416</v>
       </c>
-      <c r="C300" s="11" t="s">
+      <c r="C300" s="7" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="301" spans="1:3" s="3" customFormat="1">
-      <c r="A301" s="10" t="s">
+    <row r="301" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A301" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B301" s="10" t="s">
+      <c r="B301" s="6" t="s">
         <v>418</v>
       </c>
-      <c r="C301" s="11" t="s">
+      <c r="C301" s="7" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="302" spans="1:3" s="3" customFormat="1">
-      <c r="A302" s="10" t="s">
+    <row r="302" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A302" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B302" s="10" t="s">
+      <c r="B302" s="6" t="s">
         <v>420</v>
       </c>
-      <c r="C302" s="11" t="s">
+      <c r="C302" s="7" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="303" spans="1:3" s="3" customFormat="1">
-      <c r="A303" s="10" t="s">
+    <row r="303" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A303" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B303" s="10" t="s">
+      <c r="B303" s="6" t="s">
         <v>422</v>
       </c>
-      <c r="C303" s="11" t="s">
+      <c r="C303" s="7" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="304" spans="1:3" s="3" customFormat="1">
-      <c r="A304" s="10" t="s">
+    <row r="304" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A304" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B304" s="10" t="s">
+      <c r="B304" s="6" t="s">
         <v>424</v>
       </c>
-      <c r="C304" s="11" t="s">
+      <c r="C304" s="7" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="305" spans="1:4" s="3" customFormat="1">
-      <c r="A305" s="10" t="s">
+    <row r="305" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A305" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B305" s="10" t="s">
+      <c r="B305" s="6" t="s">
         <v>426</v>
       </c>
-      <c r="C305" s="11" t="s">
+      <c r="C305" s="7" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="306" spans="1:4" s="3" customFormat="1">
-      <c r="A306" s="10" t="s">
+    <row r="306" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A306" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B306" s="10" t="s">
+      <c r="B306" s="6" t="s">
         <v>428</v>
       </c>
-      <c r="C306" s="11" t="s">
+      <c r="C306" s="7" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="307" spans="1:4" s="3" customFormat="1">
-      <c r="A307" s="10" t="s">
+    <row r="307" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A307" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B307" s="10" t="s">
+      <c r="B307" s="6" t="s">
         <v>430</v>
       </c>
-      <c r="C307" s="11" t="s">
+      <c r="C307" s="7" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="308" spans="1:4" s="5" customFormat="1">
-      <c r="A308" s="10" t="s">
+    <row r="308" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A308" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B308" s="10" t="s">
+      <c r="B308" s="6" t="s">
         <v>432</v>
       </c>
-      <c r="C308" s="11" t="s">
+      <c r="C308" s="7" t="s">
         <v>433</v>
       </c>
-      <c r="D308" s="3"/>
-    </row>
-    <row r="309" spans="1:4" s="5" customFormat="1">
-      <c r="A309" s="10" t="s">
+      <c r="D308" s="8"/>
+    </row>
+    <row r="309" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A309" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B309" s="10" t="s">
+      <c r="B309" s="6" t="s">
         <v>434</v>
       </c>
-      <c r="C309" s="11" t="s">
+      <c r="C309" s="7" t="s">
         <v>435</v>
       </c>
-      <c r="D309" s="3"/>
-    </row>
-    <row r="310" spans="1:4" s="5" customFormat="1">
-      <c r="A310" s="10" t="s">
+      <c r="D309" s="8"/>
+    </row>
+    <row r="310" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A310" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B310" s="10" t="s">
+      <c r="B310" s="6" t="s">
         <v>436</v>
       </c>
-      <c r="C310" s="11" t="s">
+      <c r="C310" s="7" t="s">
         <v>437</v>
       </c>
-      <c r="D310" s="3"/>
-    </row>
-    <row r="311" spans="1:4" s="5" customFormat="1">
-      <c r="A311" s="10" t="s">
+      <c r="D310" s="8"/>
+    </row>
+    <row r="311" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A311" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B311" s="10" t="s">
+      <c r="B311" s="6" t="s">
         <v>438</v>
       </c>
-      <c r="C311" s="11" t="s">
+      <c r="C311" s="7" t="s">
         <v>439</v>
       </c>
-      <c r="D311" s="3"/>
-    </row>
-    <row r="312" spans="1:4" s="5" customFormat="1">
-      <c r="A312" s="10" t="s">
+      <c r="D311" s="8"/>
+    </row>
+    <row r="312" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A312" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B312" s="10" t="s">
+      <c r="B312" s="6" t="s">
         <v>440</v>
       </c>
-      <c r="C312" s="11" t="s">
+      <c r="C312" s="7" t="s">
         <v>441</v>
       </c>
-      <c r="D312" s="3"/>
-    </row>
-    <row r="313" spans="1:4" s="5" customFormat="1">
-      <c r="A313" s="10" t="s">
+      <c r="D312" s="8"/>
+    </row>
+    <row r="313" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A313" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B313" s="10" t="s">
+      <c r="B313" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="C313" s="11" t="s">
+      <c r="C313" s="7" t="s">
         <v>443</v>
       </c>
-      <c r="D313" s="3"/>
-    </row>
-    <row r="314" spans="1:4" s="5" customFormat="1">
-      <c r="A314" s="10" t="s">
+      <c r="D313" s="8"/>
+    </row>
+    <row r="314" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A314" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B314" s="10" t="s">
+      <c r="B314" s="6" t="s">
         <v>446</v>
       </c>
-      <c r="C314" s="11" t="s">
+      <c r="C314" s="7" t="s">
         <v>447</v>
       </c>
-      <c r="D314" s="3"/>
-    </row>
-    <row r="315" spans="1:4" s="5" customFormat="1">
-      <c r="A315" s="10" t="s">
+      <c r="D314" s="8"/>
+    </row>
+    <row r="315" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A315" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B315" s="10" t="s">
+      <c r="B315" s="6" t="s">
         <v>448</v>
       </c>
-      <c r="C315" s="11" t="s">
+      <c r="C315" s="7" t="s">
         <v>449</v>
       </c>
-      <c r="D315" s="3"/>
-    </row>
-    <row r="316" spans="1:4" s="5" customFormat="1">
-      <c r="A316" s="10" t="s">
+      <c r="D315" s="8"/>
+    </row>
+    <row r="316" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A316" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B316" s="10" t="s">
+      <c r="B316" s="6" t="s">
         <v>450</v>
       </c>
-      <c r="C316" s="11" t="s">
+      <c r="C316" s="7" t="s">
         <v>451</v>
       </c>
-      <c r="D316" s="3"/>
-    </row>
-    <row r="317" spans="1:4" s="5" customFormat="1">
-      <c r="A317" s="10" t="s">
+      <c r="D316" s="8"/>
+    </row>
+    <row r="317" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A317" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B317" s="10" t="s">
+      <c r="B317" s="6" t="s">
         <v>452</v>
       </c>
-      <c r="C317" s="11" t="s">
+      <c r="C317" s="7" t="s">
         <v>453</v>
       </c>
-      <c r="D317" s="3"/>
-    </row>
-    <row r="318" spans="1:4" s="5" customFormat="1">
-      <c r="A318" s="10" t="s">
+      <c r="D317" s="8"/>
+    </row>
+    <row r="318" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A318" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B318" s="10" t="s">
+      <c r="B318" s="6" t="s">
         <v>454</v>
       </c>
-      <c r="C318" s="11" t="s">
+      <c r="C318" s="7" t="s">
         <v>455</v>
       </c>
-      <c r="D318" s="3"/>
-    </row>
-    <row r="319" spans="1:4" s="5" customFormat="1">
-      <c r="A319" s="10" t="s">
+      <c r="D318" s="8"/>
+    </row>
+    <row r="319" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A319" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B319" s="10" t="s">
+      <c r="B319" s="6" t="s">
         <v>456</v>
       </c>
-      <c r="C319" s="11" t="s">
+      <c r="C319" s="7" t="s">
         <v>457</v>
       </c>
-      <c r="D319" s="3"/>
-    </row>
-    <row r="320" spans="1:4" s="5" customFormat="1">
-      <c r="A320" s="10" t="s">
+      <c r="D319" s="8"/>
+    </row>
+    <row r="320" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A320" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B320" s="10" t="s">
+      <c r="B320" s="6" t="s">
         <v>640</v>
       </c>
-      <c r="C320" s="11" t="s">
+      <c r="C320" s="7" t="s">
         <v>641</v>
       </c>
-      <c r="D320" s="3"/>
-    </row>
-    <row r="321" spans="1:4" s="5" customFormat="1">
-      <c r="A321" s="10" t="s">
+      <c r="D320" s="8"/>
+    </row>
+    <row r="321" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A321" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B321" s="10" t="s">
+      <c r="B321" s="6" t="s">
         <v>642</v>
       </c>
-      <c r="C321" s="11" t="s">
+      <c r="C321" s="7" t="s">
         <v>643</v>
       </c>
-      <c r="D321" s="3"/>
-    </row>
-    <row r="322" spans="1:4" s="5" customFormat="1">
-      <c r="A322" s="25"/>
-      <c r="B322" s="25"/>
-      <c r="C322" s="25"/>
-      <c r="D322" s="3"/>
-    </row>
-    <row r="323" spans="1:4" s="5" customFormat="1">
-      <c r="A323"/>
-      <c r="B323"/>
-      <c r="C323"/>
-      <c r="D323" s="3"/>
-    </row>
-    <row r="324" spans="1:4" s="5" customFormat="1">
-      <c r="A324"/>
-      <c r="B324"/>
-      <c r="C324"/>
-      <c r="D324" s="3"/>
-    </row>
-    <row r="325" spans="1:4" s="5" customFormat="1">
-      <c r="A325"/>
-      <c r="B325"/>
-      <c r="C325"/>
-      <c r="D325" s="3"/>
-    </row>
-    <row r="326" spans="1:4" s="5" customFormat="1">
-      <c r="A326"/>
-      <c r="B326"/>
-      <c r="C326"/>
-      <c r="D326" s="3"/>
-    </row>
-    <row r="327" spans="1:4" s="5" customFormat="1">
-      <c r="A327"/>
-      <c r="B327"/>
-      <c r="C327"/>
-      <c r="D327" s="3"/>
-    </row>
-    <row r="328" spans="1:4" s="5" customFormat="1">
-      <c r="A328"/>
-      <c r="B328"/>
-      <c r="C328"/>
-      <c r="D328" s="3"/>
-    </row>
-    <row r="329" spans="1:4" s="5" customFormat="1">
-      <c r="A329"/>
-      <c r="B329"/>
-      <c r="C329"/>
-      <c r="D329" s="3"/>
-    </row>
-    <row r="330" spans="1:4" s="5" customFormat="1">
-      <c r="A330"/>
-      <c r="B330"/>
-      <c r="C330"/>
-      <c r="D330" s="3"/>
-    </row>
-    <row r="331" spans="1:4" s="5" customFormat="1">
-      <c r="A331"/>
-      <c r="B331"/>
-      <c r="C331"/>
-      <c r="D331" s="3"/>
-    </row>
-    <row r="332" spans="1:4" s="5" customFormat="1">
-      <c r="A332"/>
-      <c r="B332"/>
-      <c r="C332"/>
-      <c r="D332" s="3"/>
-    </row>
-    <row r="333" spans="1:4" s="5" customFormat="1">
-      <c r="A333"/>
-      <c r="B333"/>
-      <c r="C333"/>
-      <c r="D333" s="3"/>
-    </row>
-    <row r="334" spans="1:4" s="5" customFormat="1">
-      <c r="A334"/>
-      <c r="B334"/>
-      <c r="C334"/>
-      <c r="D334" s="3"/>
-    </row>
-    <row r="335" spans="1:4" s="5" customFormat="1">
-      <c r="A335"/>
-      <c r="B335"/>
-      <c r="C335"/>
-      <c r="D335" s="3"/>
-    </row>
-    <row r="336" spans="1:4" s="5" customFormat="1">
-      <c r="A336"/>
-      <c r="B336"/>
-      <c r="C336"/>
-      <c r="D336" s="3"/>
-    </row>
-    <row r="337" spans="1:4" s="5" customFormat="1">
-      <c r="A337"/>
-      <c r="B337"/>
-      <c r="C337"/>
-      <c r="D337" s="3"/>
-    </row>
-    <row r="338" spans="1:4" s="5" customFormat="1">
-      <c r="A338"/>
-      <c r="B338"/>
-      <c r="C338"/>
-      <c r="D338" s="3"/>
-    </row>
-    <row r="339" spans="1:4" s="5" customFormat="1">
-      <c r="A339"/>
-      <c r="B339"/>
-      <c r="C339"/>
-      <c r="D339" s="3"/>
-    </row>
-    <row r="340" spans="1:4" s="5" customFormat="1">
-      <c r="A340"/>
-      <c r="B340"/>
-      <c r="C340"/>
-      <c r="D340" s="3"/>
-    </row>
-    <row r="341" spans="1:4" s="5" customFormat="1">
-      <c r="A341"/>
-      <c r="B341"/>
-      <c r="C341"/>
-      <c r="D341" s="3"/>
-    </row>
-    <row r="342" spans="1:4" s="5" customFormat="1">
-      <c r="A342"/>
-      <c r="B342"/>
-      <c r="C342"/>
-      <c r="D342" s="3"/>
-    </row>
-    <row r="343" spans="1:4" s="5" customFormat="1">
-      <c r="A343"/>
-      <c r="B343"/>
-      <c r="C343"/>
-      <c r="D343" s="3"/>
-    </row>
-    <row r="344" spans="1:4" s="5" customFormat="1">
-      <c r="A344"/>
-      <c r="B344"/>
-      <c r="C344"/>
-      <c r="D344" s="3"/>
-    </row>
-    <row r="345" spans="1:4" s="5" customFormat="1">
-      <c r="A345"/>
-      <c r="B345"/>
-      <c r="C345"/>
-      <c r="D345" s="3"/>
-    </row>
-    <row r="346" spans="1:4" s="5" customFormat="1">
-      <c r="A346"/>
-      <c r="B346"/>
-      <c r="C346"/>
-      <c r="D346" s="3"/>
-    </row>
-    <row r="347" spans="1:4" s="9" customFormat="1">
-      <c r="A347"/>
-      <c r="B347"/>
-      <c r="C347"/>
-      <c r="D347" s="3"/>
-    </row>
-    <row r="348" spans="1:4" s="9" customFormat="1">
-      <c r="A348"/>
-      <c r="B348"/>
-      <c r="C348"/>
-      <c r="D348" s="3"/>
-    </row>
-    <row r="349" spans="1:4" s="9" customFormat="1">
-      <c r="A349"/>
-      <c r="B349"/>
-      <c r="C349"/>
-      <c r="D349" s="3"/>
-    </row>
-    <row r="350" spans="1:4" s="9" customFormat="1">
-      <c r="A350"/>
-      <c r="B350"/>
-      <c r="C350"/>
-      <c r="D350" s="3"/>
-    </row>
-    <row r="351" spans="1:4" s="9" customFormat="1">
-      <c r="A351"/>
-      <c r="B351"/>
-      <c r="C351"/>
-      <c r="D351" s="3"/>
-    </row>
-    <row r="352" spans="1:4" s="9" customFormat="1">
-      <c r="A352"/>
-      <c r="B352"/>
-      <c r="C352"/>
-      <c r="D352" s="3"/>
-    </row>
-    <row r="353" spans="1:4" s="9" customFormat="1">
-      <c r="A353"/>
-      <c r="B353"/>
-      <c r="C353"/>
-      <c r="D353" s="3"/>
-    </row>
-    <row r="354" spans="1:4" s="9" customFormat="1">
-      <c r="A354"/>
-      <c r="B354"/>
-      <c r="C354"/>
-      <c r="D354" s="3"/>
-    </row>
-    <row r="355" spans="1:4" s="9" customFormat="1">
-      <c r="A355"/>
-      <c r="B355"/>
-      <c r="C355"/>
-      <c r="D355" s="3"/>
-    </row>
-    <row r="356" spans="1:4" s="9" customFormat="1">
-      <c r="A356"/>
-      <c r="B356"/>
-      <c r="C356"/>
-      <c r="D356" s="3"/>
-    </row>
-    <row r="357" spans="1:4">
-      <c r="A357"/>
-      <c r="B357"/>
-      <c r="C357"/>
-    </row>
-    <row r="358" spans="1:4">
-      <c r="A358"/>
-      <c r="B358"/>
-      <c r="C358"/>
-    </row>
-    <row r="359" spans="1:4">
-      <c r="A359"/>
-      <c r="B359"/>
-      <c r="C359"/>
-    </row>
-    <row r="360" spans="1:4">
-      <c r="A360"/>
-      <c r="B360"/>
-      <c r="C360"/>
-    </row>
-    <row r="361" spans="1:4">
-      <c r="A361"/>
-      <c r="B361"/>
-      <c r="C361"/>
+      <c r="D321" s="8"/>
+    </row>
+    <row r="322" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A322" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="B322" s="22" t="s">
+        <v>648</v>
+      </c>
+      <c r="C322" s="23" t="s">
+        <v>649</v>
+      </c>
+      <c r="D322" s="8"/>
+    </row>
+    <row r="323" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A323" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="B323" s="25" t="s">
+        <v>650</v>
+      </c>
+      <c r="C323" s="26" t="s">
+        <v>651</v>
+      </c>
+      <c r="D323" s="8"/>
+    </row>
+    <row r="324" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A324" s="22"/>
+      <c r="B324" s="22"/>
+      <c r="C324" s="22"/>
+      <c r="D324" s="8"/>
+    </row>
+    <row r="325" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A325" s="22"/>
+      <c r="B325" s="22"/>
+      <c r="C325" s="22"/>
+      <c r="D325" s="8"/>
+    </row>
+    <row r="326" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A326" s="22"/>
+      <c r="B326" s="22"/>
+      <c r="C326" s="22"/>
+      <c r="D326" s="8"/>
+    </row>
+    <row r="327" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A327" s="22"/>
+      <c r="B327" s="22"/>
+      <c r="C327" s="22"/>
+      <c r="D327" s="8"/>
+    </row>
+    <row r="328" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A328" s="22"/>
+      <c r="B328" s="22"/>
+      <c r="C328" s="22"/>
+      <c r="D328" s="8"/>
+    </row>
+    <row r="329" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A329" s="22"/>
+      <c r="B329" s="22"/>
+      <c r="C329" s="22"/>
+      <c r="D329" s="8"/>
+    </row>
+    <row r="330" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A330" s="22"/>
+      <c r="B330" s="22"/>
+      <c r="C330" s="22"/>
+      <c r="D330" s="8"/>
+    </row>
+    <row r="331" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A331" s="22"/>
+      <c r="B331" s="22"/>
+      <c r="C331" s="22"/>
+      <c r="D331" s="8"/>
+    </row>
+    <row r="332" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A332" s="22"/>
+      <c r="B332" s="22"/>
+      <c r="C332" s="22"/>
+      <c r="D332" s="8"/>
+    </row>
+    <row r="333" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A333" s="22"/>
+      <c r="B333" s="22"/>
+      <c r="C333" s="22"/>
+      <c r="D333" s="8"/>
+    </row>
+    <row r="334" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A334" s="22"/>
+      <c r="B334" s="22"/>
+      <c r="C334" s="22"/>
+      <c r="D334" s="8"/>
+    </row>
+    <row r="335" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A335" s="22"/>
+      <c r="B335" s="22"/>
+      <c r="C335" s="22"/>
+      <c r="D335" s="8"/>
+    </row>
+    <row r="336" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A336" s="22"/>
+      <c r="B336" s="22"/>
+      <c r="C336" s="22"/>
+      <c r="D336" s="8"/>
+    </row>
+    <row r="337" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A337" s="22"/>
+      <c r="B337" s="22"/>
+      <c r="C337" s="22"/>
+      <c r="D337" s="8"/>
+    </row>
+    <row r="338" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A338" s="22"/>
+      <c r="B338" s="22"/>
+      <c r="C338" s="22"/>
+      <c r="D338" s="8"/>
+    </row>
+    <row r="339" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A339" s="22"/>
+      <c r="B339" s="22"/>
+      <c r="C339" s="22"/>
+      <c r="D339" s="8"/>
+    </row>
+    <row r="340" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A340" s="22"/>
+      <c r="B340" s="22"/>
+      <c r="C340" s="22"/>
+      <c r="D340" s="8"/>
+    </row>
+    <row r="341" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A341" s="22"/>
+      <c r="B341" s="22"/>
+      <c r="C341" s="22"/>
+      <c r="D341" s="8"/>
+    </row>
+    <row r="342" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A342" s="22"/>
+      <c r="B342" s="22"/>
+      <c r="C342" s="22"/>
+      <c r="D342" s="8"/>
+    </row>
+    <row r="343" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A343" s="22"/>
+      <c r="B343" s="22"/>
+      <c r="C343" s="22"/>
+      <c r="D343" s="8"/>
+    </row>
+    <row r="344" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A344" s="22"/>
+      <c r="B344" s="22"/>
+      <c r="C344" s="22"/>
+      <c r="D344" s="8"/>
+    </row>
+    <row r="345" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A345" s="22"/>
+      <c r="B345" s="22"/>
+      <c r="C345" s="22"/>
+      <c r="D345" s="8"/>
+    </row>
+    <row r="346" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A346" s="22"/>
+      <c r="B346" s="22"/>
+      <c r="C346" s="22"/>
+      <c r="D346" s="8"/>
+    </row>
+    <row r="347" spans="1:4" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A347" s="22"/>
+      <c r="B347" s="22"/>
+      <c r="C347" s="22"/>
+      <c r="D347" s="8"/>
+    </row>
+    <row r="348" spans="1:4" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A348" s="22"/>
+      <c r="B348" s="22"/>
+      <c r="C348" s="22"/>
+      <c r="D348" s="8"/>
+    </row>
+    <row r="349" spans="1:4" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A349" s="22"/>
+      <c r="B349" s="22"/>
+      <c r="C349" s="22"/>
+      <c r="D349" s="8"/>
+    </row>
+    <row r="350" spans="1:4" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A350" s="22"/>
+      <c r="B350" s="22"/>
+      <c r="C350" s="22"/>
+      <c r="D350" s="8"/>
+    </row>
+    <row r="351" spans="1:4" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A351" s="22"/>
+      <c r="B351" s="22"/>
+      <c r="C351" s="22"/>
+      <c r="D351" s="8"/>
+    </row>
+    <row r="352" spans="1:4" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A352" s="22"/>
+      <c r="B352" s="22"/>
+      <c r="C352" s="22"/>
+      <c r="D352" s="8"/>
+    </row>
+    <row r="353" spans="1:4" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A353" s="22"/>
+      <c r="B353" s="22"/>
+      <c r="C353" s="22"/>
+      <c r="D353" s="8"/>
+    </row>
+    <row r="354" spans="1:4" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A354" s="22"/>
+      <c r="B354" s="22"/>
+      <c r="C354" s="22"/>
+      <c r="D354" s="8"/>
+    </row>
+    <row r="355" spans="1:4" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A355" s="22"/>
+      <c r="B355" s="22"/>
+      <c r="C355" s="22"/>
+      <c r="D355" s="8"/>
+    </row>
+    <row r="356" spans="1:4" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A356" s="22"/>
+      <c r="B356" s="22"/>
+      <c r="C356" s="22"/>
+      <c r="D356" s="8"/>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A357" s="22"/>
+      <c r="B357" s="22"/>
+      <c r="C357" s="22"/>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A358" s="22"/>
+      <c r="B358" s="22"/>
+      <c r="C358" s="22"/>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A359" s="22"/>
+      <c r="B359" s="22"/>
+      <c r="C359" s="22"/>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A360" s="22"/>
+      <c r="B360" s="22"/>
+      <c r="C360" s="22"/>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A361" s="22"/>
+      <c r="B361" s="22"/>
+      <c r="C361" s="22"/>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A362" s="22"/>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A363" s="22"/>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A364" s="22"/>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A365" s="22"/>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A366" s="22"/>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A367" s="22"/>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A368" s="22"/>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A369" s="22"/>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A370" s="22"/>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A371" s="22"/>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A372" s="22"/>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A373" s="22"/>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A374" s="22"/>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A375" s="22"/>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A376" s="22"/>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A377" s="22"/>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A378" s="22"/>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A379" s="22"/>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A380" s="22"/>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A381" s="22"/>
+    </row>
+    <row r="382" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A382" s="22"/>
+    </row>
+    <row r="383" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A383" s="22"/>
+    </row>
+    <row r="384" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A384" s="22"/>
+    </row>
+    <row r="385" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A385" s="22"/>
+    </row>
+    <row r="386" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A386" s="22"/>
+    </row>
+    <row r="387" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A387" s="22"/>
+    </row>
+    <row r="388" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A388" s="22"/>
+    </row>
+    <row r="389" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A389" s="22"/>
+    </row>
+    <row r="390" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A390" s="22"/>
+    </row>
+    <row r="391" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A391" s="22"/>
+    </row>
+    <row r="392" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A392" s="22"/>
+    </row>
+    <row r="393" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A393" s="22"/>
+    </row>
+    <row r="394" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A394" s="22"/>
+    </row>
+    <row r="395" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A395" s="22"/>
+    </row>
+    <row r="396" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A396" s="22"/>
+    </row>
+    <row r="397" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A397" s="22"/>
+    </row>
+    <row r="398" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A398" s="22"/>
+    </row>
+    <row r="399" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A399" s="22"/>
+    </row>
+    <row r="400" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A400" s="22"/>
+    </row>
+    <row r="401" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A401" s="22"/>
+    </row>
+    <row r="402" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A402" s="22"/>
+    </row>
+    <row r="403" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A403" s="22"/>
+    </row>
+    <row r="404" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A404" s="22"/>
+    </row>
+    <row r="405" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A405" s="22"/>
+    </row>
+    <row r="406" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A406" s="22"/>
+    </row>
+    <row r="407" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A407" s="22"/>
+    </row>
+    <row r="408" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A408" s="22"/>
+    </row>
+    <row r="409" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A409" s="22"/>
+    </row>
+    <row r="410" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A410" s="22"/>
+    </row>
+    <row r="411" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A411" s="22"/>
+    </row>
+    <row r="412" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A412" s="22"/>
+    </row>
+    <row r="413" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A413" s="22"/>
+    </row>
+    <row r="414" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A414" s="22"/>
+    </row>
+    <row r="415" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A415" s="22"/>
+    </row>
+    <row r="416" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A416" s="22"/>
+    </row>
+    <row r="417" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A417" s="22"/>
+    </row>
+    <row r="418" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A418" s="22"/>
+    </row>
+    <row r="419" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A419" s="22"/>
+    </row>
+    <row r="420" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A420" s="22"/>
+    </row>
+    <row r="421" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A421" s="22"/>
+    </row>
+    <row r="422" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A422" s="22"/>
+    </row>
+    <row r="423" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A423" s="22"/>
+    </row>
+    <row r="424" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A424" s="22"/>
+    </row>
+    <row r="425" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A425" s="22"/>
+    </row>
+    <row r="426" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A426" s="22"/>
+    </row>
+    <row r="427" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A427" s="22"/>
+    </row>
+    <row r="428" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A428" s="22"/>
+    </row>
+    <row r="429" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A429" s="22"/>
+    </row>
+    <row r="430" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A430" s="22"/>
+    </row>
+    <row r="431" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A431" s="22"/>
+    </row>
+    <row r="432" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A432" s="22"/>
+    </row>
+    <row r="433" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A433" s="22"/>
+    </row>
+    <row r="434" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A434" s="22"/>
+    </row>
+    <row r="435" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A435" s="22"/>
+    </row>
+    <row r="436" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A436" s="22"/>
+    </row>
+    <row r="437" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A437" s="22"/>
+    </row>
+    <row r="438" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A438" s="22"/>
+    </row>
+    <row r="439" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A439" s="22"/>
+    </row>
+    <row r="440" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A440" s="22"/>
+    </row>
+    <row r="441" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A441" s="22"/>
+    </row>
+    <row r="442" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A442" s="22"/>
+    </row>
+    <row r="443" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A443" s="22"/>
+    </row>
+    <row r="444" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A444" s="22"/>
+    </row>
+    <row r="445" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A445" s="22"/>
+    </row>
+    <row r="446" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A446" s="22"/>
+    </row>
+    <row r="447" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A447" s="22"/>
+    </row>
+    <row r="448" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A448" s="22"/>
+    </row>
+    <row r="449" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A449" s="22"/>
+    </row>
+    <row r="450" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A450" s="22"/>
+    </row>
+    <row r="451" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A451" s="22"/>
+    </row>
+    <row r="452" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A452" s="22"/>
+    </row>
+    <row r="453" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A453" s="22"/>
+    </row>
+    <row r="454" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A454" s="22"/>
+    </row>
+    <row r="455" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A455" s="22"/>
+    </row>
+    <row r="456" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A456" s="22"/>
+    </row>
+    <row r="457" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A457" s="22"/>
+    </row>
+    <row r="458" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A458" s="22"/>
+    </row>
+    <row r="459" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A459" s="22"/>
+    </row>
+    <row r="460" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A460" s="22"/>
+    </row>
+    <row r="461" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A461" s="22"/>
+    </row>
+    <row r="462" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A462" s="22"/>
+    </row>
+    <row r="463" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A463" s="22"/>
+    </row>
+    <row r="464" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A464" s="22"/>
+    </row>
+    <row r="465" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A465" s="22"/>
+    </row>
+    <row r="466" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A466" s="22"/>
+    </row>
+    <row r="467" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A467" s="22"/>
+    </row>
+    <row r="468" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A468" s="22"/>
+    </row>
+    <row r="469" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A469" s="22"/>
+    </row>
+    <row r="470" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A470" s="22"/>
+    </row>
+    <row r="471" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A471" s="22"/>
+    </row>
+    <row r="472" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A472" s="22"/>
+    </row>
+    <row r="473" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A473" s="22"/>
+    </row>
+    <row r="474" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A474" s="22"/>
+    </row>
+    <row r="475" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A475" s="22"/>
+    </row>
+    <row r="476" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A476" s="22"/>
+    </row>
+    <row r="477" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A477" s="22"/>
+    </row>
+    <row r="478" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A478" s="22"/>
+    </row>
+    <row r="479" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A479" s="22"/>
+    </row>
+    <row r="480" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A480" s="22"/>
+    </row>
+    <row r="481" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A481" s="22"/>
+    </row>
+    <row r="482" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A482" s="22"/>
+    </row>
+    <row r="483" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A483" s="22"/>
+    </row>
+    <row r="484" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A484" s="22"/>
+    </row>
+    <row r="485" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A485" s="22"/>
+    </row>
+    <row r="486" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A486" s="22"/>
+    </row>
+    <row r="487" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A487" s="22"/>
+    </row>
+    <row r="488" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A488" s="22"/>
+    </row>
+    <row r="489" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A489" s="22"/>
+    </row>
+    <row r="490" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A490" s="22"/>
+    </row>
+    <row r="491" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A491" s="22"/>
+    </row>
+    <row r="492" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A492" s="22"/>
+    </row>
+    <row r="493" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A493" s="22"/>
+    </row>
+    <row r="494" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A494" s="22"/>
+    </row>
+    <row r="495" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A495" s="22"/>
+    </row>
+    <row r="496" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A496" s="22"/>
+    </row>
+    <row r="497" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A497" s="22"/>
+    </row>
+    <row r="498" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A498" s="22"/>
+    </row>
+    <row r="499" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A499" s="22"/>
+    </row>
+    <row r="500" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A500" s="22"/>
+    </row>
+    <row r="501" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A501" s="22"/>
+    </row>
+    <row r="502" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A502" s="22"/>
+    </row>
+    <row r="503" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A503" s="22"/>
+    </row>
+    <row r="504" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A504" s="22"/>
+    </row>
+    <row r="505" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A505" s="22"/>
+    </row>
+    <row r="506" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A506" s="22"/>
+    </row>
+    <row r="507" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A507" s="22"/>
+    </row>
+    <row r="508" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A508" s="22"/>
+    </row>
+    <row r="509" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A509" s="22"/>
+    </row>
+    <row r="510" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A510" s="22"/>
+    </row>
+    <row r="511" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A511" s="22"/>
+    </row>
+    <row r="512" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A512" s="22"/>
+    </row>
+    <row r="513" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A513" s="22"/>
+    </row>
+    <row r="514" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A514" s="22"/>
+    </row>
+    <row r="515" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A515" s="22"/>
+    </row>
+    <row r="516" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A516" s="22"/>
+    </row>
+    <row r="517" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A517" s="22"/>
+    </row>
+    <row r="518" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A518" s="22"/>
+    </row>
+    <row r="519" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A519" s="22"/>
+    </row>
+    <row r="520" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A520" s="22"/>
+    </row>
+    <row r="521" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A521" s="22"/>
+    </row>
+    <row r="522" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A522" s="22"/>
+    </row>
+    <row r="523" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A523" s="22"/>
+    </row>
+    <row r="524" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A524" s="22"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:C322" xr:uid="{722A4A62-F3D1-4577-AFDB-10AA26B12C9A}"/>
   <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A362:A1048576 A2:A322" xr:uid="{E352FAC8-A16C-4D2E-A882-41DD0E3D9156}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A1048576" xr:uid="{E352FAC8-A16C-4D2E-A882-41DD0E3D9156}">
       <formula1>"South-JB, South-Kluang, South-Melaka, South-N9, KL, Selangor, North-Ipoh, North-Perda, North-Kedah_Perlis, East-KB, East-Dungun, East-Kuantan"</formula1>
     </dataValidation>
   </dataValidations>

--- a/powerapp/data/subs_metadata.xlsx
+++ b/powerapp/data/subs_metadata.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/externalDrive/code-gym/work/powerapp/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BFAAE63-BD50-D24B-B958-44E95D63C892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84869FB3-E246-BD41-9F5E-FF701B13DF77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34380" yWindow="620" windowWidth="34400" windowHeight="26380" xr2:uid="{955B3BBE-6EC3-4CB4-BEB6-AB762050D1CD}"/>
+    <workbookView xWindow="15300" yWindow="9840" windowWidth="34400" windowHeight="26380" xr2:uid="{955B3BBE-6EC3-4CB4-BEB6-AB762050D1CD}"/>
   </bookViews>
   <sheets>
     <sheet name="substation" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">substation!$A$1:$C$322</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">substation!$A$1:$C$319</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="652">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="650">
   <si>
     <t>East-Kuantan</t>
   </si>
@@ -119,9 +119,6 @@
     <t>BDNG</t>
   </si>
   <si>
-    <t>Prai Industrial</t>
-  </si>
-  <si>
     <t>PRID</t>
   </si>
   <si>
@@ -1002,9 +999,6 @@
   </si>
   <si>
     <t>PSAK</t>
-  </si>
-  <si>
-    <t>Kluang</t>
   </si>
   <si>
     <t>Renggam</t>
@@ -2114,65 +2108,58 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2508,10 +2495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC278235-0322-4A5E-A642-ABE48087B759}">
-  <dimension ref="A1:D524"/>
+  <dimension ref="A1:D520"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A273" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C330" sqref="C330"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B326" sqref="B326"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2525,13 +2512,13 @@
   <sheetData>
     <row r="1" spans="1:4" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="D1" s="4"/>
     </row>
@@ -2551,10 +2538,10 @@
         <v>0</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -2573,10 +2560,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -2595,10 +2582,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -2617,10 +2604,10 @@
         <v>3</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -2639,10 +2626,10 @@
         <v>3</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -2650,10 +2637,10 @@
         <v>0</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -2672,10 +2659,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -2694,10 +2681,10 @@
         <v>16</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -2716,10 +2703,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -2727,10 +2714,10 @@
         <v>16</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -2749,10 +2736,10 @@
         <v>21</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -2771,10 +2758,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -2782,10 +2769,10 @@
         <v>21</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>26</v>
+        <v>624</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>27</v>
+        <v>457</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -2793,10 +2780,10 @@
         <v>21</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>626</v>
+        <v>27</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>459</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -2804,54 +2791,54 @@
         <v>21</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>28</v>
+        <v>615</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>29</v>
+        <v>616</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>617</v>
+        <v>30</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>618</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -2859,10 +2846,10 @@
         <v>16</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -2870,54 +2857,54 @@
         <v>16</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
-        <v>48</v>
+        <v>3</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -2925,266 +2912,266 @@
         <v>3</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+      <c r="D40" s="10"/>
+    </row>
+    <row r="41" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D41" s="10"/>
+        <v>61</v>
+      </c>
+      <c r="D41" s="12"/>
     </row>
     <row r="42" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D42" s="12"/>
     </row>
-    <row r="43" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D43" s="12"/>
+        <v>66</v>
+      </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="54" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="55" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="56" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="57" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="58" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="59" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="60" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="6" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="61" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -3192,21 +3179,21 @@
         <v>3</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="62" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="6" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="63" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -3214,43 +3201,43 @@
         <v>0</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>106</v>
+        <v>461</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>107</v>
+        <v>462</v>
       </c>
     </row>
     <row r="64" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="6" t="s">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>463</v>
+        <v>107</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>464</v>
+        <v>108</v>
       </c>
     </row>
     <row r="65" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="6" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
@@ -3258,43 +3245,43 @@
         <v>16</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="6" t="s">
-        <v>16</v>
+        <v>115</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="6" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="6" t="s">
-        <v>119</v>
+        <v>21</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
@@ -3302,54 +3289,54 @@
         <v>21</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="6" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="6" t="s">
-        <v>48</v>
+        <v>115</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
-        <v>116</v>
+        <v>47</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="6" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
@@ -3357,10 +3344,10 @@
         <v>16</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>132</v>
+        <v>458</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>133</v>
+        <v>459</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
@@ -3371,7 +3358,7 @@
         <v>460</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>461</v>
+        <v>368</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
@@ -3379,21 +3366,21 @@
         <v>16</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>462</v>
+        <v>133</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>370</v>
+        <v>134</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="6" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
@@ -3401,111 +3388,111 @@
         <v>0</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="6" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>141</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="D82" s="12"/>
     </row>
     <row r="83" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="6" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D83" s="12"/>
     </row>
-    <row r="84" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="D84" s="12"/>
+        <v>146</v>
+      </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="6" t="s">
-        <v>30</v>
+        <v>115</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="6" t="s">
-        <v>116</v>
+        <v>16</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="6" t="s">
-        <v>16</v>
+        <v>118</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="6" t="s">
-        <v>119</v>
+        <v>16</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
@@ -3513,127 +3500,127 @@
         <v>16</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="6" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="6" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="6" t="s">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>167</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="6" t="s">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="B96" s="6" t="s">
         <v>168</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="6" t="s">
-        <v>86</v>
+        <v>16</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>170</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="D97" s="12"/>
     </row>
     <row r="98" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A98" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D98" s="12"/>
     </row>
-    <row r="99" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="6" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="D99" s="12"/>
+        <v>175</v>
+      </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>175</v>
+        <v>463</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>176</v>
+        <v>464</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B101" s="6" t="s">
         <v>465</v>
@@ -3642,9 +3629,9 @@
         <v>466</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A102" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B102" s="6" t="s">
         <v>467</v>
@@ -3652,69 +3639,69 @@
       <c r="C102" s="7" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D102" s="12"/>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="6" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>469</v>
+        <v>176</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>470</v>
-      </c>
-      <c r="D103" s="12"/>
+        <v>177</v>
+      </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B105" s="6" t="s">
-        <v>179</v>
+        <v>42</v>
+      </c>
+      <c r="B105" s="14" t="s">
+        <v>474</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>180</v>
+        <v>381</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B106" s="14" t="s">
-        <v>476</v>
+        <v>42</v>
+      </c>
+      <c r="B106" s="6" t="s">
+        <v>473</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>383</v>
+        <v>471</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B107" s="6" t="s">
         <v>475</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="C108" s="7" t="s">
         <v>472</v>
@@ -3722,24 +3709,24 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>471</v>
+        <v>180</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>474</v>
+        <v>181</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="6" t="s">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
@@ -3747,10 +3734,10 @@
         <v>0</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>183</v>
+        <v>481</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>184</v>
+        <v>476</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
@@ -3758,385 +3745,385 @@
         <v>0</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C112" s="7" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C113" s="7" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C115" s="7" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>487</v>
+        <v>184</v>
       </c>
       <c r="C116" s="7" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" s="6" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="B117" s="6" t="s">
         <v>185</v>
       </c>
       <c r="C117" s="7" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C118" s="7" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C119" s="7" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" s="6" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C120" s="7" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" s="6" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" s="6" t="s">
-        <v>30</v>
+        <v>118</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C124" s="7" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C125" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>202</v>
+        <v>501</v>
       </c>
       <c r="C126" s="7" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A127" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B127" s="6" t="s">
+        <v>502</v>
+      </c>
+      <c r="C127" s="7" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B128" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="C128" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="D128" s="12"/>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B129" s="15" t="s">
+        <v>504</v>
+      </c>
+      <c r="C129" s="16" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A130" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B130" s="15" t="s">
+        <v>505</v>
+      </c>
+      <c r="C130" s="16" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A131" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B131" s="15" t="s">
+        <v>506</v>
+      </c>
+      <c r="C131" s="16" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A132" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B132" s="15" t="s">
+        <v>507</v>
+      </c>
+      <c r="C132" s="16" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A133" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B133" s="15" t="s">
+        <v>625</v>
+      </c>
+      <c r="C133" s="16" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A134" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B134" s="15" t="s">
+        <v>508</v>
+      </c>
+      <c r="C134" s="16" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A135" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B135" s="15" t="s">
+        <v>509</v>
+      </c>
+      <c r="C135" s="16" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A136" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B136" s="15" t="s">
+        <v>510</v>
+      </c>
+      <c r="C136" s="16" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A137" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B137" s="15" t="s">
+        <v>626</v>
+      </c>
+      <c r="C137" s="16" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A138" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B138" s="15" t="s">
+        <v>627</v>
+      </c>
+      <c r="C138" s="16" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A139" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B139" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="C139" s="7" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A140" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B140" s="6" t="s">
+        <v>512</v>
+      </c>
+      <c r="C140" s="7" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A141" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B141" s="6" t="s">
+        <v>628</v>
+      </c>
+      <c r="C141" s="7" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A142" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B142" s="6" t="s">
+        <v>513</v>
+      </c>
+      <c r="C142" s="16" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A143" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B143" s="6" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A127" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="B127" s="6" t="s">
-        <v>503</v>
-      </c>
-      <c r="C127" s="7" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A128" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="B128" s="6" t="s">
-        <v>504</v>
-      </c>
-      <c r="C128" s="7" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B129" s="6" t="s">
-        <v>505</v>
-      </c>
-      <c r="C129" s="7" t="s">
-        <v>490</v>
-      </c>
-      <c r="D129" s="12"/>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A130" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B130" s="15" t="s">
-        <v>506</v>
-      </c>
-      <c r="C130" s="16" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A131" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B131" s="15" t="s">
-        <v>507</v>
-      </c>
-      <c r="C131" s="16" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A132" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B132" s="15" t="s">
-        <v>508</v>
-      </c>
-      <c r="C132" s="16" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A133" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B133" s="15" t="s">
-        <v>509</v>
-      </c>
-      <c r="C133" s="16" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A134" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B134" s="15" t="s">
-        <v>627</v>
-      </c>
-      <c r="C134" s="16" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A135" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B135" s="15" t="s">
-        <v>510</v>
-      </c>
-      <c r="C135" s="16" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A136" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B136" s="15" t="s">
-        <v>511</v>
-      </c>
-      <c r="C136" s="16" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A137" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B137" s="15" t="s">
-        <v>512</v>
-      </c>
-      <c r="C137" s="16" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A138" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B138" s="15" t="s">
-        <v>628</v>
-      </c>
-      <c r="C138" s="16" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A139" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B139" s="15" t="s">
-        <v>629</v>
-      </c>
-      <c r="C139" s="16" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A140" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B140" s="6" t="s">
-        <v>404</v>
-      </c>
-      <c r="C140" s="7" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A141" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B141" s="6" t="s">
-        <v>514</v>
-      </c>
-      <c r="C141" s="7" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A142" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B142" s="6" t="s">
-        <v>630</v>
-      </c>
-      <c r="C142" s="7" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B143" s="6" t="s">
-        <v>515</v>
-      </c>
-      <c r="C143" s="16" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C143" s="7" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C144" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="145" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B145" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="C145" s="7" t="s">
+      <c r="A145" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B145" s="17" t="s">
         <v>207</v>
       </c>
+      <c r="C145" s="18" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="146" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="B146" s="17" t="s">
-        <v>208</v>
-      </c>
-      <c r="C146" s="18" t="s">
+      <c r="A146" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B146" s="6" t="s">
         <v>209</v>
+      </c>
+      <c r="C146" s="7" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="147" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4144,32 +4131,32 @@
         <v>16</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C147" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="148" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="6" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C148" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="149" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="6" t="s">
-        <v>48</v>
+        <v>3</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C149" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="150" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4177,10 +4164,10 @@
         <v>3</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C150" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="151" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4188,18 +4175,18 @@
         <v>3</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C151" s="7" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" s="6" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>220</v>
+        <v>515</v>
       </c>
       <c r="C152" s="7" t="s">
         <v>221</v>
@@ -4209,22 +4196,22 @@
       <c r="A153" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B153" s="6" t="s">
-        <v>517</v>
+      <c r="B153" s="19" t="s">
+        <v>400</v>
       </c>
       <c r="C153" s="7" t="s">
-        <v>222</v>
+        <v>401</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B154" s="19" t="s">
-        <v>402</v>
+      <c r="B154" s="6" t="s">
+        <v>516</v>
       </c>
       <c r="C154" s="7" t="s">
-        <v>403</v>
+        <v>514</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
@@ -4232,10 +4219,10 @@
         <v>0</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>518</v>
+        <v>629</v>
       </c>
       <c r="C155" s="7" t="s">
-        <v>516</v>
+        <v>224</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
@@ -4243,68 +4230,68 @@
         <v>0</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>631</v>
+        <v>222</v>
       </c>
       <c r="C156" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A157" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B157" s="6" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A157" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B157" s="6" t="s">
-        <v>223</v>
-      </c>
       <c r="C157" s="7" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+        <v>226</v>
+      </c>
+      <c r="D157" s="12"/>
+    </row>
+    <row r="158" spans="1:4" s="21" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C158" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="D158" s="12"/>
-    </row>
-    <row r="159" spans="1:4" s="21" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+        <v>228</v>
+      </c>
+      <c r="D158" s="20"/>
+    </row>
+    <row r="159" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A159" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C159" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="D159" s="20"/>
-    </row>
-    <row r="160" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+        <v>645</v>
+      </c>
+      <c r="D159" s="12"/>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" s="6" t="s">
-        <v>21</v>
+        <v>85</v>
       </c>
       <c r="B160" s="6" t="s">
         <v>230</v>
       </c>
       <c r="C160" s="7" t="s">
-        <v>647</v>
-      </c>
-      <c r="D160" s="12"/>
+        <v>231</v>
+      </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" s="6" t="s">
-        <v>86</v>
+        <v>16</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C161" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
@@ -4312,55 +4299,55 @@
         <v>16</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C162" s="7" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A163" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C163" s="7" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+        <v>237</v>
+      </c>
+      <c r="D163" s="12"/>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C164" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="D164" s="12"/>
+        <v>239</v>
+      </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" s="6" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="B165" s="6" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C165" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" s="6" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C166" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
@@ -4368,43 +4355,43 @@
         <v>13</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C167" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" s="6" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C168" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" s="6" t="s">
-        <v>119</v>
+        <v>3</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C169" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" s="6" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C170" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
@@ -4412,32 +4399,32 @@
         <v>13</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C171" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" s="6" t="s">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C172" s="7" t="s">
-        <v>254</v>
+        <v>88</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" s="6" t="s">
-        <v>86</v>
+        <v>21</v>
       </c>
       <c r="B173" s="6" t="s">
         <v>255</v>
       </c>
       <c r="C173" s="7" t="s">
-        <v>89</v>
+        <v>256</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
@@ -4445,21 +4432,21 @@
         <v>21</v>
       </c>
       <c r="B174" s="6" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C174" s="7" t="s">
-        <v>257</v>
+        <v>26</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" s="6" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B175" s="6" t="s">
         <v>258</v>
       </c>
       <c r="C175" s="7" t="s">
-        <v>27</v>
+        <v>259</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
@@ -4467,234 +4454,234 @@
         <v>16</v>
       </c>
       <c r="B176" s="6" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C176" s="7" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A177" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C177" s="7" t="s">
-        <v>262</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="D177" s="12"/>
     </row>
     <row r="178" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A178" s="6" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="B178" s="6" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C178" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D178" s="12"/>
     </row>
     <row r="179" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A179" s="6" t="s">
-        <v>30</v>
+        <v>115</v>
       </c>
       <c r="B179" s="6" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C179" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D179" s="12"/>
     </row>
-    <row r="180" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C180" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="D180" s="12"/>
+        <v>269</v>
+      </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B181" s="6" t="s">
-        <v>269</v>
+        <v>519</v>
       </c>
       <c r="C181" s="7" t="s">
-        <v>270</v>
+        <v>517</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C182" s="7" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>522</v>
+        <v>270</v>
       </c>
       <c r="C183" s="7" t="s">
-        <v>520</v>
+        <v>271</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" s="6" t="s">
-        <v>116</v>
+        <v>47</v>
       </c>
       <c r="B184" s="6" t="s">
-        <v>271</v>
+        <v>531</v>
       </c>
       <c r="C184" s="7" t="s">
-        <v>272</v>
+        <v>522</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B185" s="6" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C185" s="7" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B186" s="6" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C186" s="7" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B187" s="6" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C187" s="7" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B188" s="6" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C188" s="7" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C189" s="7" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B190" s="6" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C190" s="7" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C191" s="7" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B192" s="6" t="s">
+        <v>539</v>
+      </c>
+      <c r="C192" s="7" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A193" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B193" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="C193" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="D193" s="12"/>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A194" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B194" s="19" t="s">
         <v>540</v>
       </c>
-      <c r="C192" s="7" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A193" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B193" s="6" t="s">
-        <v>541</v>
-      </c>
-      <c r="C193" s="7" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A194" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B194" s="6" t="s">
-        <v>392</v>
-      </c>
       <c r="C194" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="D194" s="12"/>
+        <v>527</v>
+      </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B195" s="19" t="s">
-        <v>542</v>
+        <v>47</v>
+      </c>
+      <c r="B195" s="6" t="s">
+        <v>272</v>
       </c>
       <c r="C195" s="7" t="s">
-        <v>529</v>
+        <v>273</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196" s="6" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C196" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.2">
@@ -4702,10 +4689,10 @@
         <v>13</v>
       </c>
       <c r="B197" s="6" t="s">
-        <v>275</v>
+        <v>545</v>
       </c>
       <c r="C197" s="7" t="s">
-        <v>276</v>
+        <v>541</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.2">
@@ -4713,21 +4700,21 @@
         <v>13</v>
       </c>
       <c r="B198" s="6" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C198" s="7" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B199" s="6" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C199" s="7" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="200" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4735,32 +4722,32 @@
         <v>13</v>
       </c>
       <c r="B200" s="6" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C200" s="7" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="201" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="6" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="B201" s="6" t="s">
-        <v>550</v>
+        <v>276</v>
       </c>
       <c r="C201" s="7" t="s">
-        <v>546</v>
+        <v>277</v>
       </c>
     </row>
     <row r="202" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="6" t="s">
-        <v>119</v>
+        <v>3</v>
       </c>
       <c r="B202" s="6" t="s">
-        <v>277</v>
+        <v>554</v>
       </c>
       <c r="C202" s="7" t="s">
-        <v>278</v>
+        <v>551</v>
       </c>
     </row>
     <row r="203" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4768,10 +4755,10 @@
         <v>3</v>
       </c>
       <c r="B203" s="6" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C203" s="7" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
     </row>
     <row r="204" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4779,21 +4766,21 @@
         <v>3</v>
       </c>
       <c r="B204" s="6" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C204" s="7" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="205" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A205" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B205" s="6" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C205" s="7" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.2">
@@ -4801,10 +4788,10 @@
         <v>3</v>
       </c>
       <c r="B206" s="6" t="s">
-        <v>559</v>
+        <v>362</v>
       </c>
       <c r="C206" s="7" t="s">
-        <v>551</v>
+        <v>363</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.2">
@@ -4812,121 +4799,122 @@
         <v>3</v>
       </c>
       <c r="B207" s="6" t="s">
-        <v>364</v>
+        <v>558</v>
       </c>
       <c r="C207" s="7" t="s">
-        <v>365</v>
+        <v>553</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A208" s="6" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B208" s="6" t="s">
-        <v>560</v>
+        <v>278</v>
       </c>
       <c r="C208" s="7" t="s">
-        <v>555</v>
+        <v>279</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A209" s="6" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="B209" s="6" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C209" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A210" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B210" s="6" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C210" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A211" s="6" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B211" s="6" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C211" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A212" s="6" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="B212" s="6" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C212" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A213" s="6" t="s">
-        <v>3</v>
+        <v>118</v>
       </c>
       <c r="B213" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C213" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A214" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B214" s="6" t="s">
-        <v>289</v>
+        <v>375</v>
       </c>
       <c r="C214" s="7" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A215" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B215" s="6" t="s">
-        <v>377</v>
+        <v>630</v>
       </c>
       <c r="C215" s="7" t="s">
-        <v>378</v>
-      </c>
+        <v>559</v>
+      </c>
+      <c r="D215" s="12"/>
     </row>
     <row r="216" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A216" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B216" s="6" t="s">
-        <v>632</v>
+        <v>290</v>
       </c>
       <c r="C216" s="7" t="s">
-        <v>561</v>
+        <v>291</v>
       </c>
       <c r="D216" s="12"/>
     </row>
     <row r="217" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A217" s="6" t="s">
-        <v>119</v>
+        <v>16</v>
       </c>
       <c r="B217" s="6" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C217" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D217" s="12"/>
     </row>
@@ -4935,122 +4923,121 @@
         <v>16</v>
       </c>
       <c r="B218" s="6" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C218" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D218" s="12"/>
     </row>
-    <row r="219" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A219" s="6" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="B219" s="6" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C219" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="D219" s="12"/>
+        <v>297</v>
+      </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A220" s="6" t="s">
-        <v>43</v>
+        <v>85</v>
       </c>
       <c r="B220" s="6" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C220" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A221" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B221" s="6" t="s">
-        <v>299</v>
+        <v>563</v>
       </c>
       <c r="C221" s="7" t="s">
-        <v>300</v>
+        <v>560</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A222" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B222" s="6" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C222" s="7" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A223" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B223" s="6" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C223" s="7" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A224" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B224" s="6" t="s">
-        <v>567</v>
+        <v>300</v>
       </c>
       <c r="C224" s="7" t="s">
-        <v>564</v>
+        <v>301</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A225" s="6" t="s">
-        <v>86</v>
+        <v>29</v>
       </c>
       <c r="B225" s="6" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C225" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A226" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B226" s="6" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C226" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A227" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B227" s="6" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C227" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A228" s="6" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B228" s="6" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C228" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.2">
@@ -5058,10 +5045,10 @@
         <v>21</v>
       </c>
       <c r="B229" s="6" t="s">
-        <v>309</v>
+        <v>569</v>
       </c>
       <c r="C229" s="7" t="s">
-        <v>310</v>
+        <v>566</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.2">
@@ -5069,10 +5056,10 @@
         <v>21</v>
       </c>
       <c r="B230" s="6" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C230" s="7" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.2">
@@ -5080,10 +5067,10 @@
         <v>21</v>
       </c>
       <c r="B231" s="6" t="s">
-        <v>572</v>
+        <v>364</v>
       </c>
       <c r="C231" s="7" t="s">
-        <v>569</v>
+        <v>365</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.2">
@@ -5091,10 +5078,10 @@
         <v>21</v>
       </c>
       <c r="B232" s="6" t="s">
-        <v>366</v>
+        <v>631</v>
       </c>
       <c r="C232" s="7" t="s">
-        <v>367</v>
+        <v>568</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.2">
@@ -5102,10 +5089,10 @@
         <v>21</v>
       </c>
       <c r="B233" s="6" t="s">
-        <v>633</v>
+        <v>310</v>
       </c>
       <c r="C233" s="7" t="s">
-        <v>570</v>
+        <v>311</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.2">
@@ -5113,120 +5100,120 @@
         <v>21</v>
       </c>
       <c r="B234" s="6" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C234" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A235" s="6" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B235" s="6" t="s">
-        <v>313</v>
+        <v>578</v>
       </c>
       <c r="C235" s="7" t="s">
-        <v>314</v>
+        <v>573</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A236" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B236" s="6" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C236" s="7" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A237" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B237" s="6" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C237" s="7" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A238" s="6" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="B238" s="6" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C238" s="7" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A239" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B239" s="6" t="s">
-        <v>583</v>
+        <v>29</v>
+      </c>
+      <c r="B239" s="19" t="s">
+        <v>582</v>
       </c>
       <c r="C239" s="7" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A240" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B240" s="19" t="s">
-        <v>584</v>
+        <v>42</v>
+      </c>
+      <c r="B240" s="6" t="s">
+        <v>632</v>
       </c>
       <c r="C240" s="7" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A241" s="6" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="B241" s="6" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C241" s="7" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A242" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B242" s="6" t="s">
-        <v>635</v>
+        <v>314</v>
       </c>
       <c r="C242" s="7" t="s">
-        <v>579</v>
+        <v>315</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A243" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B243" s="6" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C243" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A244" s="6" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="B244" s="6" t="s">
-        <v>317</v>
+        <v>442</v>
       </c>
       <c r="C244" s="7" t="s">
-        <v>318</v>
+        <v>443</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.2">
@@ -5234,10 +5221,10 @@
         <v>3</v>
       </c>
       <c r="B245" s="6" t="s">
-        <v>444</v>
+        <v>586</v>
       </c>
       <c r="C245" s="7" t="s">
-        <v>445</v>
+        <v>585</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.2">
@@ -5245,10 +5232,10 @@
         <v>3</v>
       </c>
       <c r="B246" s="6" t="s">
-        <v>588</v>
+        <v>634</v>
       </c>
       <c r="C246" s="7" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.2">
@@ -5256,1585 +5243,1541 @@
         <v>3</v>
       </c>
       <c r="B247" s="6" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C247" s="7" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A248" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B248" s="6" t="s">
-        <v>637</v>
+        <v>318</v>
       </c>
       <c r="C248" s="7" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="249" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+        <v>319</v>
+      </c>
+      <c r="D248" s="12"/>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A249" s="6" t="s">
-        <v>3</v>
+        <v>118</v>
       </c>
       <c r="B249" s="6" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C249" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="D249" s="12"/>
+        <v>321</v>
+      </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A250" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B250" s="6" t="s">
-        <v>322</v>
+        <v>590</v>
       </c>
       <c r="C250" s="7" t="s">
-        <v>323</v>
+        <v>587</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A251" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B251" s="6" t="s">
-        <v>321</v>
+        <v>636</v>
       </c>
       <c r="C251" s="7" t="s">
-        <v>248</v>
+        <v>588</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A252" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B252" s="6" t="s">
-        <v>592</v>
+        <v>377</v>
       </c>
       <c r="C252" s="7" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A253" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B253" s="6" t="s">
+        <v>591</v>
+      </c>
+      <c r="C253" s="7" t="s">
         <v>589</v>
       </c>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A253" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="B253" s="6" t="s">
-        <v>638</v>
-      </c>
-      <c r="C253" s="7" t="s">
-        <v>590</v>
-      </c>
+      <c r="D253" s="12"/>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A254" s="6" t="s">
-        <v>119</v>
+        <v>64</v>
       </c>
       <c r="B254" s="6" t="s">
-        <v>379</v>
+        <v>322</v>
       </c>
       <c r="C254" s="7" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="255" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A255" s="6" t="s">
-        <v>119</v>
+        <v>16</v>
       </c>
       <c r="B255" s="6" t="s">
-        <v>593</v>
+        <v>324</v>
       </c>
       <c r="C255" s="7" t="s">
-        <v>591</v>
-      </c>
-      <c r="D255" s="12"/>
+        <v>325</v>
+      </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A256" s="6" t="s">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="B256" s="6" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="C256" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A257" s="6" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B257" s="6" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C257" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A258" s="6" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="B258" s="6" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C258" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A259" s="6" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="B259" s="6" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C259" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A260" s="6" t="s">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="B260" s="6" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C260" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A261" s="6" t="s">
-        <v>3</v>
+        <v>118</v>
       </c>
       <c r="B261" s="6" t="s">
-        <v>334</v>
+        <v>596</v>
       </c>
       <c r="C261" s="7" t="s">
-        <v>335</v>
+        <v>594</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A262" s="6" t="s">
-        <v>3</v>
+        <v>118</v>
       </c>
       <c r="B262" s="6" t="s">
-        <v>336</v>
+        <v>394</v>
       </c>
       <c r="C262" s="7" t="s">
-        <v>337</v>
+        <v>395</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A263" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B263" s="6" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C263" s="7" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A264" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B264" s="6" t="s">
-        <v>396</v>
+        <v>598</v>
       </c>
       <c r="C264" s="7" t="s">
-        <v>397</v>
+        <v>593</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A265" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B265" s="6" t="s">
-        <v>599</v>
+        <v>637</v>
       </c>
       <c r="C265" s="7" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A266" s="6" t="s">
-        <v>119</v>
+        <v>47</v>
       </c>
       <c r="B266" s="6" t="s">
-        <v>600</v>
+        <v>336</v>
       </c>
       <c r="C266" s="7" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A267" s="6" t="s">
-        <v>119</v>
+        <v>0</v>
       </c>
       <c r="B267" s="6" t="s">
-        <v>639</v>
+        <v>338</v>
       </c>
       <c r="C267" s="7" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
+        <v>339</v>
+      </c>
+      <c r="D267" s="12"/>
+    </row>
+    <row r="268" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A268" s="6" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="B268" s="6" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C268" s="7" t="s">
-        <v>339</v>
-      </c>
+        <v>341</v>
+      </c>
+      <c r="D268" s="12"/>
     </row>
     <row r="269" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A269" s="6" t="s">
-        <v>0</v>
+        <v>118</v>
       </c>
       <c r="B269" s="6" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="C269" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D269" s="12"/>
     </row>
     <row r="270" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A270" s="6" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B270" s="6" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C270" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="D270" s="12"/>
     </row>
     <row r="271" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A271" s="6" t="s">
-        <v>119</v>
+        <v>47</v>
       </c>
       <c r="B271" s="6" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C271" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="D271" s="12"/>
     </row>
-    <row r="272" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A272" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B272" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="C272" s="7" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A273" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B272" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="C272" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="D272" s="12"/>
-    </row>
-    <row r="273" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A273" s="6" t="s">
-        <v>48</v>
-      </c>
       <c r="B273" s="6" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C273" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="D273" s="12"/>
-    </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A274" s="6" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="B274" s="6" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C274" s="7" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A275" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B275" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="C275" s="7" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A276" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B276" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="C276" s="7" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A277" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B277" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="C277" s="7" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A278" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B278" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="C278" s="7" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A279" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B279" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="C279" s="7" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A280" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B280" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="C280" s="7" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A281" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B281" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="C281" s="7" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A282" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B275" s="6" t="s">
-        <v>352</v>
-      </c>
-      <c r="C275" s="7" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A276" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B276" s="6" t="s">
-        <v>354</v>
-      </c>
-      <c r="C276" s="7" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A277" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="B277" s="6" t="s">
-        <v>356</v>
-      </c>
-      <c r="C277" s="7" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A278" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B278" s="6" t="s">
-        <v>358</v>
-      </c>
-      <c r="C278" s="7" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A279" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B279" s="6" t="s">
-        <v>360</v>
-      </c>
-      <c r="C279" s="7" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A280" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="B280" s="6" t="s">
-        <v>362</v>
-      </c>
-      <c r="C280" s="7" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A281" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="B281" s="6" t="s">
-        <v>366</v>
-      </c>
-      <c r="C281" s="7" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A282" s="6" t="s">
-        <v>30</v>
-      </c>
       <c r="B282" s="6" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="C282" s="7" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A283" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B283" s="6" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="C283" s="7" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A284" s="6" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B284" s="6" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="C284" s="7" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A285" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B285" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="C285" s="7" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A286" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B286" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="C286" s="7" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A287" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B285" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="C285" s="7" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A286" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B286" s="6" t="s">
-        <v>381</v>
-      </c>
-      <c r="C286" s="7" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A287" s="6" t="s">
-        <v>21</v>
-      </c>
       <c r="B287" s="6" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="C287" s="7" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="288" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" s="8" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="6" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B288" s="6" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="C288" s="7" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="289" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" s="8" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B289" s="6" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="C289" s="7" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="290" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" s="8" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B290" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="C290" s="7" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" s="8" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A291" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B291" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="C291" s="7" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" s="8" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A292" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B292" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="C292" s="7" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A293" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B290" s="6" t="s">
-        <v>390</v>
-      </c>
-      <c r="C290" s="7" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="291" spans="1:3" s="8" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A291" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B291" s="6" t="s">
-        <v>394</v>
-      </c>
-      <c r="C291" s="7" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="292" spans="1:3" s="8" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A292" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B292" s="6" t="s">
-        <v>398</v>
-      </c>
-      <c r="C292" s="7" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="293" spans="1:3" s="8" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A293" s="6" t="s">
-        <v>30</v>
-      </c>
       <c r="B293" s="6" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="C293" s="7" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="294" spans="1:3" s="8" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A294" s="6" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="B294" s="6" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="C294" s="7" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="295" spans="1:3" s="8" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A295" s="6" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="B295" s="6" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="C295" s="7" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="296" spans="1:3" s="8" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A296" s="6" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="B296" s="6" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="C296" s="7" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="297" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A297" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B297" s="6" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="C297" s="7" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="298" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A298" s="6" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="B298" s="6" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="C298" s="7" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="299" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A299" s="6" t="s">
-        <v>48</v>
+        <v>3</v>
       </c>
       <c r="B299" s="6" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="C299" s="7" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="300" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A300" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B300" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="C300" s="7" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A301" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B301" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="C301" s="7" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A302" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B300" s="6" t="s">
-        <v>416</v>
-      </c>
-      <c r="C300" s="7" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="301" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A301" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B301" s="6" t="s">
-        <v>418</v>
-      </c>
-      <c r="C301" s="7" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="302" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A302" s="6" t="s">
-        <v>30</v>
-      </c>
       <c r="B302" s="6" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="C302" s="7" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="303" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A303" s="6" t="s">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="B303" s="6" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="C303" s="7" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="304" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A304" s="6" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="B304" s="6" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="C304" s="7" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="305" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
+        <v>431</v>
+      </c>
+      <c r="D304" s="8"/>
+    </row>
+    <row r="305" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A305" s="6" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B305" s="6" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="C305" s="7" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="306" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
+        <v>433</v>
+      </c>
+      <c r="D305" s="8"/>
+    </row>
+    <row r="306" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A306" s="6" t="s">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="B306" s="6" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="C306" s="7" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="307" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
+        <v>435</v>
+      </c>
+      <c r="D306" s="8"/>
+    </row>
+    <row r="307" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A307" s="6" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="B307" s="6" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="C307" s="7" t="s">
-        <v>431</v>
-      </c>
+        <v>437</v>
+      </c>
+      <c r="D307" s="8"/>
     </row>
     <row r="308" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A308" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B308" s="6" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="C308" s="7" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="D308" s="8"/>
     </row>
     <row r="309" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A309" s="6" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="B309" s="6" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="C309" s="7" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="D309" s="8"/>
     </row>
     <row r="310" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A310" s="6" t="s">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="B310" s="6" t="s">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="C310" s="7" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="D310" s="8"/>
     </row>
     <row r="311" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A311" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B311" s="6" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="C311" s="7" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="D311" s="8"/>
     </row>
     <row r="312" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A312" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B312" s="6" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="C312" s="7" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="D312" s="8"/>
     </row>
     <row r="313" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A313" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B313" s="6" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="C313" s="7" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="D313" s="8"/>
     </row>
     <row r="314" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A314" s="6" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="B314" s="6" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="C314" s="7" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="D314" s="8"/>
     </row>
     <row r="315" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A315" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B315" s="6" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="C315" s="7" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="D315" s="8"/>
     </row>
     <row r="316" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A316" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B316" s="6" t="s">
-        <v>450</v>
+        <v>638</v>
       </c>
       <c r="C316" s="7" t="s">
-        <v>451</v>
+        <v>639</v>
       </c>
       <c r="D316" s="8"/>
     </row>
     <row r="317" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A317" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B317" s="6" t="s">
-        <v>452</v>
+        <v>640</v>
       </c>
       <c r="C317" s="7" t="s">
-        <v>453</v>
+        <v>641</v>
       </c>
       <c r="D317" s="8"/>
     </row>
     <row r="318" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A318" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B318" s="6" t="s">
-        <v>454</v>
-      </c>
-      <c r="C318" s="7" t="s">
-        <v>455</v>
+        <v>42</v>
+      </c>
+      <c r="B318" t="s">
+        <v>646</v>
+      </c>
+      <c r="C318" s="22" t="s">
+        <v>647</v>
       </c>
       <c r="D318" s="8"/>
     </row>
     <row r="319" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A319" s="6" t="s">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="B319" s="6" t="s">
-        <v>456</v>
+        <v>648</v>
       </c>
       <c r="C319" s="7" t="s">
-        <v>457</v>
+        <v>649</v>
       </c>
       <c r="D319" s="8"/>
     </row>
     <row r="320" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A320" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B320" s="6" t="s">
-        <v>640</v>
-      </c>
-      <c r="C320" s="7" t="s">
-        <v>641</v>
-      </c>
+      <c r="A320"/>
+      <c r="B320"/>
+      <c r="C320"/>
       <c r="D320" s="8"/>
     </row>
     <row r="321" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A321" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B321" s="6" t="s">
-        <v>642</v>
-      </c>
-      <c r="C321" s="7" t="s">
-        <v>643</v>
-      </c>
+      <c r="A321"/>
+      <c r="B321"/>
+      <c r="C321"/>
       <c r="D321" s="8"/>
     </row>
     <row r="322" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A322" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="B322" s="22" t="s">
-        <v>648</v>
-      </c>
-      <c r="C322" s="23" t="s">
-        <v>649</v>
-      </c>
+      <c r="A322"/>
+      <c r="B322"/>
+      <c r="C322"/>
       <c r="D322" s="8"/>
     </row>
     <row r="323" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A323" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="B323" s="25" t="s">
-        <v>650</v>
-      </c>
-      <c r="C323" s="26" t="s">
-        <v>651</v>
-      </c>
+      <c r="A323"/>
+      <c r="B323"/>
+      <c r="C323"/>
       <c r="D323" s="8"/>
     </row>
     <row r="324" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A324" s="22"/>
-      <c r="B324" s="22"/>
-      <c r="C324" s="22"/>
+      <c r="A324"/>
+      <c r="B324"/>
+      <c r="C324"/>
       <c r="D324" s="8"/>
     </row>
     <row r="325" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A325" s="22"/>
-      <c r="B325" s="22"/>
-      <c r="C325" s="22"/>
+      <c r="A325"/>
+      <c r="B325"/>
+      <c r="C325"/>
       <c r="D325" s="8"/>
     </row>
     <row r="326" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A326" s="22"/>
-      <c r="B326" s="22"/>
-      <c r="C326" s="22"/>
+      <c r="A326"/>
+      <c r="B326"/>
+      <c r="C326"/>
       <c r="D326" s="8"/>
     </row>
     <row r="327" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A327" s="22"/>
-      <c r="B327" s="22"/>
-      <c r="C327" s="22"/>
+      <c r="A327"/>
+      <c r="B327"/>
+      <c r="C327"/>
       <c r="D327" s="8"/>
     </row>
     <row r="328" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A328" s="22"/>
-      <c r="B328" s="22"/>
-      <c r="C328" s="22"/>
+      <c r="A328"/>
+      <c r="B328"/>
+      <c r="C328"/>
       <c r="D328" s="8"/>
     </row>
     <row r="329" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A329" s="22"/>
-      <c r="B329" s="22"/>
-      <c r="C329" s="22"/>
+      <c r="A329"/>
+      <c r="B329"/>
+      <c r="C329"/>
       <c r="D329" s="8"/>
     </row>
     <row r="330" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A330" s="22"/>
-      <c r="B330" s="22"/>
-      <c r="C330" s="22"/>
+      <c r="A330"/>
+      <c r="B330"/>
+      <c r="C330"/>
       <c r="D330" s="8"/>
     </row>
     <row r="331" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A331" s="22"/>
-      <c r="B331" s="22"/>
-      <c r="C331" s="22"/>
+      <c r="A331"/>
+      <c r="B331"/>
+      <c r="C331"/>
       <c r="D331" s="8"/>
     </row>
     <row r="332" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A332" s="22"/>
-      <c r="B332" s="22"/>
-      <c r="C332" s="22"/>
+      <c r="A332"/>
+      <c r="B332"/>
+      <c r="C332"/>
       <c r="D332" s="8"/>
     </row>
     <row r="333" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A333" s="22"/>
-      <c r="B333" s="22"/>
-      <c r="C333" s="22"/>
+      <c r="A333"/>
+      <c r="B333"/>
+      <c r="C333"/>
       <c r="D333" s="8"/>
     </row>
     <row r="334" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A334" s="22"/>
-      <c r="B334" s="22"/>
-      <c r="C334" s="22"/>
+      <c r="A334"/>
+      <c r="B334"/>
+      <c r="C334"/>
       <c r="D334" s="8"/>
     </row>
     <row r="335" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A335" s="22"/>
-      <c r="B335" s="22"/>
-      <c r="C335" s="22"/>
+      <c r="A335"/>
+      <c r="B335"/>
+      <c r="C335"/>
       <c r="D335" s="8"/>
     </row>
     <row r="336" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A336" s="22"/>
-      <c r="B336" s="22"/>
-      <c r="C336" s="22"/>
+      <c r="A336"/>
+      <c r="B336"/>
+      <c r="C336"/>
       <c r="D336" s="8"/>
     </row>
     <row r="337" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A337" s="22"/>
-      <c r="B337" s="22"/>
-      <c r="C337" s="22"/>
+      <c r="A337"/>
+      <c r="B337"/>
+      <c r="C337"/>
       <c r="D337" s="8"/>
     </row>
     <row r="338" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A338" s="22"/>
-      <c r="B338" s="22"/>
-      <c r="C338" s="22"/>
+      <c r="A338"/>
+      <c r="B338"/>
+      <c r="C338"/>
       <c r="D338" s="8"/>
     </row>
     <row r="339" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A339" s="22"/>
-      <c r="B339" s="22"/>
-      <c r="C339" s="22"/>
+      <c r="A339"/>
+      <c r="B339"/>
+      <c r="C339"/>
       <c r="D339" s="8"/>
     </row>
     <row r="340" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A340" s="22"/>
-      <c r="B340" s="22"/>
-      <c r="C340" s="22"/>
+      <c r="A340"/>
+      <c r="B340"/>
+      <c r="C340"/>
       <c r="D340" s="8"/>
     </row>
     <row r="341" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A341" s="22"/>
-      <c r="B341" s="22"/>
-      <c r="C341" s="22"/>
+      <c r="A341"/>
+      <c r="B341"/>
+      <c r="C341"/>
       <c r="D341" s="8"/>
     </row>
     <row r="342" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A342" s="22"/>
-      <c r="B342" s="22"/>
-      <c r="C342" s="22"/>
+      <c r="A342"/>
+      <c r="B342"/>
+      <c r="C342"/>
       <c r="D342" s="8"/>
     </row>
-    <row r="343" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A343" s="22"/>
-      <c r="B343" s="22"/>
-      <c r="C343" s="22"/>
+    <row r="343" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A343"/>
+      <c r="B343"/>
+      <c r="C343"/>
       <c r="D343" s="8"/>
     </row>
-    <row r="344" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A344" s="22"/>
-      <c r="B344" s="22"/>
-      <c r="C344" s="22"/>
+    <row r="344" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A344"/>
+      <c r="B344"/>
+      <c r="C344"/>
       <c r="D344" s="8"/>
     </row>
-    <row r="345" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A345" s="22"/>
-      <c r="B345" s="22"/>
-      <c r="C345" s="22"/>
+    <row r="345" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A345"/>
+      <c r="B345"/>
+      <c r="C345"/>
       <c r="D345" s="8"/>
     </row>
-    <row r="346" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A346" s="22"/>
-      <c r="B346" s="22"/>
-      <c r="C346" s="22"/>
+    <row r="346" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A346"/>
+      <c r="B346"/>
+      <c r="C346"/>
       <c r="D346" s="8"/>
     </row>
-    <row r="347" spans="1:4" s="24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A347" s="22"/>
-      <c r="B347" s="22"/>
-      <c r="C347" s="22"/>
+    <row r="347" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A347"/>
+      <c r="B347"/>
+      <c r="C347"/>
       <c r="D347" s="8"/>
     </row>
-    <row r="348" spans="1:4" s="24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A348" s="22"/>
-      <c r="B348" s="22"/>
-      <c r="C348" s="22"/>
+    <row r="348" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A348"/>
+      <c r="B348"/>
+      <c r="C348"/>
       <c r="D348" s="8"/>
     </row>
-    <row r="349" spans="1:4" s="24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A349" s="22"/>
-      <c r="B349" s="22"/>
-      <c r="C349" s="22"/>
+    <row r="349" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A349"/>
+      <c r="B349"/>
+      <c r="C349"/>
       <c r="D349" s="8"/>
     </row>
-    <row r="350" spans="1:4" s="24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A350" s="22"/>
-      <c r="B350" s="22"/>
-      <c r="C350" s="22"/>
+    <row r="350" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A350"/>
+      <c r="B350"/>
+      <c r="C350"/>
       <c r="D350" s="8"/>
     </row>
-    <row r="351" spans="1:4" s="24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A351" s="22"/>
-      <c r="B351" s="22"/>
-      <c r="C351" s="22"/>
+    <row r="351" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A351"/>
+      <c r="B351"/>
+      <c r="C351"/>
       <c r="D351" s="8"/>
     </row>
-    <row r="352" spans="1:4" s="24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A352" s="22"/>
-      <c r="B352" s="22"/>
-      <c r="C352" s="22"/>
+    <row r="352" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A352"/>
+      <c r="B352"/>
+      <c r="C352"/>
       <c r="D352" s="8"/>
     </row>
-    <row r="353" spans="1:4" s="24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A353" s="22"/>
-      <c r="B353" s="22"/>
-      <c r="C353" s="22"/>
-      <c r="D353" s="8"/>
-    </row>
-    <row r="354" spans="1:4" s="24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A354" s="22"/>
-      <c r="B354" s="22"/>
-      <c r="C354" s="22"/>
-      <c r="D354" s="8"/>
-    </row>
-    <row r="355" spans="1:4" s="24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A355" s="22"/>
-      <c r="B355" s="22"/>
-      <c r="C355" s="22"/>
-      <c r="D355" s="8"/>
-    </row>
-    <row r="356" spans="1:4" s="24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A356" s="22"/>
-      <c r="B356" s="22"/>
-      <c r="C356" s="22"/>
-      <c r="D356" s="8"/>
-    </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A357" s="22"/>
-      <c r="B357" s="22"/>
-      <c r="C357" s="22"/>
-    </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A358" s="22"/>
-      <c r="B358" s="22"/>
-      <c r="C358" s="22"/>
-    </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A359" s="22"/>
-      <c r="B359" s="22"/>
-      <c r="C359" s="22"/>
-    </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A360" s="22"/>
-      <c r="B360" s="22"/>
-      <c r="C360" s="22"/>
-    </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A361" s="22"/>
-      <c r="B361" s="22"/>
-      <c r="C361" s="22"/>
-    </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A362" s="22"/>
-    </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A363" s="22"/>
-    </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A364" s="22"/>
-    </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A365" s="22"/>
-    </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A366" s="22"/>
-    </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A367" s="22"/>
-    </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A368" s="22"/>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A353"/>
+      <c r="B353"/>
+      <c r="C353"/>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A354"/>
+      <c r="B354"/>
+      <c r="C354"/>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A355"/>
+      <c r="B355"/>
+      <c r="C355"/>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A356"/>
+      <c r="B356"/>
+      <c r="C356"/>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A357"/>
+      <c r="B357"/>
+      <c r="C357"/>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A358"/>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A359"/>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A360"/>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A361"/>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A362"/>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A363"/>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A364"/>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A365"/>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A366"/>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A367"/>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A368"/>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A369" s="22"/>
+      <c r="A369"/>
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A370" s="22"/>
+      <c r="A370"/>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A371" s="22"/>
+      <c r="A371"/>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A372" s="22"/>
+      <c r="A372"/>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A373" s="22"/>
+      <c r="A373"/>
     </row>
     <row r="374" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A374" s="22"/>
+      <c r="A374"/>
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A375" s="22"/>
+      <c r="A375"/>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A376" s="22"/>
+      <c r="A376"/>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A377" s="22"/>
+      <c r="A377"/>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A378" s="22"/>
+      <c r="A378"/>
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A379" s="22"/>
+      <c r="A379"/>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A380" s="22"/>
+      <c r="A380"/>
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A381" s="22"/>
+      <c r="A381"/>
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A382" s="22"/>
+      <c r="A382"/>
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A383" s="22"/>
+      <c r="A383"/>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A384" s="22"/>
+      <c r="A384"/>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A385" s="22"/>
+      <c r="A385"/>
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A386" s="22"/>
+      <c r="A386"/>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A387" s="22"/>
+      <c r="A387"/>
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A388" s="22"/>
+      <c r="A388"/>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A389" s="22"/>
+      <c r="A389"/>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A390" s="22"/>
+      <c r="A390"/>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A391" s="22"/>
+      <c r="A391"/>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A392" s="22"/>
+      <c r="A392"/>
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A393" s="22"/>
+      <c r="A393"/>
     </row>
     <row r="394" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A394" s="22"/>
+      <c r="A394"/>
     </row>
     <row r="395" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A395" s="22"/>
+      <c r="A395"/>
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A396" s="22"/>
+      <c r="A396"/>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A397" s="22"/>
+      <c r="A397"/>
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A398" s="22"/>
+      <c r="A398"/>
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A399" s="22"/>
+      <c r="A399"/>
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A400" s="22"/>
+      <c r="A400"/>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A401" s="22"/>
+      <c r="A401"/>
     </row>
     <row r="402" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A402" s="22"/>
+      <c r="A402"/>
     </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A403" s="22"/>
+      <c r="A403"/>
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A404" s="22"/>
+      <c r="A404"/>
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A405" s="22"/>
+      <c r="A405"/>
     </row>
     <row r="406" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A406" s="22"/>
+      <c r="A406"/>
     </row>
     <row r="407" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A407" s="22"/>
+      <c r="A407"/>
     </row>
     <row r="408" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A408" s="22"/>
+      <c r="A408"/>
     </row>
     <row r="409" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A409" s="22"/>
+      <c r="A409"/>
     </row>
     <row r="410" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A410" s="22"/>
+      <c r="A410"/>
     </row>
     <row r="411" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A411" s="22"/>
+      <c r="A411"/>
     </row>
     <row r="412" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A412" s="22"/>
+      <c r="A412"/>
     </row>
     <row r="413" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A413" s="22"/>
+      <c r="A413"/>
     </row>
     <row r="414" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A414" s="22"/>
+      <c r="A414"/>
     </row>
     <row r="415" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A415" s="22"/>
+      <c r="A415"/>
     </row>
     <row r="416" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A416" s="22"/>
+      <c r="A416"/>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A417" s="22"/>
+      <c r="A417"/>
     </row>
     <row r="418" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A418" s="22"/>
+      <c r="A418"/>
     </row>
     <row r="419" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A419" s="22"/>
+      <c r="A419"/>
     </row>
     <row r="420" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A420" s="22"/>
+      <c r="A420"/>
     </row>
     <row r="421" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A421" s="22"/>
+      <c r="A421"/>
     </row>
     <row r="422" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A422" s="22"/>
+      <c r="A422"/>
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A423" s="22"/>
+      <c r="A423"/>
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A424" s="22"/>
+      <c r="A424"/>
     </row>
     <row r="425" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A425" s="22"/>
+      <c r="A425"/>
     </row>
     <row r="426" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A426" s="22"/>
+      <c r="A426"/>
     </row>
     <row r="427" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A427" s="22"/>
+      <c r="A427"/>
     </row>
     <row r="428" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A428" s="22"/>
+      <c r="A428"/>
     </row>
     <row r="429" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A429" s="22"/>
+      <c r="A429"/>
     </row>
     <row r="430" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A430" s="22"/>
+      <c r="A430"/>
     </row>
     <row r="431" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A431" s="22"/>
+      <c r="A431"/>
     </row>
     <row r="432" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A432" s="22"/>
+      <c r="A432"/>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A433" s="22"/>
+      <c r="A433"/>
     </row>
     <row r="434" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A434" s="22"/>
+      <c r="A434"/>
     </row>
     <row r="435" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A435" s="22"/>
+      <c r="A435"/>
     </row>
     <row r="436" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A436" s="22"/>
+      <c r="A436"/>
     </row>
     <row r="437" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A437" s="22"/>
+      <c r="A437"/>
     </row>
     <row r="438" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A438" s="22"/>
+      <c r="A438"/>
     </row>
     <row r="439" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A439" s="22"/>
+      <c r="A439"/>
     </row>
     <row r="440" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A440" s="22"/>
+      <c r="A440"/>
     </row>
     <row r="441" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A441" s="22"/>
+      <c r="A441"/>
     </row>
     <row r="442" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A442" s="22"/>
+      <c r="A442"/>
     </row>
     <row r="443" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A443" s="22"/>
+      <c r="A443"/>
     </row>
     <row r="444" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A444" s="22"/>
+      <c r="A444"/>
     </row>
     <row r="445" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A445" s="22"/>
+      <c r="A445"/>
     </row>
     <row r="446" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A446" s="22"/>
+      <c r="A446"/>
     </row>
     <row r="447" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A447" s="22"/>
+      <c r="A447"/>
     </row>
     <row r="448" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A448" s="22"/>
+      <c r="A448"/>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A449" s="22"/>
+      <c r="A449"/>
     </row>
     <row r="450" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A450" s="22"/>
+      <c r="A450"/>
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A451" s="22"/>
+      <c r="A451"/>
     </row>
     <row r="452" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A452" s="22"/>
+      <c r="A452"/>
     </row>
     <row r="453" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A453" s="22"/>
+      <c r="A453"/>
     </row>
     <row r="454" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A454" s="22"/>
+      <c r="A454"/>
     </row>
     <row r="455" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A455" s="22"/>
+      <c r="A455"/>
     </row>
     <row r="456" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A456" s="22"/>
+      <c r="A456"/>
     </row>
     <row r="457" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A457" s="22"/>
+      <c r="A457"/>
     </row>
     <row r="458" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A458" s="22"/>
+      <c r="A458"/>
     </row>
     <row r="459" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A459" s="22"/>
+      <c r="A459"/>
     </row>
     <row r="460" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A460" s="22"/>
+      <c r="A460"/>
     </row>
     <row r="461" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A461" s="22"/>
+      <c r="A461"/>
     </row>
     <row r="462" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A462" s="22"/>
+      <c r="A462"/>
     </row>
     <row r="463" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A463" s="22"/>
+      <c r="A463"/>
     </row>
     <row r="464" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A464" s="22"/>
+      <c r="A464"/>
     </row>
     <row r="465" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A465" s="22"/>
+      <c r="A465"/>
     </row>
     <row r="466" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A466" s="22"/>
+      <c r="A466"/>
     </row>
     <row r="467" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A467" s="22"/>
+      <c r="A467"/>
     </row>
     <row r="468" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A468" s="22"/>
+      <c r="A468"/>
     </row>
     <row r="469" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A469" s="22"/>
+      <c r="A469"/>
     </row>
     <row r="470" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A470" s="22"/>
+      <c r="A470"/>
     </row>
     <row r="471" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A471" s="22"/>
+      <c r="A471"/>
     </row>
     <row r="472" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A472" s="22"/>
+      <c r="A472"/>
     </row>
     <row r="473" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A473" s="22"/>
+      <c r="A473"/>
     </row>
     <row r="474" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A474" s="22"/>
+      <c r="A474"/>
     </row>
     <row r="475" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A475" s="22"/>
+      <c r="A475"/>
     </row>
     <row r="476" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A476" s="22"/>
+      <c r="A476"/>
     </row>
     <row r="477" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A477" s="22"/>
+      <c r="A477"/>
     </row>
     <row r="478" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A478" s="22"/>
+      <c r="A478"/>
     </row>
     <row r="479" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A479" s="22"/>
+      <c r="A479"/>
     </row>
     <row r="480" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A480" s="22"/>
+      <c r="A480"/>
     </row>
     <row r="481" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A481" s="22"/>
+      <c r="A481"/>
     </row>
     <row r="482" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A482" s="22"/>
+      <c r="A482"/>
     </row>
     <row r="483" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A483" s="22"/>
+      <c r="A483"/>
     </row>
     <row r="484" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A484" s="22"/>
+      <c r="A484"/>
     </row>
     <row r="485" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A485" s="22"/>
+      <c r="A485"/>
     </row>
     <row r="486" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A486" s="22"/>
+      <c r="A486"/>
     </row>
     <row r="487" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A487" s="22"/>
+      <c r="A487"/>
     </row>
     <row r="488" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A488" s="22"/>
+      <c r="A488"/>
     </row>
     <row r="489" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A489" s="22"/>
+      <c r="A489"/>
     </row>
     <row r="490" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A490" s="22"/>
+      <c r="A490"/>
     </row>
     <row r="491" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A491" s="22"/>
+      <c r="A491"/>
     </row>
     <row r="492" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A492" s="22"/>
+      <c r="A492"/>
     </row>
     <row r="493" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A493" s="22"/>
+      <c r="A493"/>
     </row>
     <row r="494" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A494" s="22"/>
+      <c r="A494"/>
     </row>
     <row r="495" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A495" s="22"/>
+      <c r="A495"/>
     </row>
     <row r="496" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A496" s="22"/>
+      <c r="A496"/>
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A497" s="22"/>
+      <c r="A497"/>
     </row>
     <row r="498" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A498" s="22"/>
+      <c r="A498"/>
     </row>
     <row r="499" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A499" s="22"/>
+      <c r="A499"/>
     </row>
     <row r="500" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A500" s="22"/>
+      <c r="A500"/>
     </row>
     <row r="501" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A501" s="22"/>
+      <c r="A501"/>
     </row>
     <row r="502" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A502" s="22"/>
+      <c r="A502"/>
     </row>
     <row r="503" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A503" s="22"/>
+      <c r="A503"/>
     </row>
     <row r="504" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A504" s="22"/>
+      <c r="A504"/>
     </row>
     <row r="505" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A505" s="22"/>
+      <c r="A505"/>
     </row>
     <row r="506" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A506" s="22"/>
+      <c r="A506"/>
     </row>
     <row r="507" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A507" s="22"/>
+      <c r="A507"/>
     </row>
     <row r="508" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A508" s="22"/>
+      <c r="A508"/>
     </row>
     <row r="509" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A509" s="22"/>
+      <c r="A509"/>
     </row>
     <row r="510" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A510" s="22"/>
+      <c r="A510"/>
     </row>
     <row r="511" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A511" s="22"/>
+      <c r="A511"/>
     </row>
     <row r="512" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A512" s="22"/>
+      <c r="A512"/>
     </row>
     <row r="513" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A513" s="22"/>
+      <c r="A513"/>
     </row>
     <row r="514" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A514" s="22"/>
+      <c r="A514"/>
     </row>
     <row r="515" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A515" s="22"/>
+      <c r="A515"/>
     </row>
     <row r="516" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A516" s="22"/>
+      <c r="A516"/>
     </row>
     <row r="517" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A517" s="22"/>
+      <c r="A517"/>
     </row>
     <row r="518" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A518" s="22"/>
+      <c r="A518"/>
     </row>
     <row r="519" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A519" s="22"/>
+      <c r="A519"/>
     </row>
     <row r="520" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A520" s="22"/>
-    </row>
-    <row r="521" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A521" s="22"/>
-    </row>
-    <row r="522" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A522" s="22"/>
-    </row>
-    <row r="523" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A523" s="22"/>
-    </row>
-    <row r="524" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A524" s="22"/>
+      <c r="A520"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C322" xr:uid="{722A4A62-F3D1-4577-AFDB-10AA26B12C9A}"/>
+  <autoFilter ref="A1:C319" xr:uid="{722A4A62-F3D1-4577-AFDB-10AA26B12C9A}"/>
   <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A1048576" xr:uid="{E352FAC8-A16C-4D2E-A882-41DD0E3D9156}">

--- a/powerapp/data/subs_metadata.xlsx
+++ b/powerapp/data/subs_metadata.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/externalDrive/code-gym/work/powerapp/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mytnb-my.sharepoint.com/personal/fairizatah_tnb_com_my/Documents/WorkGSO/Operations/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84869FB3-E246-BD41-9F5E-FF701B13DF77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{84869FB3-E246-BD41-9F5E-FF701B13DF77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E8DF6A7A-1DE1-D34B-817B-57A9751C8BB2}"/>
   <bookViews>
-    <workbookView xWindow="15300" yWindow="9840" windowWidth="34400" windowHeight="26380" xr2:uid="{955B3BBE-6EC3-4CB4-BEB6-AB762050D1CD}"/>
+    <workbookView xWindow="15300" yWindow="620" windowWidth="34400" windowHeight="26380" xr2:uid="{955B3BBE-6EC3-4CB4-BEB6-AB762050D1CD}"/>
   </bookViews>
   <sheets>
     <sheet name="substation" sheetId="1" r:id="rId1"/>
@@ -2495,6 +2495,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC278235-0322-4A5E-A642-ABE48087B759}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:D520"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
@@ -2522,7 +2523,7 @@
       </c>
       <c r="D1" s="4"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -2533,7 +2534,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
@@ -2544,7 +2545,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
@@ -2555,7 +2556,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
@@ -2566,7 +2567,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>3</v>
       </c>
@@ -2577,7 +2578,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>3</v>
       </c>
@@ -2588,7 +2589,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>3</v>
       </c>
@@ -2599,7 +2600,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>3</v>
       </c>
@@ -2610,7 +2611,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>3</v>
       </c>
@@ -2621,7 +2622,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>3</v>
       </c>
@@ -2632,7 +2633,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>0</v>
       </c>
@@ -2643,7 +2644,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>13</v>
       </c>
@@ -2654,7 +2655,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>13</v>
       </c>
@@ -2665,7 +2666,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>16</v>
       </c>
@@ -2676,7 +2677,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>16</v>
       </c>
@@ -2687,7 +2688,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>16</v>
       </c>
@@ -2698,7 +2699,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>16</v>
       </c>
@@ -2709,7 +2710,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>16</v>
       </c>
@@ -2720,7 +2721,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>21</v>
       </c>
@@ -2731,7 +2732,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>21</v>
       </c>
@@ -2742,7 +2743,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
         <v>21</v>
       </c>
@@ -2753,7 +2754,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
         <v>21</v>
       </c>
@@ -2764,7 +2765,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
         <v>21</v>
       </c>
@@ -2775,7 +2776,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
         <v>21</v>
       </c>
@@ -2786,7 +2787,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
         <v>21</v>
       </c>
@@ -2797,7 +2798,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
         <v>29</v>
       </c>
@@ -2808,7 +2809,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
         <v>29</v>
       </c>
@@ -2819,7 +2820,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
         <v>29</v>
       </c>
@@ -2830,7 +2831,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
         <v>16</v>
       </c>
@@ -2841,7 +2842,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
         <v>16</v>
       </c>
@@ -2852,7 +2853,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
         <v>16</v>
       </c>
@@ -2863,7 +2864,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
         <v>42</v>
       </c>
@@ -2874,7 +2875,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
         <v>42</v>
       </c>
@@ -2885,7 +2886,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
         <v>47</v>
       </c>
@@ -2896,7 +2897,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
         <v>3</v>
       </c>
@@ -2907,7 +2908,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
         <v>3</v>
       </c>
@@ -2918,7 +2919,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
         <v>21</v>
       </c>
@@ -2929,7 +2930,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
         <v>0</v>
       </c>
@@ -2940,7 +2941,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="40" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
         <v>47</v>
       </c>
@@ -2952,7 +2953,7 @@
       </c>
       <c r="D40" s="10"/>
     </row>
-    <row r="41" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
         <v>42</v>
       </c>
@@ -2964,7 +2965,7 @@
       </c>
       <c r="D41" s="12"/>
     </row>
-    <row r="42" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
         <v>42</v>
       </c>
@@ -2976,7 +2977,7 @@
       </c>
       <c r="D42" s="12"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
         <v>64</v>
       </c>
@@ -2987,7 +2988,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
         <v>64</v>
       </c>
@@ -2998,7 +2999,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
         <v>64</v>
       </c>
@@ -3009,7 +3010,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
         <v>16</v>
       </c>
@@ -3020,7 +3021,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
         <v>29</v>
       </c>
@@ -3031,7 +3032,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
         <v>29</v>
       </c>
@@ -3042,7 +3043,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
         <v>29</v>
       </c>
@@ -3053,7 +3054,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
         <v>29</v>
       </c>
@@ -3064,7 +3065,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
         <v>29</v>
       </c>
@@ -3075,7 +3076,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="52" spans="1:3" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" s="8" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
         <v>29</v>
       </c>
@@ -3086,7 +3087,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="53" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
         <v>85</v>
       </c>
@@ -3097,7 +3098,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="54" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
         <v>64</v>
       </c>
@@ -3108,7 +3109,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="55" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
         <v>64</v>
       </c>
@@ -3119,7 +3120,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="56" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
         <v>64</v>
       </c>
@@ -3130,7 +3131,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="57" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
         <v>64</v>
       </c>
@@ -3141,7 +3142,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="58" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
         <v>29</v>
       </c>
@@ -3152,7 +3153,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="59" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="6" t="s">
         <v>29</v>
       </c>
@@ -3163,7 +3164,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="6" t="s">
         <v>3</v>
       </c>
@@ -3174,7 +3175,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="61" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="6" t="s">
         <v>3</v>
       </c>
@@ -3185,7 +3186,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="62" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="6" t="s">
         <v>0</v>
       </c>
@@ -3196,7 +3197,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="63" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="6" t="s">
         <v>0</v>
       </c>
@@ -3207,7 +3208,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="64" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="6" t="s">
         <v>42</v>
       </c>
@@ -3218,7 +3219,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="65" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="6" t="s">
         <v>16</v>
       </c>
@@ -3229,7 +3230,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="6" t="s">
         <v>16</v>
       </c>
@@ -3240,7 +3241,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
         <v>16</v>
       </c>
@@ -3251,7 +3252,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="6" t="s">
         <v>115</v>
       </c>
@@ -3262,7 +3263,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="6" t="s">
         <v>118</v>
       </c>
@@ -3273,7 +3274,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="6" t="s">
         <v>21</v>
       </c>
@@ -3284,7 +3285,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="6" t="s">
         <v>21</v>
       </c>
@@ -3295,7 +3296,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="6" t="s">
         <v>47</v>
       </c>
@@ -3306,7 +3307,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="6" t="s">
         <v>115</v>
       </c>
@@ -3317,7 +3318,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
         <v>47</v>
       </c>
@@ -3328,7 +3329,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="6" t="s">
         <v>16</v>
       </c>
@@ -3339,7 +3340,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="6" t="s">
         <v>16</v>
       </c>
@@ -3350,7 +3351,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="6" t="s">
         <v>16</v>
       </c>
@@ -3361,7 +3362,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="6" t="s">
         <v>16</v>
       </c>
@@ -3372,7 +3373,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="6" t="s">
         <v>0</v>
       </c>
@@ -3383,7 +3384,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="6" t="s">
         <v>0</v>
       </c>
@@ -3394,7 +3395,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="6" t="s">
         <v>21</v>
       </c>
@@ -3405,7 +3406,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="82" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="6" t="s">
         <v>21</v>
       </c>
@@ -3417,7 +3418,7 @@
       </c>
       <c r="D82" s="12"/>
     </row>
-    <row r="83" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="6" t="s">
         <v>29</v>
       </c>
@@ -3429,7 +3430,7 @@
       </c>
       <c r="D83" s="12"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="6" t="s">
         <v>29</v>
       </c>
@@ -3440,7 +3441,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="6" t="s">
         <v>29</v>
       </c>
@@ -3451,7 +3452,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="6" t="s">
         <v>115</v>
       </c>
@@ -3462,7 +3463,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="6" t="s">
         <v>16</v>
       </c>
@@ -3473,7 +3474,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="6" t="s">
         <v>118</v>
       </c>
@@ -3484,7 +3485,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="6" t="s">
         <v>16</v>
       </c>
@@ -3495,7 +3496,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="6" t="s">
         <v>16</v>
       </c>
@@ -3506,7 +3507,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="6" t="s">
         <v>29</v>
       </c>
@@ -3517,7 +3518,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="6" t="s">
         <v>29</v>
       </c>
@@ -3528,7 +3529,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="6" t="s">
         <v>29</v>
       </c>
@@ -3539,7 +3540,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="6" t="s">
         <v>42</v>
       </c>
@@ -3550,7 +3551,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="6" t="s">
         <v>0</v>
       </c>
@@ -3561,7 +3562,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="6" t="s">
         <v>85</v>
       </c>
@@ -3572,7 +3573,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="97" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="6" t="s">
         <v>16</v>
       </c>
@@ -3584,7 +3585,7 @@
       </c>
       <c r="D97" s="12"/>
     </row>
-    <row r="98" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="6" t="s">
         <v>16</v>
       </c>
@@ -3596,7 +3597,7 @@
       </c>
       <c r="D98" s="12"/>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="6" t="s">
         <v>47</v>
       </c>
@@ -3607,7 +3608,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="6" t="s">
         <v>47</v>
       </c>
@@ -3618,7 +3619,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="6" t="s">
         <v>47</v>
       </c>
@@ -3629,7 +3630,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="102" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="6" t="s">
         <v>47</v>
       </c>
@@ -3641,7 +3642,7 @@
       </c>
       <c r="D102" s="12"/>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="6" t="s">
         <v>42</v>
       </c>
@@ -3652,7 +3653,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="6" t="s">
         <v>42</v>
       </c>
@@ -3663,7 +3664,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="6" t="s">
         <v>42</v>
       </c>
@@ -3674,7 +3675,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="6" t="s">
         <v>42</v>
       </c>
@@ -3685,7 +3686,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="6" t="s">
         <v>42</v>
       </c>
@@ -3696,7 +3697,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="6" t="s">
         <v>42</v>
       </c>
@@ -3707,7 +3708,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="6" t="s">
         <v>42</v>
       </c>
@@ -3718,7 +3719,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" s="6" t="s">
         <v>0</v>
       </c>
@@ -3729,7 +3730,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="6" t="s">
         <v>0</v>
       </c>
@@ -3740,7 +3741,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="6" t="s">
         <v>0</v>
       </c>
@@ -3751,7 +3752,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="6" t="s">
         <v>0</v>
       </c>
@@ -3762,7 +3763,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" s="6" t="s">
         <v>0</v>
       </c>
@@ -3773,7 +3774,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" s="6" t="s">
         <v>0</v>
       </c>
@@ -3784,7 +3785,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="6" t="s">
         <v>0</v>
       </c>
@@ -3795,7 +3796,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="6" t="s">
         <v>21</v>
       </c>
@@ -3806,7 +3807,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" s="6" t="s">
         <v>21</v>
       </c>
@@ -3817,7 +3818,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" s="6" t="s">
         <v>21</v>
       </c>
@@ -3828,7 +3829,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="6" t="s">
         <v>64</v>
       </c>
@@ -3839,7 +3840,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" s="6" t="s">
         <v>64</v>
       </c>
@@ -3850,7 +3851,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" s="6" t="s">
         <v>29</v>
       </c>
@@ -3861,7 +3862,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" s="6" t="s">
         <v>29</v>
       </c>
@@ -3872,7 +3873,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" s="6" t="s">
         <v>118</v>
       </c>
@@ -3883,7 +3884,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" s="6" t="s">
         <v>118</v>
       </c>
@@ -3894,7 +3895,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" s="6" t="s">
         <v>118</v>
       </c>
@@ -3905,7 +3906,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" s="6" t="s">
         <v>118</v>
       </c>
@@ -3916,7 +3917,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="128" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:4" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" s="6" t="s">
         <v>47</v>
       </c>
@@ -3928,7 +3929,7 @@
       </c>
       <c r="D128" s="12"/>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" s="6" t="s">
         <v>47</v>
       </c>
@@ -3939,7 +3940,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" s="6" t="s">
         <v>47</v>
       </c>
@@ -3950,7 +3951,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" s="6" t="s">
         <v>47</v>
       </c>
@@ -3961,7 +3962,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" s="6" t="s">
         <v>42</v>
       </c>
@@ -3972,7 +3973,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" s="6" t="s">
         <v>42</v>
       </c>
@@ -3983,7 +3984,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" s="6" t="s">
         <v>42</v>
       </c>
@@ -3994,7 +3995,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" s="6" t="s">
         <v>42</v>
       </c>
@@ -4005,7 +4006,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="6" t="s">
         <v>42</v>
       </c>
@@ -4016,7 +4017,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" s="6" t="s">
         <v>42</v>
       </c>
@@ -4027,7 +4028,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" s="6" t="s">
         <v>42</v>
       </c>
@@ -4049,7 +4050,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" s="6" t="s">
         <v>47</v>
       </c>
@@ -4060,7 +4061,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" s="6" t="s">
         <v>47</v>
       </c>
@@ -4071,7 +4072,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:3" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="6" t="s">
         <v>47</v>
       </c>
@@ -4082,7 +4083,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:3" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="6" t="s">
         <v>47</v>
       </c>
@@ -4093,7 +4094,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:3" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="6" t="s">
         <v>47</v>
       </c>
@@ -4104,7 +4105,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:4" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="17" t="s">
         <v>47</v>
       </c>
@@ -4115,7 +4116,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:4" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="6" t="s">
         <v>16</v>
       </c>
@@ -4126,7 +4127,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:4" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="6" t="s">
         <v>16</v>
       </c>
@@ -4137,7 +4138,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:4" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="6" t="s">
         <v>47</v>
       </c>
@@ -4148,7 +4149,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:4" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="6" t="s">
         <v>3</v>
       </c>
@@ -4159,7 +4160,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:4" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="6" t="s">
         <v>3</v>
       </c>
@@ -4170,7 +4171,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:4" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="6" t="s">
         <v>3</v>
       </c>
@@ -4181,7 +4182,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" s="6" t="s">
         <v>0</v>
       </c>
@@ -4192,7 +4193,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" s="6" t="s">
         <v>0</v>
       </c>
@@ -4203,7 +4204,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" s="6" t="s">
         <v>0</v>
       </c>
@@ -4214,7 +4215,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" s="6" t="s">
         <v>0</v>
       </c>
@@ -4225,7 +4226,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" s="6" t="s">
         <v>0</v>
       </c>
@@ -4236,7 +4237,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="157" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:4" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" s="6" t="s">
         <v>21</v>
       </c>
@@ -4248,7 +4249,7 @@
       </c>
       <c r="D157" s="12"/>
     </row>
-    <row r="158" spans="1:4" s="21" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:4" s="21" customFormat="1" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="6" t="s">
         <v>21</v>
       </c>
@@ -4260,7 +4261,7 @@
       </c>
       <c r="D158" s="20"/>
     </row>
-    <row r="159" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:4" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" s="6" t="s">
         <v>21</v>
       </c>
@@ -4272,7 +4273,7 @@
       </c>
       <c r="D159" s="12"/>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" s="6" t="s">
         <v>85</v>
       </c>
@@ -4283,7 +4284,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" s="6" t="s">
         <v>16</v>
       </c>
@@ -4294,7 +4295,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" s="6" t="s">
         <v>16</v>
       </c>
@@ -4305,7 +4306,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="163" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:4" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" s="6" t="s">
         <v>16</v>
       </c>
@@ -4317,7 +4318,7 @@
       </c>
       <c r="D163" s="12"/>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" s="6" t="s">
         <v>16</v>
       </c>
@@ -4328,7 +4329,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" s="6" t="s">
         <v>29</v>
       </c>
@@ -4339,7 +4340,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" s="6" t="s">
         <v>13</v>
       </c>
@@ -4350,7 +4351,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" s="6" t="s">
         <v>13</v>
       </c>
@@ -4361,7 +4362,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" s="6" t="s">
         <v>118</v>
       </c>
@@ -4372,7 +4373,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" s="6" t="s">
         <v>3</v>
       </c>
@@ -4383,7 +4384,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" s="6" t="s">
         <v>13</v>
       </c>
@@ -4394,7 +4395,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" s="6" t="s">
         <v>13</v>
       </c>
@@ -4405,7 +4406,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" s="6" t="s">
         <v>85</v>
       </c>
@@ -4416,7 +4417,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" s="6" t="s">
         <v>21</v>
       </c>
@@ -4427,7 +4428,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" s="6" t="s">
         <v>21</v>
       </c>
@@ -4438,7 +4439,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" s="6" t="s">
         <v>16</v>
       </c>
@@ -4449,7 +4450,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" s="6" t="s">
         <v>16</v>
       </c>
@@ -4460,7 +4461,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="177" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:4" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" s="6" t="s">
         <v>16</v>
       </c>
@@ -4472,7 +4473,7 @@
       </c>
       <c r="D177" s="12"/>
     </row>
-    <row r="178" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:4" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" s="6" t="s">
         <v>29</v>
       </c>
@@ -4484,7 +4485,7 @@
       </c>
       <c r="D178" s="12"/>
     </row>
-    <row r="179" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:4" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" s="6" t="s">
         <v>115</v>
       </c>
@@ -4496,7 +4497,7 @@
       </c>
       <c r="D179" s="12"/>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" s="6" t="s">
         <v>115</v>
       </c>
@@ -4507,7 +4508,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" s="6" t="s">
         <v>115</v>
       </c>
@@ -4518,7 +4519,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" s="6" t="s">
         <v>115</v>
       </c>
@@ -4529,7 +4530,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" s="6" t="s">
         <v>115</v>
       </c>
@@ -4540,7 +4541,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" s="6" t="s">
         <v>47</v>
       </c>
@@ -4551,7 +4552,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" s="6" t="s">
         <v>47</v>
       </c>
@@ -4562,7 +4563,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" s="6" t="s">
         <v>47</v>
       </c>
@@ -4573,7 +4574,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" s="6" t="s">
         <v>47</v>
       </c>
@@ -4584,7 +4585,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" s="6" t="s">
         <v>47</v>
       </c>
@@ -4595,7 +4596,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" s="6" t="s">
         <v>47</v>
       </c>
@@ -4606,7 +4607,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" s="6" t="s">
         <v>47</v>
       </c>
@@ -4617,7 +4618,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" s="6" t="s">
         <v>47</v>
       </c>
@@ -4628,7 +4629,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" s="6" t="s">
         <v>47</v>
       </c>
@@ -4639,7 +4640,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="193" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:4" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" s="6" t="s">
         <v>47</v>
       </c>
@@ -4651,7 +4652,7 @@
       </c>
       <c r="D193" s="12"/>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" s="6" t="s">
         <v>47</v>
       </c>
@@ -4662,7 +4663,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" s="6" t="s">
         <v>47</v>
       </c>
@@ -4673,7 +4674,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" s="6" t="s">
         <v>13</v>
       </c>
@@ -4684,7 +4685,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" s="6" t="s">
         <v>13</v>
       </c>
@@ -4695,7 +4696,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" s="6" t="s">
         <v>13</v>
       </c>
@@ -4706,7 +4707,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="199" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:4" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="6" t="s">
         <v>13</v>
       </c>
@@ -4717,7 +4718,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="200" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:4" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="6" t="s">
         <v>13</v>
       </c>
@@ -4728,7 +4729,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="201" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:4" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="6" t="s">
         <v>118</v>
       </c>
@@ -4739,7 +4740,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="202" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:4" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="6" t="s">
         <v>3</v>
       </c>
@@ -4750,7 +4751,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="203" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:4" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="6" t="s">
         <v>3</v>
       </c>
@@ -4761,7 +4762,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="204" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:4" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="6" t="s">
         <v>3</v>
       </c>
@@ -4772,7 +4773,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" s="6" t="s">
         <v>3</v>
       </c>
@@ -4783,7 +4784,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" s="6" t="s">
         <v>3</v>
       </c>
@@ -4794,7 +4795,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207" s="6" t="s">
         <v>3</v>
       </c>
@@ -4805,7 +4806,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" s="6" t="s">
         <v>16</v>
       </c>
@@ -4816,7 +4817,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" s="6" t="s">
         <v>29</v>
       </c>
@@ -4827,7 +4828,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" s="6" t="s">
         <v>29</v>
       </c>
@@ -4838,7 +4839,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" s="6" t="s">
         <v>21</v>
       </c>
@@ -4849,7 +4850,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" s="6" t="s">
         <v>3</v>
       </c>
@@ -4860,7 +4861,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213" s="6" t="s">
         <v>118</v>
       </c>
@@ -4871,7 +4872,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214" s="6" t="s">
         <v>118</v>
       </c>
@@ -4882,7 +4883,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="215" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:4" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" s="6" t="s">
         <v>118</v>
       </c>
@@ -4894,7 +4895,7 @@
       </c>
       <c r="D215" s="12"/>
     </row>
-    <row r="216" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:4" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216" s="6" t="s">
         <v>118</v>
       </c>
@@ -4906,7 +4907,7 @@
       </c>
       <c r="D216" s="12"/>
     </row>
-    <row r="217" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:4" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217" s="6" t="s">
         <v>16</v>
       </c>
@@ -4918,7 +4919,7 @@
       </c>
       <c r="D217" s="12"/>
     </row>
-    <row r="218" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:4" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" s="6" t="s">
         <v>16</v>
       </c>
@@ -4930,7 +4931,7 @@
       </c>
       <c r="D218" s="12"/>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219" s="6" t="s">
         <v>42</v>
       </c>
@@ -4941,7 +4942,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" s="6" t="s">
         <v>85</v>
       </c>
@@ -4952,7 +4953,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" s="6" t="s">
         <v>85</v>
       </c>
@@ -4963,7 +4964,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222" s="6" t="s">
         <v>85</v>
       </c>
@@ -4974,7 +4975,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" s="6" t="s">
         <v>85</v>
       </c>
@@ -4985,7 +4986,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" s="6" t="s">
         <v>85</v>
       </c>
@@ -4996,7 +4997,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225" s="6" t="s">
         <v>29</v>
       </c>
@@ -5007,7 +5008,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226" s="6" t="s">
         <v>29</v>
       </c>
@@ -5018,7 +5019,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227" s="6" t="s">
         <v>29</v>
       </c>
@@ -5029,7 +5030,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228" s="6" t="s">
         <v>21</v>
       </c>
@@ -5040,7 +5041,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229" s="6" t="s">
         <v>21</v>
       </c>
@@ -5051,7 +5052,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" s="6" t="s">
         <v>21</v>
       </c>
@@ -5062,7 +5063,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231" s="6" t="s">
         <v>21</v>
       </c>
@@ -5073,7 +5074,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232" s="6" t="s">
         <v>21</v>
       </c>
@@ -5084,7 +5085,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233" s="6" t="s">
         <v>21</v>
       </c>
@@ -5095,7 +5096,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234" s="6" t="s">
         <v>21</v>
       </c>
@@ -5106,7 +5107,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235" s="6" t="s">
         <v>42</v>
       </c>
@@ -5117,7 +5118,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236" s="6" t="s">
         <v>42</v>
       </c>
@@ -5128,7 +5129,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237" s="6" t="s">
         <v>42</v>
       </c>
@@ -5139,7 +5140,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238" s="6" t="s">
         <v>29</v>
       </c>
@@ -5150,7 +5151,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239" s="6" t="s">
         <v>29</v>
       </c>
@@ -5161,7 +5162,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240" s="6" t="s">
         <v>42</v>
       </c>
@@ -5172,7 +5173,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241" s="6" t="s">
         <v>29</v>
       </c>
@@ -5183,7 +5184,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242" s="6" t="s">
         <v>29</v>
       </c>
@@ -5194,7 +5195,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243" s="6" t="s">
         <v>29</v>
       </c>
@@ -5205,7 +5206,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244" s="6" t="s">
         <v>3</v>
       </c>
@@ -5216,7 +5217,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A245" s="6" t="s">
         <v>3</v>
       </c>
@@ -5227,7 +5228,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A246" s="6" t="s">
         <v>3</v>
       </c>
@@ -5238,7 +5239,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247" s="6" t="s">
         <v>3</v>
       </c>
@@ -5249,7 +5250,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="248" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:4" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248" s="6" t="s">
         <v>3</v>
       </c>
@@ -5261,7 +5262,7 @@
       </c>
       <c r="D248" s="12"/>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249" s="6" t="s">
         <v>118</v>
       </c>
@@ -5272,7 +5273,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250" s="6" t="s">
         <v>118</v>
       </c>
@@ -5283,7 +5284,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251" s="6" t="s">
         <v>118</v>
       </c>
@@ -5294,7 +5295,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A252" s="6" t="s">
         <v>118</v>
       </c>
@@ -5305,7 +5306,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="253" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:4" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A253" s="6" t="s">
         <v>118</v>
       </c>
@@ -5317,7 +5318,7 @@
       </c>
       <c r="D253" s="12"/>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254" s="6" t="s">
         <v>64</v>
       </c>
@@ -5328,7 +5329,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A255" s="6" t="s">
         <v>16</v>
       </c>
@@ -5339,7 +5340,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A256" s="6" t="s">
         <v>16</v>
       </c>
@@ -5350,7 +5351,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A257" s="6" t="s">
         <v>21</v>
       </c>
@@ -5361,7 +5362,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A258" s="6" t="s">
         <v>42</v>
       </c>
@@ -5372,7 +5373,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A259" s="6" t="s">
         <v>3</v>
       </c>
@@ -5383,7 +5384,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A260" s="6" t="s">
         <v>3</v>
       </c>
@@ -5394,7 +5395,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A261" s="6" t="s">
         <v>118</v>
       </c>
@@ -5405,7 +5406,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A262" s="6" t="s">
         <v>118</v>
       </c>
@@ -5416,7 +5417,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A263" s="6" t="s">
         <v>118</v>
       </c>
@@ -5427,7 +5428,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A264" s="6" t="s">
         <v>118</v>
       </c>
@@ -5438,7 +5439,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A265" s="6" t="s">
         <v>118</v>
       </c>
@@ -5449,7 +5450,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A266" s="6" t="s">
         <v>47</v>
       </c>
@@ -5460,7 +5461,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="267" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:4" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A267" s="6" t="s">
         <v>0</v>
       </c>
@@ -5472,7 +5473,7 @@
       </c>
       <c r="D267" s="12"/>
     </row>
-    <row r="268" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:4" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A268" s="6" t="s">
         <v>13</v>
       </c>
@@ -5484,7 +5485,7 @@
       </c>
       <c r="D268" s="12"/>
     </row>
-    <row r="269" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:4" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A269" s="6" t="s">
         <v>118</v>
       </c>
@@ -5496,7 +5497,7 @@
       </c>
       <c r="D269" s="12"/>
     </row>
-    <row r="270" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:4" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A270" s="6" t="s">
         <v>3</v>
       </c>
@@ -5508,7 +5509,7 @@
       </c>
       <c r="D270" s="12"/>
     </row>
-    <row r="271" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:4" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A271" s="6" t="s">
         <v>47</v>
       </c>
@@ -5520,7 +5521,7 @@
       </c>
       <c r="D271" s="12"/>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A272" s="6" t="s">
         <v>29</v>
       </c>
@@ -5531,7 +5532,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A273" s="6" t="s">
         <v>3</v>
       </c>
@@ -5542,7 +5543,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A274" s="6" t="s">
         <v>16</v>
       </c>
@@ -5553,7 +5554,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A275" s="6" t="s">
         <v>118</v>
       </c>
@@ -5564,7 +5565,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A276" s="6" t="s">
         <v>29</v>
       </c>
@@ -5575,7 +5576,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A277" s="6" t="s">
         <v>29</v>
       </c>
@@ -5586,7 +5587,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A278" s="6" t="s">
         <v>85</v>
       </c>
@@ -5597,7 +5598,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A279" s="6" t="s">
         <v>29</v>
       </c>
@@ -5608,7 +5609,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A280" s="6" t="s">
         <v>29</v>
       </c>
@@ -5619,7 +5620,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A281" s="6" t="s">
         <v>29</v>
       </c>
@@ -5630,7 +5631,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A282" s="6" t="s">
         <v>3</v>
       </c>
@@ -5641,7 +5642,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A283" s="6" t="s">
         <v>29</v>
       </c>
@@ -5652,7 +5653,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A284" s="6" t="s">
         <v>21</v>
       </c>
@@ -5663,7 +5664,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="285" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:3" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A285" s="6" t="s">
         <v>0</v>
       </c>
@@ -5674,7 +5675,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="286" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:3" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A286" s="6" t="s">
         <v>21</v>
       </c>
@@ -5685,7 +5686,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="287" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:3" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A287" s="6" t="s">
         <v>3</v>
       </c>
@@ -5696,7 +5697,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="288" spans="1:3" s="8" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:3" s="8" customFormat="1" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="6" t="s">
         <v>13</v>
       </c>
@@ -5707,7 +5708,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="289" spans="1:4" s="8" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:4" s="8" customFormat="1" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="6" t="s">
         <v>21</v>
       </c>
@@ -5718,7 +5719,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="290" spans="1:4" s="8" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:4" s="8" customFormat="1" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" s="6" t="s">
         <v>29</v>
       </c>
@@ -5729,7 +5730,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="291" spans="1:4" s="8" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:4" s="8" customFormat="1" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="6" t="s">
         <v>29</v>
       </c>
@@ -5740,7 +5741,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="292" spans="1:4" s="8" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:4" s="8" customFormat="1" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="6" t="s">
         <v>29</v>
       </c>
@@ -5751,7 +5752,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="293" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:4" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A293" s="6" t="s">
         <v>3</v>
       </c>
@@ -5762,7 +5763,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="294" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:4" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A294" s="6" t="s">
         <v>16</v>
       </c>
@@ -5773,7 +5774,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="295" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:4" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A295" s="6" t="s">
         <v>47</v>
       </c>
@@ -5784,7 +5785,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="296" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:4" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A296" s="6" t="s">
         <v>3</v>
       </c>
@@ -5795,7 +5796,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="297" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:4" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A297" s="6" t="s">
         <v>3</v>
       </c>
@@ -5806,7 +5807,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="298" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:4" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A298" s="6" t="s">
         <v>29</v>
       </c>
@@ -5817,7 +5818,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="299" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:4" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A299" s="6" t="s">
         <v>3</v>
       </c>
@@ -5828,7 +5829,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="300" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:4" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A300" s="6" t="s">
         <v>64</v>
       </c>
@@ -5839,7 +5840,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="301" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:4" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A301" s="6" t="s">
         <v>21</v>
       </c>
@@ -5850,7 +5851,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="302" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:4" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A302" s="6" t="s">
         <v>3</v>
       </c>
@@ -5861,7 +5862,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="303" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:4" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A303" s="6" t="s">
         <v>47</v>
       </c>
@@ -5872,7 +5873,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="304" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:4" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A304" s="6" t="s">
         <v>29</v>
       </c>
@@ -5884,7 +5885,7 @@
       </c>
       <c r="D304" s="8"/>
     </row>
-    <row r="305" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:4" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A305" s="6" t="s">
         <v>42</v>
       </c>
@@ -5896,7 +5897,7 @@
       </c>
       <c r="D305" s="8"/>
     </row>
-    <row r="306" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:4" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A306" s="6" t="s">
         <v>64</v>
       </c>
@@ -5908,7 +5909,7 @@
       </c>
       <c r="D306" s="8"/>
     </row>
-    <row r="307" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:4" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A307" s="6" t="s">
         <v>29</v>
       </c>
@@ -5920,7 +5921,7 @@
       </c>
       <c r="D307" s="8"/>
     </row>
-    <row r="308" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:4" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A308" s="6" t="s">
         <v>29</v>
       </c>
@@ -5932,7 +5933,7 @@
       </c>
       <c r="D308" s="8"/>
     </row>
-    <row r="309" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:4" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A309" s="6" t="s">
         <v>29</v>
       </c>
@@ -5944,7 +5945,7 @@
       </c>
       <c r="D309" s="8"/>
     </row>
-    <row r="310" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:4" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A310" s="6" t="s">
         <v>16</v>
       </c>
@@ -5956,7 +5957,7 @@
       </c>
       <c r="D310" s="8"/>
     </row>
-    <row r="311" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:4" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A311" s="6" t="s">
         <v>29</v>
       </c>
@@ -5968,7 +5969,7 @@
       </c>
       <c r="D311" s="8"/>
     </row>
-    <row r="312" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:4" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A312" s="6" t="s">
         <v>29</v>
       </c>
@@ -5980,7 +5981,7 @@
       </c>
       <c r="D312" s="8"/>
     </row>
-    <row r="313" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:4" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A313" s="6" t="s">
         <v>29</v>
       </c>
@@ -5992,7 +5993,7 @@
       </c>
       <c r="D313" s="8"/>
     </row>
-    <row r="314" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:4" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A314" s="6" t="s">
         <v>47</v>
       </c>
@@ -6004,7 +6005,7 @@
       </c>
       <c r="D314" s="8"/>
     </row>
-    <row r="315" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:4" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A315" s="6" t="s">
         <v>29</v>
       </c>
@@ -6016,7 +6017,7 @@
       </c>
       <c r="D315" s="8"/>
     </row>
-    <row r="316" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:4" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A316" s="6" t="s">
         <v>29</v>
       </c>
@@ -6028,7 +6029,7 @@
       </c>
       <c r="D316" s="8"/>
     </row>
-    <row r="317" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:4" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A317" s="6" t="s">
         <v>29</v>
       </c>
@@ -6040,7 +6041,7 @@
       </c>
       <c r="D317" s="8"/>
     </row>
-    <row r="318" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:4" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A318" s="6" t="s">
         <v>42</v>
       </c>
@@ -6052,7 +6053,7 @@
       </c>
       <c r="D318" s="8"/>
     </row>
-    <row r="319" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:4" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A319" s="6" t="s">
         <v>85</v>
       </c>
@@ -6777,7 +6778,13 @@
       <c r="A520"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C319" xr:uid="{722A4A62-F3D1-4577-AFDB-10AA26B12C9A}"/>
+  <autoFilter ref="A1:C319" xr:uid="{722A4A62-F3D1-4577-AFDB-10AA26B12C9A}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="JMTH"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A1048576" xr:uid="{E352FAC8-A16C-4D2E-A882-41DD0E3D9156}">

--- a/powerapp/data/subs_metadata.xlsx
+++ b/powerapp/data/subs_metadata.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mytnb-my.sharepoint.com/personal/fairizatah_tnb_com_my/Documents/WorkGSO/Operations/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/externalDrive/code-gym/work/powerapp/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{84869FB3-E246-BD41-9F5E-FF701B13DF77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E8DF6A7A-1DE1-D34B-817B-57A9751C8BB2}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E6EF364-63A5-9345-842F-B1262537899E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15300" yWindow="620" windowWidth="34400" windowHeight="26380" xr2:uid="{955B3BBE-6EC3-4CB4-BEB6-AB762050D1CD}"/>
+    <workbookView xWindow="15300" yWindow="620" windowWidth="22720" windowHeight="26380" xr2:uid="{955B3BBE-6EC3-4CB4-BEB6-AB762050D1CD}"/>
   </bookViews>
   <sheets>
     <sheet name="substation" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">substation!$A$1:$C$319</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">substation!$A$1:$C$323</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="650">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="658">
   <si>
     <t>East-Kuantan</t>
   </si>
@@ -1989,6 +1989,30 @@
   </si>
   <si>
     <t>TPAU</t>
+  </si>
+  <si>
+    <t>Universiti Islam Antarabangsa Malaysia</t>
+  </si>
+  <si>
+    <t>UIAM</t>
+  </si>
+  <si>
+    <t>Bandar Tun Razak</t>
+  </si>
+  <si>
+    <t>BTRZ</t>
+  </si>
+  <si>
+    <t>Putrajaya Central</t>
+  </si>
+  <si>
+    <t>PJYC</t>
+  </si>
+  <si>
+    <t>Pandan Maju</t>
+  </si>
+  <si>
+    <t>PMJU</t>
   </si>
 </sst>
 </file>
@@ -2495,11 +2519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC278235-0322-4A5E-A642-ABE48087B759}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:D520"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B326" sqref="B326"/>
+      <selection activeCell="C324" sqref="C324"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2523,7 +2546,7 @@
       </c>
       <c r="D1" s="4"/>
     </row>
-    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -2534,7 +2557,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
@@ -2545,7 +2568,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
@@ -2556,7 +2579,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
@@ -2567,7 +2590,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>3</v>
       </c>
@@ -2578,7 +2601,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>3</v>
       </c>
@@ -2589,7 +2612,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>3</v>
       </c>
@@ -2600,7 +2623,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>3</v>
       </c>
@@ -2611,7 +2634,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>3</v>
       </c>
@@ -2622,7 +2645,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>3</v>
       </c>
@@ -2633,7 +2656,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>0</v>
       </c>
@@ -2644,7 +2667,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>13</v>
       </c>
@@ -2655,7 +2678,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>13</v>
       </c>
@@ -2666,7 +2689,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>16</v>
       </c>
@@ -2677,7 +2700,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>16</v>
       </c>
@@ -2688,7 +2711,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="17" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>16</v>
       </c>
@@ -2699,7 +2722,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>16</v>
       </c>
@@ -2710,7 +2733,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="19" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>16</v>
       </c>
@@ -2721,7 +2744,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="20" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>21</v>
       </c>
@@ -2732,7 +2755,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>21</v>
       </c>
@@ -2743,7 +2766,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="22" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
         <v>21</v>
       </c>
@@ -2754,7 +2777,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
         <v>21</v>
       </c>
@@ -2765,7 +2788,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="24" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
         <v>21</v>
       </c>
@@ -2776,7 +2799,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="25" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
         <v>21</v>
       </c>
@@ -2787,7 +2810,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
         <v>21</v>
       </c>
@@ -2798,7 +2821,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="27" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
         <v>29</v>
       </c>
@@ -2809,7 +2832,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
         <v>29</v>
       </c>
@@ -2820,7 +2843,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
         <v>29</v>
       </c>
@@ -2831,7 +2854,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
         <v>16</v>
       </c>
@@ -2842,7 +2865,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
         <v>16</v>
       </c>
@@ -2853,7 +2876,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
         <v>16</v>
       </c>
@@ -2864,7 +2887,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
         <v>42</v>
       </c>
@@ -2875,7 +2898,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
         <v>42</v>
       </c>
@@ -2886,7 +2909,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
         <v>47</v>
       </c>
@@ -2897,7 +2920,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
         <v>3</v>
       </c>
@@ -2908,7 +2931,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
         <v>3</v>
       </c>
@@ -2919,7 +2942,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
         <v>21</v>
       </c>
@@ -2930,7 +2953,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
         <v>0</v>
       </c>
@@ -2941,7 +2964,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="40" spans="1:4" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
         <v>47</v>
       </c>
@@ -2953,7 +2976,7 @@
       </c>
       <c r="D40" s="10"/>
     </row>
-    <row r="41" spans="1:4" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
         <v>42</v>
       </c>
@@ -2965,7 +2988,7 @@
       </c>
       <c r="D41" s="12"/>
     </row>
-    <row r="42" spans="1:4" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
         <v>42</v>
       </c>
@@ -2977,7 +3000,7 @@
       </c>
       <c r="D42" s="12"/>
     </row>
-    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
         <v>64</v>
       </c>
@@ -2988,7 +3011,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
         <v>64</v>
       </c>
@@ -2999,7 +3022,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
         <v>64</v>
       </c>
@@ -3010,7 +3033,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
         <v>16</v>
       </c>
@@ -3021,7 +3044,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
         <v>29</v>
       </c>
@@ -3032,7 +3055,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
         <v>29</v>
       </c>
@@ -3043,7 +3066,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="49" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
         <v>29</v>
       </c>
@@ -3054,7 +3077,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="50" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
         <v>29</v>
       </c>
@@ -3065,7 +3088,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="51" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
         <v>29</v>
       </c>
@@ -3076,7 +3099,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="52" spans="1:3" s="8" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
         <v>29</v>
       </c>
@@ -3087,7 +3110,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="53" spans="1:3" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
         <v>85</v>
       </c>
@@ -3098,7 +3121,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="54" spans="1:3" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
         <v>64</v>
       </c>
@@ -3109,7 +3132,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="55" spans="1:3" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
         <v>64</v>
       </c>
@@ -3120,7 +3143,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="56" spans="1:3" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
         <v>64</v>
       </c>
@@ -3131,7 +3154,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="57" spans="1:3" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
         <v>64</v>
       </c>
@@ -3142,7 +3165,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="58" spans="1:3" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
         <v>29</v>
       </c>
@@ -3153,7 +3176,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="59" spans="1:3" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="6" t="s">
         <v>29</v>
       </c>
@@ -3164,7 +3187,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="1:3" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="6" t="s">
         <v>3</v>
       </c>
@@ -3175,7 +3198,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="61" spans="1:3" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="6" t="s">
         <v>3</v>
       </c>
@@ -3186,7 +3209,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="62" spans="1:3" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="6" t="s">
         <v>0</v>
       </c>
@@ -3197,7 +3220,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="63" spans="1:3" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="6" t="s">
         <v>0</v>
       </c>
@@ -3208,7 +3231,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="64" spans="1:3" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="6" t="s">
         <v>42</v>
       </c>
@@ -3219,7 +3242,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="65" spans="1:3" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="6" t="s">
         <v>16</v>
       </c>
@@ -3230,7 +3253,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="66" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="6" t="s">
         <v>16</v>
       </c>
@@ -3241,7 +3264,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="67" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
         <v>16</v>
       </c>
@@ -3252,7 +3275,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="68" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="6" t="s">
         <v>115</v>
       </c>
@@ -3263,7 +3286,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="69" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="6" t="s">
         <v>118</v>
       </c>
@@ -3274,7 +3297,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="70" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="6" t="s">
         <v>21</v>
       </c>
@@ -3285,7 +3308,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="71" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="6" t="s">
         <v>21</v>
       </c>
@@ -3296,7 +3319,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="72" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="6" t="s">
         <v>47</v>
       </c>
@@ -3307,7 +3330,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="73" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="6" t="s">
         <v>115</v>
       </c>
@@ -3318,7 +3341,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="74" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
         <v>47</v>
       </c>
@@ -3329,7 +3352,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="75" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="6" t="s">
         <v>16</v>
       </c>
@@ -3340,7 +3363,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="76" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="6" t="s">
         <v>16</v>
       </c>
@@ -3351,7 +3374,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="77" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="6" t="s">
         <v>16</v>
       </c>
@@ -3362,7 +3385,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="78" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="6" t="s">
         <v>16</v>
       </c>
@@ -3373,7 +3396,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="79" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="6" t="s">
         <v>0</v>
       </c>
@@ -3384,7 +3407,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="80" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="6" t="s">
         <v>0</v>
       </c>
@@ -3395,7 +3418,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="81" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="6" t="s">
         <v>21</v>
       </c>
@@ -3406,7 +3429,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="82" spans="1:4" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="6" t="s">
         <v>21</v>
       </c>
@@ -3418,7 +3441,7 @@
       </c>
       <c r="D82" s="12"/>
     </row>
-    <row r="83" spans="1:4" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="6" t="s">
         <v>29</v>
       </c>
@@ -3430,7 +3453,7 @@
       </c>
       <c r="D83" s="12"/>
     </row>
-    <row r="84" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="6" t="s">
         <v>29</v>
       </c>
@@ -3441,7 +3464,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="6" t="s">
         <v>29</v>
       </c>
@@ -3452,7 +3475,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="86" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="6" t="s">
         <v>115</v>
       </c>
@@ -3463,7 +3486,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="87" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="6" t="s">
         <v>16</v>
       </c>
@@ -3474,7 +3497,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="6" t="s">
         <v>118</v>
       </c>
@@ -3485,7 +3508,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="6" t="s">
         <v>16</v>
       </c>
@@ -3496,7 +3519,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="90" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="6" t="s">
         <v>16</v>
       </c>
@@ -3507,7 +3530,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="91" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="6" t="s">
         <v>29</v>
       </c>
@@ -3518,7 +3541,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="92" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="6" t="s">
         <v>29</v>
       </c>
@@ -3529,7 +3552,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="93" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="6" t="s">
         <v>29</v>
       </c>
@@ -3540,7 +3563,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="94" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="6" t="s">
         <v>42</v>
       </c>
@@ -3551,7 +3574,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="95" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="6" t="s">
         <v>0</v>
       </c>
@@ -3562,7 +3585,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="96" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="6" t="s">
         <v>85</v>
       </c>
@@ -3573,7 +3596,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="97" spans="1:4" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="6" t="s">
         <v>16</v>
       </c>
@@ -3585,7 +3608,7 @@
       </c>
       <c r="D97" s="12"/>
     </row>
-    <row r="98" spans="1:4" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A98" s="6" t="s">
         <v>16</v>
       </c>
@@ -3597,7 +3620,7 @@
       </c>
       <c r="D98" s="12"/>
     </row>
-    <row r="99" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="6" t="s">
         <v>47</v>
       </c>
@@ -3608,7 +3631,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="100" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="6" t="s">
         <v>47</v>
       </c>
@@ -3619,7 +3642,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="101" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="6" t="s">
         <v>47</v>
       </c>
@@ -3630,7 +3653,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="102" spans="1:4" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A102" s="6" t="s">
         <v>47</v>
       </c>
@@ -3642,7 +3665,7 @@
       </c>
       <c r="D102" s="12"/>
     </row>
-    <row r="103" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="6" t="s">
         <v>42</v>
       </c>
@@ -3653,7 +3676,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="104" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="6" t="s">
         <v>42</v>
       </c>
@@ -3664,7 +3687,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="105" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" s="6" t="s">
         <v>42</v>
       </c>
@@ -3675,7 +3698,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="106" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" s="6" t="s">
         <v>42</v>
       </c>
@@ -3686,7 +3709,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="107" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" s="6" t="s">
         <v>42</v>
       </c>
@@ -3697,7 +3720,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="108" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" s="6" t="s">
         <v>42</v>
       </c>
@@ -3708,7 +3731,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="109" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" s="6" t="s">
         <v>42</v>
       </c>
@@ -3719,7 +3742,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="110" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="6" t="s">
         <v>0</v>
       </c>
@@ -3730,7 +3753,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="111" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="6" t="s">
         <v>0</v>
       </c>
@@ -3741,7 +3764,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="112" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" s="6" t="s">
         <v>0</v>
       </c>
@@ -3752,7 +3775,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="113" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" s="6" t="s">
         <v>0</v>
       </c>
@@ -3763,7 +3786,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="114" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" s="6" t="s">
         <v>0</v>
       </c>
@@ -3774,7 +3797,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="115" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" s="6" t="s">
         <v>0</v>
       </c>
@@ -3785,7 +3808,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="116" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" s="6" t="s">
         <v>0</v>
       </c>
@@ -3796,7 +3819,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="117" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" s="6" t="s">
         <v>21</v>
       </c>
@@ -3807,7 +3830,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="118" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" s="6" t="s">
         <v>21</v>
       </c>
@@ -3818,7 +3841,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="119" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" s="6" t="s">
         <v>21</v>
       </c>
@@ -3829,7 +3852,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="120" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" s="6" t="s">
         <v>64</v>
       </c>
@@ -3840,7 +3863,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="121" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" s="6" t="s">
         <v>64</v>
       </c>
@@ -3851,7 +3874,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="122" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" s="6" t="s">
         <v>29</v>
       </c>
@@ -3862,7 +3885,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="123" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" s="6" t="s">
         <v>29</v>
       </c>
@@ -3873,7 +3896,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="124" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" s="6" t="s">
         <v>118</v>
       </c>
@@ -3884,7 +3907,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="125" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" s="6" t="s">
         <v>118</v>
       </c>
@@ -3895,7 +3918,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="126" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" s="6" t="s">
         <v>118</v>
       </c>
@@ -3906,7 +3929,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="127" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" s="6" t="s">
         <v>118</v>
       </c>
@@ -3917,7 +3940,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="128" spans="1:4" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A128" s="6" t="s">
         <v>47</v>
       </c>
@@ -3929,7 +3952,7 @@
       </c>
       <c r="D128" s="12"/>
     </row>
-    <row r="129" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" s="6" t="s">
         <v>47</v>
       </c>
@@ -3940,7 +3963,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="130" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" s="6" t="s">
         <v>47</v>
       </c>
@@ -3951,7 +3974,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="131" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" s="6" t="s">
         <v>47</v>
       </c>
@@ -3962,7 +3985,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="132" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" s="6" t="s">
         <v>42</v>
       </c>
@@ -3973,7 +3996,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="133" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="6" t="s">
         <v>42</v>
       </c>
@@ -3984,7 +4007,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="134" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="6" t="s">
         <v>42</v>
       </c>
@@ -3995,7 +4018,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="135" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="6" t="s">
         <v>42</v>
       </c>
@@ -4006,7 +4029,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="136" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="6" t="s">
         <v>42</v>
       </c>
@@ -4017,7 +4040,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="137" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="6" t="s">
         <v>42</v>
       </c>
@@ -4028,7 +4051,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="138" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="6" t="s">
         <v>42</v>
       </c>
@@ -4050,7 +4073,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="140" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" s="6" t="s">
         <v>47</v>
       </c>
@@ -4061,7 +4084,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="141" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" s="6" t="s">
         <v>47</v>
       </c>
@@ -4072,7 +4095,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="6" t="s">
         <v>47</v>
       </c>
@@ -4083,7 +4106,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="6" t="s">
         <v>47</v>
       </c>
@@ -4094,7 +4117,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="6" t="s">
         <v>47</v>
       </c>
@@ -4105,7 +4128,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="17" t="s">
         <v>47</v>
       </c>
@@ -4116,7 +4139,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="6" t="s">
         <v>16</v>
       </c>
@@ -4127,7 +4150,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="6" t="s">
         <v>16</v>
       </c>
@@ -4138,7 +4161,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="6" t="s">
         <v>47</v>
       </c>
@@ -4149,7 +4172,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="6" t="s">
         <v>3</v>
       </c>
@@ -4160,7 +4183,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="6" t="s">
         <v>3</v>
       </c>
@@ -4171,7 +4194,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="6" t="s">
         <v>3</v>
       </c>
@@ -4182,7 +4205,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="152" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" s="6" t="s">
         <v>0</v>
       </c>
@@ -4193,7 +4216,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="153" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" s="6" t="s">
         <v>0</v>
       </c>
@@ -4204,7 +4227,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="154" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" s="6" t="s">
         <v>0</v>
       </c>
@@ -4215,7 +4238,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="155" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" s="6" t="s">
         <v>0</v>
       </c>
@@ -4226,7 +4249,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="156" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" s="6" t="s">
         <v>0</v>
       </c>
@@ -4237,7 +4260,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="157" spans="1:4" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A157" s="6" t="s">
         <v>21</v>
       </c>
@@ -4249,7 +4272,7 @@
       </c>
       <c r="D157" s="12"/>
     </row>
-    <row r="158" spans="1:4" s="21" customFormat="1" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:4" s="21" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="6" t="s">
         <v>21</v>
       </c>
@@ -4261,7 +4284,7 @@
       </c>
       <c r="D158" s="20"/>
     </row>
-    <row r="159" spans="1:4" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A159" s="6" t="s">
         <v>21</v>
       </c>
@@ -4273,7 +4296,7 @@
       </c>
       <c r="D159" s="12"/>
     </row>
-    <row r="160" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" s="6" t="s">
         <v>85</v>
       </c>
@@ -4284,7 +4307,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="161" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" s="6" t="s">
         <v>16</v>
       </c>
@@ -4295,7 +4318,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="162" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" s="6" t="s">
         <v>16</v>
       </c>
@@ -4306,7 +4329,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="163" spans="1:4" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A163" s="6" t="s">
         <v>16</v>
       </c>
@@ -4318,7 +4341,7 @@
       </c>
       <c r="D163" s="12"/>
     </row>
-    <row r="164" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" s="6" t="s">
         <v>16</v>
       </c>
@@ -4329,7 +4352,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="165" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" s="6" t="s">
         <v>29</v>
       </c>
@@ -4340,7 +4363,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="166" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" s="6" t="s">
         <v>13</v>
       </c>
@@ -4351,7 +4374,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="167" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" s="6" t="s">
         <v>13</v>
       </c>
@@ -4362,7 +4385,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="168" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" s="6" t="s">
         <v>118</v>
       </c>
@@ -4373,7 +4396,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="169" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" s="6" t="s">
         <v>3</v>
       </c>
@@ -4384,7 +4407,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="170" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" s="6" t="s">
         <v>13</v>
       </c>
@@ -4395,7 +4418,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="171" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" s="6" t="s">
         <v>13</v>
       </c>
@@ -4406,7 +4429,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="172" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" s="6" t="s">
         <v>85</v>
       </c>
@@ -4417,7 +4440,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="173" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" s="6" t="s">
         <v>21</v>
       </c>
@@ -4428,7 +4451,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="174" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" s="6" t="s">
         <v>21</v>
       </c>
@@ -4439,7 +4462,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="175" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" s="6" t="s">
         <v>16</v>
       </c>
@@ -4450,7 +4473,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="176" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" s="6" t="s">
         <v>16</v>
       </c>
@@ -4461,7 +4484,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="177" spans="1:4" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A177" s="6" t="s">
         <v>16</v>
       </c>
@@ -4473,7 +4496,7 @@
       </c>
       <c r="D177" s="12"/>
     </row>
-    <row r="178" spans="1:4" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A178" s="6" t="s">
         <v>29</v>
       </c>
@@ -4485,7 +4508,7 @@
       </c>
       <c r="D178" s="12"/>
     </row>
-    <row r="179" spans="1:4" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A179" s="6" t="s">
         <v>115</v>
       </c>
@@ -4497,7 +4520,7 @@
       </c>
       <c r="D179" s="12"/>
     </row>
-    <row r="180" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" s="6" t="s">
         <v>115</v>
       </c>
@@ -4508,7 +4531,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="181" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" s="6" t="s">
         <v>115</v>
       </c>
@@ -4519,7 +4542,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="182" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" s="6" t="s">
         <v>115</v>
       </c>
@@ -4530,7 +4553,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="183" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" s="6" t="s">
         <v>115</v>
       </c>
@@ -4541,7 +4564,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="184" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" s="6" t="s">
         <v>47</v>
       </c>
@@ -4552,7 +4575,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="185" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" s="6" t="s">
         <v>47</v>
       </c>
@@ -4563,7 +4586,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="186" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" s="6" t="s">
         <v>47</v>
       </c>
@@ -4574,7 +4597,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="187" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" s="6" t="s">
         <v>47</v>
       </c>
@@ -4585,7 +4608,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="188" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" s="6" t="s">
         <v>47</v>
       </c>
@@ -4596,7 +4619,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="189" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" s="6" t="s">
         <v>47</v>
       </c>
@@ -4607,7 +4630,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="190" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" s="6" t="s">
         <v>47</v>
       </c>
@@ -4618,7 +4641,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="191" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191" s="6" t="s">
         <v>47</v>
       </c>
@@ -4629,7 +4652,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="192" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192" s="6" t="s">
         <v>47</v>
       </c>
@@ -4640,7 +4663,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="193" spans="1:4" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A193" s="6" t="s">
         <v>47</v>
       </c>
@@ -4652,7 +4675,7 @@
       </c>
       <c r="D193" s="12"/>
     </row>
-    <row r="194" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194" s="6" t="s">
         <v>47</v>
       </c>
@@ -4663,7 +4686,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="195" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195" s="6" t="s">
         <v>47</v>
       </c>
@@ -4674,7 +4697,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="196" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196" s="6" t="s">
         <v>13</v>
       </c>
@@ -4685,7 +4708,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="197" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197" s="6" t="s">
         <v>13</v>
       </c>
@@ -4696,7 +4719,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="198" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198" s="6" t="s">
         <v>13</v>
       </c>
@@ -4707,7 +4730,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="199" spans="1:4" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="6" t="s">
         <v>13</v>
       </c>
@@ -4718,7 +4741,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="200" spans="1:4" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="6" t="s">
         <v>13</v>
       </c>
@@ -4729,7 +4752,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="201" spans="1:4" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="6" t="s">
         <v>118</v>
       </c>
@@ -4740,7 +4763,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="202" spans="1:4" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="6" t="s">
         <v>3</v>
       </c>
@@ -4751,7 +4774,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="203" spans="1:4" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="6" t="s">
         <v>3</v>
       </c>
@@ -4762,7 +4785,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="204" spans="1:4" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="6" t="s">
         <v>3</v>
       </c>
@@ -4773,7 +4796,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="205" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A205" s="6" t="s">
         <v>3</v>
       </c>
@@ -4784,7 +4807,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="206" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A206" s="6" t="s">
         <v>3</v>
       </c>
@@ -4795,7 +4818,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="207" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A207" s="6" t="s">
         <v>3</v>
       </c>
@@ -4806,7 +4829,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="208" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A208" s="6" t="s">
         <v>16</v>
       </c>
@@ -4817,7 +4840,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="209" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A209" s="6" t="s">
         <v>29</v>
       </c>
@@ -4828,7 +4851,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="210" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A210" s="6" t="s">
         <v>29</v>
       </c>
@@ -4839,7 +4862,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="211" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A211" s="6" t="s">
         <v>21</v>
       </c>
@@ -4850,7 +4873,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="212" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A212" s="6" t="s">
         <v>3</v>
       </c>
@@ -4861,7 +4884,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="213" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A213" s="6" t="s">
         <v>118</v>
       </c>
@@ -4872,7 +4895,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="214" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A214" s="6" t="s">
         <v>118</v>
       </c>
@@ -4883,7 +4906,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="215" spans="1:4" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A215" s="6" t="s">
         <v>118</v>
       </c>
@@ -4895,7 +4918,7 @@
       </c>
       <c r="D215" s="12"/>
     </row>
-    <row r="216" spans="1:4" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A216" s="6" t="s">
         <v>118</v>
       </c>
@@ -4907,7 +4930,7 @@
       </c>
       <c r="D216" s="12"/>
     </row>
-    <row r="217" spans="1:4" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A217" s="6" t="s">
         <v>16</v>
       </c>
@@ -4919,7 +4942,7 @@
       </c>
       <c r="D217" s="12"/>
     </row>
-    <row r="218" spans="1:4" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A218" s="6" t="s">
         <v>16</v>
       </c>
@@ -4931,7 +4954,7 @@
       </c>
       <c r="D218" s="12"/>
     </row>
-    <row r="219" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A219" s="6" t="s">
         <v>42</v>
       </c>
@@ -4942,7 +4965,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="220" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A220" s="6" t="s">
         <v>85</v>
       </c>
@@ -4953,7 +4976,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="221" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A221" s="6" t="s">
         <v>85</v>
       </c>
@@ -4964,7 +4987,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="222" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A222" s="6" t="s">
         <v>85</v>
       </c>
@@ -4975,7 +4998,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="223" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A223" s="6" t="s">
         <v>85</v>
       </c>
@@ -4986,7 +5009,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="224" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A224" s="6" t="s">
         <v>85</v>
       </c>
@@ -4997,7 +5020,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="225" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A225" s="6" t="s">
         <v>29</v>
       </c>
@@ -5008,7 +5031,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="226" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A226" s="6" t="s">
         <v>29</v>
       </c>
@@ -5019,7 +5042,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="227" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A227" s="6" t="s">
         <v>29</v>
       </c>
@@ -5030,7 +5053,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="228" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A228" s="6" t="s">
         <v>21</v>
       </c>
@@ -5041,7 +5064,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="229" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A229" s="6" t="s">
         <v>21</v>
       </c>
@@ -5052,7 +5075,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="230" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A230" s="6" t="s">
         <v>21</v>
       </c>
@@ -5063,7 +5086,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="231" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A231" s="6" t="s">
         <v>21</v>
       </c>
@@ -5074,7 +5097,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="232" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A232" s="6" t="s">
         <v>21</v>
       </c>
@@ -5085,7 +5108,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="233" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A233" s="6" t="s">
         <v>21</v>
       </c>
@@ -5096,7 +5119,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="234" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A234" s="6" t="s">
         <v>21</v>
       </c>
@@ -5107,7 +5130,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="235" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A235" s="6" t="s">
         <v>42</v>
       </c>
@@ -5118,7 +5141,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="236" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A236" s="6" t="s">
         <v>42</v>
       </c>
@@ -5129,7 +5152,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="237" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A237" s="6" t="s">
         <v>42</v>
       </c>
@@ -5140,7 +5163,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="238" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A238" s="6" t="s">
         <v>29</v>
       </c>
@@ -5151,7 +5174,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="239" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A239" s="6" t="s">
         <v>29</v>
       </c>
@@ -5162,7 +5185,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="240" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A240" s="6" t="s">
         <v>42</v>
       </c>
@@ -5173,7 +5196,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="241" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A241" s="6" t="s">
         <v>29</v>
       </c>
@@ -5184,7 +5207,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="242" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A242" s="6" t="s">
         <v>29</v>
       </c>
@@ -5195,7 +5218,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="243" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A243" s="6" t="s">
         <v>29</v>
       </c>
@@ -5206,7 +5229,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="244" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A244" s="6" t="s">
         <v>3</v>
       </c>
@@ -5217,7 +5240,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="245" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A245" s="6" t="s">
         <v>3</v>
       </c>
@@ -5228,7 +5251,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="246" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A246" s="6" t="s">
         <v>3</v>
       </c>
@@ -5239,7 +5262,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="247" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A247" s="6" t="s">
         <v>3</v>
       </c>
@@ -5250,7 +5273,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="248" spans="1:4" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A248" s="6" t="s">
         <v>3</v>
       </c>
@@ -5262,7 +5285,7 @@
       </c>
       <c r="D248" s="12"/>
     </row>
-    <row r="249" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A249" s="6" t="s">
         <v>118</v>
       </c>
@@ -5273,7 +5296,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="250" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A250" s="6" t="s">
         <v>118</v>
       </c>
@@ -5284,7 +5307,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="251" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A251" s="6" t="s">
         <v>118</v>
       </c>
@@ -5295,7 +5318,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="252" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A252" s="6" t="s">
         <v>118</v>
       </c>
@@ -5306,7 +5329,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="253" spans="1:4" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A253" s="6" t="s">
         <v>118</v>
       </c>
@@ -5318,7 +5341,7 @@
       </c>
       <c r="D253" s="12"/>
     </row>
-    <row r="254" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A254" s="6" t="s">
         <v>64</v>
       </c>
@@ -5329,7 +5352,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="255" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A255" s="6" t="s">
         <v>16</v>
       </c>
@@ -5340,7 +5363,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="256" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A256" s="6" t="s">
         <v>16</v>
       </c>
@@ -5351,7 +5374,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="257" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A257" s="6" t="s">
         <v>21</v>
       </c>
@@ -5362,7 +5385,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="258" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A258" s="6" t="s">
         <v>42</v>
       </c>
@@ -5373,7 +5396,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="259" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A259" s="6" t="s">
         <v>3</v>
       </c>
@@ -5384,7 +5407,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="260" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A260" s="6" t="s">
         <v>3</v>
       </c>
@@ -5395,7 +5418,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="261" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A261" s="6" t="s">
         <v>118</v>
       </c>
@@ -5406,7 +5429,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="262" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A262" s="6" t="s">
         <v>118</v>
       </c>
@@ -5417,7 +5440,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="263" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A263" s="6" t="s">
         <v>118</v>
       </c>
@@ -5428,7 +5451,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="264" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A264" s="6" t="s">
         <v>118</v>
       </c>
@@ -5439,7 +5462,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="265" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A265" s="6" t="s">
         <v>118</v>
       </c>
@@ -5450,7 +5473,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="266" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A266" s="6" t="s">
         <v>47</v>
       </c>
@@ -5461,7 +5484,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="267" spans="1:4" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A267" s="6" t="s">
         <v>0</v>
       </c>
@@ -5473,7 +5496,7 @@
       </c>
       <c r="D267" s="12"/>
     </row>
-    <row r="268" spans="1:4" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A268" s="6" t="s">
         <v>13</v>
       </c>
@@ -5485,7 +5508,7 @@
       </c>
       <c r="D268" s="12"/>
     </row>
-    <row r="269" spans="1:4" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A269" s="6" t="s">
         <v>118</v>
       </c>
@@ -5497,7 +5520,7 @@
       </c>
       <c r="D269" s="12"/>
     </row>
-    <row r="270" spans="1:4" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A270" s="6" t="s">
         <v>3</v>
       </c>
@@ -5509,7 +5532,7 @@
       </c>
       <c r="D270" s="12"/>
     </row>
-    <row r="271" spans="1:4" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A271" s="6" t="s">
         <v>47</v>
       </c>
@@ -5521,7 +5544,7 @@
       </c>
       <c r="D271" s="12"/>
     </row>
-    <row r="272" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A272" s="6" t="s">
         <v>29</v>
       </c>
@@ -5532,7 +5555,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="273" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A273" s="6" t="s">
         <v>3</v>
       </c>
@@ -5543,7 +5566,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="274" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A274" s="6" t="s">
         <v>16</v>
       </c>
@@ -5554,7 +5577,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="275" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A275" s="6" t="s">
         <v>118</v>
       </c>
@@ -5565,7 +5588,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="276" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A276" s="6" t="s">
         <v>29</v>
       </c>
@@ -5576,7 +5599,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="277" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A277" s="6" t="s">
         <v>29</v>
       </c>
@@ -5587,7 +5610,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="278" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A278" s="6" t="s">
         <v>85</v>
       </c>
@@ -5598,7 +5621,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="279" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A279" s="6" t="s">
         <v>29</v>
       </c>
@@ -5609,7 +5632,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="280" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A280" s="6" t="s">
         <v>29</v>
       </c>
@@ -5620,7 +5643,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="281" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A281" s="6" t="s">
         <v>29</v>
       </c>
@@ -5631,7 +5654,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="282" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A282" s="6" t="s">
         <v>3</v>
       </c>
@@ -5642,7 +5665,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="283" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A283" s="6" t="s">
         <v>29</v>
       </c>
@@ -5653,7 +5676,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="284" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A284" s="6" t="s">
         <v>21</v>
       </c>
@@ -5664,7 +5687,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="285" spans="1:3" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A285" s="6" t="s">
         <v>0</v>
       </c>
@@ -5675,7 +5698,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="286" spans="1:3" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A286" s="6" t="s">
         <v>21</v>
       </c>
@@ -5686,7 +5709,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="287" spans="1:3" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A287" s="6" t="s">
         <v>3</v>
       </c>
@@ -5697,7 +5720,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="288" spans="1:3" s="8" customFormat="1" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:3" s="8" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="6" t="s">
         <v>13</v>
       </c>
@@ -5708,7 +5731,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="289" spans="1:4" s="8" customFormat="1" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:4" s="8" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="6" t="s">
         <v>21</v>
       </c>
@@ -5719,7 +5742,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="290" spans="1:4" s="8" customFormat="1" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:4" s="8" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" s="6" t="s">
         <v>29</v>
       </c>
@@ -5730,7 +5753,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="291" spans="1:4" s="8" customFormat="1" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:4" s="8" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="6" t="s">
         <v>29</v>
       </c>
@@ -5741,7 +5764,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="292" spans="1:4" s="8" customFormat="1" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:4" s="8" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="6" t="s">
         <v>29</v>
       </c>
@@ -5752,7 +5775,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="293" spans="1:4" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A293" s="6" t="s">
         <v>3</v>
       </c>
@@ -5763,7 +5786,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="294" spans="1:4" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A294" s="6" t="s">
         <v>16</v>
       </c>
@@ -5774,7 +5797,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="295" spans="1:4" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A295" s="6" t="s">
         <v>47</v>
       </c>
@@ -5785,7 +5808,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="296" spans="1:4" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A296" s="6" t="s">
         <v>3</v>
       </c>
@@ -5796,7 +5819,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="297" spans="1:4" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A297" s="6" t="s">
         <v>3</v>
       </c>
@@ -5807,7 +5830,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="298" spans="1:4" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A298" s="6" t="s">
         <v>29</v>
       </c>
@@ -5818,7 +5841,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="299" spans="1:4" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A299" s="6" t="s">
         <v>3</v>
       </c>
@@ -5829,7 +5852,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="300" spans="1:4" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A300" s="6" t="s">
         <v>64</v>
       </c>
@@ -5840,7 +5863,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="301" spans="1:4" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A301" s="6" t="s">
         <v>21</v>
       </c>
@@ -5851,7 +5874,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="302" spans="1:4" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A302" s="6" t="s">
         <v>3</v>
       </c>
@@ -5862,7 +5885,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="303" spans="1:4" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A303" s="6" t="s">
         <v>47</v>
       </c>
@@ -5873,7 +5896,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="304" spans="1:4" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A304" s="6" t="s">
         <v>29</v>
       </c>
@@ -5885,7 +5908,7 @@
       </c>
       <c r="D304" s="8"/>
     </row>
-    <row r="305" spans="1:4" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A305" s="6" t="s">
         <v>42</v>
       </c>
@@ -5897,7 +5920,7 @@
       </c>
       <c r="D305" s="8"/>
     </row>
-    <row r="306" spans="1:4" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A306" s="6" t="s">
         <v>64</v>
       </c>
@@ -5909,7 +5932,7 @@
       </c>
       <c r="D306" s="8"/>
     </row>
-    <row r="307" spans="1:4" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A307" s="6" t="s">
         <v>29</v>
       </c>
@@ -5921,7 +5944,7 @@
       </c>
       <c r="D307" s="8"/>
     </row>
-    <row r="308" spans="1:4" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A308" s="6" t="s">
         <v>29</v>
       </c>
@@ -5933,7 +5956,7 @@
       </c>
       <c r="D308" s="8"/>
     </row>
-    <row r="309" spans="1:4" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A309" s="6" t="s">
         <v>29</v>
       </c>
@@ -5945,7 +5968,7 @@
       </c>
       <c r="D309" s="8"/>
     </row>
-    <row r="310" spans="1:4" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A310" s="6" t="s">
         <v>16</v>
       </c>
@@ -5957,7 +5980,7 @@
       </c>
       <c r="D310" s="8"/>
     </row>
-    <row r="311" spans="1:4" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A311" s="6" t="s">
         <v>29</v>
       </c>
@@ -5969,7 +5992,7 @@
       </c>
       <c r="D311" s="8"/>
     </row>
-    <row r="312" spans="1:4" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A312" s="6" t="s">
         <v>29</v>
       </c>
@@ -5981,7 +6004,7 @@
       </c>
       <c r="D312" s="8"/>
     </row>
-    <row r="313" spans="1:4" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A313" s="6" t="s">
         <v>29</v>
       </c>
@@ -5993,7 +6016,7 @@
       </c>
       <c r="D313" s="8"/>
     </row>
-    <row r="314" spans="1:4" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A314" s="6" t="s">
         <v>47</v>
       </c>
@@ -6005,7 +6028,7 @@
       </c>
       <c r="D314" s="8"/>
     </row>
-    <row r="315" spans="1:4" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A315" s="6" t="s">
         <v>29</v>
       </c>
@@ -6017,7 +6040,7 @@
       </c>
       <c r="D315" s="8"/>
     </row>
-    <row r="316" spans="1:4" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A316" s="6" t="s">
         <v>29</v>
       </c>
@@ -6029,7 +6052,7 @@
       </c>
       <c r="D316" s="8"/>
     </row>
-    <row r="317" spans="1:4" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A317" s="6" t="s">
         <v>29</v>
       </c>
@@ -6041,7 +6064,7 @@
       </c>
       <c r="D317" s="8"/>
     </row>
-    <row r="318" spans="1:4" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A318" s="6" t="s">
         <v>42</v>
       </c>
@@ -6053,7 +6076,7 @@
       </c>
       <c r="D318" s="8"/>
     </row>
-    <row r="319" spans="1:4" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A319" s="6" t="s">
         <v>85</v>
       </c>
@@ -6066,27 +6089,51 @@
       <c r="D319" s="8"/>
     </row>
     <row r="320" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A320"/>
-      <c r="B320"/>
-      <c r="C320"/>
+      <c r="A320" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B320" s="6" t="s">
+        <v>650</v>
+      </c>
+      <c r="C320" s="7" t="s">
+        <v>651</v>
+      </c>
       <c r="D320" s="8"/>
     </row>
     <row r="321" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A321"/>
-      <c r="B321"/>
-      <c r="C321"/>
+      <c r="A321" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B321" s="6" t="s">
+        <v>652</v>
+      </c>
+      <c r="C321" s="7" t="s">
+        <v>653</v>
+      </c>
       <c r="D321" s="8"/>
     </row>
     <row r="322" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A322"/>
-      <c r="B322"/>
-      <c r="C322"/>
+      <c r="A322" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B322" s="6" t="s">
+        <v>654</v>
+      </c>
+      <c r="C322" s="7" t="s">
+        <v>655</v>
+      </c>
       <c r="D322" s="8"/>
     </row>
     <row r="323" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A323"/>
-      <c r="B323"/>
-      <c r="C323"/>
+      <c r="A323" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B323" s="6" t="s">
+        <v>656</v>
+      </c>
+      <c r="C323" s="7" t="s">
+        <v>657</v>
+      </c>
       <c r="D323" s="8"/>
     </row>
     <row r="324" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -6778,13 +6825,7 @@
       <c r="A520"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C319" xr:uid="{722A4A62-F3D1-4577-AFDB-10AA26B12C9A}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="JMTH"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:C323" xr:uid="{722A4A62-F3D1-4577-AFDB-10AA26B12C9A}"/>
   <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A1048576" xr:uid="{E352FAC8-A16C-4D2E-A882-41DD0E3D9156}">

--- a/powerapp/data/subs_metadata.xlsx
+++ b/powerapp/data/subs_metadata.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/externalDrive/code-gym/work/powerapp/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myIjat\Dojo\power_app\powerapp\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E6EF364-63A5-9345-842F-B1262537899E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80F26147-E918-42B2-A24D-150726CE96F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15300" yWindow="620" windowWidth="22720" windowHeight="26380" xr2:uid="{955B3BBE-6EC3-4CB4-BEB6-AB762050D1CD}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{955B3BBE-6EC3-4CB4-BEB6-AB762050D1CD}"/>
   </bookViews>
   <sheets>
     <sheet name="substation" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">substation!$A$1:$C$323</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">substation!$A$1:$C$327</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="658">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="981" uniqueCount="666">
   <si>
     <t>East-Kuantan</t>
   </si>
@@ -1580,9 +1580,6 @@
     <t>Tangkak</t>
   </si>
   <si>
-    <t>XINYI</t>
-  </si>
-  <si>
     <t>MNID</t>
   </si>
   <si>
@@ -2013,13 +2010,40 @@
   </si>
   <si>
     <t>PMJU</t>
+  </si>
+  <si>
+    <t>ASTR</t>
+  </si>
+  <si>
+    <t>SHEL</t>
+  </si>
+  <si>
+    <t>ESTL</t>
+  </si>
+  <si>
+    <t>XNSS</t>
+  </si>
+  <si>
+    <t>Alor Setar</t>
+  </si>
+  <si>
+    <t>Shell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Eastern Steel</t>
+  </si>
+  <si>
+    <t>Xinyi Switching Station</t>
+  </si>
+  <si>
+    <t>Xinyi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2522,10 +2546,10 @@
   <dimension ref="A1:D520"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C324" sqref="C324"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="17" style="6" customWidth="1"/>
     <col min="2" max="2" width="32.1640625" style="6" bestFit="1" customWidth="1"/>
@@ -2534,19 +2558,19 @@
     <col min="5" max="16384" width="8.6640625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" s="5" customFormat="1" ht="15.5">
       <c r="A1" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D1" s="4"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -2557,18 +2581,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
@@ -2579,18 +2603,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>600</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>601</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="6" t="s">
         <v>3</v>
       </c>
@@ -2601,18 +2625,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="6" t="s">
+        <v>602</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>603</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="6" t="s">
         <v>3</v>
       </c>
@@ -2623,18 +2647,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="6" t="s">
         <v>3</v>
       </c>
@@ -2645,29 +2669,29 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="6" t="s">
         <v>13</v>
       </c>
@@ -2678,18 +2702,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4">
       <c r="A14" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="6" t="s">
         <v>16</v>
       </c>
@@ -2700,18 +2724,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4">
       <c r="A16" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="6" t="s">
+        <v>609</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>610</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="6" t="s">
         <v>16</v>
       </c>
@@ -2722,29 +2746,29 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="A18" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" s="6" t="s">
         <v>21</v>
       </c>
@@ -2755,18 +2779,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3">
       <c r="A21" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3">
       <c r="A22" s="6" t="s">
         <v>21</v>
       </c>
@@ -2777,29 +2801,29 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3">
       <c r="A23" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3">
       <c r="A25" s="6" t="s">
         <v>21</v>
       </c>
@@ -2810,18 +2834,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3">
       <c r="A26" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B26" s="6" t="s">
+        <v>614</v>
+      </c>
+      <c r="C26" s="7" t="s">
         <v>615</v>
       </c>
-      <c r="C26" s="7" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" s="6" t="s">
         <v>29</v>
       </c>
@@ -2832,7 +2856,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3">
       <c r="A28" s="6" t="s">
         <v>29</v>
       </c>
@@ -2843,7 +2867,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3">
       <c r="A29" s="6" t="s">
         <v>29</v>
       </c>
@@ -2854,7 +2878,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3">
       <c r="A30" s="6" t="s">
         <v>16</v>
       </c>
@@ -2865,7 +2889,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3">
       <c r="A31" s="6" t="s">
         <v>16</v>
       </c>
@@ -2876,7 +2900,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3">
       <c r="A32" s="6" t="s">
         <v>16</v>
       </c>
@@ -2887,7 +2911,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4">
       <c r="A33" s="6" t="s">
         <v>42</v>
       </c>
@@ -2898,7 +2922,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4">
       <c r="A34" s="6" t="s">
         <v>42</v>
       </c>
@@ -2909,7 +2933,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4">
       <c r="A35" s="6" t="s">
         <v>47</v>
       </c>
@@ -2920,7 +2944,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4">
       <c r="A36" s="6" t="s">
         <v>3</v>
       </c>
@@ -2931,7 +2955,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4">
       <c r="A37" s="6" t="s">
         <v>3</v>
       </c>
@@ -2942,7 +2966,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4">
       <c r="A38" s="6" t="s">
         <v>21</v>
       </c>
@@ -2953,7 +2977,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4">
       <c r="A39" s="6" t="s">
         <v>0</v>
       </c>
@@ -2964,7 +2988,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="40" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" s="11" customFormat="1">
       <c r="A40" s="6" t="s">
         <v>47</v>
       </c>
@@ -2976,7 +3000,7 @@
       </c>
       <c r="D40" s="10"/>
     </row>
-    <row r="41" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" s="13" customFormat="1">
       <c r="A41" s="6" t="s">
         <v>42</v>
       </c>
@@ -2988,7 +3012,7 @@
       </c>
       <c r="D41" s="12"/>
     </row>
-    <row r="42" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" s="13" customFormat="1">
       <c r="A42" s="6" t="s">
         <v>42</v>
       </c>
@@ -3000,7 +3024,7 @@
       </c>
       <c r="D42" s="12"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4">
       <c r="A43" s="6" t="s">
         <v>64</v>
       </c>
@@ -3011,7 +3035,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4">
       <c r="A44" s="6" t="s">
         <v>64</v>
       </c>
@@ -3022,7 +3046,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4">
       <c r="A45" s="6" t="s">
         <v>64</v>
       </c>
@@ -3033,7 +3057,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4">
       <c r="A46" s="6" t="s">
         <v>16</v>
       </c>
@@ -3044,7 +3068,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4">
       <c r="A47" s="6" t="s">
         <v>29</v>
       </c>
@@ -3055,7 +3079,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4">
       <c r="A48" s="6" t="s">
         <v>29</v>
       </c>
@@ -3066,7 +3090,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3">
       <c r="A49" s="6" t="s">
         <v>29</v>
       </c>
@@ -3077,7 +3101,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3">
       <c r="A50" s="6" t="s">
         <v>29</v>
       </c>
@@ -3088,7 +3112,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3">
       <c r="A51" s="6" t="s">
         <v>29</v>
       </c>
@@ -3099,7 +3123,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="52" spans="1:3" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" s="8" customFormat="1" ht="15" customHeight="1">
       <c r="A52" s="6" t="s">
         <v>29</v>
       </c>
@@ -3110,7 +3134,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="53" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" s="8" customFormat="1">
       <c r="A53" s="6" t="s">
         <v>85</v>
       </c>
@@ -3121,7 +3145,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="54" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" s="8" customFormat="1">
       <c r="A54" s="6" t="s">
         <v>64</v>
       </c>
@@ -3132,7 +3156,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="55" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" s="8" customFormat="1">
       <c r="A55" s="6" t="s">
         <v>64</v>
       </c>
@@ -3143,7 +3167,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="56" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" s="8" customFormat="1">
       <c r="A56" s="6" t="s">
         <v>64</v>
       </c>
@@ -3154,7 +3178,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="57" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" s="8" customFormat="1">
       <c r="A57" s="6" t="s">
         <v>64</v>
       </c>
@@ -3165,7 +3189,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="58" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" s="8" customFormat="1">
       <c r="A58" s="6" t="s">
         <v>29</v>
       </c>
@@ -3176,7 +3200,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="59" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" s="8" customFormat="1">
       <c r="A59" s="6" t="s">
         <v>29</v>
       </c>
@@ -3187,7 +3211,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" s="8" customFormat="1">
       <c r="A60" s="6" t="s">
         <v>3</v>
       </c>
@@ -3198,7 +3222,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="61" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" s="8" customFormat="1">
       <c r="A61" s="6" t="s">
         <v>3</v>
       </c>
@@ -3209,7 +3233,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="62" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" s="8" customFormat="1">
       <c r="A62" s="6" t="s">
         <v>0</v>
       </c>
@@ -3220,7 +3244,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="63" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" s="8" customFormat="1">
       <c r="A63" s="6" t="s">
         <v>0</v>
       </c>
@@ -3231,7 +3255,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="64" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" s="8" customFormat="1">
       <c r="A64" s="6" t="s">
         <v>42</v>
       </c>
@@ -3242,7 +3266,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="65" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" s="8" customFormat="1">
       <c r="A65" s="6" t="s">
         <v>16</v>
       </c>
@@ -3253,7 +3277,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3">
       <c r="A66" s="6" t="s">
         <v>16</v>
       </c>
@@ -3264,7 +3288,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3">
       <c r="A67" s="6" t="s">
         <v>16</v>
       </c>
@@ -3275,7 +3299,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3">
       <c r="A68" s="6" t="s">
         <v>115</v>
       </c>
@@ -3286,7 +3310,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3">
       <c r="A69" s="6" t="s">
         <v>118</v>
       </c>
@@ -3297,7 +3321,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3">
       <c r="A70" s="6" t="s">
         <v>21</v>
       </c>
@@ -3308,7 +3332,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3">
       <c r="A71" s="6" t="s">
         <v>21</v>
       </c>
@@ -3319,7 +3343,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3">
       <c r="A72" s="6" t="s">
         <v>47</v>
       </c>
@@ -3330,7 +3354,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3">
       <c r="A73" s="6" t="s">
         <v>115</v>
       </c>
@@ -3341,7 +3365,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3">
       <c r="A74" s="6" t="s">
         <v>47</v>
       </c>
@@ -3352,7 +3376,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3">
       <c r="A75" s="6" t="s">
         <v>16</v>
       </c>
@@ -3363,7 +3387,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3">
       <c r="A76" s="6" t="s">
         <v>16</v>
       </c>
@@ -3374,7 +3398,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3">
       <c r="A77" s="6" t="s">
         <v>16</v>
       </c>
@@ -3385,7 +3409,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3">
       <c r="A78" s="6" t="s">
         <v>16</v>
       </c>
@@ -3396,7 +3420,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3">
       <c r="A79" s="6" t="s">
         <v>0</v>
       </c>
@@ -3407,7 +3431,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3">
       <c r="A80" s="6" t="s">
         <v>0</v>
       </c>
@@ -3418,7 +3442,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4">
       <c r="A81" s="6" t="s">
         <v>21</v>
       </c>
@@ -3429,7 +3453,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="82" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" s="13" customFormat="1">
       <c r="A82" s="6" t="s">
         <v>21</v>
       </c>
@@ -3441,7 +3465,7 @@
       </c>
       <c r="D82" s="12"/>
     </row>
-    <row r="83" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" s="13" customFormat="1">
       <c r="A83" s="6" t="s">
         <v>29</v>
       </c>
@@ -3453,7 +3477,7 @@
       </c>
       <c r="D83" s="12"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4">
       <c r="A84" s="6" t="s">
         <v>29</v>
       </c>
@@ -3464,7 +3488,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4">
       <c r="A85" s="6" t="s">
         <v>29</v>
       </c>
@@ -3475,7 +3499,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4">
       <c r="A86" s="6" t="s">
         <v>115</v>
       </c>
@@ -3486,7 +3510,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4">
       <c r="A87" s="6" t="s">
         <v>16</v>
       </c>
@@ -3497,7 +3521,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4">
       <c r="A88" s="6" t="s">
         <v>118</v>
       </c>
@@ -3508,7 +3532,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4">
       <c r="A89" s="6" t="s">
         <v>16</v>
       </c>
@@ -3519,7 +3543,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4">
       <c r="A90" s="6" t="s">
         <v>16</v>
       </c>
@@ -3530,7 +3554,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4">
       <c r="A91" s="6" t="s">
         <v>29</v>
       </c>
@@ -3541,7 +3565,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4">
       <c r="A92" s="6" t="s">
         <v>29</v>
       </c>
@@ -3552,7 +3576,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4">
       <c r="A93" s="6" t="s">
         <v>29</v>
       </c>
@@ -3563,7 +3587,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4">
       <c r="A94" s="6" t="s">
         <v>42</v>
       </c>
@@ -3574,7 +3598,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4">
       <c r="A95" s="6" t="s">
         <v>0</v>
       </c>
@@ -3585,7 +3609,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4">
       <c r="A96" s="6" t="s">
         <v>85</v>
       </c>
@@ -3596,7 +3620,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="97" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4" s="13" customFormat="1">
       <c r="A97" s="6" t="s">
         <v>16</v>
       </c>
@@ -3608,7 +3632,7 @@
       </c>
       <c r="D97" s="12"/>
     </row>
-    <row r="98" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4" s="13" customFormat="1">
       <c r="A98" s="6" t="s">
         <v>16</v>
       </c>
@@ -3620,7 +3644,7 @@
       </c>
       <c r="D98" s="12"/>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4">
       <c r="A99" s="6" t="s">
         <v>47</v>
       </c>
@@ -3631,7 +3655,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4">
       <c r="A100" s="6" t="s">
         <v>47</v>
       </c>
@@ -3642,7 +3666,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4">
       <c r="A101" s="6" t="s">
         <v>47</v>
       </c>
@@ -3653,7 +3677,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="102" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" s="13" customFormat="1">
       <c r="A102" s="6" t="s">
         <v>47</v>
       </c>
@@ -3665,7 +3689,7 @@
       </c>
       <c r="D102" s="12"/>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4">
       <c r="A103" s="6" t="s">
         <v>42</v>
       </c>
@@ -3676,7 +3700,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4">
       <c r="A104" s="6" t="s">
         <v>42</v>
       </c>
@@ -3687,7 +3711,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4">
       <c r="A105" s="6" t="s">
         <v>42</v>
       </c>
@@ -3698,7 +3722,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4">
       <c r="A106" s="6" t="s">
         <v>42</v>
       </c>
@@ -3709,7 +3733,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4">
       <c r="A107" s="6" t="s">
         <v>42</v>
       </c>
@@ -3720,7 +3744,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4">
       <c r="A108" s="6" t="s">
         <v>42</v>
       </c>
@@ -3731,7 +3755,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4">
       <c r="A109" s="6" t="s">
         <v>42</v>
       </c>
@@ -3742,7 +3766,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4">
       <c r="A110" s="6" t="s">
         <v>0</v>
       </c>
@@ -3753,7 +3777,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4">
       <c r="A111" s="6" t="s">
         <v>0</v>
       </c>
@@ -3764,7 +3788,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:4">
       <c r="A112" s="6" t="s">
         <v>0</v>
       </c>
@@ -3775,7 +3799,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:4">
       <c r="A113" s="6" t="s">
         <v>0</v>
       </c>
@@ -3786,7 +3810,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:4">
       <c r="A114" s="6" t="s">
         <v>0</v>
       </c>
@@ -3797,7 +3821,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:4">
       <c r="A115" s="6" t="s">
         <v>0</v>
       </c>
@@ -3808,7 +3832,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:4">
       <c r="A116" s="6" t="s">
         <v>0</v>
       </c>
@@ -3819,7 +3843,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:4">
       <c r="A117" s="6" t="s">
         <v>21</v>
       </c>
@@ -3830,7 +3854,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:4">
       <c r="A118" s="6" t="s">
         <v>21</v>
       </c>
@@ -3841,7 +3865,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:4">
       <c r="A119" s="6" t="s">
         <v>21</v>
       </c>
@@ -3852,7 +3876,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:4">
       <c r="A120" s="6" t="s">
         <v>64</v>
       </c>
@@ -3863,7 +3887,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:4">
       <c r="A121" s="6" t="s">
         <v>64</v>
       </c>
@@ -3874,7 +3898,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:4">
       <c r="A122" s="6" t="s">
         <v>29</v>
       </c>
@@ -3885,7 +3909,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:4">
       <c r="A123" s="6" t="s">
         <v>29</v>
       </c>
@@ -3896,7 +3920,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:4">
       <c r="A124" s="6" t="s">
         <v>118</v>
       </c>
@@ -3907,7 +3931,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:4">
       <c r="A125" s="6" t="s">
         <v>118</v>
       </c>
@@ -3918,7 +3942,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:4">
       <c r="A126" s="6" t="s">
         <v>118</v>
       </c>
@@ -3929,7 +3953,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:4">
       <c r="A127" s="6" t="s">
         <v>118</v>
       </c>
@@ -3940,7 +3964,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="128" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:4" s="13" customFormat="1">
       <c r="A128" s="6" t="s">
         <v>47</v>
       </c>
@@ -3952,7 +3976,7 @@
       </c>
       <c r="D128" s="12"/>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:3">
       <c r="A129" s="6" t="s">
         <v>47</v>
       </c>
@@ -3963,7 +3987,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:3">
       <c r="A130" s="6" t="s">
         <v>47</v>
       </c>
@@ -3974,7 +3998,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:3">
       <c r="A131" s="6" t="s">
         <v>47</v>
       </c>
@@ -3985,7 +4009,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:3">
       <c r="A132" s="6" t="s">
         <v>42</v>
       </c>
@@ -3996,18 +4020,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:3">
       <c r="A133" s="6" t="s">
         <v>42</v>
       </c>
       <c r="B133" s="15" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C133" s="16" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:3">
       <c r="A134" s="6" t="s">
         <v>42</v>
       </c>
@@ -4018,7 +4042,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:3">
       <c r="A135" s="6" t="s">
         <v>42</v>
       </c>
@@ -4029,7 +4053,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:3">
       <c r="A136" s="6" t="s">
         <v>42</v>
       </c>
@@ -4040,29 +4064,29 @@
         <v>496</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:3">
       <c r="A137" s="6" t="s">
         <v>42</v>
       </c>
       <c r="B137" s="15" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C137" s="16" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:3">
       <c r="A138" s="6" t="s">
         <v>42</v>
       </c>
       <c r="B138" s="15" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C138" s="16" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:3">
       <c r="A139" s="6" t="s">
         <v>47</v>
       </c>
@@ -4073,7 +4097,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:3">
       <c r="A140" s="6" t="s">
         <v>47</v>
       </c>
@@ -4084,29 +4108,29 @@
         <v>498</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:3">
       <c r="A141" s="6" t="s">
         <v>47</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C141" s="7" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:3" ht="14.5" customHeight="1">
       <c r="A142" s="6" t="s">
         <v>47</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>513</v>
+        <v>665</v>
       </c>
       <c r="C142" s="16" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:3" ht="14.5" customHeight="1">
       <c r="A143" s="6" t="s">
         <v>47</v>
       </c>
@@ -4117,7 +4141,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:3" ht="14.5" customHeight="1">
       <c r="A144" s="6" t="s">
         <v>47</v>
       </c>
@@ -4128,7 +4152,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:4" ht="14.5" customHeight="1">
       <c r="A145" s="17" t="s">
         <v>47</v>
       </c>
@@ -4139,7 +4163,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:4" ht="14.5" customHeight="1">
       <c r="A146" s="6" t="s">
         <v>16</v>
       </c>
@@ -4150,7 +4174,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:4" ht="14.5" customHeight="1">
       <c r="A147" s="6" t="s">
         <v>16</v>
       </c>
@@ -4161,7 +4185,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:4" ht="14.5" customHeight="1">
       <c r="A148" s="6" t="s">
         <v>47</v>
       </c>
@@ -4172,7 +4196,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:4" ht="14.5" customHeight="1">
       <c r="A149" s="6" t="s">
         <v>3</v>
       </c>
@@ -4183,7 +4207,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:4" ht="14.5" customHeight="1">
       <c r="A150" s="6" t="s">
         <v>3</v>
       </c>
@@ -4194,7 +4218,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:4" ht="14.5" customHeight="1">
       <c r="A151" s="6" t="s">
         <v>3</v>
       </c>
@@ -4205,18 +4229,18 @@
         <v>220</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:4">
       <c r="A152" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C152" s="7" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:4">
       <c r="A153" s="6" t="s">
         <v>0</v>
       </c>
@@ -4227,29 +4251,29 @@
         <v>401</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:4">
       <c r="A154" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C154" s="7" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
       <c r="A155" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C155" s="7" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:4">
       <c r="A156" s="6" t="s">
         <v>0</v>
       </c>
@@ -4260,7 +4284,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="157" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:4" s="13" customFormat="1">
       <c r="A157" s="6" t="s">
         <v>21</v>
       </c>
@@ -4272,7 +4296,7 @@
       </c>
       <c r="D157" s="12"/>
     </row>
-    <row r="158" spans="1:4" s="21" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:4" s="21" customFormat="1" ht="14" customHeight="1">
       <c r="A158" s="6" t="s">
         <v>21</v>
       </c>
@@ -4284,7 +4308,7 @@
       </c>
       <c r="D158" s="20"/>
     </row>
-    <row r="159" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:4" s="13" customFormat="1">
       <c r="A159" s="6" t="s">
         <v>21</v>
       </c>
@@ -4292,11 +4316,11 @@
         <v>229</v>
       </c>
       <c r="C159" s="7" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D159" s="12"/>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:4">
       <c r="A160" s="6" t="s">
         <v>85</v>
       </c>
@@ -4307,7 +4331,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:4">
       <c r="A161" s="6" t="s">
         <v>16</v>
       </c>
@@ -4318,7 +4342,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:4">
       <c r="A162" s="6" t="s">
         <v>16</v>
       </c>
@@ -4329,7 +4353,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="163" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:4" s="13" customFormat="1">
       <c r="A163" s="6" t="s">
         <v>16</v>
       </c>
@@ -4341,7 +4365,7 @@
       </c>
       <c r="D163" s="12"/>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:4">
       <c r="A164" s="6" t="s">
         <v>16</v>
       </c>
@@ -4352,7 +4376,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:4">
       <c r="A165" s="6" t="s">
         <v>29</v>
       </c>
@@ -4363,7 +4387,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:4">
       <c r="A166" s="6" t="s">
         <v>13</v>
       </c>
@@ -4374,7 +4398,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:4">
       <c r="A167" s="6" t="s">
         <v>13</v>
       </c>
@@ -4385,7 +4409,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:4">
       <c r="A168" s="6" t="s">
         <v>118</v>
       </c>
@@ -4396,7 +4420,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:4">
       <c r="A169" s="6" t="s">
         <v>3</v>
       </c>
@@ -4407,7 +4431,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:4">
       <c r="A170" s="6" t="s">
         <v>13</v>
       </c>
@@ -4418,7 +4442,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:4">
       <c r="A171" s="6" t="s">
         <v>13</v>
       </c>
@@ -4429,7 +4453,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:4">
       <c r="A172" s="6" t="s">
         <v>85</v>
       </c>
@@ -4440,7 +4464,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:4">
       <c r="A173" s="6" t="s">
         <v>21</v>
       </c>
@@ -4451,7 +4475,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:4">
       <c r="A174" s="6" t="s">
         <v>21</v>
       </c>
@@ -4462,7 +4486,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:4">
       <c r="A175" s="6" t="s">
         <v>16</v>
       </c>
@@ -4473,7 +4497,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:4">
       <c r="A176" s="6" t="s">
         <v>16</v>
       </c>
@@ -4484,7 +4508,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="177" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:4" s="13" customFormat="1">
       <c r="A177" s="6" t="s">
         <v>16</v>
       </c>
@@ -4496,7 +4520,7 @@
       </c>
       <c r="D177" s="12"/>
     </row>
-    <row r="178" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:4" s="13" customFormat="1">
       <c r="A178" s="6" t="s">
         <v>29</v>
       </c>
@@ -4508,7 +4532,7 @@
       </c>
       <c r="D178" s="12"/>
     </row>
-    <row r="179" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:4" s="13" customFormat="1">
       <c r="A179" s="6" t="s">
         <v>115</v>
       </c>
@@ -4520,7 +4544,7 @@
       </c>
       <c r="D179" s="12"/>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:4">
       <c r="A180" s="6" t="s">
         <v>115</v>
       </c>
@@ -4531,29 +4555,29 @@
         <v>269</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:4">
       <c r="A181" s="6" t="s">
         <v>115</v>
       </c>
       <c r="B181" s="6" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C181" s="7" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
       <c r="A182" s="6" t="s">
         <v>115</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C182" s="7" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
       <c r="A183" s="6" t="s">
         <v>115</v>
       </c>
@@ -4564,106 +4588,106 @@
         <v>271</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:4">
       <c r="A184" s="6" t="s">
         <v>47</v>
       </c>
       <c r="B184" s="6" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C184" s="7" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
       <c r="A185" s="6" t="s">
         <v>47</v>
       </c>
       <c r="B185" s="6" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C185" s="7" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
       <c r="A186" s="6" t="s">
         <v>47</v>
       </c>
       <c r="B186" s="6" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C186" s="7" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
       <c r="A187" s="6" t="s">
         <v>47</v>
       </c>
       <c r="B187" s="6" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C187" s="7" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
       <c r="A188" s="6" t="s">
         <v>47</v>
       </c>
       <c r="B188" s="6" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C188" s="7" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
       <c r="A189" s="6" t="s">
         <v>47</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C189" s="7" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
       <c r="A190" s="6" t="s">
         <v>47</v>
       </c>
       <c r="B190" s="6" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C190" s="7" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
       <c r="A191" s="6" t="s">
         <v>47</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C191" s="7" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
       <c r="A192" s="6" t="s">
         <v>47</v>
       </c>
       <c r="B192" s="6" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C192" s="7" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" s="13" customFormat="1">
       <c r="A193" s="6" t="s">
         <v>47</v>
       </c>
@@ -4675,18 +4699,18 @@
       </c>
       <c r="D193" s="12"/>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:4">
       <c r="A194" s="6" t="s">
         <v>47</v>
       </c>
       <c r="B194" s="19" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C194" s="7" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
       <c r="A195" s="6" t="s">
         <v>47</v>
       </c>
@@ -4697,7 +4721,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:4">
       <c r="A196" s="6" t="s">
         <v>13</v>
       </c>
@@ -4708,51 +4732,51 @@
         <v>275</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:4">
       <c r="A197" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B197" s="6" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C197" s="7" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
       <c r="A198" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B198" s="6" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C198" s="7" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" ht="14.5" customHeight="1">
       <c r="A199" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B199" s="6" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C199" s="7" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" ht="14.5" customHeight="1">
       <c r="A200" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B200" s="6" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C200" s="7" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" ht="14.5" customHeight="1">
       <c r="A201" s="6" t="s">
         <v>118</v>
       </c>
@@ -4763,51 +4787,51 @@
         <v>277</v>
       </c>
     </row>
-    <row r="202" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:4" ht="14.5" customHeight="1">
       <c r="A202" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B202" s="6" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C202" s="7" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" ht="14.5" customHeight="1">
       <c r="A203" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B203" s="6" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C203" s="7" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" ht="14.5" customHeight="1">
       <c r="A204" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B204" s="6" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C204" s="7" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4">
       <c r="A205" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B205" s="6" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C205" s="7" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4">
       <c r="A206" s="6" t="s">
         <v>3</v>
       </c>
@@ -4818,18 +4842,18 @@
         <v>363</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:4">
       <c r="A207" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B207" s="6" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C207" s="7" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4">
       <c r="A208" s="6" t="s">
         <v>16</v>
       </c>
@@ -4840,7 +4864,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:4">
       <c r="A209" s="6" t="s">
         <v>29</v>
       </c>
@@ -4851,7 +4875,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:4">
       <c r="A210" s="6" t="s">
         <v>29</v>
       </c>
@@ -4862,7 +4886,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:4">
       <c r="A211" s="6" t="s">
         <v>21</v>
       </c>
@@ -4873,7 +4897,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:4">
       <c r="A212" s="6" t="s">
         <v>3</v>
       </c>
@@ -4884,7 +4908,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:4">
       <c r="A213" s="6" t="s">
         <v>118</v>
       </c>
@@ -4895,7 +4919,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:4">
       <c r="A214" s="6" t="s">
         <v>118</v>
       </c>
@@ -4906,19 +4930,19 @@
         <v>376</v>
       </c>
     </row>
-    <row r="215" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:4" s="13" customFormat="1">
       <c r="A215" s="6" t="s">
         <v>118</v>
       </c>
       <c r="B215" s="6" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C215" s="7" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D215" s="12"/>
     </row>
-    <row r="216" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:4" s="13" customFormat="1">
       <c r="A216" s="6" t="s">
         <v>118</v>
       </c>
@@ -4930,7 +4954,7 @@
       </c>
       <c r="D216" s="12"/>
     </row>
-    <row r="217" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:4" s="13" customFormat="1">
       <c r="A217" s="6" t="s">
         <v>16</v>
       </c>
@@ -4942,7 +4966,7 @@
       </c>
       <c r="D217" s="12"/>
     </row>
-    <row r="218" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:4" s="13" customFormat="1">
       <c r="A218" s="6" t="s">
         <v>16</v>
       </c>
@@ -4954,7 +4978,7 @@
       </c>
       <c r="D218" s="12"/>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:4">
       <c r="A219" s="6" t="s">
         <v>42</v>
       </c>
@@ -4965,7 +4989,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:4">
       <c r="A220" s="6" t="s">
         <v>85</v>
       </c>
@@ -4976,40 +5000,40 @@
         <v>299</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:4">
       <c r="A221" s="6" t="s">
         <v>85</v>
       </c>
       <c r="B221" s="6" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C221" s="7" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4">
       <c r="A222" s="6" t="s">
         <v>85</v>
       </c>
       <c r="B222" s="6" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C222" s="7" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4">
       <c r="A223" s="6" t="s">
         <v>85</v>
       </c>
       <c r="B223" s="6" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C223" s="7" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4">
       <c r="A224" s="6" t="s">
         <v>85</v>
       </c>
@@ -5020,7 +5044,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:3">
       <c r="A225" s="6" t="s">
         <v>29</v>
       </c>
@@ -5031,7 +5055,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:3">
       <c r="A226" s="6" t="s">
         <v>29</v>
       </c>
@@ -5042,7 +5066,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:3">
       <c r="A227" s="6" t="s">
         <v>29</v>
       </c>
@@ -5053,7 +5077,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:3">
       <c r="A228" s="6" t="s">
         <v>21</v>
       </c>
@@ -5064,29 +5088,29 @@
         <v>309</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:3">
       <c r="A229" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B229" s="6" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C229" s="7" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3">
       <c r="A230" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B230" s="6" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C230" s="7" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3">
       <c r="A231" s="6" t="s">
         <v>21</v>
       </c>
@@ -5097,18 +5121,18 @@
         <v>365</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:3">
       <c r="A232" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B232" s="6" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C232" s="7" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3">
       <c r="A233" s="6" t="s">
         <v>21</v>
       </c>
@@ -5119,7 +5143,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:3">
       <c r="A234" s="6" t="s">
         <v>21</v>
       </c>
@@ -5130,84 +5154,84 @@
         <v>313</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:3">
       <c r="A235" s="6" t="s">
         <v>42</v>
       </c>
       <c r="B235" s="6" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C235" s="7" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3">
       <c r="A236" s="6" t="s">
         <v>42</v>
       </c>
       <c r="B236" s="6" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C236" s="7" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3">
       <c r="A237" s="6" t="s">
         <v>42</v>
       </c>
       <c r="B237" s="6" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C237" s="7" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3">
       <c r="A238" s="6" t="s">
         <v>29</v>
       </c>
       <c r="B238" s="6" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C238" s="7" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3">
       <c r="A239" s="6" t="s">
         <v>29</v>
       </c>
       <c r="B239" s="19" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C239" s="7" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3">
       <c r="A240" s="6" t="s">
         <v>42</v>
       </c>
       <c r="B240" s="6" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C240" s="7" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4">
       <c r="A241" s="6" t="s">
         <v>29</v>
       </c>
       <c r="B241" s="6" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C241" s="7" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4">
       <c r="A242" s="6" t="s">
         <v>29</v>
       </c>
@@ -5218,7 +5242,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:4">
       <c r="A243" s="6" t="s">
         <v>29</v>
       </c>
@@ -5229,7 +5253,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:4">
       <c r="A244" s="6" t="s">
         <v>3</v>
       </c>
@@ -5240,40 +5264,40 @@
         <v>443</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:4">
       <c r="A245" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B245" s="6" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C245" s="7" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4">
       <c r="A246" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B246" s="6" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C246" s="7" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4">
       <c r="A247" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B247" s="6" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C247" s="7" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="248" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" s="13" customFormat="1">
       <c r="A248" s="6" t="s">
         <v>3</v>
       </c>
@@ -5285,7 +5309,7 @@
       </c>
       <c r="D248" s="12"/>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:4">
       <c r="A249" s="6" t="s">
         <v>118</v>
       </c>
@@ -5296,29 +5320,29 @@
         <v>321</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:4">
       <c r="A250" s="6" t="s">
         <v>118</v>
       </c>
       <c r="B250" s="6" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C250" s="7" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4">
       <c r="A251" s="6" t="s">
         <v>118</v>
       </c>
       <c r="B251" s="6" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C251" s="7" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4">
       <c r="A252" s="6" t="s">
         <v>118</v>
       </c>
@@ -5329,19 +5353,19 @@
         <v>378</v>
       </c>
     </row>
-    <row r="253" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:4" s="13" customFormat="1">
       <c r="A253" s="6" t="s">
         <v>118</v>
       </c>
       <c r="B253" s="6" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C253" s="7" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D253" s="12"/>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:4">
       <c r="A254" s="6" t="s">
         <v>64</v>
       </c>
@@ -5352,7 +5376,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:4">
       <c r="A255" s="6" t="s">
         <v>16</v>
       </c>
@@ -5363,7 +5387,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:4">
       <c r="A256" s="6" t="s">
         <v>16</v>
       </c>
@@ -5374,7 +5398,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:4">
       <c r="A257" s="6" t="s">
         <v>21</v>
       </c>
@@ -5385,7 +5409,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:4">
       <c r="A258" s="6" t="s">
         <v>42</v>
       </c>
@@ -5396,7 +5420,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:4">
       <c r="A259" s="6" t="s">
         <v>3</v>
       </c>
@@ -5407,7 +5431,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:4">
       <c r="A260" s="6" t="s">
         <v>3</v>
       </c>
@@ -5418,18 +5442,18 @@
         <v>335</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:4">
       <c r="A261" s="6" t="s">
         <v>118</v>
       </c>
       <c r="B261" s="6" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C261" s="7" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4">
       <c r="A262" s="6" t="s">
         <v>118</v>
       </c>
@@ -5440,40 +5464,40 @@
         <v>395</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:4">
       <c r="A263" s="6" t="s">
         <v>118</v>
       </c>
       <c r="B263" s="6" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C263" s="7" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4">
       <c r="A264" s="6" t="s">
         <v>118</v>
       </c>
       <c r="B264" s="6" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C264" s="7" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4">
       <c r="A265" s="6" t="s">
         <v>118</v>
       </c>
       <c r="B265" s="6" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C265" s="7" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4">
       <c r="A266" s="6" t="s">
         <v>47</v>
       </c>
@@ -5484,7 +5508,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="267" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:4" s="13" customFormat="1">
       <c r="A267" s="6" t="s">
         <v>0</v>
       </c>
@@ -5496,7 +5520,7 @@
       </c>
       <c r="D267" s="12"/>
     </row>
-    <row r="268" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:4" s="13" customFormat="1">
       <c r="A268" s="6" t="s">
         <v>13</v>
       </c>
@@ -5508,7 +5532,7 @@
       </c>
       <c r="D268" s="12"/>
     </row>
-    <row r="269" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:4" s="13" customFormat="1">
       <c r="A269" s="6" t="s">
         <v>118</v>
       </c>
@@ -5520,7 +5544,7 @@
       </c>
       <c r="D269" s="12"/>
     </row>
-    <row r="270" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:4" s="13" customFormat="1">
       <c r="A270" s="6" t="s">
         <v>3</v>
       </c>
@@ -5532,7 +5556,7 @@
       </c>
       <c r="D270" s="12"/>
     </row>
-    <row r="271" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:4" s="13" customFormat="1">
       <c r="A271" s="6" t="s">
         <v>47</v>
       </c>
@@ -5544,7 +5568,7 @@
       </c>
       <c r="D271" s="12"/>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:4">
       <c r="A272" s="6" t="s">
         <v>29</v>
       </c>
@@ -5555,7 +5579,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:3">
       <c r="A273" s="6" t="s">
         <v>3</v>
       </c>
@@ -5566,7 +5590,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:3">
       <c r="A274" s="6" t="s">
         <v>16</v>
       </c>
@@ -5577,7 +5601,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:3">
       <c r="A275" s="6" t="s">
         <v>118</v>
       </c>
@@ -5588,7 +5612,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:3">
       <c r="A276" s="6" t="s">
         <v>29</v>
       </c>
@@ -5599,7 +5623,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:3">
       <c r="A277" s="6" t="s">
         <v>29</v>
       </c>
@@ -5610,7 +5634,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:3">
       <c r="A278" s="6" t="s">
         <v>85</v>
       </c>
@@ -5621,7 +5645,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:3">
       <c r="A279" s="6" t="s">
         <v>29</v>
       </c>
@@ -5632,7 +5656,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:3">
       <c r="A280" s="6" t="s">
         <v>29</v>
       </c>
@@ -5643,7 +5667,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:3">
       <c r="A281" s="6" t="s">
         <v>29</v>
       </c>
@@ -5654,7 +5678,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:3">
       <c r="A282" s="6" t="s">
         <v>3</v>
       </c>
@@ -5665,7 +5689,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:3">
       <c r="A283" s="6" t="s">
         <v>29</v>
       </c>
@@ -5676,7 +5700,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:3">
       <c r="A284" s="6" t="s">
         <v>21</v>
       </c>
@@ -5687,7 +5711,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="285" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:3" s="8" customFormat="1">
       <c r="A285" s="6" t="s">
         <v>0</v>
       </c>
@@ -5698,7 +5722,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="286" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:3" s="8" customFormat="1">
       <c r="A286" s="6" t="s">
         <v>21</v>
       </c>
@@ -5709,7 +5733,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="287" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:3" s="8" customFormat="1">
       <c r="A287" s="6" t="s">
         <v>3</v>
       </c>
@@ -5720,7 +5744,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="288" spans="1:3" s="8" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:3" s="8" customFormat="1" ht="14.5" customHeight="1">
       <c r="A288" s="6" t="s">
         <v>13</v>
       </c>
@@ -5731,7 +5755,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="289" spans="1:4" s="8" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:4" s="8" customFormat="1" ht="14.5" customHeight="1">
       <c r="A289" s="6" t="s">
         <v>21</v>
       </c>
@@ -5742,7 +5766,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="290" spans="1:4" s="8" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:4" s="8" customFormat="1" ht="14.5" customHeight="1">
       <c r="A290" s="6" t="s">
         <v>29</v>
       </c>
@@ -5753,7 +5777,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="291" spans="1:4" s="8" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:4" s="8" customFormat="1" ht="14.5" customHeight="1">
       <c r="A291" s="6" t="s">
         <v>29</v>
       </c>
@@ -5764,7 +5788,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="292" spans="1:4" s="8" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:4" s="8" customFormat="1" ht="14.5" customHeight="1">
       <c r="A292" s="6" t="s">
         <v>29</v>
       </c>
@@ -5775,7 +5799,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="293" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:4" s="8" customFormat="1">
       <c r="A293" s="6" t="s">
         <v>3</v>
       </c>
@@ -5786,7 +5810,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="294" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:4" s="8" customFormat="1">
       <c r="A294" s="6" t="s">
         <v>16</v>
       </c>
@@ -5797,7 +5821,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="295" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:4" s="8" customFormat="1">
       <c r="A295" s="6" t="s">
         <v>47</v>
       </c>
@@ -5808,7 +5832,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="296" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:4" s="8" customFormat="1">
       <c r="A296" s="6" t="s">
         <v>3</v>
       </c>
@@ -5819,7 +5843,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="297" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:4" s="8" customFormat="1">
       <c r="A297" s="6" t="s">
         <v>3</v>
       </c>
@@ -5830,7 +5854,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="298" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:4" s="8" customFormat="1">
       <c r="A298" s="6" t="s">
         <v>29</v>
       </c>
@@ -5841,7 +5865,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="299" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:4" s="8" customFormat="1">
       <c r="A299" s="6" t="s">
         <v>3</v>
       </c>
@@ -5852,7 +5876,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="300" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:4" s="8" customFormat="1">
       <c r="A300" s="6" t="s">
         <v>64</v>
       </c>
@@ -5863,7 +5887,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="301" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:4" s="8" customFormat="1">
       <c r="A301" s="6" t="s">
         <v>21</v>
       </c>
@@ -5874,7 +5898,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="302" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:4" s="8" customFormat="1">
       <c r="A302" s="6" t="s">
         <v>3</v>
       </c>
@@ -5885,7 +5909,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="303" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:4" s="8" customFormat="1">
       <c r="A303" s="6" t="s">
         <v>47</v>
       </c>
@@ -5896,7 +5920,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="304" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:4" s="10" customFormat="1">
       <c r="A304" s="6" t="s">
         <v>29</v>
       </c>
@@ -5908,7 +5932,7 @@
       </c>
       <c r="D304" s="8"/>
     </row>
-    <row r="305" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:4" s="10" customFormat="1">
       <c r="A305" s="6" t="s">
         <v>42</v>
       </c>
@@ -5920,7 +5944,7 @@
       </c>
       <c r="D305" s="8"/>
     </row>
-    <row r="306" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:4" s="10" customFormat="1">
       <c r="A306" s="6" t="s">
         <v>64</v>
       </c>
@@ -5932,7 +5956,7 @@
       </c>
       <c r="D306" s="8"/>
     </row>
-    <row r="307" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:4" s="10" customFormat="1">
       <c r="A307" s="6" t="s">
         <v>29</v>
       </c>
@@ -5944,7 +5968,7 @@
       </c>
       <c r="D307" s="8"/>
     </row>
-    <row r="308" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:4" s="10" customFormat="1">
       <c r="A308" s="6" t="s">
         <v>29</v>
       </c>
@@ -5956,7 +5980,7 @@
       </c>
       <c r="D308" s="8"/>
     </row>
-    <row r="309" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:4" s="10" customFormat="1">
       <c r="A309" s="6" t="s">
         <v>29</v>
       </c>
@@ -5968,7 +5992,7 @@
       </c>
       <c r="D309" s="8"/>
     </row>
-    <row r="310" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:4" s="10" customFormat="1">
       <c r="A310" s="6" t="s">
         <v>16</v>
       </c>
@@ -5980,7 +6004,7 @@
       </c>
       <c r="D310" s="8"/>
     </row>
-    <row r="311" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:4" s="10" customFormat="1">
       <c r="A311" s="6" t="s">
         <v>29</v>
       </c>
@@ -5992,7 +6016,7 @@
       </c>
       <c r="D311" s="8"/>
     </row>
-    <row r="312" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:4" s="10" customFormat="1">
       <c r="A312" s="6" t="s">
         <v>29</v>
       </c>
@@ -6004,7 +6028,7 @@
       </c>
       <c r="D312" s="8"/>
     </row>
-    <row r="313" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:4" s="10" customFormat="1">
       <c r="A313" s="6" t="s">
         <v>29</v>
       </c>
@@ -6016,7 +6040,7 @@
       </c>
       <c r="D313" s="8"/>
     </row>
-    <row r="314" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:4" s="10" customFormat="1">
       <c r="A314" s="6" t="s">
         <v>47</v>
       </c>
@@ -6028,7 +6052,7 @@
       </c>
       <c r="D314" s="8"/>
     </row>
-    <row r="315" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:4" s="10" customFormat="1">
       <c r="A315" s="6" t="s">
         <v>29</v>
       </c>
@@ -6040,792 +6064,816 @@
       </c>
       <c r="D315" s="8"/>
     </row>
-    <row r="316" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:4" s="10" customFormat="1">
       <c r="A316" s="6" t="s">
         <v>29</v>
       </c>
       <c r="B316" s="6" t="s">
+        <v>637</v>
+      </c>
+      <c r="C316" s="7" t="s">
         <v>638</v>
       </c>
-      <c r="C316" s="7" t="s">
-        <v>639</v>
-      </c>
       <c r="D316" s="8"/>
     </row>
-    <row r="317" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:4" s="10" customFormat="1">
       <c r="A317" s="6" t="s">
         <v>29</v>
       </c>
       <c r="B317" s="6" t="s">
+        <v>639</v>
+      </c>
+      <c r="C317" s="7" t="s">
         <v>640</v>
       </c>
-      <c r="C317" s="7" t="s">
-        <v>641</v>
-      </c>
       <c r="D317" s="8"/>
     </row>
-    <row r="318" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:4" s="10" customFormat="1">
       <c r="A318" s="6" t="s">
         <v>42</v>
       </c>
       <c r="B318" t="s">
+        <v>645</v>
+      </c>
+      <c r="C318" s="22" t="s">
         <v>646</v>
       </c>
-      <c r="C318" s="22" t="s">
-        <v>647</v>
-      </c>
       <c r="D318" s="8"/>
     </row>
-    <row r="319" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:4" s="10" customFormat="1">
       <c r="A319" s="6" t="s">
         <v>85</v>
       </c>
       <c r="B319" s="6" t="s">
+        <v>647</v>
+      </c>
+      <c r="C319" s="7" t="s">
         <v>648</v>
       </c>
-      <c r="C319" s="7" t="s">
-        <v>649</v>
-      </c>
       <c r="D319" s="8"/>
     </row>
-    <row r="320" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:4" s="10" customFormat="1">
       <c r="A320" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B320" s="6" t="s">
+        <v>649</v>
+      </c>
+      <c r="C320" s="7" t="s">
         <v>650</v>
       </c>
-      <c r="C320" s="7" t="s">
-        <v>651</v>
-      </c>
       <c r="D320" s="8"/>
     </row>
-    <row r="321" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:4" s="10" customFormat="1">
       <c r="A321" s="6" t="s">
         <v>29</v>
       </c>
       <c r="B321" s="6" t="s">
+        <v>651</v>
+      </c>
+      <c r="C321" s="7" t="s">
         <v>652</v>
       </c>
-      <c r="C321" s="7" t="s">
-        <v>653</v>
-      </c>
       <c r="D321" s="8"/>
     </row>
-    <row r="322" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:4" s="10" customFormat="1">
       <c r="A322" s="6" t="s">
         <v>29</v>
       </c>
       <c r="B322" s="6" t="s">
+        <v>653</v>
+      </c>
+      <c r="C322" s="7" t="s">
         <v>654</v>
       </c>
-      <c r="C322" s="7" t="s">
-        <v>655</v>
-      </c>
       <c r="D322" s="8"/>
     </row>
-    <row r="323" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:4" s="10" customFormat="1">
       <c r="A323" s="6" t="s">
         <v>29</v>
       </c>
       <c r="B323" s="6" t="s">
+        <v>655</v>
+      </c>
+      <c r="C323" s="7" t="s">
         <v>656</v>
       </c>
-      <c r="C323" s="7" t="s">
+      <c r="D323" s="8"/>
+    </row>
+    <row r="324" spans="1:4" s="10" customFormat="1">
+      <c r="A324" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B324" s="6" t="s">
+        <v>661</v>
+      </c>
+      <c r="C324" s="7" t="s">
         <v>657</v>
       </c>
-      <c r="D323" s="8"/>
-    </row>
-    <row r="324" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A324"/>
-      <c r="B324"/>
-      <c r="C324"/>
       <c r="D324" s="8"/>
     </row>
-    <row r="325" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A325"/>
-      <c r="B325"/>
-      <c r="C325"/>
+    <row r="325" spans="1:4" s="10" customFormat="1">
+      <c r="A325" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B325" s="19" t="s">
+        <v>662</v>
+      </c>
+      <c r="C325" s="7" t="s">
+        <v>658</v>
+      </c>
       <c r="D325" s="8"/>
     </row>
-    <row r="326" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A326"/>
-      <c r="B326"/>
-      <c r="C326"/>
+    <row r="326" spans="1:4" s="10" customFormat="1">
+      <c r="A326" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B326" s="6" t="s">
+        <v>663</v>
+      </c>
+      <c r="C326" s="7" t="s">
+        <v>659</v>
+      </c>
       <c r="D326" s="8"/>
     </row>
-    <row r="327" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A327"/>
-      <c r="B327"/>
-      <c r="C327"/>
+    <row r="327" spans="1:4" s="10" customFormat="1">
+      <c r="A327" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B327" s="6" t="s">
+        <v>664</v>
+      </c>
+      <c r="C327" s="7" t="s">
+        <v>660</v>
+      </c>
       <c r="D327" s="8"/>
     </row>
-    <row r="328" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:4" s="10" customFormat="1">
       <c r="A328"/>
       <c r="B328"/>
       <c r="C328"/>
       <c r="D328" s="8"/>
     </row>
-    <row r="329" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:4" s="10" customFormat="1">
       <c r="A329"/>
       <c r="B329"/>
       <c r="C329"/>
       <c r="D329" s="8"/>
     </row>
-    <row r="330" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:4" s="10" customFormat="1">
       <c r="A330"/>
       <c r="B330"/>
       <c r="C330"/>
       <c r="D330" s="8"/>
     </row>
-    <row r="331" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:4" s="10" customFormat="1">
       <c r="A331"/>
       <c r="B331"/>
       <c r="C331"/>
       <c r="D331" s="8"/>
     </row>
-    <row r="332" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:4" s="10" customFormat="1">
       <c r="A332"/>
       <c r="B332"/>
       <c r="C332"/>
       <c r="D332" s="8"/>
     </row>
-    <row r="333" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:4" s="10" customFormat="1">
       <c r="A333"/>
       <c r="B333"/>
       <c r="C333"/>
       <c r="D333" s="8"/>
     </row>
-    <row r="334" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:4" s="10" customFormat="1">
       <c r="A334"/>
       <c r="B334"/>
       <c r="C334"/>
       <c r="D334" s="8"/>
     </row>
-    <row r="335" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:4" s="10" customFormat="1">
       <c r="A335"/>
       <c r="B335"/>
       <c r="C335"/>
       <c r="D335" s="8"/>
     </row>
-    <row r="336" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:4" s="10" customFormat="1">
       <c r="A336"/>
       <c r="B336"/>
       <c r="C336"/>
       <c r="D336" s="8"/>
     </row>
-    <row r="337" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:4" s="10" customFormat="1">
       <c r="A337"/>
       <c r="B337"/>
       <c r="C337"/>
       <c r="D337" s="8"/>
     </row>
-    <row r="338" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:4" s="10" customFormat="1">
       <c r="A338"/>
       <c r="B338"/>
       <c r="C338"/>
       <c r="D338" s="8"/>
     </row>
-    <row r="339" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:4" s="10" customFormat="1">
       <c r="A339"/>
       <c r="B339"/>
       <c r="C339"/>
       <c r="D339" s="8"/>
     </row>
-    <row r="340" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:4" s="10" customFormat="1">
       <c r="A340"/>
       <c r="B340"/>
       <c r="C340"/>
       <c r="D340" s="8"/>
     </row>
-    <row r="341" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:4" s="10" customFormat="1">
       <c r="A341"/>
       <c r="B341"/>
       <c r="C341"/>
       <c r="D341" s="8"/>
     </row>
-    <row r="342" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:4" s="10" customFormat="1">
       <c r="A342"/>
       <c r="B342"/>
       <c r="C342"/>
       <c r="D342" s="8"/>
     </row>
-    <row r="343" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:4" s="23" customFormat="1">
       <c r="A343"/>
       <c r="B343"/>
       <c r="C343"/>
       <c r="D343" s="8"/>
     </row>
-    <row r="344" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:4" s="23" customFormat="1">
       <c r="A344"/>
       <c r="B344"/>
       <c r="C344"/>
       <c r="D344" s="8"/>
     </row>
-    <row r="345" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:4" s="23" customFormat="1">
       <c r="A345"/>
       <c r="B345"/>
       <c r="C345"/>
       <c r="D345" s="8"/>
     </row>
-    <row r="346" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:4" s="23" customFormat="1">
       <c r="A346"/>
       <c r="B346"/>
       <c r="C346"/>
       <c r="D346" s="8"/>
     </row>
-    <row r="347" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:4" s="23" customFormat="1">
       <c r="A347"/>
       <c r="B347"/>
       <c r="C347"/>
       <c r="D347" s="8"/>
     </row>
-    <row r="348" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:4" s="23" customFormat="1">
       <c r="A348"/>
       <c r="B348"/>
       <c r="C348"/>
       <c r="D348" s="8"/>
     </row>
-    <row r="349" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:4" s="23" customFormat="1">
       <c r="A349"/>
       <c r="B349"/>
       <c r="C349"/>
       <c r="D349" s="8"/>
     </row>
-    <row r="350" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:4" s="23" customFormat="1">
       <c r="A350"/>
       <c r="B350"/>
       <c r="C350"/>
       <c r="D350" s="8"/>
     </row>
-    <row r="351" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:4" s="23" customFormat="1">
       <c r="A351"/>
       <c r="B351"/>
       <c r="C351"/>
       <c r="D351" s="8"/>
     </row>
-    <row r="352" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:4" s="23" customFormat="1">
       <c r="A352"/>
       <c r="B352"/>
       <c r="C352"/>
       <c r="D352" s="8"/>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:3">
       <c r="A353"/>
       <c r="B353"/>
       <c r="C353"/>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:3">
       <c r="A354"/>
       <c r="B354"/>
       <c r="C354"/>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:3">
       <c r="A355"/>
       <c r="B355"/>
       <c r="C355"/>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:3">
       <c r="A356"/>
       <c r="B356"/>
       <c r="C356"/>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:3">
       <c r="A357"/>
       <c r="B357"/>
       <c r="C357"/>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:3">
       <c r="A358"/>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:3">
       <c r="A359"/>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:3">
       <c r="A360"/>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:3">
       <c r="A361"/>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:3">
       <c r="A362"/>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:3">
       <c r="A363"/>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:3">
       <c r="A364"/>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:3">
       <c r="A365"/>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:3">
       <c r="A366"/>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:3">
       <c r="A367"/>
     </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:3">
       <c r="A368"/>
     </row>
-    <row r="369" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:1">
       <c r="A369"/>
     </row>
-    <row r="370" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:1">
       <c r="A370"/>
     </row>
-    <row r="371" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:1">
       <c r="A371"/>
     </row>
-    <row r="372" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:1">
       <c r="A372"/>
     </row>
-    <row r="373" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:1">
       <c r="A373"/>
     </row>
-    <row r="374" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:1">
       <c r="A374"/>
     </row>
-    <row r="375" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:1">
       <c r="A375"/>
     </row>
-    <row r="376" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:1">
       <c r="A376"/>
     </row>
-    <row r="377" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:1">
       <c r="A377"/>
     </row>
-    <row r="378" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:1">
       <c r="A378"/>
     </row>
-    <row r="379" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:1">
       <c r="A379"/>
     </row>
-    <row r="380" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:1">
       <c r="A380"/>
     </row>
-    <row r="381" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:1">
       <c r="A381"/>
     </row>
-    <row r="382" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:1">
       <c r="A382"/>
     </row>
-    <row r="383" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:1">
       <c r="A383"/>
     </row>
-    <row r="384" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:1">
       <c r="A384"/>
     </row>
-    <row r="385" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:1">
       <c r="A385"/>
     </row>
-    <row r="386" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:1">
       <c r="A386"/>
     </row>
-    <row r="387" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:1">
       <c r="A387"/>
     </row>
-    <row r="388" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:1">
       <c r="A388"/>
     </row>
-    <row r="389" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:1">
       <c r="A389"/>
     </row>
-    <row r="390" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:1">
       <c r="A390"/>
     </row>
-    <row r="391" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:1">
       <c r="A391"/>
     </row>
-    <row r="392" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:1">
       <c r="A392"/>
     </row>
-    <row r="393" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:1">
       <c r="A393"/>
     </row>
-    <row r="394" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:1">
       <c r="A394"/>
     </row>
-    <row r="395" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:1">
       <c r="A395"/>
     </row>
-    <row r="396" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:1">
       <c r="A396"/>
     </row>
-    <row r="397" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:1">
       <c r="A397"/>
     </row>
-    <row r="398" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:1">
       <c r="A398"/>
     </row>
-    <row r="399" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:1">
       <c r="A399"/>
     </row>
-    <row r="400" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:1">
       <c r="A400"/>
     </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:1">
       <c r="A401"/>
     </row>
-    <row r="402" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:1">
       <c r="A402"/>
     </row>
-    <row r="403" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:1">
       <c r="A403"/>
     </row>
-    <row r="404" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:1">
       <c r="A404"/>
     </row>
-    <row r="405" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:1">
       <c r="A405"/>
     </row>
-    <row r="406" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:1">
       <c r="A406"/>
     </row>
-    <row r="407" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:1">
       <c r="A407"/>
     </row>
-    <row r="408" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:1">
       <c r="A408"/>
     </row>
-    <row r="409" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:1">
       <c r="A409"/>
     </row>
-    <row r="410" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:1">
       <c r="A410"/>
     </row>
-    <row r="411" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:1">
       <c r="A411"/>
     </row>
-    <row r="412" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:1">
       <c r="A412"/>
     </row>
-    <row r="413" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:1">
       <c r="A413"/>
     </row>
-    <row r="414" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:1">
       <c r="A414"/>
     </row>
-    <row r="415" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:1">
       <c r="A415"/>
     </row>
-    <row r="416" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:1">
       <c r="A416"/>
     </row>
-    <row r="417" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:1">
       <c r="A417"/>
     </row>
-    <row r="418" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:1">
       <c r="A418"/>
     </row>
-    <row r="419" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:1">
       <c r="A419"/>
     </row>
-    <row r="420" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:1">
       <c r="A420"/>
     </row>
-    <row r="421" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:1">
       <c r="A421"/>
     </row>
-    <row r="422" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:1">
       <c r="A422"/>
     </row>
-    <row r="423" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:1">
       <c r="A423"/>
     </row>
-    <row r="424" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:1">
       <c r="A424"/>
     </row>
-    <row r="425" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:1">
       <c r="A425"/>
     </row>
-    <row r="426" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:1">
       <c r="A426"/>
     </row>
-    <row r="427" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:1">
       <c r="A427"/>
     </row>
-    <row r="428" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:1">
       <c r="A428"/>
     </row>
-    <row r="429" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:1">
       <c r="A429"/>
     </row>
-    <row r="430" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:1">
       <c r="A430"/>
     </row>
-    <row r="431" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:1">
       <c r="A431"/>
     </row>
-    <row r="432" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:1">
       <c r="A432"/>
     </row>
-    <row r="433" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:1">
       <c r="A433"/>
     </row>
-    <row r="434" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:1">
       <c r="A434"/>
     </row>
-    <row r="435" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:1">
       <c r="A435"/>
     </row>
-    <row r="436" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:1">
       <c r="A436"/>
     </row>
-    <row r="437" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:1">
       <c r="A437"/>
     </row>
-    <row r="438" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:1">
       <c r="A438"/>
     </row>
-    <row r="439" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:1">
       <c r="A439"/>
     </row>
-    <row r="440" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:1">
       <c r="A440"/>
     </row>
-    <row r="441" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:1">
       <c r="A441"/>
     </row>
-    <row r="442" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:1">
       <c r="A442"/>
     </row>
-    <row r="443" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:1">
       <c r="A443"/>
     </row>
-    <row r="444" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:1">
       <c r="A444"/>
     </row>
-    <row r="445" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:1">
       <c r="A445"/>
     </row>
-    <row r="446" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:1">
       <c r="A446"/>
     </row>
-    <row r="447" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:1">
       <c r="A447"/>
     </row>
-    <row r="448" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:1">
       <c r="A448"/>
     </row>
-    <row r="449" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:1">
       <c r="A449"/>
     </row>
-    <row r="450" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:1">
       <c r="A450"/>
     </row>
-    <row r="451" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:1">
       <c r="A451"/>
     </row>
-    <row r="452" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:1">
       <c r="A452"/>
     </row>
-    <row r="453" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:1">
       <c r="A453"/>
     </row>
-    <row r="454" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:1">
       <c r="A454"/>
     </row>
-    <row r="455" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:1">
       <c r="A455"/>
     </row>
-    <row r="456" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:1">
       <c r="A456"/>
     </row>
-    <row r="457" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:1">
       <c r="A457"/>
     </row>
-    <row r="458" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:1">
       <c r="A458"/>
     </row>
-    <row r="459" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:1">
       <c r="A459"/>
     </row>
-    <row r="460" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:1">
       <c r="A460"/>
     </row>
-    <row r="461" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:1">
       <c r="A461"/>
     </row>
-    <row r="462" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:1">
       <c r="A462"/>
     </row>
-    <row r="463" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:1">
       <c r="A463"/>
     </row>
-    <row r="464" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:1">
       <c r="A464"/>
     </row>
-    <row r="465" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:1">
       <c r="A465"/>
     </row>
-    <row r="466" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:1">
       <c r="A466"/>
     </row>
-    <row r="467" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:1">
       <c r="A467"/>
     </row>
-    <row r="468" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:1">
       <c r="A468"/>
     </row>
-    <row r="469" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:1">
       <c r="A469"/>
     </row>
-    <row r="470" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:1">
       <c r="A470"/>
     </row>
-    <row r="471" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:1">
       <c r="A471"/>
     </row>
-    <row r="472" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:1">
       <c r="A472"/>
     </row>
-    <row r="473" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:1">
       <c r="A473"/>
     </row>
-    <row r="474" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:1">
       <c r="A474"/>
     </row>
-    <row r="475" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:1">
       <c r="A475"/>
     </row>
-    <row r="476" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:1">
       <c r="A476"/>
     </row>
-    <row r="477" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:1">
       <c r="A477"/>
     </row>
-    <row r="478" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:1">
       <c r="A478"/>
     </row>
-    <row r="479" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:1">
       <c r="A479"/>
     </row>
-    <row r="480" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:1">
       <c r="A480"/>
     </row>
-    <row r="481" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:1">
       <c r="A481"/>
     </row>
-    <row r="482" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:1">
       <c r="A482"/>
     </row>
-    <row r="483" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:1">
       <c r="A483"/>
     </row>
-    <row r="484" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:1">
       <c r="A484"/>
     </row>
-    <row r="485" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:1">
       <c r="A485"/>
     </row>
-    <row r="486" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:1">
       <c r="A486"/>
     </row>
-    <row r="487" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:1">
       <c r="A487"/>
     </row>
-    <row r="488" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:1">
       <c r="A488"/>
     </row>
-    <row r="489" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:1">
       <c r="A489"/>
     </row>
-    <row r="490" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:1">
       <c r="A490"/>
     </row>
-    <row r="491" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:1">
       <c r="A491"/>
     </row>
-    <row r="492" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:1">
       <c r="A492"/>
     </row>
-    <row r="493" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:1">
       <c r="A493"/>
     </row>
-    <row r="494" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:1">
       <c r="A494"/>
     </row>
-    <row r="495" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:1">
       <c r="A495"/>
     </row>
-    <row r="496" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:1">
       <c r="A496"/>
     </row>
-    <row r="497" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:1">
       <c r="A497"/>
     </row>
-    <row r="498" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:1">
       <c r="A498"/>
     </row>
-    <row r="499" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:1">
       <c r="A499"/>
     </row>
-    <row r="500" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:1">
       <c r="A500"/>
     </row>
-    <row r="501" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:1">
       <c r="A501"/>
     </row>
-    <row r="502" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:1">
       <c r="A502"/>
     </row>
-    <row r="503" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:1">
       <c r="A503"/>
     </row>
-    <row r="504" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:1">
       <c r="A504"/>
     </row>
-    <row r="505" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:1">
       <c r="A505"/>
     </row>
-    <row r="506" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:1">
       <c r="A506"/>
     </row>
-    <row r="507" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:1">
       <c r="A507"/>
     </row>
-    <row r="508" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:1">
       <c r="A508"/>
     </row>
-    <row r="509" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:1">
       <c r="A509"/>
     </row>
-    <row r="510" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:1">
       <c r="A510"/>
     </row>
-    <row r="511" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:1">
       <c r="A511"/>
     </row>
-    <row r="512" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:1">
       <c r="A512"/>
     </row>
-    <row r="513" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:1">
       <c r="A513"/>
     </row>
-    <row r="514" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:1">
       <c r="A514"/>
     </row>
-    <row r="515" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:1">
       <c r="A515"/>
     </row>
-    <row r="516" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:1">
       <c r="A516"/>
     </row>
-    <row r="517" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:1">
       <c r="A517"/>
     </row>
-    <row r="518" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:1">
       <c r="A518"/>
     </row>
-    <row r="519" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:1">
       <c r="A519"/>
     </row>
-    <row r="520" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:1">
       <c r="A520"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C323" xr:uid="{722A4A62-F3D1-4577-AFDB-10AA26B12C9A}"/>
+  <autoFilter ref="A1:C327" xr:uid="{722A4A62-F3D1-4577-AFDB-10AA26B12C9A}"/>
   <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A1048576" xr:uid="{E352FAC8-A16C-4D2E-A882-41DD0E3D9156}">

--- a/powerapp/data/subs_metadata.xlsx
+++ b/powerapp/data/subs_metadata.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myIjat\Dojo\power_app\powerapp\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/externalDrive/code-gym/work/powerapp/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80F26147-E918-42B2-A24D-150726CE96F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C5BBF06-EE13-5B47-B18A-A0B23DB24E49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{955B3BBE-6EC3-4CB4-BEB6-AB762050D1CD}"/>
+    <workbookView xWindow="0" yWindow="620" windowWidth="19420" windowHeight="11500" xr2:uid="{955B3BBE-6EC3-4CB4-BEB6-AB762050D1CD}"/>
   </bookViews>
   <sheets>
     <sheet name="substation" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">substation!$A$1:$C$327</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">substation!$A$1:$C$326</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="981" uniqueCount="666">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="665">
   <si>
     <t>East-Kuantan</t>
   </si>
@@ -591,9 +591,6 @@
   </si>
   <si>
     <t>BNTS</t>
-  </si>
-  <si>
-    <t>Kg. Awah</t>
   </si>
   <si>
     <t>Air terjun</t>
@@ -2043,7 +2040,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2543,13 +2540,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC278235-0322-4A5E-A642-ABE48087B759}">
-  <dimension ref="A1:D520"/>
+  <dimension ref="A1:D519"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D333" sqref="D333"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17" style="6" customWidth="1"/>
     <col min="2" max="2" width="32.1640625" style="6" bestFit="1" customWidth="1"/>
@@ -2558,19 +2555,19 @@
     <col min="5" max="16384" width="8.6640625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="5" customFormat="1" ht="15.5">
+    <row r="1" spans="1:4" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D1" s="4"/>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -2581,18 +2578,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
@@ -2603,18 +2600,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>599</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>600</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>3</v>
       </c>
@@ -2625,18 +2622,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="6" t="s">
+        <v>601</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>602</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>3</v>
       </c>
@@ -2647,18 +2644,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>3</v>
       </c>
@@ -2669,29 +2666,29 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>13</v>
       </c>
@@ -2702,18 +2699,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>16</v>
       </c>
@@ -2724,18 +2721,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="6" t="s">
+        <v>608</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>609</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>16</v>
       </c>
@@ -2746,29 +2743,29 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>21</v>
       </c>
@@ -2779,18 +2776,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
         <v>21</v>
       </c>
@@ -2801,29 +2798,29 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
         <v>21</v>
       </c>
@@ -2834,18 +2831,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B26" s="6" t="s">
+        <v>613</v>
+      </c>
+      <c r="C26" s="7" t="s">
         <v>614</v>
       </c>
-      <c r="C26" s="7" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
         <v>29</v>
       </c>
@@ -2856,7 +2853,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
         <v>29</v>
       </c>
@@ -2867,7 +2864,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
         <v>29</v>
       </c>
@@ -2878,7 +2875,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
         <v>16</v>
       </c>
@@ -2889,7 +2886,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
         <v>16</v>
       </c>
@@ -2900,7 +2897,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
         <v>16</v>
       </c>
@@ -2911,7 +2908,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
         <v>42</v>
       </c>
@@ -2922,7 +2919,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
         <v>42</v>
       </c>
@@ -2933,7 +2930,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
         <v>47</v>
       </c>
@@ -2944,7 +2941,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
         <v>3</v>
       </c>
@@ -2955,7 +2952,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
         <v>3</v>
       </c>
@@ -2966,7 +2963,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
         <v>21</v>
       </c>
@@ -2977,7 +2974,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
         <v>0</v>
       </c>
@@ -2988,7 +2985,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="40" spans="1:4" s="11" customFormat="1">
+    <row r="40" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
         <v>47</v>
       </c>
@@ -3000,7 +2997,7 @@
       </c>
       <c r="D40" s="10"/>
     </row>
-    <row r="41" spans="1:4" s="13" customFormat="1">
+    <row r="41" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
         <v>42</v>
       </c>
@@ -3012,7 +3009,7 @@
       </c>
       <c r="D41" s="12"/>
     </row>
-    <row r="42" spans="1:4" s="13" customFormat="1">
+    <row r="42" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
         <v>42</v>
       </c>
@@ -3024,7 +3021,7 @@
       </c>
       <c r="D42" s="12"/>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
         <v>64</v>
       </c>
@@ -3035,7 +3032,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
         <v>64</v>
       </c>
@@ -3046,7 +3043,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
         <v>64</v>
       </c>
@@ -3057,7 +3054,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
         <v>16</v>
       </c>
@@ -3068,7 +3065,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
         <v>29</v>
       </c>
@@ -3079,7 +3076,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
         <v>29</v>
       </c>
@@ -3090,7 +3087,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
         <v>29</v>
       </c>
@@ -3101,7 +3098,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
         <v>29</v>
       </c>
@@ -3112,7 +3109,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
         <v>29</v>
       </c>
@@ -3123,7 +3120,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="52" spans="1:3" s="8" customFormat="1" ht="15" customHeight="1">
+    <row r="52" spans="1:3" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
         <v>29</v>
       </c>
@@ -3134,7 +3131,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="53" spans="1:3" s="8" customFormat="1">
+    <row r="53" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
         <v>85</v>
       </c>
@@ -3145,7 +3142,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="54" spans="1:3" s="8" customFormat="1">
+    <row r="54" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
         <v>64</v>
       </c>
@@ -3156,7 +3153,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="55" spans="1:3" s="8" customFormat="1">
+    <row r="55" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
         <v>64</v>
       </c>
@@ -3167,7 +3164,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="56" spans="1:3" s="8" customFormat="1">
+    <row r="56" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
         <v>64</v>
       </c>
@@ -3178,7 +3175,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="57" spans="1:3" s="8" customFormat="1">
+    <row r="57" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
         <v>64</v>
       </c>
@@ -3189,7 +3186,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="58" spans="1:3" s="8" customFormat="1">
+    <row r="58" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
         <v>29</v>
       </c>
@@ -3200,7 +3197,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="59" spans="1:3" s="8" customFormat="1">
+    <row r="59" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="6" t="s">
         <v>29</v>
       </c>
@@ -3211,7 +3208,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="1:3" s="8" customFormat="1">
+    <row r="60" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="6" t="s">
         <v>3</v>
       </c>
@@ -3222,7 +3219,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="61" spans="1:3" s="8" customFormat="1">
+    <row r="61" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="6" t="s">
         <v>3</v>
       </c>
@@ -3233,7 +3230,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="62" spans="1:3" s="8" customFormat="1">
+    <row r="62" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="6" t="s">
         <v>0</v>
       </c>
@@ -3244,18 +3241,18 @@
         <v>106</v>
       </c>
     </row>
-    <row r="63" spans="1:3" s="8" customFormat="1">
+    <row r="63" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B63" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="C63" s="7" t="s">
         <v>461</v>
       </c>
-      <c r="C63" s="7" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" s="8" customFormat="1">
+    </row>
+    <row r="64" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="6" t="s">
         <v>42</v>
       </c>
@@ -3266,7 +3263,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="65" spans="1:3" s="8" customFormat="1">
+    <row r="65" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="6" t="s">
         <v>16</v>
       </c>
@@ -3277,7 +3274,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="6" t="s">
         <v>16</v>
       </c>
@@ -3288,7 +3285,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
         <v>16</v>
       </c>
@@ -3299,7 +3296,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="6" t="s">
         <v>115</v>
       </c>
@@ -3310,7 +3307,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="6" t="s">
         <v>118</v>
       </c>
@@ -3321,7 +3318,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="6" t="s">
         <v>21</v>
       </c>
@@ -3332,7 +3329,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="6" t="s">
         <v>21</v>
       </c>
@@ -3343,7 +3340,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="6" t="s">
         <v>47</v>
       </c>
@@ -3354,7 +3351,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="6" t="s">
         <v>115</v>
       </c>
@@ -3365,7 +3362,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
         <v>47</v>
       </c>
@@ -3376,7 +3373,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="6" t="s">
         <v>16</v>
       </c>
@@ -3387,29 +3384,29 @@
         <v>132</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B76" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="C76" s="7" t="s">
         <v>458</v>
       </c>
-      <c r="C76" s="7" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="6" t="s">
         <v>16</v>
       </c>
@@ -3420,7 +3417,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="6" t="s">
         <v>0</v>
       </c>
@@ -3431,7 +3428,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="6" t="s">
         <v>0</v>
       </c>
@@ -3442,7 +3439,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="6" t="s">
         <v>21</v>
       </c>
@@ -3453,7 +3450,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="82" spans="1:4" s="13" customFormat="1">
+    <row r="82" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="6" t="s">
         <v>21</v>
       </c>
@@ -3465,7 +3462,7 @@
       </c>
       <c r="D82" s="12"/>
     </row>
-    <row r="83" spans="1:4" s="13" customFormat="1">
+    <row r="83" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="6" t="s">
         <v>29</v>
       </c>
@@ -3477,7 +3474,7 @@
       </c>
       <c r="D83" s="12"/>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="6" t="s">
         <v>29</v>
       </c>
@@ -3488,7 +3485,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="6" t="s">
         <v>29</v>
       </c>
@@ -3499,7 +3496,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="6" t="s">
         <v>115</v>
       </c>
@@ -3510,7 +3507,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="6" t="s">
         <v>16</v>
       </c>
@@ -3521,7 +3518,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="6" t="s">
         <v>118</v>
       </c>
@@ -3532,7 +3529,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="6" t="s">
         <v>16</v>
       </c>
@@ -3543,7 +3540,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="6" t="s">
         <v>16</v>
       </c>
@@ -3554,7 +3551,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="6" t="s">
         <v>29</v>
       </c>
@@ -3565,7 +3562,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="6" t="s">
         <v>29</v>
       </c>
@@ -3576,7 +3573,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="6" t="s">
         <v>29</v>
       </c>
@@ -3587,7 +3584,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="6" t="s">
         <v>42</v>
       </c>
@@ -3598,7 +3595,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="6" t="s">
         <v>0</v>
       </c>
@@ -3609,7 +3606,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="6" t="s">
         <v>85</v>
       </c>
@@ -3620,7 +3617,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="97" spans="1:4" s="13" customFormat="1">
+    <row r="97" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="6" t="s">
         <v>16</v>
       </c>
@@ -3632,7 +3629,7 @@
       </c>
       <c r="D97" s="12"/>
     </row>
-    <row r="98" spans="1:4" s="13" customFormat="1">
+    <row r="98" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A98" s="6" t="s">
         <v>16</v>
       </c>
@@ -3644,7 +3641,7 @@
       </c>
       <c r="D98" s="12"/>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="6" t="s">
         <v>47</v>
       </c>
@@ -3655,41 +3652,41 @@
         <v>175</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="6" t="s">
         <v>47</v>
       </c>
       <c r="B100" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="C100" s="7" t="s">
         <v>463</v>
       </c>
-      <c r="C100" s="7" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="6" t="s">
         <v>47</v>
       </c>
       <c r="B101" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="C101" s="7" t="s">
         <v>465</v>
       </c>
-      <c r="C101" s="7" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" s="13" customFormat="1">
+    </row>
+    <row r="102" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A102" s="6" t="s">
         <v>47</v>
       </c>
       <c r="B102" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="C102" s="7" t="s">
         <v>467</v>
       </c>
-      <c r="C102" s="7" t="s">
-        <v>468</v>
-      </c>
       <c r="D102" s="12"/>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="6" t="s">
         <v>42</v>
       </c>
@@ -3700,7 +3697,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="6" t="s">
         <v>42</v>
       </c>
@@ -3711,51 +3708,51 @@
         <v>179</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" s="6" t="s">
         <v>42</v>
       </c>
       <c r="B105" s="14" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" s="6" t="s">
         <v>42</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" s="6" t="s">
         <v>42</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" s="6" t="s">
         <v>42</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" s="6" t="s">
         <v>42</v>
       </c>
@@ -3766,7 +3763,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="6" t="s">
         <v>0</v>
       </c>
@@ -3777,172 +3774,172 @@
         <v>183</v>
       </c>
     </row>
-    <row r="111" spans="1:4">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C112" s="7" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C113" s="7" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C115" s="7" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" s="6" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="B116" s="6" t="s">
         <v>184</v>
       </c>
       <c r="C116" s="7" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C117" s="7" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C118" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" s="6" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C119" s="7" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" s="6" t="s">
         <v>64</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C120" s="7" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" s="6" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" s="6" t="s">
         <v>29</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" s="6" t="s">
-        <v>29</v>
+        <v>118</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" s="6" t="s">
         <v>118</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C124" s="7" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" s="6" t="s">
         <v>118</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>201</v>
+        <v>500</v>
       </c>
       <c r="C125" s="7" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" s="6" t="s">
         <v>118</v>
       </c>
@@ -3953,9 +3950,9 @@
         <v>486</v>
       </c>
     </row>
-    <row r="127" spans="1:4">
+    <row r="127" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A127" s="6" t="s">
-        <v>118</v>
+        <v>47</v>
       </c>
       <c r="B127" s="6" t="s">
         <v>502</v>
@@ -3963,20 +3960,20 @@
       <c r="C127" s="7" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" s="13" customFormat="1">
+      <c r="D127" s="12"/>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B128" s="6" t="s">
+      <c r="B128" s="15" t="s">
         <v>503</v>
       </c>
-      <c r="C128" s="7" t="s">
+      <c r="C128" s="16" t="s">
         <v>488</v>
       </c>
-      <c r="D128" s="12"/>
-    </row>
-    <row r="129" spans="1:3">
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" s="6" t="s">
         <v>47</v>
       </c>
@@ -3987,7 +3984,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" s="6" t="s">
         <v>47</v>
       </c>
@@ -3998,9 +3995,9 @@
         <v>490</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" s="6" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B131" s="15" t="s">
         <v>506</v>
@@ -4009,29 +4006,29 @@
         <v>491</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" s="6" t="s">
         <v>42</v>
       </c>
       <c r="B132" s="15" t="s">
-        <v>507</v>
+        <v>623</v>
       </c>
       <c r="C132" s="16" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="6" t="s">
         <v>42</v>
       </c>
       <c r="B133" s="15" t="s">
-        <v>624</v>
+        <v>507</v>
       </c>
       <c r="C133" s="16" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="6" t="s">
         <v>42</v>
       </c>
@@ -4042,7 +4039,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="6" t="s">
         <v>42</v>
       </c>
@@ -4053,18 +4050,18 @@
         <v>495</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="6" t="s">
         <v>42</v>
       </c>
       <c r="B136" s="15" t="s">
-        <v>510</v>
+        <v>624</v>
       </c>
       <c r="C136" s="16" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="6" t="s">
         <v>42</v>
       </c>
@@ -4072,490 +4069,490 @@
         <v>625</v>
       </c>
       <c r="C137" s="16" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B138" s="15" t="s">
-        <v>626</v>
-      </c>
-      <c r="C138" s="16" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3">
+        <v>47</v>
+      </c>
+      <c r="B138" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="C138" s="7" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" s="6" t="s">
         <v>47</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>402</v>
+        <v>511</v>
       </c>
       <c r="C139" s="7" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" s="6" t="s">
         <v>47</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>512</v>
+        <v>626</v>
       </c>
       <c r="C140" s="7" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="6" t="s">
         <v>47</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="C141" s="7" t="s">
+        <v>664</v>
+      </c>
+      <c r="C141" s="16" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="14.5" customHeight="1">
+    <row r="142" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="6" t="s">
         <v>47</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>665</v>
-      </c>
-      <c r="C142" s="16" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" ht="14.5" customHeight="1">
+        <v>202</v>
+      </c>
+      <c r="C142" s="7" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="6" t="s">
         <v>47</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C143" s="7" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" ht="14.5" customHeight="1">
-      <c r="A144" s="6" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A144" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="B144" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="C144" s="7" t="s">
+      <c r="B144" s="17" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="145" spans="1:4" ht="14.5" customHeight="1">
-      <c r="A145" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="B145" s="17" t="s">
+      <c r="C144" s="18" t="s">
         <v>207</v>
       </c>
-      <c r="C145" s="18" t="s">
+    </row>
+    <row r="145" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A145" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B145" s="6" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="146" spans="1:4" ht="14.5" customHeight="1">
+      <c r="C145" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C146" s="7" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" ht="14.5" customHeight="1">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="6" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C147" s="7" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" ht="14.5" customHeight="1">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="6" t="s">
-        <v>47</v>
+        <v>3</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C148" s="7" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" ht="14.5" customHeight="1">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C149" s="7" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" ht="14.5" customHeight="1">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C150" s="7" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" ht="14.5" customHeight="1">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" s="6" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>219</v>
+        <v>513</v>
       </c>
       <c r="C151" s="7" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="152" spans="1:4">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B152" s="6" t="s">
-        <v>514</v>
+      <c r="B152" s="19" t="s">
+        <v>399</v>
       </c>
       <c r="C152" s="7" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B153" s="19" t="s">
-        <v>400</v>
+      <c r="B153" s="6" t="s">
+        <v>514</v>
       </c>
       <c r="C153" s="7" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>515</v>
+        <v>627</v>
       </c>
       <c r="C154" s="7" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>628</v>
+        <v>221</v>
       </c>
       <c r="C155" s="7" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A156" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B156" s="6" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="156" spans="1:4">
-      <c r="A156" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B156" s="6" t="s">
-        <v>222</v>
-      </c>
       <c r="C156" s="7" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" s="13" customFormat="1">
+        <v>225</v>
+      </c>
+      <c r="D156" s="12"/>
+    </row>
+    <row r="157" spans="1:4" s="21" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C157" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="D157" s="12"/>
-    </row>
-    <row r="158" spans="1:4" s="21" customFormat="1" ht="14" customHeight="1">
+        <v>227</v>
+      </c>
+      <c r="D157" s="20"/>
+    </row>
+    <row r="158" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A158" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C158" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="D158" s="20"/>
-    </row>
-    <row r="159" spans="1:4" s="13" customFormat="1">
+        <v>643</v>
+      </c>
+      <c r="D158" s="12"/>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" s="6" t="s">
-        <v>21</v>
+        <v>85</v>
       </c>
       <c r="B159" s="6" t="s">
         <v>229</v>
       </c>
       <c r="C159" s="7" t="s">
-        <v>644</v>
-      </c>
-      <c r="D159" s="12"/>
-    </row>
-    <row r="160" spans="1:4">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" s="6" t="s">
-        <v>85</v>
+        <v>16</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C160" s="7" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C161" s="7" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A162" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C162" s="7" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" s="13" customFormat="1">
+        <v>236</v>
+      </c>
+      <c r="D162" s="12"/>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C163" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="D163" s="12"/>
-    </row>
-    <row r="164" spans="1:4">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" s="6" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C164" s="7" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" s="6" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="B165" s="6" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C165" s="7" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C166" s="7" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B167" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="C167" s="7" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A168" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B168" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="C168" s="7" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A169" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B167" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="C167" s="7" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4">
-      <c r="A168" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="B168" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="C168" s="7" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4">
-      <c r="A169" s="6" t="s">
-        <v>3</v>
-      </c>
       <c r="B169" s="6" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C169" s="7" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C170" s="7" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" s="6" t="s">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C171" s="7" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" s="6" t="s">
-        <v>85</v>
+        <v>21</v>
       </c>
       <c r="B172" s="6" t="s">
         <v>254</v>
       </c>
       <c r="C172" s="7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C173" s="7" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" s="6" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B174" s="6" t="s">
         <v>257</v>
       </c>
       <c r="C174" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C175" s="7" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A176" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B176" s="6" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C176" s="7" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" s="13" customFormat="1">
+        <v>262</v>
+      </c>
+      <c r="D176" s="12"/>
+    </row>
+    <row r="177" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A177" s="6" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C177" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D177" s="12"/>
     </row>
-    <row r="178" spans="1:4" s="13" customFormat="1">
+    <row r="178" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A178" s="6" t="s">
-        <v>29</v>
+        <v>115</v>
       </c>
       <c r="B178" s="6" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C178" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D178" s="12"/>
     </row>
-    <row r="179" spans="1:4" s="13" customFormat="1">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" s="6" t="s">
         <v>115</v>
       </c>
       <c r="B179" s="6" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C179" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="D179" s="12"/>
-    </row>
-    <row r="180" spans="1:4">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" s="6" t="s">
         <v>115</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>268</v>
+        <v>517</v>
       </c>
       <c r="C180" s="7" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" s="6" t="s">
         <v>115</v>
       </c>
@@ -4566,29 +4563,29 @@
         <v>516</v>
       </c>
     </row>
-    <row r="182" spans="1:4">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" s="6" t="s">
         <v>115</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>519</v>
+        <v>269</v>
       </c>
       <c r="C182" s="7" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" s="6" t="s">
-        <v>115</v>
+        <v>47</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>270</v>
+        <v>529</v>
       </c>
       <c r="C183" s="7" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" s="6" t="s">
         <v>47</v>
       </c>
@@ -4599,7 +4596,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="185" spans="1:4">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" s="6" t="s">
         <v>47</v>
       </c>
@@ -4607,10 +4604,10 @@
         <v>531</v>
       </c>
       <c r="C185" s="7" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" s="6" t="s">
         <v>47</v>
       </c>
@@ -4618,10 +4615,10 @@
         <v>532</v>
       </c>
       <c r="C186" s="7" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" s="6" t="s">
         <v>47</v>
       </c>
@@ -4632,7 +4629,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="188" spans="1:4">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" s="6" t="s">
         <v>47</v>
       </c>
@@ -4643,7 +4640,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="189" spans="1:4">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" s="6" t="s">
         <v>47</v>
       </c>
@@ -4651,10 +4648,10 @@
         <v>535</v>
       </c>
       <c r="C189" s="7" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" s="6" t="s">
         <v>47</v>
       </c>
@@ -4662,10 +4659,10 @@
         <v>536</v>
       </c>
       <c r="C190" s="7" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191" s="6" t="s">
         <v>47</v>
       </c>
@@ -4673,66 +4670,66 @@
         <v>537</v>
       </c>
       <c r="C191" s="7" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A192" s="6" t="s">
         <v>47</v>
       </c>
       <c r="B192" s="6" t="s">
-        <v>538</v>
+        <v>389</v>
       </c>
       <c r="C192" s="7" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" s="13" customFormat="1">
+        <v>390</v>
+      </c>
+      <c r="D192" s="12"/>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B193" s="6" t="s">
-        <v>390</v>
+      <c r="B193" s="19" t="s">
+        <v>538</v>
       </c>
       <c r="C193" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="D193" s="12"/>
-    </row>
-    <row r="194" spans="1:4">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B194" s="19" t="s">
-        <v>539</v>
+      <c r="B194" s="6" t="s">
+        <v>271</v>
       </c>
       <c r="C194" s="7" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A195" s="6" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="B195" s="6" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C195" s="7" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>274</v>
+        <v>543</v>
       </c>
       <c r="C196" s="7" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A197" s="6" t="s">
         <v>13</v>
       </c>
@@ -4743,7 +4740,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="198" spans="1:4">
+    <row r="198" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="6" t="s">
         <v>13</v>
       </c>
@@ -4754,7 +4751,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="199" spans="1:4" ht="14.5" customHeight="1">
+    <row r="199" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="6" t="s">
         <v>13</v>
       </c>
@@ -4765,29 +4762,29 @@
         <v>542</v>
       </c>
     </row>
-    <row r="200" spans="1:4" ht="14.5" customHeight="1">
+    <row r="200" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="6" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="B200" s="6" t="s">
-        <v>547</v>
+        <v>275</v>
       </c>
       <c r="C200" s="7" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" ht="14.5" customHeight="1">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="6" t="s">
-        <v>118</v>
+        <v>3</v>
       </c>
       <c r="B201" s="6" t="s">
-        <v>276</v>
+        <v>552</v>
       </c>
       <c r="C201" s="7" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" ht="14.5" customHeight="1">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="6" t="s">
         <v>3</v>
       </c>
@@ -4795,10 +4792,10 @@
         <v>553</v>
       </c>
       <c r="C202" s="7" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" ht="14.5" customHeight="1">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="6" t="s">
         <v>3</v>
       </c>
@@ -4806,10 +4803,10 @@
         <v>554</v>
       </c>
       <c r="C203" s="7" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" ht="14.5" customHeight="1">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A204" s="6" t="s">
         <v>3</v>
       </c>
@@ -4817,190 +4814,190 @@
         <v>555</v>
       </c>
       <c r="C204" s="7" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A205" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B205" s="6" t="s">
-        <v>556</v>
+        <v>361</v>
       </c>
       <c r="C205" s="7" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A206" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B206" s="6" t="s">
-        <v>362</v>
+        <v>556</v>
       </c>
       <c r="C206" s="7" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A207" s="6" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B207" s="6" t="s">
-        <v>557</v>
+        <v>277</v>
       </c>
       <c r="C207" s="7" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A208" s="6" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="B208" s="6" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C208" s="7" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A209" s="6" t="s">
         <v>29</v>
       </c>
       <c r="B209" s="6" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C209" s="7" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A210" s="6" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B210" s="6" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C210" s="7" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A211" s="6" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="B211" s="6" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C211" s="7" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A212" s="6" t="s">
-        <v>3</v>
+        <v>118</v>
       </c>
       <c r="B212" s="6" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C212" s="7" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A213" s="6" t="s">
         <v>118</v>
       </c>
       <c r="B213" s="6" t="s">
-        <v>288</v>
+        <v>374</v>
       </c>
       <c r="C213" s="7" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A214" s="6" t="s">
         <v>118</v>
       </c>
       <c r="B214" s="6" t="s">
-        <v>375</v>
+        <v>628</v>
       </c>
       <c r="C214" s="7" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4" s="13" customFormat="1">
+        <v>557</v>
+      </c>
+      <c r="D214" s="12"/>
+    </row>
+    <row r="215" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A215" s="6" t="s">
         <v>118</v>
       </c>
       <c r="B215" s="6" t="s">
-        <v>629</v>
+        <v>289</v>
       </c>
       <c r="C215" s="7" t="s">
-        <v>558</v>
+        <v>290</v>
       </c>
       <c r="D215" s="12"/>
     </row>
-    <row r="216" spans="1:4" s="13" customFormat="1">
+    <row r="216" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A216" s="6" t="s">
-        <v>118</v>
+        <v>16</v>
       </c>
       <c r="B216" s="6" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C216" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D216" s="12"/>
     </row>
-    <row r="217" spans="1:4" s="13" customFormat="1">
+    <row r="217" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A217" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B217" s="6" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C217" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D217" s="12"/>
     </row>
-    <row r="218" spans="1:4" s="13" customFormat="1">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A218" s="6" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="B218" s="6" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C218" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="D218" s="12"/>
-    </row>
-    <row r="219" spans="1:4">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A219" s="6" t="s">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="B219" s="6" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C219" s="7" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A220" s="6" t="s">
         <v>85</v>
       </c>
       <c r="B220" s="6" t="s">
-        <v>298</v>
+        <v>561</v>
       </c>
       <c r="C220" s="7" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A221" s="6" t="s">
         <v>85</v>
       </c>
@@ -5011,7 +5008,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="222" spans="1:4">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A222" s="6" t="s">
         <v>85</v>
       </c>
@@ -5022,73 +5019,73 @@
         <v>560</v>
       </c>
     </row>
-    <row r="223" spans="1:4">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A223" s="6" t="s">
         <v>85</v>
       </c>
       <c r="B223" s="6" t="s">
-        <v>564</v>
+        <v>299</v>
       </c>
       <c r="C223" s="7" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A224" s="6" t="s">
-        <v>85</v>
+        <v>29</v>
       </c>
       <c r="B224" s="6" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C224" s="7" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A225" s="6" t="s">
         <v>29</v>
       </c>
       <c r="B225" s="6" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C225" s="7" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A226" s="6" t="s">
         <v>29</v>
       </c>
       <c r="B226" s="6" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C226" s="7" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A227" s="6" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B227" s="6" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C227" s="7" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A228" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B228" s="6" t="s">
-        <v>308</v>
+        <v>567</v>
       </c>
       <c r="C228" s="7" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A229" s="6" t="s">
         <v>21</v>
       </c>
@@ -5099,62 +5096,62 @@
         <v>565</v>
       </c>
     </row>
-    <row r="230" spans="1:3">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A230" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B230" s="6" t="s">
-        <v>569</v>
+        <v>363</v>
       </c>
       <c r="C230" s="7" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A231" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B231" s="6" t="s">
-        <v>364</v>
+        <v>629</v>
       </c>
       <c r="C231" s="7" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A232" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B232" s="6" t="s">
-        <v>630</v>
+        <v>309</v>
       </c>
       <c r="C232" s="7" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A233" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B233" s="6" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C233" s="7" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A234" s="6" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B234" s="6" t="s">
-        <v>312</v>
+        <v>576</v>
       </c>
       <c r="C234" s="7" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A235" s="6" t="s">
         <v>42</v>
       </c>
@@ -5162,10 +5159,10 @@
         <v>577</v>
       </c>
       <c r="C235" s="7" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A236" s="6" t="s">
         <v>42</v>
       </c>
@@ -5173,12 +5170,12 @@
         <v>578</v>
       </c>
       <c r="C236" s="7" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A237" s="6" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="B237" s="6" t="s">
         <v>579</v>
@@ -5187,95 +5184,95 @@
         <v>573</v>
       </c>
     </row>
-    <row r="238" spans="1:3">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A238" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B238" s="6" t="s">
+      <c r="B238" s="19" t="s">
         <v>580</v>
       </c>
       <c r="C238" s="7" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="239" spans="1:3">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A239" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B239" s="6" t="s">
+        <v>630</v>
+      </c>
+      <c r="C239" s="7" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A240" s="6" t="s">
         <v>29</v>
-      </c>
-      <c r="B239" s="19" t="s">
-        <v>581</v>
-      </c>
-      <c r="C239" s="7" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3">
-      <c r="A240" s="6" t="s">
-        <v>42</v>
       </c>
       <c r="B240" s="6" t="s">
         <v>631</v>
       </c>
       <c r="C240" s="7" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A241" s="6" t="s">
         <v>29</v>
       </c>
       <c r="B241" s="6" t="s">
-        <v>632</v>
+        <v>313</v>
       </c>
       <c r="C241" s="7" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A242" s="6" t="s">
         <v>29</v>
       </c>
       <c r="B242" s="6" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C242" s="7" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A243" s="6" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="B243" s="6" t="s">
-        <v>316</v>
+        <v>441</v>
       </c>
       <c r="C243" s="7" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A244" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B244" s="6" t="s">
-        <v>442</v>
+        <v>584</v>
       </c>
       <c r="C244" s="7" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A245" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B245" s="6" t="s">
-        <v>585</v>
+        <v>632</v>
       </c>
       <c r="C245" s="7" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A246" s="6" t="s">
         <v>3</v>
       </c>
@@ -5283,188 +5280,188 @@
         <v>633</v>
       </c>
       <c r="C246" s="7" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A247" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B247" s="6" t="s">
-        <v>634</v>
+        <v>317</v>
       </c>
       <c r="C247" s="7" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="248" spans="1:4" s="13" customFormat="1">
+        <v>318</v>
+      </c>
+      <c r="D247" s="12"/>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A248" s="6" t="s">
-        <v>3</v>
+        <v>118</v>
       </c>
       <c r="B248" s="6" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C248" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="D248" s="12"/>
-    </row>
-    <row r="249" spans="1:4">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A249" s="6" t="s">
         <v>118</v>
       </c>
       <c r="B249" s="6" t="s">
-        <v>320</v>
+        <v>588</v>
       </c>
       <c r="C249" s="7" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="250" spans="1:4">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A250" s="6" t="s">
         <v>118</v>
       </c>
       <c r="B250" s="6" t="s">
-        <v>589</v>
+        <v>634</v>
       </c>
       <c r="C250" s="7" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="251" spans="1:4">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A251" s="6" t="s">
         <v>118</v>
       </c>
       <c r="B251" s="6" t="s">
-        <v>635</v>
+        <v>376</v>
       </c>
       <c r="C251" s="7" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="252" spans="1:4">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A252" s="6" t="s">
         <v>118</v>
       </c>
       <c r="B252" s="6" t="s">
-        <v>377</v>
+        <v>589</v>
       </c>
       <c r="C252" s="7" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="253" spans="1:4" s="13" customFormat="1">
+        <v>587</v>
+      </c>
+      <c r="D252" s="12"/>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A253" s="6" t="s">
-        <v>118</v>
+        <v>64</v>
       </c>
       <c r="B253" s="6" t="s">
-        <v>590</v>
+        <v>321</v>
       </c>
       <c r="C253" s="7" t="s">
-        <v>588</v>
-      </c>
-      <c r="D253" s="12"/>
-    </row>
-    <row r="254" spans="1:4">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A254" s="6" t="s">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="B254" s="6" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C254" s="7" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="255" spans="1:4">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A255" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B255" s="6" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C255" s="7" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="256" spans="1:4">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A256" s="6" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B256" s="6" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C256" s="7" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="257" spans="1:4">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A257" s="6" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B257" s="6" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C257" s="7" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="258" spans="1:4">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A258" s="6" t="s">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="B258" s="6" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C258" s="7" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="259" spans="1:4">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A259" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B259" s="6" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C259" s="7" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="260" spans="1:4">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A260" s="6" t="s">
-        <v>3</v>
+        <v>118</v>
       </c>
       <c r="B260" s="6" t="s">
-        <v>334</v>
+        <v>594</v>
       </c>
       <c r="C260" s="7" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="261" spans="1:4">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A261" s="6" t="s">
         <v>118</v>
       </c>
       <c r="B261" s="6" t="s">
-        <v>595</v>
+        <v>393</v>
       </c>
       <c r="C261" s="7" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="262" spans="1:4">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A262" s="6" t="s">
         <v>118</v>
       </c>
       <c r="B262" s="6" t="s">
-        <v>394</v>
+        <v>595</v>
       </c>
       <c r="C262" s="7" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="263" spans="1:4">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A263" s="6" t="s">
         <v>118</v>
       </c>
@@ -5472,699 +5469,700 @@
         <v>596</v>
       </c>
       <c r="C263" s="7" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="264" spans="1:4">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A264" s="6" t="s">
         <v>118</v>
       </c>
       <c r="B264" s="6" t="s">
-        <v>597</v>
+        <v>635</v>
       </c>
       <c r="C264" s="7" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="265" spans="1:4">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A265" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B265" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="C265" s="7" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A266" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B266" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="C266" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="D266" s="12"/>
+    </row>
+    <row r="267" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A267" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B267" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="C267" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="D267" s="12"/>
+    </row>
+    <row r="268" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A268" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="B265" s="6" t="s">
-        <v>636</v>
-      </c>
-      <c r="C265" s="7" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="266" spans="1:4">
-      <c r="A266" s="6" t="s">
+      <c r="B268" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="C268" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="D268" s="12"/>
+    </row>
+    <row r="269" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A269" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B269" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="C269" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="D269" s="12"/>
+    </row>
+    <row r="270" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A270" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B266" s="6" t="s">
-        <v>336</v>
-      </c>
-      <c r="C266" s="7" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="267" spans="1:4" s="13" customFormat="1">
-      <c r="A267" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B267" s="6" t="s">
-        <v>338</v>
-      </c>
-      <c r="C267" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="D267" s="12"/>
-    </row>
-    <row r="268" spans="1:4" s="13" customFormat="1">
-      <c r="A268" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B268" s="6" t="s">
-        <v>340</v>
-      </c>
-      <c r="C268" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="D268" s="12"/>
-    </row>
-    <row r="269" spans="1:4" s="13" customFormat="1">
-      <c r="A269" s="6" t="s">
+      <c r="B270" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="C270" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="D270" s="12"/>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A271" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B271" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="C271" s="7" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A272" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B272" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="C272" s="7" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A273" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B273" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="C273" s="7" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A274" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="B269" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="C269" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="D269" s="12"/>
-    </row>
-    <row r="270" spans="1:4" s="13" customFormat="1">
-      <c r="A270" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B270" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="C270" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="D270" s="12"/>
-    </row>
-    <row r="271" spans="1:4" s="13" customFormat="1">
-      <c r="A271" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B271" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="C271" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="D271" s="12"/>
-    </row>
-    <row r="272" spans="1:4">
-      <c r="A272" s="6" t="s">
+      <c r="B274" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="C274" s="7" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A275" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B272" s="6" t="s">
-        <v>348</v>
-      </c>
-      <c r="C272" s="7" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="273" spans="1:3">
-      <c r="A273" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B273" s="6" t="s">
-        <v>350</v>
-      </c>
-      <c r="C273" s="7" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="274" spans="1:3">
-      <c r="A274" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B274" s="6" t="s">
-        <v>352</v>
-      </c>
-      <c r="C274" s="7" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="275" spans="1:3">
-      <c r="A275" s="6" t="s">
-        <v>118</v>
-      </c>
       <c r="B275" s="6" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C275" s="7" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="276" spans="1:3">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A276" s="6" t="s">
         <v>29</v>
       </c>
       <c r="B276" s="6" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C276" s="7" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="277" spans="1:3">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A277" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B277" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="C277" s="7" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A278" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B277" s="6" t="s">
-        <v>358</v>
-      </c>
-      <c r="C277" s="7" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="278" spans="1:3">
-      <c r="A278" s="6" t="s">
-        <v>85</v>
-      </c>
       <c r="B278" s="6" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="C278" s="7" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="279" spans="1:3">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A279" s="6" t="s">
         <v>29</v>
       </c>
       <c r="B279" s="6" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C279" s="7" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="280" spans="1:3">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A280" s="6" t="s">
         <v>29</v>
       </c>
       <c r="B280" s="6" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C280" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="281" spans="1:3">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A281" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B281" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="C281" s="7" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A282" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B281" s="6" t="s">
-        <v>371</v>
-      </c>
-      <c r="C281" s="7" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="282" spans="1:3">
-      <c r="A282" s="6" t="s">
+      <c r="B282" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="C282" s="7" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A283" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B283" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="C283" s="7" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A284" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B284" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="C284" s="7" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A285" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B285" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="C285" s="7" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A286" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B282" s="6" t="s">
-        <v>373</v>
-      </c>
-      <c r="C282" s="7" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="283" spans="1:3">
-      <c r="A283" s="6" t="s">
+      <c r="B286" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="C286" s="7" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" s="8" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A287" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B287" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="C287" s="7" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" s="8" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A288" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B288" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="C288" s="7" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" s="8" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A289" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B283" s="6" t="s">
-        <v>379</v>
-      </c>
-      <c r="C283" s="7" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="284" spans="1:3">
-      <c r="A284" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B284" s="6" t="s">
-        <v>382</v>
-      </c>
-      <c r="C284" s="7" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="285" spans="1:3" s="8" customFormat="1">
-      <c r="A285" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B285" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="C285" s="7" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="286" spans="1:3" s="8" customFormat="1">
-      <c r="A286" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B286" s="6" t="s">
-        <v>386</v>
-      </c>
-      <c r="C286" s="7" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="287" spans="1:3" s="8" customFormat="1">
-      <c r="A287" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B287" s="6" t="s">
-        <v>388</v>
-      </c>
-      <c r="C287" s="7" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="288" spans="1:3" s="8" customFormat="1" ht="14.5" customHeight="1">
-      <c r="A288" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B288" s="6" t="s">
-        <v>392</v>
-      </c>
-      <c r="C288" s="7" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="289" spans="1:4" s="8" customFormat="1" ht="14.5" customHeight="1">
-      <c r="A289" s="6" t="s">
-        <v>21</v>
-      </c>
       <c r="B289" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C289" s="7" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="290" spans="1:4" s="8" customFormat="1" ht="14.5" customHeight="1">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" s="8" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" s="6" t="s">
         <v>29</v>
       </c>
       <c r="B290" s="6" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="C290" s="7" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="291" spans="1:4" s="8" customFormat="1" ht="14.5" customHeight="1">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" s="8" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="6" t="s">
         <v>29</v>
       </c>
       <c r="B291" s="6" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C291" s="7" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="292" spans="1:4" s="8" customFormat="1" ht="14.5" customHeight="1">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A292" s="6" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="B292" s="6" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C292" s="7" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="293" spans="1:4" s="8" customFormat="1">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A293" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B293" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="C293" s="7" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A294" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B294" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="C294" s="7" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A295" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B293" s="6" t="s">
-        <v>408</v>
-      </c>
-      <c r="C293" s="7" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="294" spans="1:4" s="8" customFormat="1">
-      <c r="A294" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B294" s="6" t="s">
-        <v>410</v>
-      </c>
-      <c r="C294" s="7" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="295" spans="1:4" s="8" customFormat="1">
-      <c r="A295" s="6" t="s">
-        <v>47</v>
-      </c>
       <c r="B295" s="6" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C295" s="7" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="296" spans="1:4" s="8" customFormat="1">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A296" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B296" s="6" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C296" s="7" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="297" spans="1:4" s="8" customFormat="1">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A297" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B297" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="C297" s="7" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A298" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B297" s="6" t="s">
-        <v>416</v>
-      </c>
-      <c r="C297" s="7" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="298" spans="1:4" s="8" customFormat="1">
-      <c r="A298" s="6" t="s">
+      <c r="B298" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="C298" s="7" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A299" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B299" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="C299" s="7" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A300" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B300" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="C300" s="7" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A301" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B301" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="C301" s="7" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A302" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B302" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="C302" s="7" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A303" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B298" s="6" t="s">
-        <v>418</v>
-      </c>
-      <c r="C298" s="7" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="299" spans="1:4" s="8" customFormat="1">
-      <c r="A299" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B299" s="6" t="s">
-        <v>420</v>
-      </c>
-      <c r="C299" s="7" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="300" spans="1:4" s="8" customFormat="1">
-      <c r="A300" s="6" t="s">
+      <c r="B303" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="C303" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="D303" s="8"/>
+    </row>
+    <row r="304" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A304" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B304" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="C304" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="D304" s="8"/>
+    </row>
+    <row r="305" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A305" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B300" s="6" t="s">
-        <v>422</v>
-      </c>
-      <c r="C300" s="7" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="301" spans="1:4" s="8" customFormat="1">
-      <c r="A301" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B301" s="6" t="s">
-        <v>424</v>
-      </c>
-      <c r="C301" s="7" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="302" spans="1:4" s="8" customFormat="1">
-      <c r="A302" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B302" s="6" t="s">
-        <v>426</v>
-      </c>
-      <c r="C302" s="7" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="303" spans="1:4" s="8" customFormat="1">
-      <c r="A303" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B303" s="6" t="s">
-        <v>428</v>
-      </c>
-      <c r="C303" s="7" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="304" spans="1:4" s="10" customFormat="1">
-      <c r="A304" s="6" t="s">
+      <c r="B305" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="C305" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="D305" s="8"/>
+    </row>
+    <row r="306" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A306" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B304" s="6" t="s">
-        <v>430</v>
-      </c>
-      <c r="C304" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="D304" s="8"/>
-    </row>
-    <row r="305" spans="1:4" s="10" customFormat="1">
-      <c r="A305" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B305" s="6" t="s">
-        <v>432</v>
-      </c>
-      <c r="C305" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="D305" s="8"/>
-    </row>
-    <row r="306" spans="1:4" s="10" customFormat="1">
-      <c r="A306" s="6" t="s">
-        <v>64</v>
-      </c>
       <c r="B306" s="6" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C306" s="7" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D306" s="8"/>
     </row>
-    <row r="307" spans="1:4" s="10" customFormat="1">
+    <row r="307" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A307" s="6" t="s">
         <v>29</v>
       </c>
       <c r="B307" s="6" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C307" s="7" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D307" s="8"/>
     </row>
-    <row r="308" spans="1:4" s="10" customFormat="1">
+    <row r="308" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A308" s="6" t="s">
         <v>29</v>
       </c>
       <c r="B308" s="6" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C308" s="7" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D308" s="8"/>
     </row>
-    <row r="309" spans="1:4" s="10" customFormat="1">
+    <row r="309" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A309" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B309" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="C309" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="D309" s="8"/>
+    </row>
+    <row r="310" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A310" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B309" s="6" t="s">
-        <v>440</v>
-      </c>
-      <c r="C309" s="7" t="s">
-        <v>441</v>
-      </c>
-      <c r="D309" s="8"/>
-    </row>
-    <row r="310" spans="1:4" s="10" customFormat="1">
-      <c r="A310" s="6" t="s">
-        <v>16</v>
-      </c>
       <c r="B310" s="6" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C310" s="7" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D310" s="8"/>
     </row>
-    <row r="311" spans="1:4" s="10" customFormat="1">
+    <row r="311" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A311" s="6" t="s">
         <v>29</v>
       </c>
       <c r="B311" s="6" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C311" s="7" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D311" s="8"/>
     </row>
-    <row r="312" spans="1:4" s="10" customFormat="1">
+    <row r="312" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A312" s="6" t="s">
         <v>29</v>
       </c>
       <c r="B312" s="6" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C312" s="7" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D312" s="8"/>
     </row>
-    <row r="313" spans="1:4" s="10" customFormat="1">
+    <row r="313" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A313" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B313" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="C313" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="D313" s="8"/>
+    </row>
+    <row r="314" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A314" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B313" s="6" t="s">
-        <v>450</v>
-      </c>
-      <c r="C313" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="D313" s="8"/>
-    </row>
-    <row r="314" spans="1:4" s="10" customFormat="1">
-      <c r="A314" s="6" t="s">
-        <v>47</v>
-      </c>
       <c r="B314" s="6" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C314" s="7" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D314" s="8"/>
     </row>
-    <row r="315" spans="1:4" s="10" customFormat="1">
+    <row r="315" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A315" s="6" t="s">
         <v>29</v>
       </c>
       <c r="B315" s="6" t="s">
-        <v>454</v>
+        <v>636</v>
       </c>
       <c r="C315" s="7" t="s">
-        <v>455</v>
+        <v>637</v>
       </c>
       <c r="D315" s="8"/>
     </row>
-    <row r="316" spans="1:4" s="10" customFormat="1">
+    <row r="316" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A316" s="6" t="s">
         <v>29</v>
       </c>
       <c r="B316" s="6" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="C316" s="7" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="D316" s="8"/>
     </row>
-    <row r="317" spans="1:4" s="10" customFormat="1">
+    <row r="317" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A317" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B317" t="s">
+        <v>644</v>
+      </c>
+      <c r="C317" s="22" t="s">
+        <v>645</v>
+      </c>
+      <c r="D317" s="8"/>
+    </row>
+    <row r="318" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A318" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B318" s="6" t="s">
+        <v>646</v>
+      </c>
+      <c r="C318" s="7" t="s">
+        <v>647</v>
+      </c>
+      <c r="D318" s="8"/>
+    </row>
+    <row r="319" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A319" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B319" s="6" t="s">
+        <v>648</v>
+      </c>
+      <c r="C319" s="7" t="s">
+        <v>649</v>
+      </c>
+      <c r="D319" s="8"/>
+    </row>
+    <row r="320" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A320" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B317" s="6" t="s">
-        <v>639</v>
-      </c>
-      <c r="C317" s="7" t="s">
-        <v>640</v>
-      </c>
-      <c r="D317" s="8"/>
-    </row>
-    <row r="318" spans="1:4" s="10" customFormat="1">
-      <c r="A318" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B318" t="s">
-        <v>645</v>
-      </c>
-      <c r="C318" s="22" t="s">
-        <v>646</v>
-      </c>
-      <c r="D318" s="8"/>
-    </row>
-    <row r="319" spans="1:4" s="10" customFormat="1">
-      <c r="A319" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B319" s="6" t="s">
-        <v>647</v>
-      </c>
-      <c r="C319" s="7" t="s">
-        <v>648</v>
-      </c>
-      <c r="D319" s="8"/>
-    </row>
-    <row r="320" spans="1:4" s="10" customFormat="1">
-      <c r="A320" s="6" t="s">
-        <v>0</v>
-      </c>
       <c r="B320" s="6" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="C320" s="7" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="D320" s="8"/>
     </row>
-    <row r="321" spans="1:4" s="10" customFormat="1">
+    <row r="321" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A321" s="6" t="s">
         <v>29</v>
       </c>
       <c r="B321" s="6" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="C321" s="7" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="D321" s="8"/>
     </row>
-    <row r="322" spans="1:4" s="10" customFormat="1">
+    <row r="322" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A322" s="6" t="s">
         <v>29</v>
       </c>
       <c r="B322" s="6" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="C322" s="7" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="D322" s="8"/>
     </row>
-    <row r="323" spans="1:4" s="10" customFormat="1">
+    <row r="323" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A323" s="6" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="B323" s="6" t="s">
-        <v>655</v>
+        <v>660</v>
       </c>
       <c r="C323" s="7" t="s">
         <v>656</v>
       </c>
       <c r="D323" s="8"/>
     </row>
-    <row r="324" spans="1:4" s="10" customFormat="1">
+    <row r="324" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A324" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B324" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B324" s="19" t="s">
         <v>661</v>
       </c>
       <c r="C324" s="7" t="s">
@@ -6172,11 +6170,11 @@
       </c>
       <c r="D324" s="8"/>
     </row>
-    <row r="325" spans="1:4" s="10" customFormat="1">
+    <row r="325" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A325" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B325" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B325" s="6" t="s">
         <v>662</v>
       </c>
       <c r="C325" s="7" t="s">
@@ -6184,9 +6182,9 @@
       </c>
       <c r="D325" s="8"/>
     </row>
-    <row r="326" spans="1:4" s="10" customFormat="1">
+    <row r="326" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A326" s="6" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="B326" s="6" t="s">
         <v>663</v>
@@ -6196,684 +6194,672 @@
       </c>
       <c r="D326" s="8"/>
     </row>
-    <row r="327" spans="1:4" s="10" customFormat="1">
-      <c r="A327" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B327" s="6" t="s">
-        <v>664</v>
-      </c>
-      <c r="C327" s="7" t="s">
-        <v>660</v>
-      </c>
+    <row r="327" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A327"/>
+      <c r="B327"/>
+      <c r="C327"/>
       <c r="D327" s="8"/>
     </row>
-    <row r="328" spans="1:4" s="10" customFormat="1">
+    <row r="328" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A328"/>
       <c r="B328"/>
       <c r="C328"/>
       <c r="D328" s="8"/>
     </row>
-    <row r="329" spans="1:4" s="10" customFormat="1">
+    <row r="329" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A329"/>
       <c r="B329"/>
       <c r="C329"/>
       <c r="D329" s="8"/>
     </row>
-    <row r="330" spans="1:4" s="10" customFormat="1">
+    <row r="330" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A330"/>
       <c r="B330"/>
       <c r="C330"/>
       <c r="D330" s="8"/>
     </row>
-    <row r="331" spans="1:4" s="10" customFormat="1">
+    <row r="331" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A331"/>
       <c r="B331"/>
       <c r="C331"/>
       <c r="D331" s="8"/>
     </row>
-    <row r="332" spans="1:4" s="10" customFormat="1">
+    <row r="332" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A332"/>
       <c r="B332"/>
       <c r="C332"/>
       <c r="D332" s="8"/>
     </row>
-    <row r="333" spans="1:4" s="10" customFormat="1">
+    <row r="333" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A333"/>
       <c r="B333"/>
       <c r="C333"/>
       <c r="D333" s="8"/>
     </row>
-    <row r="334" spans="1:4" s="10" customFormat="1">
+    <row r="334" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A334"/>
       <c r="B334"/>
       <c r="C334"/>
       <c r="D334" s="8"/>
     </row>
-    <row r="335" spans="1:4" s="10" customFormat="1">
+    <row r="335" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A335"/>
       <c r="B335"/>
       <c r="C335"/>
       <c r="D335" s="8"/>
     </row>
-    <row r="336" spans="1:4" s="10" customFormat="1">
+    <row r="336" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A336"/>
       <c r="B336"/>
       <c r="C336"/>
       <c r="D336" s="8"/>
     </row>
-    <row r="337" spans="1:4" s="10" customFormat="1">
+    <row r="337" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A337"/>
       <c r="B337"/>
       <c r="C337"/>
       <c r="D337" s="8"/>
     </row>
-    <row r="338" spans="1:4" s="10" customFormat="1">
+    <row r="338" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A338"/>
       <c r="B338"/>
       <c r="C338"/>
       <c r="D338" s="8"/>
     </row>
-    <row r="339" spans="1:4" s="10" customFormat="1">
+    <row r="339" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A339"/>
       <c r="B339"/>
       <c r="C339"/>
       <c r="D339" s="8"/>
     </row>
-    <row r="340" spans="1:4" s="10" customFormat="1">
+    <row r="340" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A340"/>
       <c r="B340"/>
       <c r="C340"/>
       <c r="D340" s="8"/>
     </row>
-    <row r="341" spans="1:4" s="10" customFormat="1">
+    <row r="341" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A341"/>
       <c r="B341"/>
       <c r="C341"/>
       <c r="D341" s="8"/>
     </row>
-    <row r="342" spans="1:4" s="10" customFormat="1">
+    <row r="342" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A342"/>
       <c r="B342"/>
       <c r="C342"/>
       <c r="D342" s="8"/>
     </row>
-    <row r="343" spans="1:4" s="23" customFormat="1">
+    <row r="343" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A343"/>
       <c r="B343"/>
       <c r="C343"/>
       <c r="D343" s="8"/>
     </row>
-    <row r="344" spans="1:4" s="23" customFormat="1">
+    <row r="344" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A344"/>
       <c r="B344"/>
       <c r="C344"/>
       <c r="D344" s="8"/>
     </row>
-    <row r="345" spans="1:4" s="23" customFormat="1">
+    <row r="345" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A345"/>
       <c r="B345"/>
       <c r="C345"/>
       <c r="D345" s="8"/>
     </row>
-    <row r="346" spans="1:4" s="23" customFormat="1">
+    <row r="346" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A346"/>
       <c r="B346"/>
       <c r="C346"/>
       <c r="D346" s="8"/>
     </row>
-    <row r="347" spans="1:4" s="23" customFormat="1">
+    <row r="347" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A347"/>
       <c r="B347"/>
       <c r="C347"/>
       <c r="D347" s="8"/>
     </row>
-    <row r="348" spans="1:4" s="23" customFormat="1">
+    <row r="348" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A348"/>
       <c r="B348"/>
       <c r="C348"/>
       <c r="D348" s="8"/>
     </row>
-    <row r="349" spans="1:4" s="23" customFormat="1">
+    <row r="349" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A349"/>
       <c r="B349"/>
       <c r="C349"/>
       <c r="D349" s="8"/>
     </row>
-    <row r="350" spans="1:4" s="23" customFormat="1">
+    <row r="350" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A350"/>
       <c r="B350"/>
       <c r="C350"/>
       <c r="D350" s="8"/>
     </row>
-    <row r="351" spans="1:4" s="23" customFormat="1">
+    <row r="351" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A351"/>
       <c r="B351"/>
       <c r="C351"/>
       <c r="D351" s="8"/>
     </row>
-    <row r="352" spans="1:4" s="23" customFormat="1">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A352"/>
       <c r="B352"/>
       <c r="C352"/>
-      <c r="D352" s="8"/>
-    </row>
-    <row r="353" spans="1:3">
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A353"/>
       <c r="B353"/>
       <c r="C353"/>
     </row>
-    <row r="354" spans="1:3">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A354"/>
       <c r="B354"/>
       <c r="C354"/>
     </row>
-    <row r="355" spans="1:3">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A355"/>
       <c r="B355"/>
       <c r="C355"/>
     </row>
-    <row r="356" spans="1:3">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A356"/>
       <c r="B356"/>
       <c r="C356"/>
     </row>
-    <row r="357" spans="1:3">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A357"/>
-      <c r="B357"/>
-      <c r="C357"/>
-    </row>
-    <row r="358" spans="1:3">
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A358"/>
     </row>
-    <row r="359" spans="1:3">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A359"/>
     </row>
-    <row r="360" spans="1:3">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A360"/>
     </row>
-    <row r="361" spans="1:3">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A361"/>
     </row>
-    <row r="362" spans="1:3">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A362"/>
     </row>
-    <row r="363" spans="1:3">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A363"/>
     </row>
-    <row r="364" spans="1:3">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A364"/>
     </row>
-    <row r="365" spans="1:3">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A365"/>
     </row>
-    <row r="366" spans="1:3">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A366"/>
     </row>
-    <row r="367" spans="1:3">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A367"/>
     </row>
-    <row r="368" spans="1:3">
+    <row r="368" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A368"/>
     </row>
-    <row r="369" spans="1:1">
+    <row r="369" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A369"/>
     </row>
-    <row r="370" spans="1:1">
+    <row r="370" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A370"/>
     </row>
-    <row r="371" spans="1:1">
+    <row r="371" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A371"/>
     </row>
-    <row r="372" spans="1:1">
+    <row r="372" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A372"/>
     </row>
-    <row r="373" spans="1:1">
+    <row r="373" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A373"/>
     </row>
-    <row r="374" spans="1:1">
+    <row r="374" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A374"/>
     </row>
-    <row r="375" spans="1:1">
+    <row r="375" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A375"/>
     </row>
-    <row r="376" spans="1:1">
+    <row r="376" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A376"/>
     </row>
-    <row r="377" spans="1:1">
+    <row r="377" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A377"/>
     </row>
-    <row r="378" spans="1:1">
+    <row r="378" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A378"/>
     </row>
-    <row r="379" spans="1:1">
+    <row r="379" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A379"/>
     </row>
-    <row r="380" spans="1:1">
+    <row r="380" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A380"/>
     </row>
-    <row r="381" spans="1:1">
+    <row r="381" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A381"/>
     </row>
-    <row r="382" spans="1:1">
+    <row r="382" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A382"/>
     </row>
-    <row r="383" spans="1:1">
+    <row r="383" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A383"/>
     </row>
-    <row r="384" spans="1:1">
+    <row r="384" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A384"/>
     </row>
-    <row r="385" spans="1:1">
+    <row r="385" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A385"/>
     </row>
-    <row r="386" spans="1:1">
+    <row r="386" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A386"/>
     </row>
-    <row r="387" spans="1:1">
+    <row r="387" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A387"/>
     </row>
-    <row r="388" spans="1:1">
+    <row r="388" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A388"/>
     </row>
-    <row r="389" spans="1:1">
+    <row r="389" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A389"/>
     </row>
-    <row r="390" spans="1:1">
+    <row r="390" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A390"/>
     </row>
-    <row r="391" spans="1:1">
+    <row r="391" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A391"/>
     </row>
-    <row r="392" spans="1:1">
+    <row r="392" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A392"/>
     </row>
-    <row r="393" spans="1:1">
+    <row r="393" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A393"/>
     </row>
-    <row r="394" spans="1:1">
+    <row r="394" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A394"/>
     </row>
-    <row r="395" spans="1:1">
+    <row r="395" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A395"/>
     </row>
-    <row r="396" spans="1:1">
+    <row r="396" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A396"/>
     </row>
-    <row r="397" spans="1:1">
+    <row r="397" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A397"/>
     </row>
-    <row r="398" spans="1:1">
+    <row r="398" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A398"/>
     </row>
-    <row r="399" spans="1:1">
+    <row r="399" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A399"/>
     </row>
-    <row r="400" spans="1:1">
+    <row r="400" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A400"/>
     </row>
-    <row r="401" spans="1:1">
+    <row r="401" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A401"/>
     </row>
-    <row r="402" spans="1:1">
+    <row r="402" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A402"/>
     </row>
-    <row r="403" spans="1:1">
+    <row r="403" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A403"/>
     </row>
-    <row r="404" spans="1:1">
+    <row r="404" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A404"/>
     </row>
-    <row r="405" spans="1:1">
+    <row r="405" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A405"/>
     </row>
-    <row r="406" spans="1:1">
+    <row r="406" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A406"/>
     </row>
-    <row r="407" spans="1:1">
+    <row r="407" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A407"/>
     </row>
-    <row r="408" spans="1:1">
+    <row r="408" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A408"/>
     </row>
-    <row r="409" spans="1:1">
+    <row r="409" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A409"/>
     </row>
-    <row r="410" spans="1:1">
+    <row r="410" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A410"/>
     </row>
-    <row r="411" spans="1:1">
+    <row r="411" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A411"/>
     </row>
-    <row r="412" spans="1:1">
+    <row r="412" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A412"/>
     </row>
-    <row r="413" spans="1:1">
+    <row r="413" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A413"/>
     </row>
-    <row r="414" spans="1:1">
+    <row r="414" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A414"/>
     </row>
-    <row r="415" spans="1:1">
+    <row r="415" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A415"/>
     </row>
-    <row r="416" spans="1:1">
+    <row r="416" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A416"/>
     </row>
-    <row r="417" spans="1:1">
+    <row r="417" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A417"/>
     </row>
-    <row r="418" spans="1:1">
+    <row r="418" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A418"/>
     </row>
-    <row r="419" spans="1:1">
+    <row r="419" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A419"/>
     </row>
-    <row r="420" spans="1:1">
+    <row r="420" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A420"/>
     </row>
-    <row r="421" spans="1:1">
+    <row r="421" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A421"/>
     </row>
-    <row r="422" spans="1:1">
+    <row r="422" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A422"/>
     </row>
-    <row r="423" spans="1:1">
+    <row r="423" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A423"/>
     </row>
-    <row r="424" spans="1:1">
+    <row r="424" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A424"/>
     </row>
-    <row r="425" spans="1:1">
+    <row r="425" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A425"/>
     </row>
-    <row r="426" spans="1:1">
+    <row r="426" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A426"/>
     </row>
-    <row r="427" spans="1:1">
+    <row r="427" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A427"/>
     </row>
-    <row r="428" spans="1:1">
+    <row r="428" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A428"/>
     </row>
-    <row r="429" spans="1:1">
+    <row r="429" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A429"/>
     </row>
-    <row r="430" spans="1:1">
+    <row r="430" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A430"/>
     </row>
-    <row r="431" spans="1:1">
+    <row r="431" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A431"/>
     </row>
-    <row r="432" spans="1:1">
+    <row r="432" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A432"/>
     </row>
-    <row r="433" spans="1:1">
+    <row r="433" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A433"/>
     </row>
-    <row r="434" spans="1:1">
+    <row r="434" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A434"/>
     </row>
-    <row r="435" spans="1:1">
+    <row r="435" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A435"/>
     </row>
-    <row r="436" spans="1:1">
+    <row r="436" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A436"/>
     </row>
-    <row r="437" spans="1:1">
+    <row r="437" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A437"/>
     </row>
-    <row r="438" spans="1:1">
+    <row r="438" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A438"/>
     </row>
-    <row r="439" spans="1:1">
+    <row r="439" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A439"/>
     </row>
-    <row r="440" spans="1:1">
+    <row r="440" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A440"/>
     </row>
-    <row r="441" spans="1:1">
+    <row r="441" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A441"/>
     </row>
-    <row r="442" spans="1:1">
+    <row r="442" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A442"/>
     </row>
-    <row r="443" spans="1:1">
+    <row r="443" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A443"/>
     </row>
-    <row r="444" spans="1:1">
+    <row r="444" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A444"/>
     </row>
-    <row r="445" spans="1:1">
+    <row r="445" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A445"/>
     </row>
-    <row r="446" spans="1:1">
+    <row r="446" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A446"/>
     </row>
-    <row r="447" spans="1:1">
+    <row r="447" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A447"/>
     </row>
-    <row r="448" spans="1:1">
+    <row r="448" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A448"/>
     </row>
-    <row r="449" spans="1:1">
+    <row r="449" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A449"/>
     </row>
-    <row r="450" spans="1:1">
+    <row r="450" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A450"/>
     </row>
-    <row r="451" spans="1:1">
+    <row r="451" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A451"/>
     </row>
-    <row r="452" spans="1:1">
+    <row r="452" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A452"/>
     </row>
-    <row r="453" spans="1:1">
+    <row r="453" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A453"/>
     </row>
-    <row r="454" spans="1:1">
+    <row r="454" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A454"/>
     </row>
-    <row r="455" spans="1:1">
+    <row r="455" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A455"/>
     </row>
-    <row r="456" spans="1:1">
+    <row r="456" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A456"/>
     </row>
-    <row r="457" spans="1:1">
+    <row r="457" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A457"/>
     </row>
-    <row r="458" spans="1:1">
+    <row r="458" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A458"/>
     </row>
-    <row r="459" spans="1:1">
+    <row r="459" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A459"/>
     </row>
-    <row r="460" spans="1:1">
+    <row r="460" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A460"/>
     </row>
-    <row r="461" spans="1:1">
+    <row r="461" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A461"/>
     </row>
-    <row r="462" spans="1:1">
+    <row r="462" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A462"/>
     </row>
-    <row r="463" spans="1:1">
+    <row r="463" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A463"/>
     </row>
-    <row r="464" spans="1:1">
+    <row r="464" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A464"/>
     </row>
-    <row r="465" spans="1:1">
+    <row r="465" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A465"/>
     </row>
-    <row r="466" spans="1:1">
+    <row r="466" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A466"/>
     </row>
-    <row r="467" spans="1:1">
+    <row r="467" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A467"/>
     </row>
-    <row r="468" spans="1:1">
+    <row r="468" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A468"/>
     </row>
-    <row r="469" spans="1:1">
+    <row r="469" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A469"/>
     </row>
-    <row r="470" spans="1:1">
+    <row r="470" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A470"/>
     </row>
-    <row r="471" spans="1:1">
+    <row r="471" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A471"/>
     </row>
-    <row r="472" spans="1:1">
+    <row r="472" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A472"/>
     </row>
-    <row r="473" spans="1:1">
+    <row r="473" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A473"/>
     </row>
-    <row r="474" spans="1:1">
+    <row r="474" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A474"/>
     </row>
-    <row r="475" spans="1:1">
+    <row r="475" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A475"/>
     </row>
-    <row r="476" spans="1:1">
+    <row r="476" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A476"/>
     </row>
-    <row r="477" spans="1:1">
+    <row r="477" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A477"/>
     </row>
-    <row r="478" spans="1:1">
+    <row r="478" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A478"/>
     </row>
-    <row r="479" spans="1:1">
+    <row r="479" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A479"/>
     </row>
-    <row r="480" spans="1:1">
+    <row r="480" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A480"/>
     </row>
-    <row r="481" spans="1:1">
+    <row r="481" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A481"/>
     </row>
-    <row r="482" spans="1:1">
+    <row r="482" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A482"/>
     </row>
-    <row r="483" spans="1:1">
+    <row r="483" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A483"/>
     </row>
-    <row r="484" spans="1:1">
+    <row r="484" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A484"/>
     </row>
-    <row r="485" spans="1:1">
+    <row r="485" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A485"/>
     </row>
-    <row r="486" spans="1:1">
+    <row r="486" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A486"/>
     </row>
-    <row r="487" spans="1:1">
+    <row r="487" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A487"/>
     </row>
-    <row r="488" spans="1:1">
+    <row r="488" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A488"/>
     </row>
-    <row r="489" spans="1:1">
+    <row r="489" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A489"/>
     </row>
-    <row r="490" spans="1:1">
+    <row r="490" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A490"/>
     </row>
-    <row r="491" spans="1:1">
+    <row r="491" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A491"/>
     </row>
-    <row r="492" spans="1:1">
+    <row r="492" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A492"/>
     </row>
-    <row r="493" spans="1:1">
+    <row r="493" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A493"/>
     </row>
-    <row r="494" spans="1:1">
+    <row r="494" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A494"/>
     </row>
-    <row r="495" spans="1:1">
+    <row r="495" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A495"/>
     </row>
-    <row r="496" spans="1:1">
+    <row r="496" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A496"/>
     </row>
-    <row r="497" spans="1:1">
+    <row r="497" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A497"/>
     </row>
-    <row r="498" spans="1:1">
+    <row r="498" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A498"/>
     </row>
-    <row r="499" spans="1:1">
+    <row r="499" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A499"/>
     </row>
-    <row r="500" spans="1:1">
+    <row r="500" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A500"/>
     </row>
-    <row r="501" spans="1:1">
+    <row r="501" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A501"/>
     </row>
-    <row r="502" spans="1:1">
+    <row r="502" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A502"/>
     </row>
-    <row r="503" spans="1:1">
+    <row r="503" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A503"/>
     </row>
-    <row r="504" spans="1:1">
+    <row r="504" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A504"/>
     </row>
-    <row r="505" spans="1:1">
+    <row r="505" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A505"/>
     </row>
-    <row r="506" spans="1:1">
+    <row r="506" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A506"/>
     </row>
-    <row r="507" spans="1:1">
+    <row r="507" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A507"/>
     </row>
-    <row r="508" spans="1:1">
+    <row r="508" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A508"/>
     </row>
-    <row r="509" spans="1:1">
+    <row r="509" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A509"/>
     </row>
-    <row r="510" spans="1:1">
+    <row r="510" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A510"/>
     </row>
-    <row r="511" spans="1:1">
+    <row r="511" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A511"/>
     </row>
-    <row r="512" spans="1:1">
+    <row r="512" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A512"/>
     </row>
-    <row r="513" spans="1:1">
+    <row r="513" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A513"/>
     </row>
-    <row r="514" spans="1:1">
+    <row r="514" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A514"/>
     </row>
-    <row r="515" spans="1:1">
+    <row r="515" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A515"/>
     </row>
-    <row r="516" spans="1:1">
+    <row r="516" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A516"/>
     </row>
-    <row r="517" spans="1:1">
+    <row r="517" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A517"/>
     </row>
-    <row r="518" spans="1:1">
+    <row r="518" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A518"/>
     </row>
-    <row r="519" spans="1:1">
+    <row r="519" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A519"/>
     </row>
-    <row r="520" spans="1:1">
-      <c r="A520"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:C327" xr:uid="{722A4A62-F3D1-4577-AFDB-10AA26B12C9A}"/>
+  <autoFilter ref="A1:C326" xr:uid="{722A4A62-F3D1-4577-AFDB-10AA26B12C9A}"/>
   <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A1048576" xr:uid="{E352FAC8-A16C-4D2E-A882-41DD0E3D9156}">

--- a/powerapp/data/subs_metadata.xlsx
+++ b/powerapp/data/subs_metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/externalDrive/code-gym/work/powerapp/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C5BBF06-EE13-5B47-B18A-A0B23DB24E49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F69C9AC-B5E3-7042-8387-2B03085A4100}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="620" windowWidth="19420" windowHeight="11500" xr2:uid="{955B3BBE-6EC3-4CB4-BEB6-AB762050D1CD}"/>
+    <workbookView xWindow="34400" yWindow="620" windowWidth="34400" windowHeight="26380" xr2:uid="{955B3BBE-6EC3-4CB4-BEB6-AB762050D1CD}"/>
   </bookViews>
   <sheets>
     <sheet name="substation" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="665">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="669">
   <si>
     <t>East-Kuantan</t>
   </si>
@@ -2034,13 +2034,25 @@
   </si>
   <si>
     <t>Xinyi</t>
+  </si>
+  <si>
+    <t>Abu Bakar Baginda</t>
+  </si>
+  <si>
+    <t>ABBA</t>
+  </si>
+  <si>
+    <t>AFMS</t>
+  </si>
+  <si>
+    <t>A Famosa</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2055,12 +2067,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -2089,13 +2095,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <sz val="9"/>
       <color rgb="FFFF0000"/>
       <name val="Aptos"/>
@@ -2120,15 +2119,37 @@
     </font>
     <font>
       <b/>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Display"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Aptos Display"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
-      <color rgb="FFFF0000"/>
       <name val="Aptos Display"/>
       <family val="2"/>
     </font>
@@ -2153,7 +2174,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2167,45 +2188,50 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2540,22 +2566,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC278235-0322-4A5E-A642-ABE48087B759}">
-  <dimension ref="A1:D519"/>
+  <dimension ref="A1:H519"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D333" sqref="D333"/>
+    <sheetView tabSelected="1" topLeftCell="A297" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B332" sqref="B332"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17" style="6" customWidth="1"/>
-    <col min="2" max="2" width="32.1640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" style="8"/>
-    <col min="5" max="16384" width="8.6640625" style="9"/>
+    <col min="1" max="1" width="17" style="5" customWidth="1"/>
+    <col min="2" max="2" width="32.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" style="9"/>
+    <col min="5" max="8" width="8.6640625" style="10"/>
+    <col min="9" max="16384" width="8.6640625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>642</v>
       </c>
@@ -2565,3784 +2592,4034 @@
       <c r="C1" s="3" t="s">
         <v>640</v>
       </c>
-      <c r="D1" s="4"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+      <c r="D1" s="21"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>598</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>599</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>601</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>605</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="6" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>615</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="6" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>616</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="6" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="6" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>617</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="6" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="6" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>608</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="6" t="s">
         <v>609</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="6" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="5" t="s">
         <v>618</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="6" t="s">
         <v>610</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="5" t="s">
         <v>619</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="6" t="s">
         <v>611</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="6" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="5" t="s">
         <v>620</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="6" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="5" t="s">
         <v>621</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="6" t="s">
         <v>612</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="5" t="s">
         <v>622</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="6" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="6" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="5" t="s">
         <v>613</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="6" t="s">
         <v>614</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="6" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="6" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="6" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="6" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="6" t="s">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="6" t="s">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="6" t="s">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="6" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="6" t="s">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C36" s="6" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="6" t="s">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="6" t="s">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C38" s="6" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="6" t="s">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C39" s="6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="40" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="6" t="s">
+    <row r="40" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C40" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D40" s="10"/>
-    </row>
-    <row r="41" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="6" t="s">
+      <c r="D40" s="9"/>
+    </row>
+    <row r="41" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C41" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D41" s="12"/>
-    </row>
-    <row r="42" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="6" t="s">
+      <c r="D41" s="23"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="24"/>
+      <c r="H41" s="24"/>
+    </row>
+    <row r="42" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C42" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D42" s="12"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="6" t="s">
+      <c r="D42" s="23"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="24"/>
+      <c r="G42" s="24"/>
+      <c r="H42" s="24"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C43" s="6" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="6" t="s">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B44" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C44" s="6" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="6" t="s">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="B45" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C45" s="6" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="6" t="s">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B46" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C46" s="6" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="6" t="s">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="B47" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="C47" s="6" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="6" t="s">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="B48" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="C48" s="6" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="6" t="s">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="B49" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="C49" s="6" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="6" t="s">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="B50" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C50" s="7" t="s">
+      <c r="C50" s="6" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" s="6" t="s">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B51" s="6" t="s">
+      <c r="B51" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="C51" s="6" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="52" spans="1:3" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="6" t="s">
+    <row r="52" spans="1:8" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="B52" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C52" s="7" t="s">
+      <c r="C52" s="6" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="6" t="s">
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="9"/>
+    </row>
+    <row r="53" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B53" s="6" t="s">
+      <c r="B53" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C53" s="7" t="s">
+      <c r="C53" s="6" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="6" t="s">
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="9"/>
+    </row>
+    <row r="54" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B54" s="6" t="s">
+      <c r="B54" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C54" s="7" t="s">
+      <c r="C54" s="6" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="6" t="s">
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="9"/>
+    </row>
+    <row r="55" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="B55" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C55" s="7" t="s">
+      <c r="C55" s="6" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="6" t="s">
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="9"/>
+    </row>
+    <row r="56" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B56" s="6" t="s">
+      <c r="B56" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C56" s="7" t="s">
+      <c r="C56" s="6" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="6" t="s">
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="9"/>
+    </row>
+    <row r="57" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B57" s="6" t="s">
+      <c r="B57" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C57" s="7" t="s">
+      <c r="C57" s="6" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="6" t="s">
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="9"/>
+    </row>
+    <row r="58" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B58" s="6" t="s">
+      <c r="B58" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C58" s="7" t="s">
+      <c r="C58" s="6" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="6" t="s">
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="9"/>
+    </row>
+    <row r="59" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B59" s="6" t="s">
+      <c r="B59" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C59" s="7" t="s">
+      <c r="C59" s="6" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="6" t="s">
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="9"/>
+    </row>
+    <row r="60" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B60" s="6" t="s">
+      <c r="B60" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="C60" s="7" t="s">
+      <c r="C60" s="6" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="6" t="s">
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="9"/>
+    </row>
+    <row r="61" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B61" s="6" t="s">
+      <c r="B61" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C61" s="7" t="s">
+      <c r="C61" s="6" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="6" t="s">
+      <c r="D61" s="9"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="9"/>
+      <c r="H61" s="9"/>
+    </row>
+    <row r="62" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B62" s="6" t="s">
+      <c r="B62" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="C62" s="7" t="s">
+      <c r="C62" s="6" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="6" t="s">
+      <c r="D62" s="9"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="9"/>
+      <c r="H62" s="9"/>
+    </row>
+    <row r="63" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B63" s="6" t="s">
+      <c r="B63" s="5" t="s">
         <v>460</v>
       </c>
-      <c r="C63" s="7" t="s">
+      <c r="C63" s="6" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="6" t="s">
+      <c r="D63" s="9"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="9"/>
+      <c r="G63" s="9"/>
+      <c r="H63" s="9"/>
+    </row>
+    <row r="64" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B64" s="6" t="s">
+      <c r="B64" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="C64" s="7" t="s">
+      <c r="C64" s="6" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="6" t="s">
+      <c r="D64" s="9"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="9"/>
+      <c r="G64" s="9"/>
+      <c r="H64" s="9"/>
+    </row>
+    <row r="65" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B65" s="6" t="s">
+      <c r="B65" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C65" s="7" t="s">
+      <c r="C65" s="6" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66" s="6" t="s">
+      <c r="D65" s="9"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="9"/>
+      <c r="G65" s="9"/>
+      <c r="H65" s="9"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A66" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B66" s="6" t="s">
+      <c r="B66" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="C66" s="7" t="s">
+      <c r="C66" s="6" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A67" s="6" t="s">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A67" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B67" s="6" t="s">
+      <c r="B67" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="C67" s="7" t="s">
+      <c r="C67" s="6" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A68" s="6" t="s">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A68" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="B68" s="6" t="s">
+      <c r="B68" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="C68" s="7" t="s">
+      <c r="C68" s="6" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A69" s="6" t="s">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A69" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="B69" s="6" t="s">
+      <c r="B69" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="C69" s="7" t="s">
+      <c r="C69" s="6" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A70" s="6" t="s">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A70" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B70" s="6" t="s">
+      <c r="B70" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="C70" s="7" t="s">
+      <c r="C70" s="6" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A71" s="6" t="s">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A71" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B71" s="6" t="s">
+      <c r="B71" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="C71" s="7" t="s">
+      <c r="C71" s="6" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A72" s="6" t="s">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A72" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B72" s="6" t="s">
+      <c r="B72" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="C72" s="7" t="s">
+      <c r="C72" s="6" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A73" s="6" t="s">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A73" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="B73" s="6" t="s">
+      <c r="B73" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="C73" s="7" t="s">
+      <c r="C73" s="6" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A74" s="6" t="s">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A74" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B74" s="6" t="s">
+      <c r="B74" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="C74" s="7" t="s">
+      <c r="C74" s="6" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A75" s="6" t="s">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A75" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B75" s="6" t="s">
+      <c r="B75" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="C75" s="7" t="s">
+      <c r="C75" s="6" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A76" s="6" t="s">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A76" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B76" s="6" t="s">
+      <c r="B76" s="5" t="s">
         <v>457</v>
       </c>
-      <c r="C76" s="7" t="s">
+      <c r="C76" s="6" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A77" s="6" t="s">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A77" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B77" s="6" t="s">
+      <c r="B77" s="5" t="s">
         <v>459</v>
       </c>
-      <c r="C77" s="7" t="s">
+      <c r="C77" s="6" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A78" s="6" t="s">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A78" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B78" s="6" t="s">
+      <c r="B78" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="C78" s="7" t="s">
+      <c r="C78" s="6" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A79" s="6" t="s">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A79" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B79" s="6" t="s">
+      <c r="B79" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="C79" s="7" t="s">
+      <c r="C79" s="6" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A80" s="6" t="s">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A80" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B80" s="6" t="s">
+      <c r="B80" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="C80" s="7" t="s">
+      <c r="C80" s="6" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="6" t="s">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A81" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B81" s="6" t="s">
+      <c r="B81" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="C81" s="7" t="s">
+      <c r="C81" s="6" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="82" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="6" t="s">
+    <row r="82" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B82" s="6" t="s">
+      <c r="B82" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="C82" s="7" t="s">
+      <c r="C82" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="D82" s="12"/>
-    </row>
-    <row r="83" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="6" t="s">
+      <c r="D82" s="23"/>
+      <c r="E82" s="24"/>
+      <c r="F82" s="24"/>
+      <c r="G82" s="24"/>
+      <c r="H82" s="24"/>
+    </row>
+    <row r="83" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B83" s="6" t="s">
+      <c r="B83" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="C83" s="7" t="s">
+      <c r="C83" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="D83" s="12"/>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="6" t="s">
+      <c r="D83" s="23"/>
+      <c r="E83" s="24"/>
+      <c r="F83" s="24"/>
+      <c r="G83" s="24"/>
+      <c r="H83" s="24"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A84" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B84" s="6" t="s">
+      <c r="B84" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="C84" s="7" t="s">
+      <c r="C84" s="6" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" s="6" t="s">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A85" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B85" s="6" t="s">
+      <c r="B85" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="C85" s="7" t="s">
+      <c r="C85" s="6" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86" s="6" t="s">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A86" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="B86" s="6" t="s">
+      <c r="B86" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="C86" s="7" t="s">
+      <c r="C86" s="6" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87" s="6" t="s">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A87" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B87" s="6" t="s">
+      <c r="B87" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="C87" s="7" t="s">
+      <c r="C87" s="6" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88" s="6" t="s">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A88" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="B88" s="6" t="s">
+      <c r="B88" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="C88" s="7" t="s">
+      <c r="C88" s="6" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A89" s="6" t="s">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A89" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B89" s="6" t="s">
+      <c r="B89" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="C89" s="7" t="s">
+      <c r="C89" s="6" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A90" s="6" t="s">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A90" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B90" s="6" t="s">
+      <c r="B90" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="C90" s="7" t="s">
+      <c r="C90" s="6" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A91" s="6" t="s">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A91" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B91" s="6" t="s">
+      <c r="B91" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="C91" s="7" t="s">
+      <c r="C91" s="6" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A92" s="6" t="s">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A92" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B92" s="6" t="s">
+      <c r="B92" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="C92" s="7" t="s">
+      <c r="C92" s="6" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A93" s="6" t="s">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A93" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B93" s="6" t="s">
+      <c r="B93" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="C93" s="7" t="s">
+      <c r="C93" s="6" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A94" s="6" t="s">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A94" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B94" s="6" t="s">
+      <c r="B94" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="C94" s="7" t="s">
+      <c r="C94" s="6" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A95" s="6" t="s">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A95" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B95" s="6" t="s">
+      <c r="B95" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="C95" s="7" t="s">
+      <c r="C95" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A96" s="6" t="s">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A96" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B96" s="6" t="s">
+      <c r="B96" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="C96" s="7" t="s">
+      <c r="C96" s="6" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="97" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="6" t="s">
+    <row r="97" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B97" s="6" t="s">
+      <c r="B97" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="C97" s="7" t="s">
+      <c r="C97" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="D97" s="12"/>
-    </row>
-    <row r="98" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="6" t="s">
+      <c r="D97" s="23"/>
+      <c r="E97" s="24"/>
+      <c r="F97" s="24"/>
+      <c r="G97" s="24"/>
+      <c r="H97" s="24"/>
+    </row>
+    <row r="98" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B98" s="6" t="s">
+      <c r="B98" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="C98" s="7" t="s">
+      <c r="C98" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="D98" s="12"/>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A99" s="6" t="s">
+      <c r="D98" s="23"/>
+      <c r="E98" s="24"/>
+      <c r="F98" s="24"/>
+      <c r="G98" s="24"/>
+      <c r="H98" s="24"/>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A99" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B99" s="6" t="s">
+      <c r="B99" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="C99" s="7" t="s">
+      <c r="C99" s="6" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A100" s="6" t="s">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A100" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B100" s="6" t="s">
+      <c r="B100" s="5" t="s">
         <v>462</v>
       </c>
-      <c r="C100" s="7" t="s">
+      <c r="C100" s="6" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A101" s="6" t="s">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A101" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B101" s="6" t="s">
+      <c r="B101" s="5" t="s">
         <v>464</v>
       </c>
-      <c r="C101" s="7" t="s">
+      <c r="C101" s="6" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="102" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="6" t="s">
+    <row r="102" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B102" s="6" t="s">
+      <c r="B102" s="5" t="s">
         <v>466</v>
       </c>
-      <c r="C102" s="7" t="s">
+      <c r="C102" s="6" t="s">
         <v>467</v>
       </c>
-      <c r="D102" s="12"/>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A103" s="6" t="s">
+      <c r="D102" s="23"/>
+      <c r="E102" s="24"/>
+      <c r="F102" s="24"/>
+      <c r="G102" s="24"/>
+      <c r="H102" s="24"/>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A103" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B103" s="6" t="s">
+      <c r="B103" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="C103" s="7" t="s">
+      <c r="C103" s="6" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A104" s="6" t="s">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A104" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B104" s="6" t="s">
+      <c r="B104" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="C104" s="7" t="s">
+      <c r="C104" s="6" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A105" s="6" t="s">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A105" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B105" s="14" t="s">
+      <c r="B105" s="12" t="s">
         <v>473</v>
       </c>
-      <c r="C105" s="7" t="s">
+      <c r="C105" s="6" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A106" s="6" t="s">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A106" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B106" s="6" t="s">
+      <c r="B106" s="5" t="s">
         <v>472</v>
       </c>
-      <c r="C106" s="7" t="s">
+      <c r="C106" s="6" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A107" s="6" t="s">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A107" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B107" s="6" t="s">
+      <c r="B107" s="5" t="s">
         <v>474</v>
       </c>
-      <c r="C107" s="7" t="s">
+      <c r="C107" s="6" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A108" s="6" t="s">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A108" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B108" s="6" t="s">
+      <c r="B108" s="5" t="s">
         <v>468</v>
       </c>
-      <c r="C108" s="7" t="s">
+      <c r="C108" s="6" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A109" s="6" t="s">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A109" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B109" s="6" t="s">
+      <c r="B109" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="C109" s="7" t="s">
+      <c r="C109" s="6" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A110" s="6" t="s">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A110" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B110" s="6" t="s">
+      <c r="B110" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="C110" s="7" t="s">
+      <c r="C110" s="6" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A111" s="6" t="s">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A111" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B111" s="6" t="s">
+      <c r="B111" s="5" t="s">
         <v>480</v>
       </c>
-      <c r="C111" s="7" t="s">
+      <c r="C111" s="6" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A112" s="6" t="s">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A112" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B112" s="6" t="s">
+      <c r="B112" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="C112" s="7" t="s">
+      <c r="C112" s="6" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A113" s="6" t="s">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A113" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B113" s="6" t="s">
+      <c r="B113" s="5" t="s">
         <v>482</v>
       </c>
-      <c r="C113" s="7" t="s">
+      <c r="C113" s="6" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A114" s="6" t="s">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A114" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B114" s="6" t="s">
+      <c r="B114" s="5" t="s">
         <v>483</v>
       </c>
-      <c r="C114" s="7" t="s">
+      <c r="C114" s="6" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A115" s="6" t="s">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A115" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B115" s="6" t="s">
+      <c r="B115" s="5" t="s">
         <v>484</v>
       </c>
-      <c r="C115" s="7" t="s">
+      <c r="C115" s="6" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A116" s="6" t="s">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A116" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B116" s="6" t="s">
+      <c r="B116" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="C116" s="7" t="s">
+      <c r="C116" s="6" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A117" s="6" t="s">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A117" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B117" s="6" t="s">
+      <c r="B117" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="C117" s="7" t="s">
+      <c r="C117" s="6" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A118" s="6" t="s">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A118" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B118" s="6" t="s">
+      <c r="B118" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="C118" s="7" t="s">
+      <c r="C118" s="6" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A119" s="6" t="s">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A119" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B119" s="6" t="s">
+      <c r="B119" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="C119" s="7" t="s">
+      <c r="C119" s="6" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A120" s="6" t="s">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A120" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B120" s="6" t="s">
+      <c r="B120" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="C120" s="7" t="s">
+      <c r="C120" s="6" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A121" s="6" t="s">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A121" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B121" s="6" t="s">
+      <c r="B121" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="C121" s="7" t="s">
+      <c r="C121" s="6" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A122" s="6" t="s">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A122" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B122" s="6" t="s">
+      <c r="B122" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="C122" s="7" t="s">
+      <c r="C122" s="6" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A123" s="6" t="s">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A123" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="B123" s="6" t="s">
+      <c r="B123" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="C123" s="7" t="s">
+      <c r="C123" s="6" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A124" s="6" t="s">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A124" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="B124" s="6" t="s">
+      <c r="B124" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="C124" s="7" t="s">
+      <c r="C124" s="6" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A125" s="6" t="s">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A125" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="B125" s="6" t="s">
+      <c r="B125" s="5" t="s">
         <v>500</v>
       </c>
-      <c r="C125" s="7" t="s">
+      <c r="C125" s="6" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A126" s="6" t="s">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A126" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="B126" s="6" t="s">
+      <c r="B126" s="5" t="s">
         <v>501</v>
       </c>
-      <c r="C126" s="7" t="s">
+      <c r="C126" s="6" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="127" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="6" t="s">
+    <row r="127" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A127" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B127" s="6" t="s">
+      <c r="B127" s="5" t="s">
         <v>502</v>
       </c>
-      <c r="C127" s="7" t="s">
+      <c r="C127" s="6" t="s">
         <v>487</v>
       </c>
-      <c r="D127" s="12"/>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A128" s="6" t="s">
+      <c r="D127" s="23"/>
+      <c r="E127" s="24"/>
+      <c r="F127" s="24"/>
+      <c r="G127" s="24"/>
+      <c r="H127" s="24"/>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A128" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B128" s="15" t="s">
+      <c r="B128" s="13" t="s">
         <v>503</v>
       </c>
-      <c r="C128" s="16" t="s">
+      <c r="C128" s="14" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A129" s="6" t="s">
+      <c r="A129" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B129" s="15" t="s">
+      <c r="B129" s="13" t="s">
         <v>504</v>
       </c>
-      <c r="C129" s="16" t="s">
+      <c r="C129" s="14" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A130" s="6" t="s">
+      <c r="A130" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B130" s="15" t="s">
+      <c r="B130" s="13" t="s">
         <v>505</v>
       </c>
-      <c r="C130" s="16" t="s">
+      <c r="C130" s="14" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A131" s="6" t="s">
+      <c r="A131" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B131" s="15" t="s">
+      <c r="B131" s="13" t="s">
         <v>506</v>
       </c>
-      <c r="C131" s="16" t="s">
+      <c r="C131" s="14" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A132" s="6" t="s">
+      <c r="A132" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B132" s="15" t="s">
+      <c r="B132" s="13" t="s">
         <v>623</v>
       </c>
-      <c r="C132" s="16" t="s">
+      <c r="C132" s="14" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A133" s="6" t="s">
+      <c r="A133" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B133" s="15" t="s">
+      <c r="B133" s="13" t="s">
         <v>507</v>
       </c>
-      <c r="C133" s="16" t="s">
+      <c r="C133" s="14" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A134" s="6" t="s">
+      <c r="A134" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B134" s="15" t="s">
+      <c r="B134" s="13" t="s">
         <v>508</v>
       </c>
-      <c r="C134" s="16" t="s">
+      <c r="C134" s="14" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A135" s="6" t="s">
+      <c r="A135" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B135" s="15" t="s">
+      <c r="B135" s="13" t="s">
         <v>509</v>
       </c>
-      <c r="C135" s="16" t="s">
+      <c r="C135" s="14" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A136" s="6" t="s">
+      <c r="A136" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B136" s="15" t="s">
+      <c r="B136" s="13" t="s">
         <v>624</v>
       </c>
-      <c r="C136" s="16" t="s">
+      <c r="C136" s="14" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A137" s="6" t="s">
+      <c r="A137" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B137" s="15" t="s">
+      <c r="B137" s="13" t="s">
         <v>625</v>
       </c>
-      <c r="C137" s="16" t="s">
+      <c r="C137" s="14" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A138" s="6" t="s">
+      <c r="A138" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B138" s="6" t="s">
+      <c r="B138" s="5" t="s">
         <v>401</v>
       </c>
-      <c r="C138" s="7" t="s">
+      <c r="C138" s="6" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A139" s="6" t="s">
+      <c r="A139" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B139" s="6" t="s">
+      <c r="B139" s="5" t="s">
         <v>511</v>
       </c>
-      <c r="C139" s="7" t="s">
+      <c r="C139" s="6" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A140" s="6" t="s">
+      <c r="A140" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B140" s="6" t="s">
+      <c r="B140" s="5" t="s">
         <v>626</v>
       </c>
-      <c r="C140" s="7" t="s">
+      <c r="C140" s="6" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="6" t="s">
+      <c r="A141" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B141" s="6" t="s">
+      <c r="B141" s="5" t="s">
         <v>664</v>
       </c>
-      <c r="C141" s="16" t="s">
+      <c r="C141" s="14" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="6" t="s">
+      <c r="A142" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B142" s="6" t="s">
+      <c r="B142" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="C142" s="7" t="s">
+      <c r="C142" s="6" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="6" t="s">
+      <c r="A143" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B143" s="6" t="s">
+      <c r="B143" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="C143" s="7" t="s">
+      <c r="C143" s="6" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="17" t="s">
+      <c r="A144" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="B144" s="17" t="s">
+      <c r="B144" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="C144" s="18" t="s">
+      <c r="C144" s="16" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="6" t="s">
+    <row r="145" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A145" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B145" s="6" t="s">
+      <c r="B145" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="C145" s="7" t="s">
+      <c r="C145" s="6" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="6" t="s">
+    <row r="146" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A146" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B146" s="6" t="s">
+      <c r="B146" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="C146" s="7" t="s">
+      <c r="C146" s="6" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="6" t="s">
+    <row r="147" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A147" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B147" s="6" t="s">
+      <c r="B147" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="C147" s="7" t="s">
+      <c r="C147" s="6" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="6" t="s">
+    <row r="148" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A148" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B148" s="6" t="s">
+      <c r="B148" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="C148" s="7" t="s">
+      <c r="C148" s="6" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="6" t="s">
+    <row r="149" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A149" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B149" s="6" t="s">
+      <c r="B149" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="C149" s="7" t="s">
+      <c r="C149" s="6" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="6" t="s">
+    <row r="150" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A150" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B150" s="6" t="s">
+      <c r="B150" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="C150" s="7" t="s">
+      <c r="C150" s="6" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A151" s="6" t="s">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A151" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B151" s="6" t="s">
+      <c r="B151" s="5" t="s">
         <v>513</v>
       </c>
-      <c r="C151" s="7" t="s">
+      <c r="C151" s="6" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A152" s="6" t="s">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A152" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B152" s="19" t="s">
+      <c r="B152" s="17" t="s">
         <v>399</v>
       </c>
-      <c r="C152" s="7" t="s">
+      <c r="C152" s="6" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A153" s="6" t="s">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A153" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B153" s="6" t="s">
+      <c r="B153" s="5" t="s">
         <v>514</v>
       </c>
-      <c r="C153" s="7" t="s">
+      <c r="C153" s="6" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A154" s="6" t="s">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A154" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B154" s="6" t="s">
+      <c r="B154" s="5" t="s">
         <v>627</v>
       </c>
-      <c r="C154" s="7" t="s">
+      <c r="C154" s="6" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A155" s="6" t="s">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A155" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B155" s="6" t="s">
+      <c r="B155" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="C155" s="7" t="s">
+      <c r="C155" s="6" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="156" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="6" t="s">
+    <row r="156" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A156" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B156" s="6" t="s">
+      <c r="B156" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="C156" s="7" t="s">
+      <c r="C156" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="D156" s="12"/>
-    </row>
-    <row r="157" spans="1:4" s="21" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="6" t="s">
+      <c r="D156" s="23"/>
+      <c r="E156" s="24"/>
+      <c r="F156" s="24"/>
+      <c r="G156" s="24"/>
+      <c r="H156" s="24"/>
+    </row>
+    <row r="157" spans="1:8" s="18" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A157" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B157" s="6" t="s">
+      <c r="B157" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="C157" s="7" t="s">
+      <c r="C157" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="D157" s="20"/>
-    </row>
-    <row r="158" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="6" t="s">
+      <c r="D157" s="25"/>
+      <c r="E157" s="26"/>
+      <c r="F157" s="26"/>
+      <c r="G157" s="26"/>
+      <c r="H157" s="26"/>
+    </row>
+    <row r="158" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A158" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B158" s="6" t="s">
+      <c r="B158" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="C158" s="7" t="s">
+      <c r="C158" s="6" t="s">
         <v>643</v>
       </c>
-      <c r="D158" s="12"/>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A159" s="6" t="s">
+      <c r="D158" s="23"/>
+      <c r="E158" s="24"/>
+      <c r="F158" s="24"/>
+      <c r="G158" s="24"/>
+      <c r="H158" s="24"/>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A159" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B159" s="6" t="s">
+      <c r="B159" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="C159" s="7" t="s">
+      <c r="C159" s="6" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A160" s="6" t="s">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A160" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B160" s="6" t="s">
+      <c r="B160" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="C160" s="7" t="s">
+      <c r="C160" s="6" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A161" s="6" t="s">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A161" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B161" s="6" t="s">
+      <c r="B161" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="C161" s="7" t="s">
+      <c r="C161" s="6" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="162" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="6" t="s">
+    <row r="162" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A162" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B162" s="6" t="s">
+      <c r="B162" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="C162" s="7" t="s">
+      <c r="C162" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="D162" s="12"/>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A163" s="6" t="s">
+      <c r="D162" s="23"/>
+      <c r="E162" s="24"/>
+      <c r="F162" s="24"/>
+      <c r="G162" s="24"/>
+      <c r="H162" s="24"/>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A163" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B163" s="6" t="s">
+      <c r="B163" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="C163" s="7" t="s">
+      <c r="C163" s="6" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A164" s="6" t="s">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A164" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B164" s="6" t="s">
+      <c r="B164" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="C164" s="7" t="s">
+      <c r="C164" s="6" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A165" s="6" t="s">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A165" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B165" s="6" t="s">
+      <c r="B165" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="C165" s="7" t="s">
+      <c r="C165" s="6" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A166" s="6" t="s">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A166" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B166" s="6" t="s">
+      <c r="B166" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="C166" s="7" t="s">
+      <c r="C166" s="6" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A167" s="6" t="s">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A167" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="B167" s="6" t="s">
+      <c r="B167" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="C167" s="7" t="s">
+      <c r="C167" s="6" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A168" s="6" t="s">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A168" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B168" s="6" t="s">
+      <c r="B168" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="C168" s="7" t="s">
+      <c r="C168" s="6" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A169" s="6" t="s">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A169" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B169" s="6" t="s">
+      <c r="B169" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="C169" s="7" t="s">
+      <c r="C169" s="6" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A170" s="6" t="s">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A170" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B170" s="6" t="s">
+      <c r="B170" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="C170" s="7" t="s">
+      <c r="C170" s="6" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A171" s="6" t="s">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A171" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B171" s="6" t="s">
+      <c r="B171" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="C171" s="7" t="s">
+      <c r="C171" s="6" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A172" s="6" t="s">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A172" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B172" s="6" t="s">
+      <c r="B172" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="C172" s="7" t="s">
+      <c r="C172" s="6" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A173" s="6" t="s">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A173" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B173" s="6" t="s">
+      <c r="B173" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="C173" s="7" t="s">
+      <c r="C173" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A174" s="6" t="s">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A174" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B174" s="6" t="s">
+      <c r="B174" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="C174" s="7" t="s">
+      <c r="C174" s="6" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A175" s="6" t="s">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A175" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B175" s="6" t="s">
+      <c r="B175" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="C175" s="7" t="s">
+      <c r="C175" s="6" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="176" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A176" s="6" t="s">
+    <row r="176" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A176" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B176" s="6" t="s">
+      <c r="B176" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="C176" s="7" t="s">
+      <c r="C176" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="D176" s="12"/>
-    </row>
-    <row r="177" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A177" s="6" t="s">
+      <c r="D176" s="23"/>
+      <c r="E176" s="24"/>
+      <c r="F176" s="24"/>
+      <c r="G176" s="24"/>
+      <c r="H176" s="24"/>
+    </row>
+    <row r="177" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A177" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B177" s="6" t="s">
+      <c r="B177" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="C177" s="7" t="s">
+      <c r="C177" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="D177" s="12"/>
-    </row>
-    <row r="178" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="6" t="s">
+      <c r="D177" s="23"/>
+      <c r="E177" s="24"/>
+      <c r="F177" s="24"/>
+      <c r="G177" s="24"/>
+      <c r="H177" s="24"/>
+    </row>
+    <row r="178" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A178" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="B178" s="6" t="s">
+      <c r="B178" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="C178" s="7" t="s">
+      <c r="C178" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="D178" s="12"/>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A179" s="6" t="s">
+      <c r="D178" s="23"/>
+      <c r="E178" s="24"/>
+      <c r="F178" s="24"/>
+      <c r="G178" s="24"/>
+      <c r="H178" s="24"/>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A179" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="B179" s="6" t="s">
+      <c r="B179" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="C179" s="7" t="s">
+      <c r="C179" s="6" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A180" s="6" t="s">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A180" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="B180" s="6" t="s">
+      <c r="B180" s="5" t="s">
         <v>517</v>
       </c>
-      <c r="C180" s="7" t="s">
+      <c r="C180" s="6" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A181" s="6" t="s">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A181" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="B181" s="6" t="s">
+      <c r="B181" s="5" t="s">
         <v>518</v>
       </c>
-      <c r="C181" s="7" t="s">
+      <c r="C181" s="6" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A182" s="6" t="s">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A182" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="B182" s="6" t="s">
+      <c r="B182" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="C182" s="7" t="s">
+      <c r="C182" s="6" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A183" s="6" t="s">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A183" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B183" s="6" t="s">
+      <c r="B183" s="5" t="s">
         <v>529</v>
       </c>
-      <c r="C183" s="7" t="s">
+      <c r="C183" s="6" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A184" s="6" t="s">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A184" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B184" s="6" t="s">
+      <c r="B184" s="5" t="s">
         <v>530</v>
       </c>
-      <c r="C184" s="7" t="s">
+      <c r="C184" s="6" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A185" s="6" t="s">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A185" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B185" s="6" t="s">
+      <c r="B185" s="5" t="s">
         <v>531</v>
       </c>
-      <c r="C185" s="7" t="s">
+      <c r="C185" s="6" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A186" s="6" t="s">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A186" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B186" s="6" t="s">
+      <c r="B186" s="5" t="s">
         <v>532</v>
       </c>
-      <c r="C186" s="7" t="s">
+      <c r="C186" s="6" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A187" s="6" t="s">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A187" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B187" s="6" t="s">
+      <c r="B187" s="5" t="s">
         <v>533</v>
       </c>
-      <c r="C187" s="7" t="s">
+      <c r="C187" s="6" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A188" s="6" t="s">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A188" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B188" s="6" t="s">
+      <c r="B188" s="5" t="s">
         <v>534</v>
       </c>
-      <c r="C188" s="7" t="s">
+      <c r="C188" s="6" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A189" s="6" t="s">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A189" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B189" s="6" t="s">
+      <c r="B189" s="5" t="s">
         <v>535</v>
       </c>
-      <c r="C189" s="7" t="s">
+      <c r="C189" s="6" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A190" s="6" t="s">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A190" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B190" s="6" t="s">
+      <c r="B190" s="5" t="s">
         <v>536</v>
       </c>
-      <c r="C190" s="7" t="s">
+      <c r="C190" s="6" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A191" s="6" t="s">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A191" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B191" s="6" t="s">
+      <c r="B191" s="5" t="s">
         <v>537</v>
       </c>
-      <c r="C191" s="7" t="s">
+      <c r="C191" s="6" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="192" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A192" s="6" t="s">
+    <row r="192" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A192" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B192" s="6" t="s">
+      <c r="B192" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="C192" s="7" t="s">
+      <c r="C192" s="6" t="s">
         <v>390</v>
       </c>
-      <c r="D192" s="12"/>
+      <c r="D192" s="23"/>
+      <c r="E192" s="24"/>
+      <c r="F192" s="24"/>
+      <c r="G192" s="24"/>
+      <c r="H192" s="24"/>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A193" s="6" t="s">
+      <c r="A193" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B193" s="19" t="s">
+      <c r="B193" s="17" t="s">
         <v>538</v>
       </c>
-      <c r="C193" s="7" t="s">
+      <c r="C193" s="6" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A194" s="6" t="s">
+      <c r="A194" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B194" s="6" t="s">
+      <c r="B194" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="C194" s="7" t="s">
+      <c r="C194" s="6" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A195" s="6" t="s">
+      <c r="A195" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B195" s="6" t="s">
+      <c r="B195" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="C195" s="7" t="s">
+      <c r="C195" s="6" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A196" s="6" t="s">
+      <c r="A196" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B196" s="6" t="s">
+      <c r="B196" s="5" t="s">
         <v>543</v>
       </c>
-      <c r="C196" s="7" t="s">
+      <c r="C196" s="6" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A197" s="6" t="s">
+      <c r="A197" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B197" s="6" t="s">
+      <c r="B197" s="5" t="s">
         <v>544</v>
       </c>
-      <c r="C197" s="7" t="s">
+      <c r="C197" s="6" t="s">
         <v>540</v>
       </c>
     </row>
     <row r="198" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A198" s="6" t="s">
+      <c r="A198" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B198" s="6" t="s">
+      <c r="B198" s="5" t="s">
         <v>545</v>
       </c>
-      <c r="C198" s="7" t="s">
+      <c r="C198" s="6" t="s">
         <v>541</v>
       </c>
     </row>
     <row r="199" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A199" s="6" t="s">
+      <c r="A199" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B199" s="6" t="s">
+      <c r="B199" s="5" t="s">
         <v>546</v>
       </c>
-      <c r="C199" s="7" t="s">
+      <c r="C199" s="6" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="200" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A200" s="6" t="s">
+      <c r="A200" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="B200" s="6" t="s">
+      <c r="B200" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="C200" s="7" t="s">
+      <c r="C200" s="6" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="201" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A201" s="6" t="s">
+      <c r="A201" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B201" s="6" t="s">
+      <c r="B201" s="5" t="s">
         <v>552</v>
       </c>
-      <c r="C201" s="7" t="s">
+      <c r="C201" s="6" t="s">
         <v>549</v>
       </c>
     </row>
     <row r="202" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A202" s="6" t="s">
+      <c r="A202" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B202" s="6" t="s">
+      <c r="B202" s="5" t="s">
         <v>553</v>
       </c>
-      <c r="C202" s="7" t="s">
+      <c r="C202" s="6" t="s">
         <v>548</v>
       </c>
     </row>
     <row r="203" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A203" s="6" t="s">
+      <c r="A203" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B203" s="6" t="s">
+      <c r="B203" s="5" t="s">
         <v>554</v>
       </c>
-      <c r="C203" s="7" t="s">
+      <c r="C203" s="6" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A204" s="6" t="s">
+      <c r="A204" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B204" s="6" t="s">
+      <c r="B204" s="5" t="s">
         <v>555</v>
       </c>
-      <c r="C204" s="7" t="s">
+      <c r="C204" s="6" t="s">
         <v>547</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A205" s="6" t="s">
+      <c r="A205" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B205" s="6" t="s">
+      <c r="B205" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="C205" s="7" t="s">
+      <c r="C205" s="6" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A206" s="6" t="s">
+      <c r="A206" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B206" s="6" t="s">
+      <c r="B206" s="5" t="s">
         <v>556</v>
       </c>
-      <c r="C206" s="7" t="s">
+      <c r="C206" s="6" t="s">
         <v>551</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A207" s="6" t="s">
+      <c r="A207" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B207" s="6" t="s">
+      <c r="B207" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="C207" s="7" t="s">
+      <c r="C207" s="6" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A208" s="6" t="s">
+      <c r="A208" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B208" s="6" t="s">
+      <c r="B208" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="C208" s="7" t="s">
+      <c r="C208" s="6" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A209" s="6" t="s">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A209" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B209" s="6" t="s">
+      <c r="B209" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="C209" s="7" t="s">
+      <c r="C209" s="6" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A210" s="6" t="s">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A210" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B210" s="6" t="s">
+      <c r="B210" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="C210" s="7" t="s">
+      <c r="C210" s="6" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A211" s="6" t="s">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A211" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B211" s="6" t="s">
+      <c r="B211" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="C211" s="7" t="s">
+      <c r="C211" s="6" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A212" s="6" t="s">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A212" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="B212" s="6" t="s">
+      <c r="B212" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="C212" s="7" t="s">
+      <c r="C212" s="6" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A213" s="6" t="s">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A213" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="B213" s="6" t="s">
+      <c r="B213" s="5" t="s">
         <v>374</v>
       </c>
-      <c r="C213" s="7" t="s">
+      <c r="C213" s="6" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="214" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A214" s="6" t="s">
+    <row r="214" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A214" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="B214" s="6" t="s">
+      <c r="B214" s="5" t="s">
         <v>628</v>
       </c>
-      <c r="C214" s="7" t="s">
+      <c r="C214" s="6" t="s">
         <v>557</v>
       </c>
-      <c r="D214" s="12"/>
-    </row>
-    <row r="215" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A215" s="6" t="s">
+      <c r="D214" s="23"/>
+      <c r="E214" s="24"/>
+      <c r="F214" s="24"/>
+      <c r="G214" s="24"/>
+      <c r="H214" s="24"/>
+    </row>
+    <row r="215" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A215" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="B215" s="6" t="s">
+      <c r="B215" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="C215" s="7" t="s">
+      <c r="C215" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="D215" s="12"/>
-    </row>
-    <row r="216" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A216" s="6" t="s">
+      <c r="D215" s="23"/>
+      <c r="E215" s="24"/>
+      <c r="F215" s="24"/>
+      <c r="G215" s="24"/>
+      <c r="H215" s="24"/>
+    </row>
+    <row r="216" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A216" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B216" s="6" t="s">
+      <c r="B216" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="C216" s="7" t="s">
+      <c r="C216" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="D216" s="12"/>
-    </row>
-    <row r="217" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A217" s="6" t="s">
+      <c r="D216" s="23"/>
+      <c r="E216" s="24"/>
+      <c r="F216" s="24"/>
+      <c r="G216" s="24"/>
+      <c r="H216" s="24"/>
+    </row>
+    <row r="217" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A217" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B217" s="6" t="s">
+      <c r="B217" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="C217" s="7" t="s">
+      <c r="C217" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="D217" s="12"/>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A218" s="6" t="s">
+      <c r="D217" s="23"/>
+      <c r="E217" s="24"/>
+      <c r="F217" s="24"/>
+      <c r="G217" s="24"/>
+      <c r="H217" s="24"/>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A218" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B218" s="6" t="s">
+      <c r="B218" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="C218" s="7" t="s">
+      <c r="C218" s="6" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A219" s="6" t="s">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A219" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B219" s="6" t="s">
+      <c r="B219" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="C219" s="7" t="s">
+      <c r="C219" s="6" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A220" s="6" t="s">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A220" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B220" s="6" t="s">
+      <c r="B220" s="5" t="s">
         <v>561</v>
       </c>
-      <c r="C220" s="7" t="s">
+      <c r="C220" s="6" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A221" s="6" t="s">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A221" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B221" s="6" t="s">
+      <c r="B221" s="5" t="s">
         <v>562</v>
       </c>
-      <c r="C221" s="7" t="s">
+      <c r="C221" s="6" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A222" s="6" t="s">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A222" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B222" s="6" t="s">
+      <c r="B222" s="5" t="s">
         <v>563</v>
       </c>
-      <c r="C222" s="7" t="s">
+      <c r="C222" s="6" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A223" s="6" t="s">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A223" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B223" s="6" t="s">
+      <c r="B223" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="C223" s="7" t="s">
+      <c r="C223" s="6" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A224" s="6" t="s">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A224" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B224" s="6" t="s">
+      <c r="B224" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="C224" s="7" t="s">
+      <c r="C224" s="6" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A225" s="6" t="s">
+      <c r="A225" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B225" s="6" t="s">
+      <c r="B225" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="C225" s="7" t="s">
+      <c r="C225" s="6" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A226" s="6" t="s">
+      <c r="A226" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B226" s="6" t="s">
+      <c r="B226" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="C226" s="7" t="s">
+      <c r="C226" s="6" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A227" s="6" t="s">
+      <c r="A227" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B227" s="6" t="s">
+      <c r="B227" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="C227" s="7" t="s">
+      <c r="C227" s="6" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A228" s="6" t="s">
+      <c r="A228" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B228" s="6" t="s">
+      <c r="B228" s="5" t="s">
         <v>567</v>
       </c>
-      <c r="C228" s="7" t="s">
+      <c r="C228" s="6" t="s">
         <v>564</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A229" s="6" t="s">
+      <c r="A229" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B229" s="6" t="s">
+      <c r="B229" s="5" t="s">
         <v>568</v>
       </c>
-      <c r="C229" s="7" t="s">
+      <c r="C229" s="6" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A230" s="6" t="s">
+      <c r="A230" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B230" s="6" t="s">
+      <c r="B230" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="C230" s="7" t="s">
+      <c r="C230" s="6" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A231" s="6" t="s">
+      <c r="A231" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B231" s="6" t="s">
+      <c r="B231" s="5" t="s">
         <v>629</v>
       </c>
-      <c r="C231" s="7" t="s">
+      <c r="C231" s="6" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A232" s="6" t="s">
+      <c r="A232" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B232" s="6" t="s">
+      <c r="B232" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="C232" s="7" t="s">
+      <c r="C232" s="6" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A233" s="6" t="s">
+      <c r="A233" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B233" s="6" t="s">
+      <c r="B233" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="C233" s="7" t="s">
+      <c r="C233" s="6" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A234" s="6" t="s">
+      <c r="A234" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B234" s="6" t="s">
+      <c r="B234" s="5" t="s">
         <v>576</v>
       </c>
-      <c r="C234" s="7" t="s">
+      <c r="C234" s="6" t="s">
         <v>571</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A235" s="6" t="s">
+      <c r="A235" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B235" s="6" t="s">
+      <c r="B235" s="5" t="s">
         <v>577</v>
       </c>
-      <c r="C235" s="7" t="s">
+      <c r="C235" s="6" t="s">
         <v>569</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A236" s="6" t="s">
+      <c r="A236" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B236" s="6" t="s">
+      <c r="B236" s="5" t="s">
         <v>578</v>
       </c>
-      <c r="C236" s="7" t="s">
+      <c r="C236" s="6" t="s">
         <v>572</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A237" s="6" t="s">
+      <c r="A237" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B237" s="6" t="s">
+      <c r="B237" s="5" t="s">
         <v>579</v>
       </c>
-      <c r="C237" s="7" t="s">
+      <c r="C237" s="6" t="s">
         <v>573</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A238" s="6" t="s">
+      <c r="A238" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B238" s="19" t="s">
+      <c r="B238" s="17" t="s">
         <v>580</v>
       </c>
-      <c r="C238" s="7" t="s">
+      <c r="C238" s="6" t="s">
         <v>574</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A239" s="6" t="s">
+      <c r="A239" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B239" s="6" t="s">
+      <c r="B239" s="5" t="s">
         <v>630</v>
       </c>
-      <c r="C239" s="7" t="s">
+      <c r="C239" s="6" t="s">
         <v>570</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A240" s="6" t="s">
+      <c r="A240" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B240" s="6" t="s">
+      <c r="B240" s="5" t="s">
         <v>631</v>
       </c>
-      <c r="C240" s="7" t="s">
+      <c r="C240" s="6" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A241" s="6" t="s">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A241" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B241" s="6" t="s">
+      <c r="B241" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="C241" s="7" t="s">
+      <c r="C241" s="6" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A242" s="6" t="s">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A242" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B242" s="6" t="s">
+      <c r="B242" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="C242" s="7" t="s">
+      <c r="C242" s="6" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A243" s="6" t="s">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A243" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B243" s="6" t="s">
+      <c r="B243" s="5" t="s">
         <v>441</v>
       </c>
-      <c r="C243" s="7" t="s">
+      <c r="C243" s="6" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A244" s="6" t="s">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A244" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B244" s="6" t="s">
+      <c r="B244" s="5" t="s">
         <v>584</v>
       </c>
-      <c r="C244" s="7" t="s">
+      <c r="C244" s="6" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A245" s="6" t="s">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A245" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B245" s="6" t="s">
+      <c r="B245" s="5" t="s">
         <v>632</v>
       </c>
-      <c r="C245" s="7" t="s">
+      <c r="C245" s="6" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A246" s="6" t="s">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A246" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B246" s="6" t="s">
+      <c r="B246" s="5" t="s">
         <v>633</v>
       </c>
-      <c r="C246" s="7" t="s">
+      <c r="C246" s="6" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="247" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A247" s="6" t="s">
+    <row r="247" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A247" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B247" s="6" t="s">
+      <c r="B247" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="C247" s="7" t="s">
+      <c r="C247" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="D247" s="12"/>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A248" s="6" t="s">
+      <c r="D247" s="23"/>
+      <c r="E247" s="24"/>
+      <c r="F247" s="24"/>
+      <c r="G247" s="24"/>
+      <c r="H247" s="24"/>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A248" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="B248" s="6" t="s">
+      <c r="B248" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="C248" s="7" t="s">
+      <c r="C248" s="6" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A249" s="6" t="s">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A249" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="B249" s="6" t="s">
+      <c r="B249" s="5" t="s">
         <v>588</v>
       </c>
-      <c r="C249" s="7" t="s">
+      <c r="C249" s="6" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A250" s="6" t="s">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A250" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="B250" s="6" t="s">
+      <c r="B250" s="5" t="s">
         <v>634</v>
       </c>
-      <c r="C250" s="7" t="s">
+      <c r="C250" s="6" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A251" s="6" t="s">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A251" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="B251" s="6" t="s">
+      <c r="B251" s="5" t="s">
         <v>376</v>
       </c>
-      <c r="C251" s="7" t="s">
+      <c r="C251" s="6" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="252" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A252" s="6" t="s">
+    <row r="252" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A252" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="B252" s="6" t="s">
+      <c r="B252" s="5" t="s">
         <v>589</v>
       </c>
-      <c r="C252" s="7" t="s">
+      <c r="C252" s="6" t="s">
         <v>587</v>
       </c>
-      <c r="D252" s="12"/>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A253" s="6" t="s">
+      <c r="D252" s="23"/>
+      <c r="E252" s="24"/>
+      <c r="F252" s="24"/>
+      <c r="G252" s="24"/>
+      <c r="H252" s="24"/>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A253" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B253" s="6" t="s">
+      <c r="B253" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="C253" s="7" t="s">
+      <c r="C253" s="6" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A254" s="6" t="s">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A254" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B254" s="6" t="s">
+      <c r="B254" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="C254" s="7" t="s">
+      <c r="C254" s="6" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A255" s="6" t="s">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A255" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B255" s="6" t="s">
+      <c r="B255" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="C255" s="7" t="s">
+      <c r="C255" s="6" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A256" s="6" t="s">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A256" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B256" s="6" t="s">
+      <c r="B256" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="C256" s="7" t="s">
+      <c r="C256" s="6" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A257" s="6" t="s">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A257" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B257" s="6" t="s">
+      <c r="B257" s="5" t="s">
         <v>329</v>
       </c>
-      <c r="C257" s="7" t="s">
+      <c r="C257" s="6" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A258" s="6" t="s">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A258" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B258" s="6" t="s">
+      <c r="B258" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="C258" s="7" t="s">
+      <c r="C258" s="6" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A259" s="6" t="s">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A259" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B259" s="6" t="s">
+      <c r="B259" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="C259" s="7" t="s">
+      <c r="C259" s="6" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A260" s="6" t="s">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A260" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="B260" s="6" t="s">
+      <c r="B260" s="5" t="s">
         <v>594</v>
       </c>
-      <c r="C260" s="7" t="s">
+      <c r="C260" s="6" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A261" s="6" t="s">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A261" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="B261" s="6" t="s">
+      <c r="B261" s="5" t="s">
         <v>393</v>
       </c>
-      <c r="C261" s="7" t="s">
+      <c r="C261" s="6" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A262" s="6" t="s">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A262" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="B262" s="6" t="s">
+      <c r="B262" s="5" t="s">
         <v>595</v>
       </c>
-      <c r="C262" s="7" t="s">
+      <c r="C262" s="6" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A263" s="6" t="s">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A263" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="B263" s="6" t="s">
+      <c r="B263" s="5" t="s">
         <v>596</v>
       </c>
-      <c r="C263" s="7" t="s">
+      <c r="C263" s="6" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A264" s="6" t="s">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A264" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="B264" s="6" t="s">
+      <c r="B264" s="5" t="s">
         <v>635</v>
       </c>
-      <c r="C264" s="7" t="s">
+      <c r="C264" s="6" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A265" s="6" t="s">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A265" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B265" s="6" t="s">
+      <c r="B265" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="C265" s="7" t="s">
+      <c r="C265" s="6" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="266" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A266" s="6" t="s">
+    <row r="266" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A266" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B266" s="6" t="s">
+      <c r="B266" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="C266" s="7" t="s">
+      <c r="C266" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="D266" s="12"/>
-    </row>
-    <row r="267" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A267" s="6" t="s">
+      <c r="D266" s="23"/>
+      <c r="E266" s="24"/>
+      <c r="F266" s="24"/>
+      <c r="G266" s="24"/>
+      <c r="H266" s="24"/>
+    </row>
+    <row r="267" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A267" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B267" s="6" t="s">
+      <c r="B267" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="C267" s="7" t="s">
+      <c r="C267" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="D267" s="12"/>
-    </row>
-    <row r="268" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A268" s="6" t="s">
+      <c r="D267" s="23"/>
+      <c r="E267" s="24"/>
+      <c r="F267" s="24"/>
+      <c r="G267" s="24"/>
+      <c r="H267" s="24"/>
+    </row>
+    <row r="268" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A268" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="B268" s="6" t="s">
+      <c r="B268" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="C268" s="7" t="s">
+      <c r="C268" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="D268" s="12"/>
-    </row>
-    <row r="269" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A269" s="6" t="s">
+      <c r="D268" s="23"/>
+      <c r="E268" s="24"/>
+      <c r="F268" s="24"/>
+      <c r="G268" s="24"/>
+      <c r="H268" s="24"/>
+    </row>
+    <row r="269" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A269" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B269" s="6" t="s">
+      <c r="B269" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="C269" s="7" t="s">
+      <c r="C269" s="6" t="s">
         <v>344</v>
       </c>
-      <c r="D269" s="12"/>
-    </row>
-    <row r="270" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A270" s="6" t="s">
+      <c r="D269" s="23"/>
+      <c r="E269" s="24"/>
+      <c r="F269" s="24"/>
+      <c r="G269" s="24"/>
+      <c r="H269" s="24"/>
+    </row>
+    <row r="270" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A270" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B270" s="6" t="s">
+      <c r="B270" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="C270" s="7" t="s">
+      <c r="C270" s="6" t="s">
         <v>346</v>
       </c>
-      <c r="D270" s="12"/>
-    </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A271" s="6" t="s">
+      <c r="D270" s="23"/>
+      <c r="E270" s="24"/>
+      <c r="F270" s="24"/>
+      <c r="G270" s="24"/>
+      <c r="H270" s="24"/>
+    </row>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A271" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B271" s="6" t="s">
+      <c r="B271" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="C271" s="7" t="s">
+      <c r="C271" s="6" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A272" s="6" t="s">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A272" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B272" s="6" t="s">
+      <c r="B272" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="C272" s="7" t="s">
+      <c r="C272" s="6" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A273" s="6" t="s">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A273" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B273" s="6" t="s">
+      <c r="B273" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="C273" s="7" t="s">
+      <c r="C273" s="6" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A274" s="6" t="s">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A274" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="B274" s="6" t="s">
+      <c r="B274" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="C274" s="7" t="s">
+      <c r="C274" s="6" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A275" s="6" t="s">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A275" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B275" s="6" t="s">
+      <c r="B275" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="C275" s="7" t="s">
+      <c r="C275" s="6" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A276" s="6" t="s">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A276" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B276" s="6" t="s">
+      <c r="B276" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="C276" s="7" t="s">
+      <c r="C276" s="6" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A277" s="6" t="s">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A277" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B277" s="6" t="s">
+      <c r="B277" s="5" t="s">
         <v>359</v>
       </c>
-      <c r="C277" s="7" t="s">
+      <c r="C277" s="6" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A278" s="6" t="s">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A278" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B278" s="6" t="s">
+      <c r="B278" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="C278" s="7" t="s">
+      <c r="C278" s="6" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A279" s="6" t="s">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A279" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B279" s="6" t="s">
+      <c r="B279" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="C279" s="7" t="s">
+      <c r="C279" s="6" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A280" s="6" t="s">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A280" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B280" s="6" t="s">
+      <c r="B280" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="C280" s="7" t="s">
+      <c r="C280" s="6" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A281" s="6" t="s">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A281" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B281" s="6" t="s">
+      <c r="B281" s="5" t="s">
         <v>372</v>
       </c>
-      <c r="C281" s="7" t="s">
+      <c r="C281" s="6" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A282" s="6" t="s">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A282" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B282" s="6" t="s">
+      <c r="B282" s="5" t="s">
         <v>378</v>
       </c>
-      <c r="C282" s="7" t="s">
+      <c r="C282" s="6" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A283" s="6" t="s">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A283" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B283" s="6" t="s">
+      <c r="B283" s="5" t="s">
         <v>381</v>
       </c>
-      <c r="C283" s="7" t="s">
+      <c r="C283" s="6" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="284" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A284" s="6" t="s">
+    <row r="284" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A284" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B284" s="6" t="s">
+      <c r="B284" s="5" t="s">
         <v>383</v>
       </c>
-      <c r="C284" s="7" t="s">
+      <c r="C284" s="6" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="285" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A285" s="6" t="s">
+      <c r="D284" s="9"/>
+      <c r="E284" s="9"/>
+      <c r="F284" s="9"/>
+      <c r="G284" s="9"/>
+      <c r="H284" s="9"/>
+    </row>
+    <row r="285" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A285" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B285" s="6" t="s">
+      <c r="B285" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="C285" s="7" t="s">
+      <c r="C285" s="6" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="286" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A286" s="6" t="s">
+      <c r="D285" s="9"/>
+      <c r="E285" s="9"/>
+      <c r="F285" s="9"/>
+      <c r="G285" s="9"/>
+      <c r="H285" s="9"/>
+    </row>
+    <row r="286" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A286" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B286" s="6" t="s">
+      <c r="B286" s="5" t="s">
         <v>387</v>
       </c>
-      <c r="C286" s="7" t="s">
+      <c r="C286" s="6" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="287" spans="1:3" s="8" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A287" s="6" t="s">
+      <c r="D286" s="9"/>
+      <c r="E286" s="9"/>
+      <c r="F286" s="9"/>
+      <c r="G286" s="9"/>
+      <c r="H286" s="9"/>
+    </row>
+    <row r="287" spans="1:8" s="7" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A287" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B287" s="6" t="s">
+      <c r="B287" s="5" t="s">
         <v>391</v>
       </c>
-      <c r="C287" s="7" t="s">
+      <c r="C287" s="6" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="288" spans="1:3" s="8" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A288" s="6" t="s">
+      <c r="D287" s="9"/>
+      <c r="E287" s="9"/>
+      <c r="F287" s="9"/>
+      <c r="G287" s="9"/>
+      <c r="H287" s="9"/>
+    </row>
+    <row r="288" spans="1:8" s="7" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A288" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B288" s="6" t="s">
+      <c r="B288" s="5" t="s">
         <v>395</v>
       </c>
-      <c r="C288" s="7" t="s">
+      <c r="C288" s="6" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="289" spans="1:4" s="8" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A289" s="6" t="s">
+      <c r="D288" s="9"/>
+      <c r="E288" s="9"/>
+      <c r="F288" s="9"/>
+      <c r="G288" s="9"/>
+      <c r="H288" s="9"/>
+    </row>
+    <row r="289" spans="1:8" s="7" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A289" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B289" s="6" t="s">
+      <c r="B289" s="5" t="s">
         <v>397</v>
       </c>
-      <c r="C289" s="7" t="s">
+      <c r="C289" s="6" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="290" spans="1:4" s="8" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A290" s="6" t="s">
+      <c r="D289" s="9"/>
+      <c r="E289" s="9"/>
+      <c r="F289" s="9"/>
+      <c r="G289" s="9"/>
+      <c r="H289" s="9"/>
+    </row>
+    <row r="290" spans="1:8" s="7" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A290" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B290" s="6" t="s">
+      <c r="B290" s="5" t="s">
         <v>403</v>
       </c>
-      <c r="C290" s="7" t="s">
+      <c r="C290" s="6" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="291" spans="1:4" s="8" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A291" s="6" t="s">
+      <c r="D290" s="9"/>
+      <c r="E290" s="9"/>
+      <c r="F290" s="9"/>
+      <c r="G290" s="9"/>
+      <c r="H290" s="9"/>
+    </row>
+    <row r="291" spans="1:8" s="7" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A291" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B291" s="6" t="s">
+      <c r="B291" s="5" t="s">
         <v>405</v>
       </c>
-      <c r="C291" s="7" t="s">
+      <c r="C291" s="6" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="292" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A292" s="6" t="s">
+      <c r="D291" s="9"/>
+      <c r="E291" s="9"/>
+      <c r="F291" s="9"/>
+      <c r="G291" s="9"/>
+      <c r="H291" s="9"/>
+    </row>
+    <row r="292" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A292" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B292" s="6" t="s">
+      <c r="B292" s="5" t="s">
         <v>407</v>
       </c>
-      <c r="C292" s="7" t="s">
+      <c r="C292" s="6" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="293" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A293" s="6" t="s">
+      <c r="D292" s="9"/>
+      <c r="E292" s="9"/>
+      <c r="F292" s="9"/>
+      <c r="G292" s="9"/>
+      <c r="H292" s="9"/>
+    </row>
+    <row r="293" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A293" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B293" s="6" t="s">
+      <c r="B293" s="5" t="s">
         <v>409</v>
       </c>
-      <c r="C293" s="7" t="s">
+      <c r="C293" s="6" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="294" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A294" s="6" t="s">
+      <c r="D293" s="9"/>
+      <c r="E293" s="9"/>
+      <c r="F293" s="9"/>
+      <c r="G293" s="9"/>
+      <c r="H293" s="9"/>
+    </row>
+    <row r="294" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A294" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B294" s="6" t="s">
+      <c r="B294" s="5" t="s">
         <v>411</v>
       </c>
-      <c r="C294" s="7" t="s">
+      <c r="C294" s="6" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="295" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A295" s="6" t="s">
+      <c r="D294" s="9"/>
+      <c r="E294" s="9"/>
+      <c r="F294" s="9"/>
+      <c r="G294" s="9"/>
+      <c r="H294" s="9"/>
+    </row>
+    <row r="295" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A295" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B295" s="6" t="s">
+      <c r="B295" s="5" t="s">
         <v>413</v>
       </c>
-      <c r="C295" s="7" t="s">
+      <c r="C295" s="6" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="296" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A296" s="6" t="s">
+      <c r="D295" s="9"/>
+      <c r="E295" s="9"/>
+      <c r="F295" s="9"/>
+      <c r="G295" s="9"/>
+      <c r="H295" s="9"/>
+    </row>
+    <row r="296" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A296" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B296" s="6" t="s">
+      <c r="B296" s="5" t="s">
         <v>415</v>
       </c>
-      <c r="C296" s="7" t="s">
+      <c r="C296" s="6" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="297" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A297" s="6" t="s">
+      <c r="D296" s="9"/>
+      <c r="E296" s="9"/>
+      <c r="F296" s="9"/>
+      <c r="G296" s="9"/>
+      <c r="H296" s="9"/>
+    </row>
+    <row r="297" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A297" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B297" s="6" t="s">
+      <c r="B297" s="5" t="s">
         <v>417</v>
       </c>
-      <c r="C297" s="7" t="s">
+      <c r="C297" s="6" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="298" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A298" s="6" t="s">
+      <c r="D297" s="9"/>
+      <c r="E297" s="9"/>
+      <c r="F297" s="9"/>
+      <c r="G297" s="9"/>
+      <c r="H297" s="9"/>
+    </row>
+    <row r="298" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A298" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B298" s="6" t="s">
+      <c r="B298" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="C298" s="7" t="s">
+      <c r="C298" s="6" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="299" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A299" s="6" t="s">
+      <c r="D298" s="9"/>
+      <c r="E298" s="9"/>
+      <c r="F298" s="9"/>
+      <c r="G298" s="9"/>
+      <c r="H298" s="9"/>
+    </row>
+    <row r="299" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A299" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B299" s="6" t="s">
+      <c r="B299" s="5" t="s">
         <v>421</v>
       </c>
-      <c r="C299" s="7" t="s">
+      <c r="C299" s="6" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="300" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A300" s="6" t="s">
+      <c r="D299" s="9"/>
+      <c r="E299" s="9"/>
+      <c r="F299" s="9"/>
+      <c r="G299" s="9"/>
+      <c r="H299" s="9"/>
+    </row>
+    <row r="300" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A300" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B300" s="6" t="s">
+      <c r="B300" s="5" t="s">
         <v>423</v>
       </c>
-      <c r="C300" s="7" t="s">
+      <c r="C300" s="6" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="301" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A301" s="6" t="s">
+      <c r="D300" s="9"/>
+      <c r="E300" s="9"/>
+      <c r="F300" s="9"/>
+      <c r="G300" s="9"/>
+      <c r="H300" s="9"/>
+    </row>
+    <row r="301" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A301" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B301" s="6" t="s">
+      <c r="B301" s="5" t="s">
         <v>425</v>
       </c>
-      <c r="C301" s="7" t="s">
+      <c r="C301" s="6" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="302" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A302" s="6" t="s">
+      <c r="D301" s="9"/>
+      <c r="E301" s="9"/>
+      <c r="F301" s="9"/>
+      <c r="G301" s="9"/>
+      <c r="H301" s="9"/>
+    </row>
+    <row r="302" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A302" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B302" s="6" t="s">
+      <c r="B302" s="5" t="s">
         <v>427</v>
       </c>
-      <c r="C302" s="7" t="s">
+      <c r="C302" s="6" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="303" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A303" s="6" t="s">
+      <c r="D302" s="9"/>
+      <c r="E302" s="9"/>
+      <c r="F302" s="9"/>
+      <c r="G302" s="9"/>
+      <c r="H302" s="9"/>
+    </row>
+    <row r="303" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A303" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B303" s="6" t="s">
+      <c r="B303" s="5" t="s">
         <v>429</v>
       </c>
-      <c r="C303" s="7" t="s">
+      <c r="C303" s="6" t="s">
         <v>430</v>
       </c>
-      <c r="D303" s="8"/>
-    </row>
-    <row r="304" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A304" s="6" t="s">
+    </row>
+    <row r="304" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A304" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B304" s="6" t="s">
+      <c r="B304" s="5" t="s">
         <v>431</v>
       </c>
-      <c r="C304" s="7" t="s">
+      <c r="C304" s="6" t="s">
         <v>432</v>
       </c>
-      <c r="D304" s="8"/>
-    </row>
-    <row r="305" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A305" s="6" t="s">
+    </row>
+    <row r="305" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A305" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B305" s="6" t="s">
+      <c r="B305" s="5" t="s">
         <v>433</v>
       </c>
-      <c r="C305" s="7" t="s">
+      <c r="C305" s="6" t="s">
         <v>434</v>
       </c>
-      <c r="D305" s="8"/>
-    </row>
-    <row r="306" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A306" s="6" t="s">
+    </row>
+    <row r="306" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A306" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B306" s="6" t="s">
+      <c r="B306" s="5" t="s">
         <v>435</v>
       </c>
-      <c r="C306" s="7" t="s">
+      <c r="C306" s="6" t="s">
         <v>436</v>
       </c>
-      <c r="D306" s="8"/>
-    </row>
-    <row r="307" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A307" s="6" t="s">
+    </row>
+    <row r="307" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A307" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B307" s="6" t="s">
+      <c r="B307" s="5" t="s">
         <v>437</v>
       </c>
-      <c r="C307" s="7" t="s">
+      <c r="C307" s="6" t="s">
         <v>438</v>
       </c>
-      <c r="D307" s="8"/>
-    </row>
-    <row r="308" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A308" s="6" t="s">
+    </row>
+    <row r="308" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A308" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B308" s="6" t="s">
+      <c r="B308" s="5" t="s">
         <v>439</v>
       </c>
-      <c r="C308" s="7" t="s">
+      <c r="C308" s="6" t="s">
         <v>440</v>
       </c>
-      <c r="D308" s="8"/>
-    </row>
-    <row r="309" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A309" s="6" t="s">
+    </row>
+    <row r="309" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A309" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B309" s="6" t="s">
+      <c r="B309" s="5" t="s">
         <v>443</v>
       </c>
-      <c r="C309" s="7" t="s">
+      <c r="C309" s="6" t="s">
         <v>444</v>
       </c>
-      <c r="D309" s="8"/>
-    </row>
-    <row r="310" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A310" s="6" t="s">
+    </row>
+    <row r="310" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A310" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B310" s="6" t="s">
+      <c r="B310" s="5" t="s">
         <v>445</v>
       </c>
-      <c r="C310" s="7" t="s">
+      <c r="C310" s="6" t="s">
         <v>446</v>
       </c>
-      <c r="D310" s="8"/>
-    </row>
-    <row r="311" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A311" s="6" t="s">
+    </row>
+    <row r="311" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A311" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B311" s="6" t="s">
+      <c r="B311" s="5" t="s">
         <v>447</v>
       </c>
-      <c r="C311" s="7" t="s">
+      <c r="C311" s="6" t="s">
         <v>448</v>
       </c>
-      <c r="D311" s="8"/>
-    </row>
-    <row r="312" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A312" s="6" t="s">
+    </row>
+    <row r="312" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A312" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B312" s="6" t="s">
+      <c r="B312" s="5" t="s">
         <v>449</v>
       </c>
-      <c r="C312" s="7" t="s">
+      <c r="C312" s="6" t="s">
         <v>450</v>
       </c>
-      <c r="D312" s="8"/>
-    </row>
-    <row r="313" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A313" s="6" t="s">
+    </row>
+    <row r="313" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A313" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B313" s="6" t="s">
+      <c r="B313" s="5" t="s">
         <v>451</v>
       </c>
-      <c r="C313" s="7" t="s">
+      <c r="C313" s="6" t="s">
         <v>452</v>
       </c>
-      <c r="D313" s="8"/>
-    </row>
-    <row r="314" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A314" s="6" t="s">
+    </row>
+    <row r="314" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A314" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B314" s="6" t="s">
+      <c r="B314" s="5" t="s">
         <v>453</v>
       </c>
-      <c r="C314" s="7" t="s">
+      <c r="C314" s="6" t="s">
         <v>454</v>
       </c>
-      <c r="D314" s="8"/>
-    </row>
-    <row r="315" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A315" s="6" t="s">
+    </row>
+    <row r="315" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A315" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B315" s="6" t="s">
+      <c r="B315" s="5" t="s">
         <v>636</v>
       </c>
-      <c r="C315" s="7" t="s">
+      <c r="C315" s="6" t="s">
         <v>637</v>
       </c>
-      <c r="D315" s="8"/>
-    </row>
-    <row r="316" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A316" s="6" t="s">
+    </row>
+    <row r="316" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A316" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B316" s="6" t="s">
+      <c r="B316" s="5" t="s">
         <v>638</v>
       </c>
-      <c r="C316" s="7" t="s">
+      <c r="C316" s="6" t="s">
         <v>639</v>
       </c>
-      <c r="D316" s="8"/>
-    </row>
-    <row r="317" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A317" s="6" t="s">
+    </row>
+    <row r="317" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A317" s="5" t="s">
         <v>42</v>
       </c>
       <c r="B317" t="s">
         <v>644</v>
       </c>
-      <c r="C317" s="22" t="s">
+      <c r="C317" s="19" t="s">
         <v>645</v>
       </c>
-      <c r="D317" s="8"/>
-    </row>
-    <row r="318" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A318" s="6" t="s">
+    </row>
+    <row r="318" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A318" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B318" s="6" t="s">
+      <c r="B318" s="5" t="s">
         <v>646</v>
       </c>
-      <c r="C318" s="7" t="s">
+      <c r="C318" s="6" t="s">
         <v>647</v>
       </c>
-      <c r="D318" s="8"/>
-    </row>
-    <row r="319" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A319" s="6" t="s">
+    </row>
+    <row r="319" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A319" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B319" s="6" t="s">
+      <c r="B319" s="5" t="s">
         <v>648</v>
       </c>
-      <c r="C319" s="7" t="s">
+      <c r="C319" s="6" t="s">
         <v>649</v>
       </c>
-      <c r="D319" s="8"/>
-    </row>
-    <row r="320" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A320" s="6" t="s">
+    </row>
+    <row r="320" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A320" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B320" s="6" t="s">
+      <c r="B320" s="5" t="s">
         <v>650</v>
       </c>
-      <c r="C320" s="7" t="s">
+      <c r="C320" s="6" t="s">
         <v>651</v>
       </c>
-      <c r="D320" s="8"/>
-    </row>
-    <row r="321" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A321" s="6" t="s">
+    </row>
+    <row r="321" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A321" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B321" s="6" t="s">
+      <c r="B321" s="5" t="s">
         <v>652</v>
       </c>
-      <c r="C321" s="7" t="s">
+      <c r="C321" s="6" t="s">
         <v>653</v>
       </c>
-      <c r="D321" s="8"/>
-    </row>
-    <row r="322" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A322" s="6" t="s">
+    </row>
+    <row r="322" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A322" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B322" s="6" t="s">
+      <c r="B322" s="5" t="s">
         <v>654</v>
       </c>
-      <c r="C322" s="7" t="s">
+      <c r="C322" s="6" t="s">
         <v>655</v>
       </c>
-      <c r="D322" s="8"/>
-    </row>
-    <row r="323" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A323" s="6" t="s">
+    </row>
+    <row r="323" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A323" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B323" s="6" t="s">
+      <c r="B323" s="5" t="s">
         <v>660</v>
       </c>
-      <c r="C323" s="7" t="s">
+      <c r="C323" s="6" t="s">
         <v>656</v>
       </c>
-      <c r="D323" s="8"/>
-    </row>
-    <row r="324" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A324" s="6" t="s">
+    </row>
+    <row r="324" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A324" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B324" s="19" t="s">
+      <c r="B324" s="17" t="s">
         <v>661</v>
       </c>
-      <c r="C324" s="7" t="s">
+      <c r="C324" s="6" t="s">
         <v>657</v>
       </c>
-      <c r="D324" s="8"/>
-    </row>
-    <row r="325" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A325" s="6" t="s">
+    </row>
+    <row r="325" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A325" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B325" s="6" t="s">
+      <c r="B325" s="5" t="s">
         <v>662</v>
       </c>
-      <c r="C325" s="7" t="s">
+      <c r="C325" s="6" t="s">
         <v>658</v>
       </c>
-      <c r="D325" s="8"/>
-    </row>
-    <row r="326" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A326" s="6" t="s">
+    </row>
+    <row r="326" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A326" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B326" s="6" t="s">
+      <c r="B326" s="5" t="s">
         <v>663</v>
       </c>
-      <c r="C326" s="7" t="s">
+      <c r="C326" s="6" t="s">
         <v>659</v>
       </c>
-      <c r="D326" s="8"/>
-    </row>
-    <row r="327" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A327"/>
-      <c r="B327"/>
-      <c r="C327"/>
-      <c r="D327" s="8"/>
-    </row>
-    <row r="328" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A328"/>
-      <c r="B328"/>
-      <c r="C328"/>
-      <c r="D328" s="8"/>
-    </row>
-    <row r="329" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="327" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A327" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B327" s="5" t="s">
+        <v>665</v>
+      </c>
+      <c r="C327" s="6" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A328" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B328" s="5" t="s">
+        <v>668</v>
+      </c>
+      <c r="C328" s="6" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A329"/>
       <c r="B329"/>
       <c r="C329"/>
-      <c r="D329" s="8"/>
-    </row>
-    <row r="330" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="330" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A330"/>
       <c r="B330"/>
       <c r="C330"/>
-      <c r="D330" s="8"/>
-    </row>
-    <row r="331" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="331" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A331"/>
       <c r="B331"/>
       <c r="C331"/>
-      <c r="D331" s="8"/>
-    </row>
-    <row r="332" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="332" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A332"/>
       <c r="B332"/>
       <c r="C332"/>
-      <c r="D332" s="8"/>
-    </row>
-    <row r="333" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="333" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A333"/>
       <c r="B333"/>
       <c r="C333"/>
-      <c r="D333" s="8"/>
-    </row>
-    <row r="334" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="334" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A334"/>
       <c r="B334"/>
       <c r="C334"/>
-      <c r="D334" s="8"/>
-    </row>
-    <row r="335" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="335" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A335"/>
       <c r="B335"/>
       <c r="C335"/>
-      <c r="D335" s="8"/>
-    </row>
-    <row r="336" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="336" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A336"/>
       <c r="B336"/>
       <c r="C336"/>
-      <c r="D336" s="8"/>
-    </row>
-    <row r="337" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="337" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A337"/>
       <c r="B337"/>
       <c r="C337"/>
-      <c r="D337" s="8"/>
-    </row>
-    <row r="338" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="338" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A338"/>
       <c r="B338"/>
       <c r="C338"/>
-      <c r="D338" s="8"/>
-    </row>
-    <row r="339" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="339" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A339"/>
       <c r="B339"/>
       <c r="C339"/>
-      <c r="D339" s="8"/>
-    </row>
-    <row r="340" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="340" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A340"/>
       <c r="B340"/>
       <c r="C340"/>
-      <c r="D340" s="8"/>
-    </row>
-    <row r="341" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="341" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A341"/>
       <c r="B341"/>
       <c r="C341"/>
-      <c r="D341" s="8"/>
-    </row>
-    <row r="342" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="342" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A342"/>
       <c r="B342"/>
       <c r="C342"/>
-      <c r="D342" s="8"/>
-    </row>
-    <row r="343" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D342" s="9"/>
+    </row>
+    <row r="343" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A343"/>
       <c r="B343"/>
       <c r="C343"/>
-      <c r="D343" s="8"/>
-    </row>
-    <row r="344" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D343" s="9"/>
+    </row>
+    <row r="344" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A344"/>
       <c r="B344"/>
       <c r="C344"/>
-      <c r="D344" s="8"/>
-    </row>
-    <row r="345" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D344" s="9"/>
+    </row>
+    <row r="345" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A345"/>
       <c r="B345"/>
       <c r="C345"/>
-      <c r="D345" s="8"/>
-    </row>
-    <row r="346" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D345" s="9"/>
+    </row>
+    <row r="346" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A346"/>
       <c r="B346"/>
       <c r="C346"/>
-      <c r="D346" s="8"/>
-    </row>
-    <row r="347" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D346" s="9"/>
+    </row>
+    <row r="347" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A347"/>
       <c r="B347"/>
       <c r="C347"/>
-      <c r="D347" s="8"/>
-    </row>
-    <row r="348" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D347" s="9"/>
+    </row>
+    <row r="348" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A348"/>
       <c r="B348"/>
       <c r="C348"/>
-      <c r="D348" s="8"/>
-    </row>
-    <row r="349" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D348" s="9"/>
+    </row>
+    <row r="349" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A349"/>
       <c r="B349"/>
       <c r="C349"/>
-      <c r="D349" s="8"/>
-    </row>
-    <row r="350" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D349" s="9"/>
+    </row>
+    <row r="350" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A350"/>
       <c r="B350"/>
       <c r="C350"/>
-      <c r="D350" s="8"/>
-    </row>
-    <row r="351" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D350" s="9"/>
+    </row>
+    <row r="351" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A351"/>
       <c r="B351"/>
       <c r="C351"/>
-      <c r="D351" s="8"/>
+      <c r="D351" s="9"/>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A352"/>
@@ -6860,10 +7137,13 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:C326" xr:uid="{722A4A62-F3D1-4577-AFDB-10AA26B12C9A}"/>
-  <phoneticPr fontId="10" type="noConversion"/>
-  <dataValidations count="1">
+  <phoneticPr fontId="8" type="noConversion"/>
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A1048576" xr:uid="{E352FAC8-A16C-4D2E-A882-41DD0E3D9156}">
       <formula1>"South-JB, South-Kluang, South-Melaka, South-N9, KL, Selangor, North-Ipoh, North-Perda, North-Kedah_Perlis, East-KB, East-Dungun, East-Kuantan"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{E4082EB5-1A60-8B46-9F5D-6932B4F7CD9A}">
+      <formula1>"LPC, Switching_Station, Local_Load, LSS, Power_Station, HVDC"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/powerapp/data/subs_metadata.xlsx
+++ b/powerapp/data/subs_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/externalDrive/code-gym/work/powerapp/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F69C9AC-B5E3-7042-8387-2B03085A4100}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{385E05B5-4773-BA41-96AE-B5A593310106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="34400" yWindow="620" windowWidth="34400" windowHeight="26380" xr2:uid="{955B3BBE-6EC3-4CB4-BEB6-AB762050D1CD}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="substation" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">substation!$A$1:$C$326</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">substation!$A$1:$C$328</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -2568,8 +2568,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC278235-0322-4A5E-A642-ABE48087B759}">
   <dimension ref="A1:H519"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A297" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B332" sqref="B332"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7136,7 +7137,7 @@
       <c r="A519"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C326" xr:uid="{722A4A62-F3D1-4577-AFDB-10AA26B12C9A}"/>
+  <autoFilter ref="A1:C328" xr:uid="{722A4A62-F3D1-4577-AFDB-10AA26B12C9A}"/>
   <phoneticPr fontId="8" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A1048576" xr:uid="{E352FAC8-A16C-4D2E-A882-41DD0E3D9156}">
